--- a/Log/實驗室公費記賬.xlsx
+++ b/Log/實驗室公費記賬.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="48">
   <si>
     <t>台法交流計畫款項 （以匯至老師戶頭）</t>
   </si>
@@ -153,18 +153,6 @@
     <t>榮譽→南一中</t>
   </si>
   <si>
-    <t>南一中→榮譽</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>曉錡</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>尚未給</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>IEEE CIS金費</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -175,6 +163,20 @@
   <si>
     <t>購買實驗室衛生紙</t>
     <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>開會餐點</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>曉錡</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>南一中→榮譽</t>
+  </si>
+  <si>
+    <t>杜卡勒(榮譽)</t>
   </si>
 </sst>
 </file>
@@ -1261,7 +1263,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="I18" sqref="I18:L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1465,11 +1467,12 @@
         <v>115</v>
       </c>
       <c r="D5" s="18"/>
-      <c r="E5" s="19" t="s">
-        <v>43</v>
+      <c r="E5" s="18">
+        <f>SUM(E4,-C5)</f>
+        <v>18939</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="G5" s="19" t="s">
         <v>34</v>
@@ -1477,12 +1480,10 @@
       <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="118" t="s">
-        <v>41</v>
-      </c>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
+      <c r="I5" s="118"/>
+      <c r="J5" s="119"/>
+      <c r="K5" s="119"/>
+      <c r="L5" s="120"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -1503,14 +1504,15 @@
         <v>43388</v>
       </c>
       <c r="B6" s="18" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18">
         <v>11678</v>
       </c>
       <c r="E6" s="18">
-        <v>30732</v>
+        <f>SUM(E5,D6)</f>
+        <v>30617</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>34</v>
@@ -1545,7 +1547,7 @@
         <v>43389</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C7" s="18">
         <v>1760</v>
@@ -1553,7 +1555,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="18">
         <f>SUM(E6,-C7)</f>
-        <v>28972</v>
+        <v>28857</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>34</v>
@@ -1588,7 +1590,7 @@
         <v>43396</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="C8" s="18">
         <v>215</v>
@@ -1596,7 +1598,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18">
         <f>SUM(E7,-C8)</f>
-        <v>28757</v>
+        <v>28642</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>34</v>
@@ -1639,7 +1641,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18">
         <f>SUM(E8,-C9)</f>
-        <v>28652</v>
+        <v>28537</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>34</v>
@@ -1650,12 +1652,12 @@
       <c r="H9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="J9" s="119"/>
+      <c r="K9" s="119"/>
+      <c r="L9" s="120"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -1684,7 +1686,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18">
         <f>SUM(E9,-C10)</f>
-        <v>28547</v>
+        <v>28432</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>34</v>
@@ -1696,11 +1698,11 @@
         <v>34</v>
       </c>
       <c r="I10" s="118" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="J10" s="119"/>
+      <c r="K10" s="119"/>
+      <c r="L10" s="120"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1717,14 +1719,35 @@
       <c r="Z10" s="13"/>
     </row>
     <row r="11" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="18"/>
+      <c r="A11" s="14">
+        <v>43399</v>
+      </c>
+      <c r="B11" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="18">
+        <v>600</v>
+      </c>
       <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
-      <c r="H11" s="19"/>
+      <c r="E11" s="18">
+        <f>SUM(E10,-C11)</f>
+        <v>27832</v>
+      </c>
+      <c r="F11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H11" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I11" s="118" t="s">
+        <v>47</v>
+      </c>
+      <c r="J11" s="119"/>
+      <c r="K11" s="119"/>
+      <c r="L11" s="120"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1741,14 +1764,29 @@
       <c r="Z11" s="13"/>
     </row>
     <row r="12" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="18"/>
+      <c r="A12" s="14">
+        <v>43399</v>
+      </c>
+      <c r="B12" s="18" t="s">
+        <v>37</v>
+      </c>
       <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
-      <c r="H12" s="19"/>
+      <c r="D12" s="18">
+        <v>2000</v>
+      </c>
+      <c r="E12" s="18">
+        <f>SUM(E11,D12)</f>
+        <v>29832</v>
+      </c>
+      <c r="F12" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>34</v>
+      </c>
       <c r="I12" s="118"/>
       <c r="J12" s="119"/>
       <c r="K12" s="119"/>
@@ -1769,10 +1807,10 @@
       <c r="Z12" s="13"/>
     </row>
     <row r="13" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+      <c r="A13" s="37"/>
       <c r="B13" s="18"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
+      <c r="C13" s="38"/>
+      <c r="D13" s="38"/>
       <c r="E13" s="18"/>
       <c r="F13" s="19"/>
       <c r="G13" s="19"/>
@@ -1799,8 +1837,8 @@
     <row r="14" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A14" s="37"/>
       <c r="B14" s="18"/>
-      <c r="C14" s="38"/>
-      <c r="D14" s="38"/>
+      <c r="C14" s="18"/>
+      <c r="D14" s="18"/>
       <c r="E14" s="18"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
@@ -2057,10 +2095,10 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="120"/>
+      <c r="I23" s="121"/>
+      <c r="J23" s="122"/>
+      <c r="K23" s="122"/>
+      <c r="L23" s="123"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -2077,7 +2115,7 @@
       <c r="Z23" s="13"/>
     </row>
     <row r="24" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A24" s="37"/>
+      <c r="A24" s="14"/>
       <c r="B24" s="18"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
@@ -2113,11 +2151,11 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
-      <c r="M25" s="13"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="119"/>
+      <c r="K25" s="119"/>
+      <c r="L25" s="120"/>
+      <c r="M25" s="15"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
       <c r="P25" s="13"/>
@@ -2145,7 +2183,7 @@
       <c r="J26" s="119"/>
       <c r="K26" s="119"/>
       <c r="L26" s="120"/>
-      <c r="M26" s="15"/>
+      <c r="M26" s="13"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
       <c r="P26" s="15"/>
@@ -2218,7 +2256,7 @@
     </row>
     <row r="29" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A29" s="14"/>
-      <c r="B29" s="18"/>
+      <c r="B29" s="19"/>
       <c r="C29" s="18"/>
       <c r="D29" s="18"/>
       <c r="E29" s="18"/>
@@ -2302,7 +2340,7 @@
     </row>
     <row r="32" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A32" s="14"/>
-      <c r="B32" s="19"/>
+      <c r="B32" s="18"/>
       <c r="C32" s="18"/>
       <c r="D32" s="18"/>
       <c r="E32" s="18"/>
@@ -2365,10 +2403,10 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
+      <c r="I34" s="121"/>
+      <c r="J34" s="122"/>
+      <c r="K34" s="122"/>
+      <c r="L34" s="123"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -2477,10 +2515,10 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="123"/>
+      <c r="I38" s="118"/>
+      <c r="J38" s="119"/>
+      <c r="K38" s="119"/>
+      <c r="L38" s="120"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -2554,17 +2592,17 @@
     </row>
     <row r="41" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A41" s="14"/>
-      <c r="B41" s="18"/>
+      <c r="B41" s="19"/>
       <c r="C41" s="18"/>
       <c r="D41" s="18"/>
       <c r="E41" s="18"/>
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="120"/>
+      <c r="I41" s="121"/>
+      <c r="J41" s="122"/>
+      <c r="K41" s="122"/>
+      <c r="L41" s="123"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -2582,7 +2620,7 @@
     </row>
     <row r="42" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A42" s="14"/>
-      <c r="B42" s="19"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="18"/>
       <c r="D42" s="18"/>
       <c r="E42" s="18"/>
@@ -2617,10 +2655,10 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="123"/>
+      <c r="I43" s="118"/>
+      <c r="J43" s="119"/>
+      <c r="K43" s="119"/>
+      <c r="L43" s="120"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -2722,17 +2760,17 @@
     </row>
     <row r="47" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A47" s="14"/>
-      <c r="B47" s="18"/>
+      <c r="B47" s="19"/>
       <c r="C47" s="18"/>
       <c r="D47" s="18"/>
       <c r="E47" s="18"/>
       <c r="F47" s="19"/>
       <c r="G47" s="19"/>
       <c r="H47" s="19"/>
-      <c r="I47" s="118"/>
-      <c r="J47" s="119"/>
-      <c r="K47" s="119"/>
-      <c r="L47" s="120"/>
+      <c r="I47" s="28"/>
+      <c r="J47" s="29"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="30"/>
       <c r="M47" s="13"/>
       <c r="N47" s="13"/>
       <c r="O47" s="13"/>
@@ -2778,17 +2816,17 @@
     </row>
     <row r="49" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A49" s="14"/>
-      <c r="B49" s="19"/>
+      <c r="B49" s="18"/>
       <c r="C49" s="18"/>
       <c r="D49" s="18"/>
       <c r="E49" s="18"/>
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="28"/>
-      <c r="J49" s="29"/>
-      <c r="K49" s="29"/>
-      <c r="L49" s="30"/>
+      <c r="I49" s="118"/>
+      <c r="J49" s="119"/>
+      <c r="K49" s="119"/>
+      <c r="L49" s="120"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -2807,7 +2845,7 @@
     <row r="50" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A50" s="14"/>
       <c r="B50" s="18"/>
-      <c r="C50" s="18"/>
+      <c r="C50" s="26"/>
       <c r="D50" s="18"/>
       <c r="E50" s="18"/>
       <c r="F50" s="19"/>
@@ -2835,7 +2873,7 @@
     <row r="51" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A51" s="14"/>
       <c r="B51" s="18"/>
-      <c r="C51" s="26"/>
+      <c r="C51" s="18"/>
       <c r="D51" s="18"/>
       <c r="E51" s="18"/>
       <c r="F51" s="19"/>
@@ -3030,7 +3068,7 @@
     </row>
     <row r="58" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A58" s="14"/>
-      <c r="B58" s="18"/>
+      <c r="B58" s="19"/>
       <c r="C58" s="18"/>
       <c r="D58" s="18"/>
       <c r="E58" s="18"/>
@@ -3058,7 +3096,7 @@
     </row>
     <row r="59" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A59" s="14"/>
-      <c r="B59" s="19"/>
+      <c r="B59" s="18"/>
       <c r="C59" s="18"/>
       <c r="D59" s="18"/>
       <c r="E59" s="18"/>
@@ -3170,7 +3208,7 @@
     </row>
     <row r="63" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A63" s="14"/>
-      <c r="B63" s="18"/>
+      <c r="B63" s="19"/>
       <c r="C63" s="18"/>
       <c r="D63" s="18"/>
       <c r="E63" s="18"/>
@@ -3198,8 +3236,8 @@
     </row>
     <row r="64" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A64" s="14"/>
-      <c r="B64" s="19"/>
-      <c r="C64" s="18"/>
+      <c r="B64" s="18"/>
+      <c r="C64" s="26"/>
       <c r="D64" s="18"/>
       <c r="E64" s="18"/>
       <c r="F64" s="19"/>
@@ -3227,7 +3265,7 @@
     <row r="65" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A65" s="14"/>
       <c r="B65" s="18"/>
-      <c r="C65" s="26"/>
+      <c r="C65" s="18"/>
       <c r="D65" s="18"/>
       <c r="E65" s="18"/>
       <c r="F65" s="19"/>
@@ -3289,10 +3327,10 @@
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="120"/>
+      <c r="I67" s="121"/>
+      <c r="J67" s="122"/>
+      <c r="K67" s="122"/>
+      <c r="L67" s="123"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
@@ -3345,10 +3383,10 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="121"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="123"/>
+      <c r="I69" s="118"/>
+      <c r="J69" s="119"/>
+      <c r="K69" s="119"/>
+      <c r="L69" s="120"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
@@ -3513,10 +3551,10 @@
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="119"/>
-      <c r="K75" s="119"/>
-      <c r="L75" s="120"/>
+      <c r="I75" s="121"/>
+      <c r="J75" s="122"/>
+      <c r="K75" s="122"/>
+      <c r="L75" s="123"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
@@ -3562,7 +3600,7 @@
     </row>
     <row r="77" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A77" s="14"/>
-      <c r="B77" s="18"/>
+      <c r="B77" s="19"/>
       <c r="C77" s="18"/>
       <c r="D77" s="18"/>
       <c r="E77" s="18"/>
@@ -3590,7 +3628,7 @@
     </row>
     <row r="78" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A78" s="14"/>
-      <c r="B78" s="19"/>
+      <c r="B78" s="18"/>
       <c r="C78" s="18"/>
       <c r="D78" s="18"/>
       <c r="E78" s="18"/>
@@ -3625,10 +3663,10 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="121"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="122"/>
-      <c r="L79" s="123"/>
+      <c r="I79" s="118"/>
+      <c r="J79" s="119"/>
+      <c r="K79" s="119"/>
+      <c r="L79" s="120"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -3646,17 +3684,17 @@
     </row>
     <row r="80" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A80" s="14"/>
-      <c r="B80" s="18"/>
+      <c r="B80" s="19"/>
       <c r="C80" s="18"/>
       <c r="D80" s="18"/>
       <c r="E80" s="18"/>
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="119"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="120"/>
+      <c r="I80" s="121"/>
+      <c r="J80" s="122"/>
+      <c r="K80" s="122"/>
+      <c r="L80" s="123"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -3674,7 +3712,7 @@
     </row>
     <row r="81" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A81" s="14"/>
-      <c r="B81" s="19"/>
+      <c r="B81" s="18"/>
       <c r="C81" s="18"/>
       <c r="D81" s="18"/>
       <c r="E81" s="18"/>
@@ -3702,7 +3740,7 @@
     </row>
     <row r="82" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A82" s="14"/>
-      <c r="B82" s="18"/>
+      <c r="B82" s="19"/>
       <c r="C82" s="18"/>
       <c r="D82" s="18"/>
       <c r="E82" s="18"/>
@@ -3730,7 +3768,7 @@
     </row>
     <row r="83" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A83" s="14"/>
-      <c r="B83" s="19"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="18"/>
       <c r="D83" s="18"/>
       <c r="E83" s="18"/>
@@ -3765,10 +3803,10 @@
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="122"/>
-      <c r="L84" s="123"/>
+      <c r="I84" s="118"/>
+      <c r="J84" s="119"/>
+      <c r="K84" s="119"/>
+      <c r="L84" s="120"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
@@ -3877,10 +3915,10 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="119"/>
-      <c r="K88" s="119"/>
-      <c r="L88" s="120"/>
+      <c r="I88" s="121"/>
+      <c r="J88" s="122"/>
+      <c r="K88" s="122"/>
+      <c r="L88" s="123"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
@@ -3898,7 +3936,7 @@
     </row>
     <row r="89" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A89" s="14"/>
-      <c r="B89" s="18"/>
+      <c r="B89" s="19"/>
       <c r="C89" s="18"/>
       <c r="D89" s="18"/>
       <c r="E89" s="18"/>
@@ -3926,17 +3964,17 @@
     </row>
     <row r="90" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A90" s="14"/>
-      <c r="B90" s="19"/>
+      <c r="B90" s="18"/>
       <c r="C90" s="18"/>
       <c r="D90" s="18"/>
       <c r="E90" s="18"/>
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="122"/>
-      <c r="K90" s="122"/>
-      <c r="L90" s="123"/>
+      <c r="I90" s="118"/>
+      <c r="J90" s="119"/>
+      <c r="K90" s="119"/>
+      <c r="L90" s="120"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
@@ -4129,10 +4167,10 @@
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="118"/>
-      <c r="J97" s="119"/>
-      <c r="K97" s="119"/>
-      <c r="L97" s="120"/>
+      <c r="I97" s="121"/>
+      <c r="J97" s="122"/>
+      <c r="K97" s="122"/>
+      <c r="L97" s="123"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="13"/>
@@ -4157,10 +4195,10 @@
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="118"/>
-      <c r="J98" s="119"/>
-      <c r="K98" s="119"/>
-      <c r="L98" s="120"/>
+      <c r="I98" s="121"/>
+      <c r="J98" s="122"/>
+      <c r="K98" s="122"/>
+      <c r="L98" s="123"/>
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
@@ -4206,7 +4244,7 @@
     </row>
     <row r="100" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A100" s="14"/>
-      <c r="B100" s="18"/>
+      <c r="B100" s="19"/>
       <c r="C100" s="18"/>
       <c r="D100" s="18"/>
       <c r="E100" s="18"/>
@@ -4234,7 +4272,7 @@
     </row>
     <row r="101" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A101" s="14"/>
-      <c r="B101" s="19"/>
+      <c r="B101" s="18"/>
       <c r="C101" s="18"/>
       <c r="D101" s="18"/>
       <c r="E101" s="18"/>
@@ -4269,10 +4307,10 @@
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="121"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="122"/>
-      <c r="L102" s="123"/>
+      <c r="I102" s="118"/>
+      <c r="J102" s="119"/>
+      <c r="K102" s="119"/>
+      <c r="L102" s="120"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
@@ -4353,10 +4391,10 @@
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="121"/>
-      <c r="J105" s="122"/>
-      <c r="K105" s="122"/>
-      <c r="L105" s="123"/>
+      <c r="I105" s="118"/>
+      <c r="J105" s="119"/>
+      <c r="K105" s="119"/>
+      <c r="L105" s="120"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
@@ -4381,10 +4419,10 @@
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
-      <c r="I106" s="118"/>
-      <c r="J106" s="119"/>
-      <c r="K106" s="119"/>
-      <c r="L106" s="120"/>
+      <c r="I106" s="121"/>
+      <c r="J106" s="122"/>
+      <c r="K106" s="122"/>
+      <c r="L106" s="123"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
@@ -4437,10 +4475,10 @@
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="121"/>
-      <c r="J108" s="122"/>
-      <c r="K108" s="122"/>
-      <c r="L108" s="123"/>
+      <c r="I108" s="118"/>
+      <c r="J108" s="119"/>
+      <c r="K108" s="119"/>
+      <c r="L108" s="120"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
       <c r="O108" s="13"/>
@@ -4458,7 +4496,7 @@
     </row>
     <row r="109" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A109" s="14"/>
-      <c r="B109" s="18"/>
+      <c r="B109" s="19"/>
       <c r="C109" s="18"/>
       <c r="D109" s="18"/>
       <c r="E109" s="18"/>
@@ -4493,10 +4531,10 @@
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="118"/>
-      <c r="J110" s="119"/>
-      <c r="K110" s="119"/>
-      <c r="L110" s="120"/>
+      <c r="I110" s="121"/>
+      <c r="J110" s="122"/>
+      <c r="K110" s="122"/>
+      <c r="L110" s="123"/>
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
       <c r="O110" s="13"/>
@@ -4514,7 +4552,7 @@
     </row>
     <row r="111" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A111" s="14"/>
-      <c r="B111" s="19"/>
+      <c r="B111" s="18"/>
       <c r="C111" s="18"/>
       <c r="D111" s="18"/>
       <c r="E111" s="18"/>
@@ -4549,10 +4587,10 @@
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="121"/>
-      <c r="J112" s="122"/>
-      <c r="K112" s="122"/>
-      <c r="L112" s="123"/>
+      <c r="I112" s="118"/>
+      <c r="J112" s="119"/>
+      <c r="K112" s="119"/>
+      <c r="L112" s="120"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
       <c r="O112" s="13"/>
@@ -4577,10 +4615,10 @@
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
-      <c r="I113" s="118"/>
-      <c r="J113" s="119"/>
-      <c r="K113" s="119"/>
-      <c r="L113" s="120"/>
+      <c r="I113" s="121"/>
+      <c r="J113" s="122"/>
+      <c r="K113" s="122"/>
+      <c r="L113" s="123"/>
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
       <c r="O113" s="13"/>
@@ -4598,17 +4636,17 @@
     </row>
     <row r="114" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A114" s="14"/>
-      <c r="B114" s="18"/>
+      <c r="B114" s="19"/>
       <c r="C114" s="18"/>
       <c r="D114" s="18"/>
       <c r="E114" s="18"/>
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="118"/>
-      <c r="J114" s="119"/>
-      <c r="K114" s="119"/>
-      <c r="L114" s="120"/>
+      <c r="I114" s="121"/>
+      <c r="J114" s="122"/>
+      <c r="K114" s="122"/>
+      <c r="L114" s="123"/>
       <c r="M114" s="13"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13"/>
@@ -4654,17 +4692,17 @@
     </row>
     <row r="116" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A116" s="14"/>
-      <c r="B116" s="19"/>
+      <c r="B116" s="18"/>
       <c r="C116" s="18"/>
       <c r="D116" s="18"/>
       <c r="E116" s="18"/>
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="121"/>
-      <c r="J116" s="122"/>
-      <c r="K116" s="122"/>
-      <c r="L116" s="123"/>
+      <c r="I116" s="118"/>
+      <c r="J116" s="119"/>
+      <c r="K116" s="119"/>
+      <c r="L116" s="120"/>
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
@@ -4682,17 +4720,17 @@
     </row>
     <row r="117" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A117" s="14"/>
-      <c r="B117" s="18"/>
+      <c r="B117" s="19"/>
       <c r="C117" s="18"/>
       <c r="D117" s="18"/>
       <c r="E117" s="18"/>
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="121"/>
-      <c r="J117" s="122"/>
-      <c r="K117" s="122"/>
-      <c r="L117" s="123"/>
+      <c r="I117" s="118"/>
+      <c r="J117" s="119"/>
+      <c r="K117" s="119"/>
+      <c r="L117" s="120"/>
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
@@ -4710,17 +4748,17 @@
     </row>
     <row r="118" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A118" s="14"/>
-      <c r="B118" s="19"/>
+      <c r="B118" s="18"/>
       <c r="C118" s="18"/>
       <c r="D118" s="18"/>
       <c r="E118" s="18"/>
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="118"/>
-      <c r="J118" s="119"/>
-      <c r="K118" s="119"/>
-      <c r="L118" s="120"/>
+      <c r="I118" s="121"/>
+      <c r="J118" s="122"/>
+      <c r="K118" s="122"/>
+      <c r="L118" s="123"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
@@ -4738,17 +4776,17 @@
     </row>
     <row r="119" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A119" s="14"/>
-      <c r="B119" s="18"/>
+      <c r="B119" s="19"/>
       <c r="C119" s="18"/>
       <c r="D119" s="18"/>
       <c r="E119" s="18"/>
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
-      <c r="I119" s="118"/>
-      <c r="J119" s="119"/>
-      <c r="K119" s="119"/>
-      <c r="L119" s="120"/>
+      <c r="I119" s="128"/>
+      <c r="J119" s="129"/>
+      <c r="K119" s="129"/>
+      <c r="L119" s="130"/>
       <c r="M119" s="13"/>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
@@ -4765,18 +4803,18 @@
       <c r="Z119" s="13"/>
     </row>
     <row r="120" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A120" s="14"/>
-      <c r="B120" s="19"/>
-      <c r="C120" s="18"/>
-      <c r="D120" s="18"/>
+      <c r="A120" s="17"/>
+      <c r="B120" s="21"/>
+      <c r="C120" s="22"/>
+      <c r="D120" s="22"/>
       <c r="E120" s="18"/>
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
-      <c r="I120" s="121"/>
-      <c r="J120" s="122"/>
-      <c r="K120" s="122"/>
-      <c r="L120" s="123"/>
+      <c r="I120" s="128"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="129"/>
+      <c r="L120" s="130"/>
       <c r="M120" s="13"/>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
@@ -4801,10 +4839,10 @@
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="128"/>
-      <c r="J121" s="129"/>
-      <c r="K121" s="129"/>
-      <c r="L121" s="130"/>
+      <c r="I121" s="124"/>
+      <c r="J121" s="125"/>
+      <c r="K121" s="125"/>
+      <c r="L121" s="126"/>
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
@@ -4822,7 +4860,7 @@
     </row>
     <row r="122" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A122" s="17"/>
-      <c r="B122" s="21"/>
+      <c r="B122" s="18"/>
       <c r="C122" s="22"/>
       <c r="D122" s="22"/>
       <c r="E122" s="18"/>
@@ -4850,7 +4888,7 @@
     </row>
     <row r="123" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A123" s="17"/>
-      <c r="B123" s="18"/>
+      <c r="B123" s="19"/>
       <c r="C123" s="22"/>
       <c r="D123" s="22"/>
       <c r="E123" s="18"/>
@@ -4878,17 +4916,17 @@
     </row>
     <row r="124" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A124" s="17"/>
-      <c r="B124" s="19"/>
+      <c r="B124" s="21"/>
       <c r="C124" s="22"/>
       <c r="D124" s="22"/>
       <c r="E124" s="18"/>
-      <c r="F124" s="19"/>
+      <c r="F124" s="21"/>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="128"/>
-      <c r="J124" s="129"/>
-      <c r="K124" s="129"/>
-      <c r="L124" s="130"/>
+      <c r="I124" s="124"/>
+      <c r="J124" s="125"/>
+      <c r="K124" s="125"/>
+      <c r="L124" s="126"/>
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
@@ -4906,17 +4944,17 @@
     </row>
     <row r="125" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A125" s="17"/>
-      <c r="B125" s="21"/>
+      <c r="B125" s="20"/>
       <c r="C125" s="22"/>
-      <c r="D125" s="22"/>
+      <c r="D125" s="23"/>
       <c r="E125" s="18"/>
-      <c r="F125" s="21"/>
+      <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="124"/>
-      <c r="J125" s="125"/>
-      <c r="K125" s="125"/>
-      <c r="L125" s="126"/>
+      <c r="I125" s="128"/>
+      <c r="J125" s="129"/>
+      <c r="K125" s="129"/>
+      <c r="L125" s="130"/>
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
@@ -4934,9 +4972,9 @@
     </row>
     <row r="126" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A126" s="17"/>
-      <c r="B126" s="20"/>
+      <c r="B126" s="21"/>
       <c r="C126" s="22"/>
-      <c r="D126" s="23"/>
+      <c r="D126" s="22"/>
       <c r="E126" s="18"/>
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
@@ -4969,10 +5007,10 @@
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="128"/>
-      <c r="J127" s="129"/>
-      <c r="K127" s="129"/>
-      <c r="L127" s="130"/>
+      <c r="I127" s="124"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="125"/>
+      <c r="L127" s="126"/>
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
@@ -4990,17 +5028,17 @@
     </row>
     <row r="128" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A128" s="17"/>
-      <c r="B128" s="21"/>
+      <c r="B128" s="19"/>
       <c r="C128" s="22"/>
       <c r="D128" s="22"/>
       <c r="E128" s="18"/>
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
-      <c r="I128" s="124"/>
-      <c r="J128" s="125"/>
-      <c r="K128" s="125"/>
-      <c r="L128" s="126"/>
+      <c r="I128" s="128"/>
+      <c r="J128" s="129"/>
+      <c r="K128" s="129"/>
+      <c r="L128" s="130"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
@@ -5046,11 +5084,11 @@
     </row>
     <row r="130" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A130" s="17"/>
-      <c r="B130" s="19"/>
+      <c r="B130" s="21"/>
       <c r="C130" s="22"/>
       <c r="D130" s="22"/>
       <c r="E130" s="18"/>
-      <c r="F130" s="19"/>
+      <c r="F130" s="21"/>
       <c r="G130" s="19"/>
       <c r="H130" s="19"/>
       <c r="I130" s="128"/>
@@ -5078,7 +5116,7 @@
       <c r="C131" s="22"/>
       <c r="D131" s="22"/>
       <c r="E131" s="18"/>
-      <c r="F131" s="21"/>
+      <c r="F131" s="19"/>
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
       <c r="I131" s="124"/>
@@ -5137,10 +5175,10 @@
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
-      <c r="I133" s="124"/>
-      <c r="J133" s="125"/>
-      <c r="K133" s="125"/>
-      <c r="L133" s="126"/>
+      <c r="I133" s="128"/>
+      <c r="J133" s="129"/>
+      <c r="K133" s="129"/>
+      <c r="L133" s="130"/>
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
@@ -5186,7 +5224,7 @@
     </row>
     <row r="135" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A135" s="17"/>
-      <c r="B135" s="21"/>
+      <c r="B135" s="18"/>
       <c r="C135" s="22"/>
       <c r="D135" s="22"/>
       <c r="E135" s="18"/>
@@ -5216,7 +5254,6 @@
       <c r="A136" s="17"/>
       <c r="B136" s="18"/>
       <c r="C136" s="22"/>
-      <c r="D136" s="22"/>
       <c r="E136" s="18"/>
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
@@ -5242,11 +5279,12 @@
     </row>
     <row r="137" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A137" s="17"/>
-      <c r="B137" s="18"/>
+      <c r="B137" s="20"/>
       <c r="C137" s="22"/>
+      <c r="D137" s="23"/>
       <c r="E137" s="18"/>
       <c r="F137" s="19"/>
-      <c r="G137" s="19"/>
+      <c r="G137" s="21"/>
       <c r="H137" s="19"/>
       <c r="I137" s="128"/>
       <c r="J137" s="129"/>
@@ -5269,12 +5307,12 @@
     </row>
     <row r="138" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A138" s="17"/>
-      <c r="B138" s="20"/>
+      <c r="B138" s="18"/>
       <c r="C138" s="22"/>
-      <c r="D138" s="23"/>
+      <c r="D138" s="22"/>
       <c r="E138" s="18"/>
       <c r="F138" s="19"/>
-      <c r="G138" s="21"/>
+      <c r="G138" s="19"/>
       <c r="H138" s="19"/>
       <c r="I138" s="128"/>
       <c r="J138" s="129"/>
@@ -5325,9 +5363,9 @@
     </row>
     <row r="140" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A140" s="17"/>
-      <c r="B140" s="18"/>
-      <c r="C140" s="22"/>
-      <c r="D140" s="22"/>
+      <c r="B140" s="19"/>
+      <c r="C140" s="40"/>
+      <c r="D140" s="18"/>
       <c r="E140" s="18"/>
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
@@ -5354,16 +5392,16 @@
     <row r="141" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A141" s="17"/>
       <c r="B141" s="19"/>
-      <c r="C141" s="40"/>
+      <c r="C141" s="22"/>
       <c r="D141" s="18"/>
       <c r="E141" s="18"/>
       <c r="F141" s="19"/>
-      <c r="G141" s="19"/>
+      <c r="G141" s="21"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="128"/>
-      <c r="J141" s="129"/>
-      <c r="K141" s="129"/>
-      <c r="L141" s="130"/>
+      <c r="I141" s="121"/>
+      <c r="J141" s="122"/>
+      <c r="K141" s="122"/>
+      <c r="L141" s="123"/>
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
       <c r="O141" s="13"/>
@@ -5381,17 +5419,17 @@
     </row>
     <row r="142" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A142" s="17"/>
-      <c r="B142" s="19"/>
-      <c r="C142" s="22"/>
+      <c r="B142" s="18"/>
+      <c r="C142" s="18"/>
       <c r="D142" s="18"/>
       <c r="E142" s="18"/>
       <c r="F142" s="19"/>
-      <c r="G142" s="21"/>
+      <c r="G142" s="19"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="128"/>
-      <c r="J142" s="129"/>
-      <c r="K142" s="129"/>
-      <c r="L142" s="130"/>
+      <c r="I142" s="118"/>
+      <c r="J142" s="119"/>
+      <c r="K142" s="119"/>
+      <c r="L142" s="120"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
@@ -5409,7 +5447,7 @@
     </row>
     <row r="143" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A143" s="17"/>
-      <c r="B143" s="18"/>
+      <c r="B143" s="19"/>
       <c r="C143" s="18"/>
       <c r="D143" s="18"/>
       <c r="E143" s="18"/>
@@ -5442,12 +5480,12 @@
       <c r="D144" s="18"/>
       <c r="E144" s="18"/>
       <c r="F144" s="19"/>
-      <c r="G144" s="19"/>
+      <c r="G144" s="21"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="118"/>
-      <c r="J144" s="119"/>
-      <c r="K144" s="119"/>
-      <c r="L144" s="120"/>
+      <c r="I144" s="121"/>
+      <c r="J144" s="122"/>
+      <c r="K144" s="122"/>
+      <c r="L144" s="123"/>
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
       <c r="O144" s="13"/>
@@ -5470,7 +5508,7 @@
       <c r="D145" s="18"/>
       <c r="E145" s="18"/>
       <c r="F145" s="19"/>
-      <c r="G145" s="21"/>
+      <c r="G145" s="19"/>
       <c r="H145" s="19"/>
       <c r="I145" s="121"/>
       <c r="J145" s="122"/>
@@ -5528,10 +5566,10 @@
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="121"/>
-      <c r="J147" s="122"/>
-      <c r="K147" s="122"/>
-      <c r="L147" s="123"/>
+      <c r="I147" s="118"/>
+      <c r="J147" s="119"/>
+      <c r="K147" s="119"/>
+      <c r="L147" s="120"/>
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
       <c r="O147" s="13"/>
@@ -5577,17 +5615,17 @@
     </row>
     <row r="149" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A149" s="17"/>
-      <c r="B149" s="19"/>
+      <c r="B149" s="20"/>
       <c r="C149" s="18"/>
-      <c r="D149" s="18"/>
+      <c r="D149" s="23"/>
       <c r="E149" s="18"/>
       <c r="F149" s="19"/>
-      <c r="G149" s="19"/>
+      <c r="G149" s="21"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="118"/>
-      <c r="J149" s="119"/>
-      <c r="K149" s="119"/>
-      <c r="L149" s="120"/>
+      <c r="I149" s="121"/>
+      <c r="J149" s="122"/>
+      <c r="K149" s="122"/>
+      <c r="L149" s="123"/>
       <c r="M149" s="13"/>
       <c r="N149" s="13"/>
       <c r="O149" s="13"/>
@@ -5605,12 +5643,12 @@
     </row>
     <row r="150" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A150" s="17"/>
-      <c r="B150" s="20"/>
+      <c r="B150" s="18"/>
       <c r="C150" s="18"/>
-      <c r="D150" s="23"/>
+      <c r="D150" s="18"/>
       <c r="E150" s="18"/>
       <c r="F150" s="19"/>
-      <c r="G150" s="21"/>
+      <c r="G150" s="19"/>
       <c r="H150" s="19"/>
       <c r="I150" s="121"/>
       <c r="J150" s="122"/>
@@ -5633,17 +5671,17 @@
     </row>
     <row r="151" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A151" s="17"/>
-      <c r="B151" s="18"/>
+      <c r="B151" s="19"/>
       <c r="C151" s="18"/>
       <c r="D151" s="18"/>
       <c r="E151" s="18"/>
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="121"/>
-      <c r="J151" s="122"/>
-      <c r="K151" s="122"/>
-      <c r="L151" s="123"/>
+      <c r="I151" s="118"/>
+      <c r="J151" s="119"/>
+      <c r="K151" s="119"/>
+      <c r="L151" s="120"/>
       <c r="M151" s="13"/>
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
@@ -5661,7 +5699,7 @@
     </row>
     <row r="152" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A152" s="17"/>
-      <c r="B152" s="19"/>
+      <c r="B152" s="18"/>
       <c r="C152" s="18"/>
       <c r="D152" s="18"/>
       <c r="E152" s="18"/>
@@ -5688,8 +5726,8 @@
       <c r="Z152" s="13"/>
     </row>
     <row r="153" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A153" s="17"/>
-      <c r="B153" s="18"/>
+      <c r="A153" s="14"/>
+      <c r="B153" s="19"/>
       <c r="C153" s="18"/>
       <c r="D153" s="18"/>
       <c r="E153" s="18"/>
@@ -5717,17 +5755,17 @@
     </row>
     <row r="154" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A154" s="14"/>
-      <c r="B154" s="19"/>
+      <c r="B154" s="18"/>
       <c r="C154" s="18"/>
       <c r="D154" s="18"/>
       <c r="E154" s="18"/>
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
-      <c r="I154" s="121"/>
-      <c r="J154" s="122"/>
-      <c r="K154" s="122"/>
-      <c r="L154" s="123"/>
+      <c r="I154" s="118"/>
+      <c r="J154" s="119"/>
+      <c r="K154" s="119"/>
+      <c r="L154" s="120"/>
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
       <c r="O154" s="13"/>
@@ -5745,17 +5783,17 @@
     </row>
     <row r="155" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A155" s="14"/>
-      <c r="B155" s="18"/>
+      <c r="B155" s="19"/>
       <c r="C155" s="18"/>
       <c r="D155" s="18"/>
       <c r="E155" s="18"/>
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
-      <c r="I155" s="118"/>
-      <c r="J155" s="119"/>
-      <c r="K155" s="119"/>
-      <c r="L155" s="120"/>
+      <c r="I155" s="121"/>
+      <c r="J155" s="122"/>
+      <c r="K155" s="122"/>
+      <c r="L155" s="123"/>
       <c r="M155" s="13"/>
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
@@ -5780,10 +5818,10 @@
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="118"/>
-      <c r="J156" s="119"/>
-      <c r="K156" s="119"/>
-      <c r="L156" s="120"/>
+      <c r="I156" s="121"/>
+      <c r="J156" s="122"/>
+      <c r="K156" s="122"/>
+      <c r="L156" s="123"/>
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
@@ -5885,7 +5923,7 @@
     </row>
     <row r="160" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A160" s="14"/>
-      <c r="B160" s="19"/>
+      <c r="B160" s="18"/>
       <c r="C160" s="18"/>
       <c r="D160" s="18"/>
       <c r="E160" s="18"/>
@@ -5913,7 +5951,7 @@
     </row>
     <row r="161" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A161" s="14"/>
-      <c r="B161" s="18"/>
+      <c r="B161" s="19"/>
       <c r="C161" s="18"/>
       <c r="D161" s="18"/>
       <c r="E161" s="18"/>
@@ -5948,10 +5986,10 @@
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
-      <c r="I162" s="121"/>
-      <c r="J162" s="122"/>
-      <c r="K162" s="122"/>
-      <c r="L162" s="123"/>
+      <c r="I162" s="118"/>
+      <c r="J162" s="119"/>
+      <c r="K162" s="119"/>
+      <c r="L162" s="120"/>
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
@@ -6004,10 +6042,10 @@
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
-      <c r="I164" s="118"/>
-      <c r="J164" s="119"/>
-      <c r="K164" s="119"/>
-      <c r="L164" s="120"/>
+      <c r="I164" s="121"/>
+      <c r="J164" s="122"/>
+      <c r="K164" s="122"/>
+      <c r="L164" s="123"/>
       <c r="M164" s="13"/>
       <c r="N164" s="13"/>
       <c r="O164" s="13"/>
@@ -6032,10 +6070,10 @@
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
-      <c r="I165" s="121"/>
-      <c r="J165" s="122"/>
-      <c r="K165" s="122"/>
-      <c r="L165" s="123"/>
+      <c r="I165" s="118"/>
+      <c r="J165" s="119"/>
+      <c r="K165" s="119"/>
+      <c r="L165" s="120"/>
       <c r="M165" s="13"/>
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
@@ -6116,10 +6154,10 @@
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
-      <c r="I168" s="121"/>
-      <c r="J168" s="122"/>
-      <c r="K168" s="122"/>
-      <c r="L168" s="123"/>
+      <c r="I168" s="118"/>
+      <c r="J168" s="119"/>
+      <c r="K168" s="119"/>
+      <c r="L168" s="120"/>
       <c r="M168" s="13"/>
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
@@ -6200,10 +6238,10 @@
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
-      <c r="I171" s="118"/>
-      <c r="J171" s="119"/>
-      <c r="K171" s="119"/>
-      <c r="L171" s="120"/>
+      <c r="I171" s="121"/>
+      <c r="J171" s="122"/>
+      <c r="K171" s="122"/>
+      <c r="L171" s="123"/>
       <c r="M171" s="13"/>
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
@@ -6284,10 +6322,10 @@
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
-      <c r="I174" s="118"/>
-      <c r="J174" s="119"/>
-      <c r="K174" s="119"/>
-      <c r="L174" s="120"/>
+      <c r="I174" s="121"/>
+      <c r="J174" s="122"/>
+      <c r="K174" s="122"/>
+      <c r="L174" s="123"/>
       <c r="M174" s="13"/>
       <c r="N174" s="13"/>
       <c r="O174" s="13"/>
@@ -6333,7 +6371,7 @@
     </row>
     <row r="176" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A176" s="14"/>
-      <c r="B176" s="19"/>
+      <c r="B176" s="18"/>
       <c r="C176" s="18"/>
       <c r="D176" s="18"/>
       <c r="E176" s="18"/>
@@ -6361,17 +6399,17 @@
     </row>
     <row r="177" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A177" s="14"/>
-      <c r="B177" s="18"/>
+      <c r="B177" s="19"/>
       <c r="C177" s="18"/>
       <c r="D177" s="18"/>
       <c r="E177" s="18"/>
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
-      <c r="I177" s="121"/>
-      <c r="J177" s="122"/>
-      <c r="K177" s="122"/>
-      <c r="L177" s="123"/>
+      <c r="I177" s="118"/>
+      <c r="J177" s="119"/>
+      <c r="K177" s="119"/>
+      <c r="L177" s="120"/>
       <c r="M177" s="13"/>
       <c r="N177" s="13"/>
       <c r="O177" s="13"/>
@@ -6424,10 +6462,10 @@
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19"/>
-      <c r="I179" s="118"/>
-      <c r="J179" s="119"/>
-      <c r="K179" s="119"/>
-      <c r="L179" s="120"/>
+      <c r="I179" s="127"/>
+      <c r="J179" s="127"/>
+      <c r="K179" s="127"/>
+      <c r="L179" s="127"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
@@ -6444,18 +6482,18 @@
       <c r="Z179" s="13"/>
     </row>
     <row r="180" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A180" s="14"/>
-      <c r="B180" s="19"/>
-      <c r="C180" s="18"/>
-      <c r="D180" s="18"/>
-      <c r="E180" s="18"/>
-      <c r="F180" s="19"/>
-      <c r="G180" s="19"/>
-      <c r="H180" s="19"/>
-      <c r="I180" s="121"/>
-      <c r="J180" s="122"/>
-      <c r="K180" s="122"/>
-      <c r="L180" s="123"/>
+      <c r="A180" s="95"/>
+      <c r="B180" s="95"/>
+      <c r="C180" s="95"/>
+      <c r="D180" s="95"/>
+      <c r="E180" s="95"/>
+      <c r="F180" s="95"/>
+      <c r="G180" s="95"/>
+      <c r="H180" s="95"/>
+      <c r="I180" s="118"/>
+      <c r="J180" s="119"/>
+      <c r="K180" s="119"/>
+      <c r="L180" s="120"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
       <c r="O180" s="13"/>
@@ -6471,19 +6509,19 @@
       <c r="Y180" s="13"/>
       <c r="Z180" s="13"/>
     </row>
-    <row r="181" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A181" s="95"/>
-      <c r="B181" s="95"/>
-      <c r="C181" s="95"/>
-      <c r="D181" s="95"/>
-      <c r="E181" s="95"/>
-      <c r="F181" s="95"/>
-      <c r="G181" s="95"/>
-      <c r="H181" s="95"/>
-      <c r="I181" s="127"/>
-      <c r="J181" s="127"/>
-      <c r="K181" s="127"/>
-      <c r="L181" s="127"/>
+    <row r="181" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A181" s="14"/>
+      <c r="B181" s="19"/>
+      <c r="C181" s="18"/>
+      <c r="D181" s="18"/>
+      <c r="E181" s="18"/>
+      <c r="F181" s="19"/>
+      <c r="G181" s="19"/>
+      <c r="H181" s="19"/>
+      <c r="I181" s="118"/>
+      <c r="J181" s="119"/>
+      <c r="K181" s="119"/>
+      <c r="L181" s="120"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
@@ -6508,10 +6546,10 @@
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
-      <c r="I182" s="118"/>
-      <c r="J182" s="119"/>
-      <c r="K182" s="119"/>
-      <c r="L182" s="120"/>
+      <c r="I182" s="121"/>
+      <c r="J182" s="122"/>
+      <c r="K182" s="122"/>
+      <c r="L182" s="123"/>
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
@@ -6529,17 +6567,17 @@
     </row>
     <row r="183" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A183" s="14"/>
-      <c r="B183" s="19"/>
+      <c r="B183" s="95"/>
       <c r="C183" s="18"/>
-      <c r="D183" s="18"/>
+      <c r="D183" s="23"/>
       <c r="E183" s="18"/>
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
-      <c r="I183" s="118"/>
-      <c r="J183" s="119"/>
-      <c r="K183" s="119"/>
-      <c r="L183" s="120"/>
+      <c r="I183" s="121"/>
+      <c r="J183" s="122"/>
+      <c r="K183" s="122"/>
+      <c r="L183" s="123"/>
       <c r="M183" s="13"/>
       <c r="N183" s="13"/>
       <c r="O183" s="13"/>
@@ -6557,9 +6595,9 @@
     </row>
     <row r="184" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A184" s="14"/>
-      <c r="B184" s="95"/>
+      <c r="B184" s="19"/>
       <c r="C184" s="18"/>
-      <c r="D184" s="23"/>
+      <c r="D184" s="18"/>
       <c r="E184" s="18"/>
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
@@ -6620,10 +6658,10 @@
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
-      <c r="I186" s="121"/>
-      <c r="J186" s="122"/>
-      <c r="K186" s="122"/>
-      <c r="L186" s="123"/>
+      <c r="I186" s="118"/>
+      <c r="J186" s="119"/>
+      <c r="K186" s="119"/>
+      <c r="L186" s="120"/>
       <c r="M186" s="13"/>
       <c r="N186" s="13"/>
       <c r="O186" s="13"/>
@@ -6669,17 +6707,17 @@
     </row>
     <row r="188" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A188" s="14"/>
-      <c r="B188" s="19"/>
+      <c r="B188" s="20"/>
       <c r="C188" s="18"/>
-      <c r="D188" s="18"/>
+      <c r="D188" s="23"/>
       <c r="E188" s="18"/>
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
       <c r="H188" s="19"/>
-      <c r="I188" s="118"/>
-      <c r="J188" s="119"/>
-      <c r="K188" s="119"/>
-      <c r="L188" s="120"/>
+      <c r="I188" s="121"/>
+      <c r="J188" s="122"/>
+      <c r="K188" s="122"/>
+      <c r="L188" s="123"/>
       <c r="M188" s="13"/>
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
@@ -6697,9 +6735,9 @@
     </row>
     <row r="189" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A189" s="14"/>
-      <c r="B189" s="20"/>
+      <c r="B189" s="19"/>
       <c r="C189" s="18"/>
-      <c r="D189" s="23"/>
+      <c r="D189" s="18"/>
       <c r="E189" s="18"/>
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
@@ -6753,9 +6791,9 @@
     </row>
     <row r="191" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A191" s="14"/>
-      <c r="B191" s="19"/>
+      <c r="B191" s="20"/>
       <c r="C191" s="18"/>
-      <c r="D191" s="18"/>
+      <c r="D191" s="23"/>
       <c r="E191" s="18"/>
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
@@ -6781,9 +6819,9 @@
     </row>
     <row r="192" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A192" s="14"/>
-      <c r="B192" s="20"/>
+      <c r="B192" s="19"/>
       <c r="C192" s="18"/>
-      <c r="D192" s="23"/>
+      <c r="D192" s="18"/>
       <c r="E192" s="18"/>
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
@@ -6837,9 +6875,9 @@
     </row>
     <row r="194" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A194" s="14"/>
-      <c r="B194" s="19"/>
+      <c r="B194" s="20"/>
       <c r="C194" s="18"/>
-      <c r="D194" s="18"/>
+      <c r="D194" s="23"/>
       <c r="E194" s="18"/>
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
@@ -6865,9 +6903,9 @@
     </row>
     <row r="195" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A195" s="14"/>
-      <c r="B195" s="20"/>
+      <c r="B195" s="19"/>
       <c r="C195" s="18"/>
-      <c r="D195" s="23"/>
+      <c r="D195" s="18"/>
       <c r="E195" s="18"/>
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
@@ -7180,10 +7218,10 @@
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
       <c r="H206" s="19"/>
-      <c r="I206" s="121"/>
-      <c r="J206" s="122"/>
-      <c r="K206" s="122"/>
-      <c r="L206" s="123"/>
+      <c r="I206" s="118"/>
+      <c r="J206" s="119"/>
+      <c r="K206" s="119"/>
+      <c r="L206" s="120"/>
       <c r="M206" s="13"/>
       <c r="N206" s="13"/>
       <c r="O206" s="13"/>
@@ -7236,10 +7274,10 @@
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="19"/>
-      <c r="I208" s="118"/>
-      <c r="J208" s="119"/>
-      <c r="K208" s="119"/>
-      <c r="L208" s="120"/>
+      <c r="I208" s="121"/>
+      <c r="J208" s="122"/>
+      <c r="K208" s="122"/>
+      <c r="L208" s="123"/>
       <c r="M208" s="13"/>
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
@@ -7264,10 +7302,10 @@
       <c r="F209" s="19"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19"/>
-      <c r="I209" s="121"/>
-      <c r="J209" s="122"/>
-      <c r="K209" s="122"/>
-      <c r="L209" s="123"/>
+      <c r="I209" s="118"/>
+      <c r="J209" s="119"/>
+      <c r="K209" s="119"/>
+      <c r="L209" s="120"/>
       <c r="M209" s="13"/>
       <c r="N209" s="13"/>
       <c r="O209" s="13"/>
@@ -7292,10 +7330,10 @@
       <c r="F210" s="19"/>
       <c r="G210" s="19"/>
       <c r="H210" s="19"/>
-      <c r="I210" s="121"/>
-      <c r="J210" s="122"/>
-      <c r="K210" s="122"/>
-      <c r="L210" s="123"/>
+      <c r="I210" s="118"/>
+      <c r="J210" s="119"/>
+      <c r="K210" s="119"/>
+      <c r="L210" s="120"/>
       <c r="M210" s="13"/>
       <c r="N210" s="13"/>
       <c r="O210" s="13"/>
@@ -7460,10 +7498,10 @@
       <c r="F216" s="19"/>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
-      <c r="I216" s="118"/>
-      <c r="J216" s="119"/>
-      <c r="K216" s="119"/>
-      <c r="L216" s="120"/>
+      <c r="I216" s="121"/>
+      <c r="J216" s="122"/>
+      <c r="K216" s="122"/>
+      <c r="L216" s="123"/>
       <c r="M216" s="13"/>
       <c r="N216" s="13"/>
       <c r="O216" s="13"/>
@@ -7488,10 +7526,10 @@
       <c r="F217" s="19"/>
       <c r="G217" s="19"/>
       <c r="H217" s="19"/>
-      <c r="I217" s="118"/>
-      <c r="J217" s="119"/>
-      <c r="K217" s="119"/>
-      <c r="L217" s="120"/>
+      <c r="I217" s="121"/>
+      <c r="J217" s="122"/>
+      <c r="K217" s="122"/>
+      <c r="L217" s="123"/>
       <c r="M217" s="13"/>
       <c r="N217" s="13"/>
       <c r="O217" s="13"/>
@@ -7544,10 +7582,10 @@
       <c r="F219" s="19"/>
       <c r="G219" s="19"/>
       <c r="H219" s="19"/>
-      <c r="I219" s="121"/>
-      <c r="J219" s="122"/>
-      <c r="K219" s="122"/>
-      <c r="L219" s="123"/>
+      <c r="I219" s="118"/>
+      <c r="J219" s="119"/>
+      <c r="K219" s="119"/>
+      <c r="L219" s="120"/>
       <c r="M219" s="13"/>
       <c r="N219" s="13"/>
       <c r="O219" s="13"/>
@@ -7600,10 +7638,10 @@
       <c r="F221" s="19"/>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
-      <c r="I221" s="118"/>
-      <c r="J221" s="119"/>
-      <c r="K221" s="119"/>
-      <c r="L221" s="120"/>
+      <c r="I221" s="121"/>
+      <c r="J221" s="122"/>
+      <c r="K221" s="122"/>
+      <c r="L221" s="123"/>
       <c r="M221" s="13"/>
       <c r="N221" s="13"/>
       <c r="O221" s="13"/>
@@ -7628,10 +7666,10 @@
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
       <c r="H222" s="19"/>
-      <c r="I222" s="121"/>
-      <c r="J222" s="122"/>
-      <c r="K222" s="122"/>
-      <c r="L222" s="123"/>
+      <c r="I222" s="118"/>
+      <c r="J222" s="119"/>
+      <c r="K222" s="119"/>
+      <c r="L222" s="120"/>
       <c r="M222" s="13"/>
       <c r="N222" s="13"/>
       <c r="O222" s="13"/>
@@ -7684,10 +7722,10 @@
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
       <c r="H224" s="19"/>
-      <c r="I224" s="118"/>
-      <c r="J224" s="119"/>
-      <c r="K224" s="119"/>
-      <c r="L224" s="120"/>
+      <c r="I224" s="121"/>
+      <c r="J224" s="122"/>
+      <c r="K224" s="122"/>
+      <c r="L224" s="123"/>
       <c r="M224" s="13"/>
       <c r="N224" s="13"/>
       <c r="O224" s="13"/>
@@ -7796,10 +7834,10 @@
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
       <c r="H228" s="19"/>
-      <c r="I228" s="121"/>
-      <c r="J228" s="122"/>
-      <c r="K228" s="122"/>
-      <c r="L228" s="123"/>
+      <c r="I228" s="124"/>
+      <c r="J228" s="125"/>
+      <c r="K228" s="125"/>
+      <c r="L228" s="126"/>
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
@@ -7824,10 +7862,10 @@
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
       <c r="H229" s="19"/>
-      <c r="I229" s="121"/>
-      <c r="J229" s="122"/>
-      <c r="K229" s="122"/>
-      <c r="L229" s="123"/>
+      <c r="I229" s="124"/>
+      <c r="J229" s="125"/>
+      <c r="K229" s="125"/>
+      <c r="L229" s="126"/>
       <c r="M229" s="13"/>
       <c r="N229" s="13"/>
       <c r="O229" s="13"/>
@@ -7852,10 +7890,10 @@
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
-      <c r="I230" s="124"/>
-      <c r="J230" s="125"/>
-      <c r="K230" s="125"/>
-      <c r="L230" s="126"/>
+      <c r="I230" s="131"/>
+      <c r="J230" s="132"/>
+      <c r="K230" s="132"/>
+      <c r="L230" s="133"/>
       <c r="M230" s="13"/>
       <c r="N230" s="13"/>
       <c r="O230" s="13"/>
@@ -7880,10 +7918,10 @@
       <c r="F231" s="19"/>
       <c r="G231" s="19"/>
       <c r="H231" s="19"/>
-      <c r="I231" s="124"/>
-      <c r="J231" s="125"/>
-      <c r="K231" s="125"/>
-      <c r="L231" s="126"/>
+      <c r="I231" s="96"/>
+      <c r="J231" s="97"/>
+      <c r="K231" s="97"/>
+      <c r="L231" s="99"/>
       <c r="M231" s="13"/>
       <c r="N231" s="13"/>
       <c r="O231" s="13"/>
@@ -7907,11 +7945,11 @@
       <c r="E232" s="18"/>
       <c r="F232" s="19"/>
       <c r="G232" s="19"/>
-      <c r="H232" s="19"/>
-      <c r="I232" s="131"/>
-      <c r="J232" s="132"/>
-      <c r="K232" s="132"/>
-      <c r="L232" s="133"/>
+      <c r="H232" s="31"/>
+      <c r="I232" s="96"/>
+      <c r="J232" s="97"/>
+      <c r="K232" s="97"/>
+      <c r="L232" s="99"/>
       <c r="M232" s="13"/>
       <c r="N232" s="13"/>
       <c r="O232" s="13"/>
@@ -7936,10 +7974,10 @@
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
       <c r="H233" s="31"/>
-      <c r="I233" s="96"/>
-      <c r="J233" s="97"/>
-      <c r="K233" s="97"/>
-      <c r="L233" s="99"/>
+      <c r="I233" s="134"/>
+      <c r="J233" s="135"/>
+      <c r="K233" s="135"/>
+      <c r="L233" s="136"/>
       <c r="M233" s="13"/>
       <c r="N233" s="13"/>
       <c r="O233" s="13"/>
@@ -7992,10 +8030,10 @@
       <c r="F235" s="19"/>
       <c r="G235" s="19"/>
       <c r="H235" s="31"/>
-      <c r="I235" s="134"/>
-      <c r="J235" s="135"/>
-      <c r="K235" s="135"/>
-      <c r="L235" s="136"/>
+      <c r="I235" s="96"/>
+      <c r="J235" s="97"/>
+      <c r="K235" s="97"/>
+      <c r="L235" s="99"/>
       <c r="M235" s="13"/>
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
@@ -8040,18 +8078,17 @@
       <c r="Z236" s="13"/>
     </row>
     <row r="237" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A237" s="14"/>
+      <c r="A237" s="41"/>
       <c r="B237" s="19"/>
-      <c r="C237" s="18"/>
-      <c r="D237" s="18"/>
-      <c r="E237" s="18"/>
+      <c r="C237" s="26"/>
+      <c r="E237" s="26"/>
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
-      <c r="H237" s="31"/>
-      <c r="I237" s="96"/>
-      <c r="J237" s="97"/>
-      <c r="K237" s="97"/>
-      <c r="L237" s="99"/>
+      <c r="H237" s="42"/>
+      <c r="I237" s="137"/>
+      <c r="J237" s="138"/>
+      <c r="K237" s="138"/>
+      <c r="L237" s="139"/>
       <c r="M237" s="13"/>
       <c r="N237" s="13"/>
       <c r="O237" s="13"/>
@@ -8068,17 +8105,18 @@
       <c r="Z237" s="13"/>
     </row>
     <row r="238" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A238" s="41"/>
+      <c r="A238" s="14"/>
       <c r="B238" s="19"/>
-      <c r="C238" s="26"/>
-      <c r="E238" s="26"/>
+      <c r="C238" s="18"/>
+      <c r="D238" s="18"/>
+      <c r="E238" s="18"/>
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
-      <c r="H238" s="42"/>
-      <c r="I238" s="96"/>
-      <c r="J238" s="97"/>
-      <c r="K238" s="97"/>
-      <c r="L238" s="99"/>
+      <c r="H238" s="31"/>
+      <c r="I238" s="100"/>
+      <c r="J238" s="101"/>
+      <c r="K238" s="101"/>
+      <c r="L238" s="102"/>
       <c r="M238" s="13"/>
       <c r="N238" s="13"/>
       <c r="O238" s="13"/>
@@ -8103,10 +8141,10 @@
       <c r="F239" s="19"/>
       <c r="G239" s="19"/>
       <c r="H239" s="31"/>
-      <c r="I239" s="137"/>
-      <c r="J239" s="138"/>
-      <c r="K239" s="138"/>
-      <c r="L239" s="139"/>
+      <c r="I239" s="96"/>
+      <c r="J239" s="97"/>
+      <c r="K239" s="97"/>
+      <c r="L239" s="99"/>
       <c r="M239" s="13"/>
       <c r="N239" s="13"/>
       <c r="O239" s="13"/>
@@ -8131,10 +8169,10 @@
       <c r="F240" s="19"/>
       <c r="G240" s="19"/>
       <c r="H240" s="31"/>
-      <c r="I240" s="100"/>
-      <c r="J240" s="101"/>
-      <c r="K240" s="101"/>
-      <c r="L240" s="102"/>
+      <c r="I240" s="96"/>
+      <c r="J240" s="97"/>
+      <c r="K240" s="97"/>
+      <c r="L240" s="99"/>
       <c r="M240" s="13"/>
       <c r="N240" s="13"/>
       <c r="O240" s="13"/>
@@ -8218,7 +8256,7 @@
       <c r="I243" s="96"/>
       <c r="J243" s="97"/>
       <c r="K243" s="97"/>
-      <c r="L243" s="99"/>
+      <c r="L243" s="98"/>
       <c r="M243" s="13"/>
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
@@ -8246,8 +8284,7 @@
       <c r="I244" s="96"/>
       <c r="J244" s="97"/>
       <c r="K244" s="97"/>
-      <c r="L244" s="99"/>
-      <c r="M244" s="13"/>
+      <c r="L244" s="98"/>
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
       <c r="P244" s="13"/>
@@ -8275,6 +8312,7 @@
       <c r="J245" s="97"/>
       <c r="K245" s="97"/>
       <c r="L245" s="98"/>
+      <c r="M245" s="25"/>
     </row>
     <row r="246" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A246" s="14"/>
@@ -8341,10 +8379,10 @@
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
       <c r="H248" s="31"/>
-      <c r="I248" s="96"/>
-      <c r="J248" s="97"/>
-      <c r="K248" s="97"/>
-      <c r="L248" s="98"/>
+      <c r="I248" s="100"/>
+      <c r="J248" s="101"/>
+      <c r="K248" s="101"/>
+      <c r="L248" s="111"/>
       <c r="M248" s="25"/>
       <c r="N248" s="13"/>
       <c r="O248" s="13"/>
@@ -8368,7 +8406,7 @@
       <c r="E249" s="18"/>
       <c r="F249" s="19"/>
       <c r="G249" s="19"/>
-      <c r="H249" s="31"/>
+      <c r="H249" s="56"/>
       <c r="I249" s="96"/>
       <c r="J249" s="97"/>
       <c r="K249" s="97"/>
@@ -8396,7 +8434,7 @@
       <c r="E250" s="18"/>
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
-      <c r="H250" s="56"/>
+      <c r="H250" s="31"/>
       <c r="I250" s="100"/>
       <c r="J250" s="101"/>
       <c r="K250" s="101"/>
@@ -8453,10 +8491,10 @@
       <c r="F252" s="19"/>
       <c r="G252" s="19"/>
       <c r="H252" s="31"/>
-      <c r="I252" s="100"/>
-      <c r="J252" s="101"/>
-      <c r="K252" s="101"/>
-      <c r="L252" s="111"/>
+      <c r="I252" s="96"/>
+      <c r="J252" s="97"/>
+      <c r="K252" s="97"/>
+      <c r="L252" s="98"/>
       <c r="M252" s="25"/>
       <c r="N252" s="13"/>
       <c r="O252" s="13"/>
@@ -8509,10 +8547,10 @@
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
       <c r="H254" s="31"/>
-      <c r="I254" s="96"/>
-      <c r="J254" s="97"/>
-      <c r="K254" s="97"/>
-      <c r="L254" s="98"/>
+      <c r="I254" s="100"/>
+      <c r="J254" s="101"/>
+      <c r="K254" s="101"/>
+      <c r="L254" s="111"/>
       <c r="M254" s="25"/>
       <c r="N254" s="13"/>
       <c r="O254" s="13"/>
@@ -8586,17 +8624,17 @@
     </row>
     <row r="257" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="14"/>
-      <c r="B257" s="19"/>
+      <c r="B257" s="18"/>
       <c r="C257" s="18"/>
       <c r="D257" s="18"/>
       <c r="E257" s="18"/>
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
       <c r="H257" s="31"/>
-      <c r="I257" s="96"/>
-      <c r="J257" s="97"/>
-      <c r="K257" s="97"/>
-      <c r="L257" s="98"/>
+      <c r="I257" s="100"/>
+      <c r="J257" s="101"/>
+      <c r="K257" s="101"/>
+      <c r="L257" s="111"/>
       <c r="M257" s="25"/>
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
@@ -8614,17 +8652,17 @@
     </row>
     <row r="258" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="14"/>
-      <c r="B258" s="18"/>
+      <c r="B258" s="19"/>
       <c r="C258" s="18"/>
       <c r="D258" s="18"/>
       <c r="E258" s="18"/>
       <c r="F258" s="19"/>
       <c r="G258" s="19"/>
       <c r="H258" s="31"/>
-      <c r="I258" s="100"/>
-      <c r="J258" s="101"/>
-      <c r="K258" s="101"/>
-      <c r="L258" s="111"/>
+      <c r="I258" s="96"/>
+      <c r="J258" s="97"/>
+      <c r="K258" s="97"/>
+      <c r="L258" s="98"/>
       <c r="M258" s="25"/>
       <c r="N258" s="13"/>
       <c r="O258" s="13"/>
@@ -8649,10 +8687,10 @@
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
       <c r="H259" s="31"/>
-      <c r="I259" s="100"/>
+      <c r="I259" s="103"/>
       <c r="J259" s="101"/>
       <c r="K259" s="101"/>
-      <c r="L259" s="111"/>
+      <c r="L259" s="101"/>
       <c r="M259" s="25"/>
       <c r="N259" s="13"/>
       <c r="O259" s="13"/>
@@ -8671,16 +8709,15 @@
     <row r="260" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="14"/>
       <c r="B260" s="19"/>
-      <c r="C260" s="18"/>
-      <c r="D260" s="18"/>
-      <c r="E260" s="18"/>
+      <c r="C260" s="26"/>
+      <c r="E260" s="27"/>
       <c r="F260" s="19"/>
       <c r="G260" s="19"/>
-      <c r="H260" s="31"/>
-      <c r="I260" s="96"/>
-      <c r="J260" s="97"/>
-      <c r="K260" s="97"/>
-      <c r="L260" s="98"/>
+      <c r="H260" s="19"/>
+      <c r="I260" s="100"/>
+      <c r="J260" s="101"/>
+      <c r="K260" s="101"/>
+      <c r="L260" s="111"/>
       <c r="M260" s="25"/>
       <c r="N260" s="13"/>
       <c r="O260" s="13"/>
@@ -8699,15 +8736,16 @@
     <row r="261" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="14"/>
       <c r="B261" s="19"/>
-      <c r="C261" s="26"/>
-      <c r="E261" s="27"/>
+      <c r="C261" s="18"/>
+      <c r="D261" s="18"/>
+      <c r="E261" s="24"/>
       <c r="F261" s="19"/>
       <c r="G261" s="19"/>
-      <c r="H261" s="19"/>
-      <c r="I261" s="103"/>
+      <c r="H261" s="31"/>
+      <c r="I261" s="100"/>
       <c r="J261" s="101"/>
       <c r="K261" s="101"/>
-      <c r="L261" s="101"/>
+      <c r="L261" s="111"/>
       <c r="M261" s="25"/>
       <c r="N261" s="13"/>
       <c r="O261" s="13"/>
@@ -8728,14 +8766,14 @@
       <c r="B262" s="19"/>
       <c r="C262" s="18"/>
       <c r="D262" s="18"/>
-      <c r="E262" s="24"/>
+      <c r="E262" s="18"/>
       <c r="F262" s="19"/>
       <c r="G262" s="19"/>
       <c r="H262" s="31"/>
-      <c r="I262" s="100"/>
-      <c r="J262" s="101"/>
-      <c r="K262" s="101"/>
-      <c r="L262" s="111"/>
+      <c r="I262" s="96"/>
+      <c r="J262" s="97"/>
+      <c r="K262" s="97"/>
+      <c r="L262" s="98"/>
       <c r="M262" s="25"/>
       <c r="N262" s="13"/>
       <c r="O262" s="13"/>
@@ -8760,11 +8798,10 @@
       <c r="F263" s="19"/>
       <c r="G263" s="19"/>
       <c r="H263" s="31"/>
-      <c r="I263" s="100"/>
-      <c r="J263" s="101"/>
-      <c r="K263" s="101"/>
-      <c r="L263" s="111"/>
-      <c r="M263" s="25"/>
+      <c r="I263" s="96"/>
+      <c r="J263" s="97"/>
+      <c r="K263" s="97"/>
+      <c r="L263" s="98"/>
       <c r="N263" s="13"/>
       <c r="O263" s="13"/>
       <c r="P263" s="13"/>
@@ -8788,10 +8825,11 @@
       <c r="F264" s="19"/>
       <c r="G264" s="19"/>
       <c r="H264" s="31"/>
-      <c r="I264" s="96"/>
-      <c r="J264" s="97"/>
-      <c r="K264" s="97"/>
-      <c r="L264" s="98"/>
+      <c r="I264" s="100"/>
+      <c r="J264" s="101"/>
+      <c r="K264" s="101"/>
+      <c r="L264" s="111"/>
+      <c r="M264" s="25"/>
     </row>
     <row r="265" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="14"/>
@@ -8802,10 +8840,10 @@
       <c r="F265" s="19"/>
       <c r="G265" s="19"/>
       <c r="H265" s="31"/>
-      <c r="I265" s="96"/>
-      <c r="J265" s="97"/>
-      <c r="K265" s="97"/>
-      <c r="L265" s="98"/>
+      <c r="I265" s="100"/>
+      <c r="J265" s="101"/>
+      <c r="K265" s="101"/>
+      <c r="L265" s="111"/>
       <c r="M265" s="25"/>
       <c r="N265" s="13"/>
       <c r="O265" s="13"/>
@@ -8858,10 +8896,10 @@
       <c r="F267" s="19"/>
       <c r="G267" s="19"/>
       <c r="H267" s="31"/>
-      <c r="I267" s="100"/>
-      <c r="J267" s="101"/>
-      <c r="K267" s="101"/>
-      <c r="L267" s="111"/>
+      <c r="I267" s="96"/>
+      <c r="J267" s="97"/>
+      <c r="K267" s="97"/>
+      <c r="L267" s="98"/>
       <c r="M267" s="25"/>
       <c r="N267" s="13"/>
       <c r="O267" s="13"/>
@@ -8886,10 +8924,10 @@
       <c r="F268" s="19"/>
       <c r="G268" s="19"/>
       <c r="H268" s="31"/>
-      <c r="I268" s="100"/>
-      <c r="J268" s="101"/>
-      <c r="K268" s="101"/>
-      <c r="L268" s="111"/>
+      <c r="I268" s="96"/>
+      <c r="J268" s="97"/>
+      <c r="K268" s="97"/>
+      <c r="L268" s="98"/>
       <c r="M268" s="25"/>
       <c r="N268" s="13"/>
       <c r="O268" s="13"/>
@@ -8913,7 +8951,7 @@
       <c r="E269" s="18"/>
       <c r="F269" s="19"/>
       <c r="G269" s="19"/>
-      <c r="H269" s="31"/>
+      <c r="H269" s="32"/>
       <c r="I269" s="96"/>
       <c r="J269" s="97"/>
       <c r="K269" s="97"/>
@@ -8970,10 +9008,10 @@
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
       <c r="H271" s="32"/>
-      <c r="I271" s="96"/>
-      <c r="J271" s="97"/>
-      <c r="K271" s="97"/>
-      <c r="L271" s="98"/>
+      <c r="I271" s="100"/>
+      <c r="J271" s="101"/>
+      <c r="K271" s="101"/>
+      <c r="L271" s="111"/>
       <c r="M271" s="25"/>
       <c r="N271" s="13"/>
       <c r="O271" s="13"/>
@@ -8991,17 +9029,17 @@
     </row>
     <row r="272" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A272" s="14"/>
-      <c r="B272" s="19"/>
+      <c r="B272" s="18"/>
       <c r="C272" s="18"/>
       <c r="D272" s="18"/>
       <c r="E272" s="18"/>
       <c r="F272" s="19"/>
       <c r="G272" s="19"/>
       <c r="H272" s="32"/>
-      <c r="I272" s="96"/>
-      <c r="J272" s="97"/>
-      <c r="K272" s="97"/>
-      <c r="L272" s="98"/>
+      <c r="I272" s="100"/>
+      <c r="J272" s="101"/>
+      <c r="K272" s="101"/>
+      <c r="L272" s="111"/>
       <c r="M272" s="25"/>
       <c r="N272" s="13"/>
       <c r="O272" s="13"/>
@@ -9019,13 +9057,13 @@
     </row>
     <row r="273" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A273" s="14"/>
-      <c r="B273" s="18"/>
+      <c r="B273" s="19"/>
       <c r="C273" s="18"/>
       <c r="D273" s="18"/>
       <c r="E273" s="18"/>
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
-      <c r="H273" s="32"/>
+      <c r="H273" s="43"/>
       <c r="I273" s="100"/>
       <c r="J273" s="101"/>
       <c r="K273" s="101"/>
@@ -9054,10 +9092,10 @@
       <c r="F274" s="19"/>
       <c r="G274" s="19"/>
       <c r="H274" s="43"/>
-      <c r="I274" s="100"/>
-      <c r="J274" s="101"/>
-      <c r="K274" s="101"/>
-      <c r="L274" s="111"/>
+      <c r="I274" s="96"/>
+      <c r="J274" s="97"/>
+      <c r="K274" s="97"/>
+      <c r="L274" s="98"/>
       <c r="M274" s="25"/>
       <c r="N274" s="13"/>
       <c r="O274" s="13"/>
@@ -9082,10 +9120,10 @@
       <c r="F275" s="19"/>
       <c r="G275" s="19"/>
       <c r="H275" s="43"/>
-      <c r="I275" s="100"/>
-      <c r="J275" s="101"/>
-      <c r="K275" s="101"/>
-      <c r="L275" s="111"/>
+      <c r="I275" s="96"/>
+      <c r="J275" s="97"/>
+      <c r="K275" s="97"/>
+      <c r="L275" s="98"/>
       <c r="M275" s="25"/>
       <c r="N275" s="13"/>
       <c r="O275" s="13"/>
@@ -9131,13 +9169,13 @@
     </row>
     <row r="277" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A277" s="14"/>
-      <c r="B277" s="19"/>
+      <c r="B277" s="18"/>
       <c r="C277" s="18"/>
       <c r="D277" s="18"/>
       <c r="E277" s="18"/>
       <c r="F277" s="19"/>
       <c r="G277" s="19"/>
-      <c r="H277" s="43"/>
+      <c r="H277" s="44"/>
       <c r="I277" s="96"/>
       <c r="J277" s="97"/>
       <c r="K277" s="97"/>
@@ -9159,13 +9197,13 @@
     </row>
     <row r="278" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A278" s="14"/>
-      <c r="B278" s="18"/>
+      <c r="B278" s="19"/>
       <c r="C278" s="18"/>
       <c r="D278" s="18"/>
       <c r="E278" s="18"/>
       <c r="F278" s="19"/>
       <c r="G278" s="19"/>
-      <c r="H278" s="44"/>
+      <c r="H278" s="45"/>
       <c r="I278" s="96"/>
       <c r="J278" s="97"/>
       <c r="K278" s="97"/>
@@ -9193,7 +9231,7 @@
       <c r="E279" s="18"/>
       <c r="F279" s="19"/>
       <c r="G279" s="19"/>
-      <c r="H279" s="45"/>
+      <c r="H279" s="46"/>
       <c r="I279" s="96"/>
       <c r="J279" s="97"/>
       <c r="K279" s="97"/>
@@ -9221,7 +9259,7 @@
       <c r="E280" s="18"/>
       <c r="F280" s="19"/>
       <c r="G280" s="19"/>
-      <c r="H280" s="46"/>
+      <c r="H280" s="47"/>
       <c r="I280" s="96"/>
       <c r="J280" s="97"/>
       <c r="K280" s="97"/>
@@ -9250,10 +9288,10 @@
       <c r="F281" s="19"/>
       <c r="G281" s="19"/>
       <c r="H281" s="47"/>
-      <c r="I281" s="96"/>
-      <c r="J281" s="97"/>
-      <c r="K281" s="97"/>
-      <c r="L281" s="98"/>
+      <c r="I281" s="112"/>
+      <c r="J281" s="113"/>
+      <c r="K281" s="113"/>
+      <c r="L281" s="114"/>
       <c r="M281" s="25"/>
       <c r="N281" s="13"/>
       <c r="O281" s="13"/>
@@ -9270,18 +9308,18 @@
       <c r="Z281" s="13"/>
     </row>
     <row r="282" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A282" s="14"/>
-      <c r="B282" s="19"/>
-      <c r="C282" s="18"/>
-      <c r="D282" s="18"/>
-      <c r="E282" s="18"/>
-      <c r="F282" s="19"/>
-      <c r="G282" s="19"/>
-      <c r="H282" s="47"/>
-      <c r="I282" s="96"/>
-      <c r="J282" s="97"/>
-      <c r="K282" s="97"/>
-      <c r="L282" s="98"/>
+      <c r="A282" s="37"/>
+      <c r="B282" s="81"/>
+      <c r="C282" s="38"/>
+      <c r="D282" s="38"/>
+      <c r="E282" s="38"/>
+      <c r="F282" s="81"/>
+      <c r="G282" s="81"/>
+      <c r="H282" s="82"/>
+      <c r="I282" s="107"/>
+      <c r="J282" s="108"/>
+      <c r="K282" s="108"/>
+      <c r="L282" s="109"/>
       <c r="M282" s="25"/>
       <c r="N282" s="13"/>
       <c r="O282" s="13"/>
@@ -9306,10 +9344,10 @@
       <c r="F283" s="81"/>
       <c r="G283" s="81"/>
       <c r="H283" s="82"/>
-      <c r="I283" s="112"/>
-      <c r="J283" s="113"/>
-      <c r="K283" s="113"/>
-      <c r="L283" s="114"/>
+      <c r="I283" s="107"/>
+      <c r="J283" s="108"/>
+      <c r="K283" s="108"/>
+      <c r="L283" s="109"/>
       <c r="M283" s="25"/>
       <c r="N283" s="13"/>
       <c r="O283" s="13"/>
@@ -9327,14 +9365,14 @@
     </row>
     <row r="284" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A284" s="37"/>
-      <c r="B284" s="81"/>
+      <c r="B284" s="38"/>
       <c r="C284" s="38"/>
       <c r="D284" s="38"/>
       <c r="E284" s="38"/>
       <c r="F284" s="81"/>
       <c r="G284" s="81"/>
       <c r="H284" s="82"/>
-      <c r="I284" s="107"/>
+      <c r="I284" s="140"/>
       <c r="J284" s="108"/>
       <c r="K284" s="108"/>
       <c r="L284" s="109"/>
@@ -9361,7 +9399,7 @@
       <c r="E285" s="38"/>
       <c r="F285" s="81"/>
       <c r="G285" s="81"/>
-      <c r="H285" s="82"/>
+      <c r="H285" s="81"/>
       <c r="I285" s="107"/>
       <c r="J285" s="108"/>
       <c r="K285" s="108"/>
@@ -9383,14 +9421,14 @@
     </row>
     <row r="286" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A286" s="37"/>
-      <c r="B286" s="38"/>
+      <c r="B286" s="81"/>
       <c r="C286" s="38"/>
       <c r="D286" s="38"/>
       <c r="E286" s="38"/>
       <c r="F286" s="81"/>
       <c r="G286" s="81"/>
-      <c r="H286" s="81"/>
-      <c r="I286" s="140"/>
+      <c r="H286" s="82"/>
+      <c r="I286" s="107"/>
       <c r="J286" s="108"/>
       <c r="K286" s="108"/>
       <c r="L286" s="109"/>
@@ -9418,10 +9456,10 @@
       <c r="F287" s="81"/>
       <c r="G287" s="81"/>
       <c r="H287" s="82"/>
-      <c r="I287" s="107"/>
-      <c r="J287" s="108"/>
-      <c r="K287" s="108"/>
-      <c r="L287" s="109"/>
+      <c r="I287" s="96"/>
+      <c r="J287" s="97"/>
+      <c r="K287" s="97"/>
+      <c r="L287" s="98"/>
       <c r="M287" s="25"/>
       <c r="N287" s="13"/>
       <c r="O287" s="13"/>
@@ -9438,18 +9476,18 @@
       <c r="Z287" s="13"/>
     </row>
     <row r="288" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A288" s="37"/>
-      <c r="B288" s="81"/>
-      <c r="C288" s="38"/>
-      <c r="D288" s="38"/>
-      <c r="E288" s="38"/>
-      <c r="F288" s="81"/>
-      <c r="G288" s="81"/>
-      <c r="H288" s="82"/>
-      <c r="I288" s="107"/>
-      <c r="J288" s="108"/>
-      <c r="K288" s="108"/>
-      <c r="L288" s="109"/>
+      <c r="A288" s="14"/>
+      <c r="B288" s="19"/>
+      <c r="C288" s="18"/>
+      <c r="D288" s="18"/>
+      <c r="E288" s="18"/>
+      <c r="F288" s="19"/>
+      <c r="G288" s="19"/>
+      <c r="H288" s="48"/>
+      <c r="I288" s="96"/>
+      <c r="J288" s="97"/>
+      <c r="K288" s="97"/>
+      <c r="L288" s="98"/>
       <c r="M288" s="25"/>
       <c r="N288" s="13"/>
       <c r="O288" s="13"/>
@@ -9474,10 +9512,10 @@
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
       <c r="H289" s="48"/>
-      <c r="I289" s="96"/>
-      <c r="J289" s="97"/>
-      <c r="K289" s="97"/>
-      <c r="L289" s="98"/>
+      <c r="I289" s="100"/>
+      <c r="J289" s="101"/>
+      <c r="K289" s="101"/>
+      <c r="L289" s="111"/>
       <c r="M289" s="25"/>
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
@@ -9523,7 +9561,7 @@
     </row>
     <row r="291" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A291" s="14"/>
-      <c r="B291" s="19"/>
+      <c r="B291" s="18"/>
       <c r="C291" s="18"/>
       <c r="D291" s="18"/>
       <c r="E291" s="18"/>
@@ -9551,7 +9589,7 @@
     </row>
     <row r="292" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A292" s="14"/>
-      <c r="B292" s="18"/>
+      <c r="B292" s="19"/>
       <c r="C292" s="18"/>
       <c r="D292" s="18"/>
       <c r="E292" s="18"/>
@@ -9586,10 +9624,10 @@
       <c r="F293" s="19"/>
       <c r="G293" s="19"/>
       <c r="H293" s="48"/>
-      <c r="I293" s="100"/>
-      <c r="J293" s="101"/>
-      <c r="K293" s="101"/>
-      <c r="L293" s="111"/>
+      <c r="I293" s="96"/>
+      <c r="J293" s="97"/>
+      <c r="K293" s="97"/>
+      <c r="L293" s="98"/>
       <c r="M293" s="25"/>
       <c r="N293" s="13"/>
       <c r="O293" s="13"/>
@@ -9614,11 +9652,11 @@
       <c r="F294" s="19"/>
       <c r="G294" s="19"/>
       <c r="H294" s="48"/>
-      <c r="I294" s="96"/>
-      <c r="J294" s="97"/>
-      <c r="K294" s="97"/>
-      <c r="L294" s="98"/>
-      <c r="M294" s="25"/>
+      <c r="I294" s="100"/>
+      <c r="J294" s="101"/>
+      <c r="K294" s="101"/>
+      <c r="L294" s="111"/>
+      <c r="M294" s="83"/>
       <c r="N294" s="13"/>
       <c r="O294" s="13"/>
       <c r="P294" s="13"/>
@@ -9642,10 +9680,10 @@
       <c r="F295" s="19"/>
       <c r="G295" s="19"/>
       <c r="H295" s="48"/>
-      <c r="I295" s="96"/>
-      <c r="J295" s="97"/>
-      <c r="K295" s="97"/>
-      <c r="L295" s="98"/>
+      <c r="I295" s="100"/>
+      <c r="J295" s="101"/>
+      <c r="K295" s="101"/>
+      <c r="L295" s="111"/>
       <c r="M295" s="83"/>
       <c r="N295" s="15"/>
       <c r="O295" s="15"/>
@@ -9670,10 +9708,10 @@
       <c r="F296" s="19"/>
       <c r="G296" s="19"/>
       <c r="H296" s="48"/>
-      <c r="I296" s="100"/>
-      <c r="J296" s="101"/>
-      <c r="K296" s="101"/>
-      <c r="L296" s="111"/>
+      <c r="I296" s="96"/>
+      <c r="J296" s="97"/>
+      <c r="K296" s="97"/>
+      <c r="L296" s="98"/>
       <c r="M296" s="83"/>
       <c r="N296" s="15"/>
       <c r="O296" s="15"/>
@@ -9697,11 +9735,11 @@
       <c r="E297" s="18"/>
       <c r="F297" s="19"/>
       <c r="G297" s="19"/>
-      <c r="H297" s="48"/>
-      <c r="I297" s="100"/>
-      <c r="J297" s="101"/>
-      <c r="K297" s="101"/>
-      <c r="L297" s="111"/>
+      <c r="H297" s="49"/>
+      <c r="I297" s="96"/>
+      <c r="J297" s="97"/>
+      <c r="K297" s="97"/>
+      <c r="L297" s="98"/>
       <c r="M297" s="83"/>
       <c r="N297" s="15"/>
       <c r="O297" s="15"/>
@@ -9725,7 +9763,7 @@
       <c r="E298" s="18"/>
       <c r="F298" s="19"/>
       <c r="G298" s="19"/>
-      <c r="H298" s="49"/>
+      <c r="H298" s="48"/>
       <c r="I298" s="96"/>
       <c r="J298" s="97"/>
       <c r="K298" s="97"/>
@@ -9786,7 +9824,7 @@
       <c r="J300" s="97"/>
       <c r="K300" s="97"/>
       <c r="L300" s="98"/>
-      <c r="M300" s="83"/>
+      <c r="M300" s="25"/>
       <c r="N300" s="15"/>
       <c r="O300" s="15"/>
       <c r="P300" s="15"/>
@@ -9831,7 +9869,7 @@
     </row>
     <row r="302" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A302" s="14"/>
-      <c r="B302" s="19"/>
+      <c r="B302" s="18"/>
       <c r="C302" s="18"/>
       <c r="D302" s="18"/>
       <c r="E302" s="18"/>
@@ -9859,7 +9897,7 @@
     </row>
     <row r="303" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A303" s="14"/>
-      <c r="B303" s="18"/>
+      <c r="B303" s="19"/>
       <c r="C303" s="18"/>
       <c r="D303" s="18"/>
       <c r="E303" s="18"/>
@@ -9869,7 +9907,7 @@
       <c r="I303" s="96"/>
       <c r="J303" s="97"/>
       <c r="K303" s="97"/>
-      <c r="L303" s="98"/>
+      <c r="L303" s="99"/>
       <c r="M303" s="25"/>
       <c r="N303" s="13"/>
       <c r="O303" s="13"/>
@@ -9887,7 +9925,7 @@
     </row>
     <row r="304" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A304" s="14"/>
-      <c r="B304" s="19"/>
+      <c r="B304" s="18"/>
       <c r="C304" s="18"/>
       <c r="D304" s="18"/>
       <c r="E304" s="18"/>
@@ -9897,8 +9935,8 @@
       <c r="I304" s="96"/>
       <c r="J304" s="97"/>
       <c r="K304" s="97"/>
-      <c r="L304" s="98"/>
-      <c r="M304" s="25"/>
+      <c r="L304" s="99"/>
+      <c r="M304" s="13"/>
       <c r="N304" s="13"/>
       <c r="O304" s="13"/>
       <c r="P304" s="13"/>
@@ -9915,7 +9953,7 @@
     </row>
     <row r="305" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A305" s="14"/>
-      <c r="B305" s="18"/>
+      <c r="B305" s="19"/>
       <c r="C305" s="18"/>
       <c r="D305" s="18"/>
       <c r="E305" s="18"/>
@@ -10005,7 +10043,7 @@
       <c r="E308" s="18"/>
       <c r="F308" s="19"/>
       <c r="G308" s="19"/>
-      <c r="H308" s="48"/>
+      <c r="H308" s="50"/>
       <c r="I308" s="96"/>
       <c r="J308" s="97"/>
       <c r="K308" s="97"/>
@@ -10139,7 +10177,7 @@
     </row>
     <row r="313" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A313" s="14"/>
-      <c r="B313" s="19"/>
+      <c r="B313" s="18"/>
       <c r="C313" s="18"/>
       <c r="D313" s="18"/>
       <c r="E313" s="18"/>
@@ -10167,17 +10205,17 @@
     </row>
     <row r="314" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A314" s="14"/>
-      <c r="B314" s="18"/>
+      <c r="B314" s="19"/>
       <c r="C314" s="18"/>
       <c r="D314" s="18"/>
       <c r="E314" s="18"/>
       <c r="F314" s="19"/>
       <c r="G314" s="19"/>
-      <c r="H314" s="50"/>
-      <c r="I314" s="96"/>
-      <c r="J314" s="97"/>
-      <c r="K314" s="97"/>
-      <c r="L314" s="99"/>
+      <c r="H314" s="51"/>
+      <c r="I314" s="100"/>
+      <c r="J314" s="101"/>
+      <c r="K314" s="101"/>
+      <c r="L314" s="102"/>
       <c r="M314" s="13"/>
       <c r="N314" s="13"/>
       <c r="O314" s="13"/>
@@ -10202,10 +10240,10 @@
       <c r="F315" s="19"/>
       <c r="G315" s="19"/>
       <c r="H315" s="51"/>
-      <c r="I315" s="96"/>
-      <c r="J315" s="97"/>
-      <c r="K315" s="97"/>
-      <c r="L315" s="99"/>
+      <c r="I315" s="100"/>
+      <c r="J315" s="101"/>
+      <c r="K315" s="101"/>
+      <c r="L315" s="102"/>
       <c r="M315" s="13"/>
       <c r="N315" s="13"/>
       <c r="O315" s="13"/>
@@ -10230,10 +10268,10 @@
       <c r="F316" s="19"/>
       <c r="G316" s="19"/>
       <c r="H316" s="51"/>
-      <c r="I316" s="100"/>
-      <c r="J316" s="101"/>
-      <c r="K316" s="101"/>
-      <c r="L316" s="102"/>
+      <c r="I316" s="96"/>
+      <c r="J316" s="97"/>
+      <c r="K316" s="97"/>
+      <c r="L316" s="99"/>
       <c r="M316" s="13"/>
       <c r="N316" s="13"/>
       <c r="O316" s="13"/>
@@ -10257,11 +10295,11 @@
       <c r="E317" s="18"/>
       <c r="F317" s="19"/>
       <c r="G317" s="19"/>
-      <c r="H317" s="51"/>
-      <c r="I317" s="100"/>
-      <c r="J317" s="101"/>
-      <c r="K317" s="101"/>
-      <c r="L317" s="102"/>
+      <c r="H317" s="52"/>
+      <c r="I317" s="96"/>
+      <c r="J317" s="97"/>
+      <c r="K317" s="97"/>
+      <c r="L317" s="99"/>
       <c r="M317" s="13"/>
       <c r="N317" s="13"/>
       <c r="O317" s="13"/>
@@ -10279,17 +10317,17 @@
     </row>
     <row r="318" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A318" s="14"/>
-      <c r="B318" s="19"/>
+      <c r="B318" s="18"/>
       <c r="C318" s="18"/>
       <c r="D318" s="18"/>
       <c r="E318" s="18"/>
       <c r="F318" s="19"/>
       <c r="G318" s="19"/>
       <c r="H318" s="52"/>
-      <c r="I318" s="96"/>
-      <c r="J318" s="97"/>
-      <c r="K318" s="97"/>
-      <c r="L318" s="99"/>
+      <c r="I318" s="100"/>
+      <c r="J318" s="101"/>
+      <c r="K318" s="101"/>
+      <c r="L318" s="102"/>
       <c r="M318" s="13"/>
       <c r="N318" s="13"/>
       <c r="O318" s="13"/>
@@ -10307,13 +10345,13 @@
     </row>
     <row r="319" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A319" s="14"/>
-      <c r="B319" s="18"/>
+      <c r="B319" s="19"/>
       <c r="C319" s="18"/>
       <c r="D319" s="18"/>
       <c r="E319" s="18"/>
       <c r="F319" s="19"/>
       <c r="G319" s="19"/>
-      <c r="H319" s="52"/>
+      <c r="H319" s="48"/>
       <c r="I319" s="96"/>
       <c r="J319" s="97"/>
       <c r="K319" s="97"/>
@@ -10342,10 +10380,10 @@
       <c r="F320" s="19"/>
       <c r="G320" s="19"/>
       <c r="H320" s="48"/>
-      <c r="I320" s="100"/>
-      <c r="J320" s="101"/>
-      <c r="K320" s="101"/>
-      <c r="L320" s="102"/>
+      <c r="I320" s="96"/>
+      <c r="J320" s="97"/>
+      <c r="K320" s="97"/>
+      <c r="L320" s="99"/>
       <c r="M320" s="13"/>
       <c r="N320" s="13"/>
       <c r="O320" s="13"/>
@@ -10392,12 +10430,12 @@
     <row r="322" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A322" s="14"/>
       <c r="B322" s="19"/>
-      <c r="C322" s="18"/>
-      <c r="D322" s="18"/>
-      <c r="E322" s="18"/>
-      <c r="F322" s="19"/>
+      <c r="C322" s="53"/>
+      <c r="D322" s="53"/>
+      <c r="E322" s="63"/>
+      <c r="F322" s="68"/>
       <c r="G322" s="19"/>
-      <c r="H322" s="48"/>
+      <c r="H322" s="66"/>
       <c r="I322" s="96"/>
       <c r="J322" s="97"/>
       <c r="K322" s="97"/>
@@ -10419,12 +10457,12 @@
     </row>
     <row r="323" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A323" s="14"/>
-      <c r="B323" s="19"/>
-      <c r="C323" s="53"/>
-      <c r="D323" s="53"/>
-      <c r="E323" s="63"/>
-      <c r="F323" s="68"/>
-      <c r="G323" s="19"/>
+      <c r="B323" s="61"/>
+      <c r="C323" s="55"/>
+      <c r="D323" s="73"/>
+      <c r="E323" s="70"/>
+      <c r="F323" s="71"/>
+      <c r="G323" s="62"/>
       <c r="H323" s="66"/>
       <c r="I323" s="96"/>
       <c r="J323" s="97"/>
@@ -10447,17 +10485,17 @@
     </row>
     <row r="324" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A324" s="14"/>
-      <c r="B324" s="61"/>
-      <c r="C324" s="55"/>
-      <c r="D324" s="73"/>
-      <c r="E324" s="70"/>
-      <c r="F324" s="71"/>
-      <c r="G324" s="62"/>
-      <c r="H324" s="66"/>
-      <c r="I324" s="96"/>
-      <c r="J324" s="97"/>
-      <c r="K324" s="97"/>
-      <c r="L324" s="99"/>
+      <c r="B324" s="19"/>
+      <c r="C324" s="65"/>
+      <c r="D324" s="54"/>
+      <c r="E324" s="64"/>
+      <c r="F324" s="69"/>
+      <c r="G324" s="19"/>
+      <c r="H324" s="67"/>
+      <c r="I324" s="112"/>
+      <c r="J324" s="113"/>
+      <c r="K324" s="113"/>
+      <c r="L324" s="141"/>
       <c r="M324" s="13"/>
       <c r="N324" s="13"/>
       <c r="O324" s="13"/>
@@ -10474,18 +10512,18 @@
       <c r="Z324" s="13"/>
     </row>
     <row r="325" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A325" s="14"/>
-      <c r="B325" s="19"/>
-      <c r="C325" s="65"/>
-      <c r="D325" s="54"/>
-      <c r="E325" s="64"/>
-      <c r="F325" s="69"/>
-      <c r="G325" s="19"/>
-      <c r="H325" s="67"/>
-      <c r="I325" s="96"/>
-      <c r="J325" s="97"/>
-      <c r="K325" s="97"/>
-      <c r="L325" s="99"/>
+      <c r="A325" s="37"/>
+      <c r="B325" s="81"/>
+      <c r="C325" s="84"/>
+      <c r="D325" s="85"/>
+      <c r="E325" s="86"/>
+      <c r="F325" s="87"/>
+      <c r="G325" s="81"/>
+      <c r="H325" s="82"/>
+      <c r="I325" s="88"/>
+      <c r="J325" s="89"/>
+      <c r="K325" s="89"/>
+      <c r="L325" s="90"/>
       <c r="M325" s="13"/>
       <c r="N325" s="13"/>
       <c r="O325" s="13"/>
@@ -10510,10 +10548,10 @@
       <c r="F326" s="87"/>
       <c r="G326" s="81"/>
       <c r="H326" s="82"/>
-      <c r="I326" s="112"/>
-      <c r="J326" s="113"/>
-      <c r="K326" s="113"/>
-      <c r="L326" s="141"/>
+      <c r="I326" s="88"/>
+      <c r="J326" s="89"/>
+      <c r="K326" s="89"/>
+      <c r="L326" s="90"/>
       <c r="M326" s="13"/>
       <c r="N326" s="13"/>
       <c r="O326" s="13"/>
@@ -10531,7 +10569,7 @@
     </row>
     <row r="327" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A327" s="37"/>
-      <c r="B327" s="81"/>
+      <c r="B327" s="38"/>
       <c r="C327" s="84"/>
       <c r="D327" s="85"/>
       <c r="E327" s="86"/>
@@ -10559,17 +10597,17 @@
     </row>
     <row r="328" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A328" s="37"/>
-      <c r="B328" s="38"/>
+      <c r="B328" s="81"/>
       <c r="C328" s="84"/>
       <c r="D328" s="85"/>
-      <c r="E328" s="86"/>
+      <c r="E328" s="91"/>
       <c r="F328" s="87"/>
       <c r="G328" s="81"/>
       <c r="H328" s="82"/>
-      <c r="I328" s="88"/>
-      <c r="J328" s="89"/>
-      <c r="K328" s="89"/>
-      <c r="L328" s="90"/>
+      <c r="I328" s="112"/>
+      <c r="J328" s="113"/>
+      <c r="K328" s="113"/>
+      <c r="L328" s="141"/>
       <c r="M328" s="13"/>
       <c r="N328" s="13"/>
       <c r="O328" s="13"/>
@@ -10588,10 +10626,10 @@
     <row r="329" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A329" s="37"/>
       <c r="B329" s="81"/>
-      <c r="C329" s="84"/>
-      <c r="D329" s="85"/>
-      <c r="E329" s="91"/>
-      <c r="F329" s="87"/>
+      <c r="C329" s="38"/>
+      <c r="D329" s="92"/>
+      <c r="E329" s="92"/>
+      <c r="F329" s="81"/>
       <c r="G329" s="81"/>
       <c r="H329" s="82"/>
       <c r="I329" s="88"/>
@@ -10616,9 +10654,9 @@
     <row r="330" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A330" s="37"/>
       <c r="B330" s="81"/>
-      <c r="C330" s="38"/>
-      <c r="D330" s="92"/>
-      <c r="E330" s="92"/>
+      <c r="C330" s="84"/>
+      <c r="D330" s="38"/>
+      <c r="E330" s="38"/>
       <c r="F330" s="81"/>
       <c r="G330" s="81"/>
       <c r="H330" s="82"/>
@@ -10644,16 +10682,16 @@
     <row r="331" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A331" s="37"/>
       <c r="B331" s="81"/>
-      <c r="C331" s="84"/>
+      <c r="C331" s="38"/>
       <c r="D331" s="38"/>
       <c r="E331" s="38"/>
       <c r="F331" s="81"/>
       <c r="G331" s="81"/>
       <c r="H331" s="82"/>
-      <c r="I331" s="88"/>
-      <c r="J331" s="89"/>
-      <c r="K331" s="89"/>
-      <c r="L331" s="90"/>
+      <c r="I331" s="112"/>
+      <c r="J331" s="113"/>
+      <c r="K331" s="113"/>
+      <c r="L331" s="141"/>
       <c r="M331" s="13"/>
       <c r="N331" s="13"/>
       <c r="O331" s="13"/>
@@ -10706,10 +10744,10 @@
       <c r="F333" s="81"/>
       <c r="G333" s="81"/>
       <c r="H333" s="82"/>
-      <c r="I333" s="112"/>
-      <c r="J333" s="113"/>
-      <c r="K333" s="113"/>
-      <c r="L333" s="141"/>
+      <c r="I333" s="57"/>
+      <c r="J333" s="58"/>
+      <c r="K333" s="58"/>
+      <c r="L333" s="59"/>
       <c r="M333" s="13"/>
       <c r="N333" s="13"/>
       <c r="O333" s="13"/>
@@ -10726,18 +10764,18 @@
       <c r="Z333" s="13"/>
     </row>
     <row r="334" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A334" s="37"/>
-      <c r="B334" s="81"/>
-      <c r="C334" s="38"/>
-      <c r="D334" s="38"/>
-      <c r="E334" s="38"/>
-      <c r="F334" s="81"/>
-      <c r="G334" s="81"/>
-      <c r="H334" s="82"/>
-      <c r="I334" s="112"/>
-      <c r="J334" s="113"/>
-      <c r="K334" s="113"/>
-      <c r="L334" s="141"/>
+      <c r="A334" s="14"/>
+      <c r="B334" s="19"/>
+      <c r="C334" s="18"/>
+      <c r="D334" s="18"/>
+      <c r="E334" s="18"/>
+      <c r="F334" s="19"/>
+      <c r="G334" s="19"/>
+      <c r="H334" s="61"/>
+      <c r="I334" s="100"/>
+      <c r="J334" s="101"/>
+      <c r="K334" s="101"/>
+      <c r="L334" s="102"/>
       <c r="M334" s="13"/>
       <c r="N334" s="13"/>
       <c r="O334" s="13"/>
@@ -10765,7 +10803,7 @@
       <c r="I335" s="57"/>
       <c r="J335" s="58"/>
       <c r="K335" s="58"/>
-      <c r="L335" s="59"/>
+      <c r="L335" s="60"/>
       <c r="M335" s="13"/>
       <c r="N335" s="13"/>
       <c r="O335" s="13"/>
@@ -10790,10 +10828,10 @@
       <c r="F336" s="19"/>
       <c r="G336" s="19"/>
       <c r="H336" s="61"/>
-      <c r="I336" s="100"/>
-      <c r="J336" s="101"/>
-      <c r="K336" s="101"/>
-      <c r="L336" s="102"/>
+      <c r="I336" s="57"/>
+      <c r="J336" s="58"/>
+      <c r="K336" s="58"/>
+      <c r="L336" s="60"/>
       <c r="M336" s="13"/>
       <c r="N336" s="13"/>
       <c r="O336" s="13"/>
@@ -10818,11 +10856,11 @@
       <c r="F337" s="19"/>
       <c r="G337" s="19"/>
       <c r="H337" s="61"/>
-      <c r="I337" s="57"/>
-      <c r="J337" s="58"/>
-      <c r="K337" s="58"/>
-      <c r="L337" s="60"/>
-      <c r="M337" s="13"/>
+      <c r="I337" s="96"/>
+      <c r="J337" s="97"/>
+      <c r="K337" s="97"/>
+      <c r="L337" s="99"/>
+      <c r="M337" s="15"/>
       <c r="N337" s="13"/>
       <c r="O337" s="13"/>
       <c r="P337" s="13"/>
@@ -10849,7 +10887,7 @@
       <c r="I338" s="57"/>
       <c r="J338" s="58"/>
       <c r="K338" s="58"/>
-      <c r="L338" s="60"/>
+      <c r="L338" s="59"/>
       <c r="M338" s="15"/>
       <c r="N338" s="15"/>
       <c r="O338" s="15"/>
@@ -10874,10 +10912,10 @@
       <c r="F339" s="19"/>
       <c r="G339" s="19"/>
       <c r="H339" s="61"/>
-      <c r="I339" s="96"/>
-      <c r="J339" s="97"/>
-      <c r="K339" s="97"/>
-      <c r="L339" s="99"/>
+      <c r="I339" s="57"/>
+      <c r="J339" s="58"/>
+      <c r="K339" s="58"/>
+      <c r="L339" s="59"/>
       <c r="M339" s="15"/>
       <c r="N339" s="15"/>
       <c r="O339" s="15"/>
@@ -10902,10 +10940,10 @@
       <c r="F340" s="19"/>
       <c r="G340" s="19"/>
       <c r="H340" s="61"/>
-      <c r="I340" s="57"/>
-      <c r="J340" s="58"/>
-      <c r="K340" s="58"/>
-      <c r="L340" s="59"/>
+      <c r="I340" s="100"/>
+      <c r="J340" s="101"/>
+      <c r="K340" s="101"/>
+      <c r="L340" s="102"/>
       <c r="M340" s="15"/>
       <c r="N340" s="15"/>
       <c r="O340" s="15"/>
@@ -10930,10 +10968,10 @@
       <c r="F341" s="19"/>
       <c r="G341" s="19"/>
       <c r="H341" s="61"/>
-      <c r="I341" s="57"/>
-      <c r="J341" s="58"/>
-      <c r="K341" s="58"/>
-      <c r="L341" s="59"/>
+      <c r="I341" s="96"/>
+      <c r="J341" s="97"/>
+      <c r="K341" s="97"/>
+      <c r="L341" s="99"/>
       <c r="M341" s="15"/>
       <c r="N341" s="15"/>
       <c r="O341" s="15"/>
@@ -10957,11 +10995,11 @@
       <c r="E342" s="18"/>
       <c r="F342" s="19"/>
       <c r="G342" s="19"/>
-      <c r="H342" s="61"/>
-      <c r="I342" s="100"/>
-      <c r="J342" s="101"/>
-      <c r="K342" s="101"/>
-      <c r="L342" s="102"/>
+      <c r="H342" s="48"/>
+      <c r="I342" s="96"/>
+      <c r="J342" s="97"/>
+      <c r="K342" s="97"/>
+      <c r="L342" s="99"/>
       <c r="M342" s="15"/>
       <c r="N342" s="15"/>
       <c r="O342" s="15"/>
@@ -10986,10 +11024,10 @@
       <c r="F343" s="19"/>
       <c r="G343" s="19"/>
       <c r="H343" s="48"/>
-      <c r="I343" s="96"/>
-      <c r="J343" s="97"/>
-      <c r="K343" s="97"/>
-      <c r="L343" s="99"/>
+      <c r="I343" s="107"/>
+      <c r="J343" s="108"/>
+      <c r="K343" s="108"/>
+      <c r="L343" s="110"/>
       <c r="M343" s="15"/>
       <c r="N343" s="15"/>
       <c r="O343" s="15"/>
@@ -11006,14 +11044,14 @@
       <c r="Z343" s="15"/>
     </row>
     <row r="344" spans="1:26" s="36" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A344" s="14"/>
-      <c r="B344" s="19"/>
-      <c r="C344" s="18"/>
-      <c r="D344" s="18"/>
-      <c r="E344" s="18"/>
-      <c r="F344" s="19"/>
-      <c r="G344" s="19"/>
-      <c r="H344" s="48"/>
+      <c r="A344" s="37"/>
+      <c r="B344" s="81"/>
+      <c r="C344" s="38"/>
+      <c r="D344" s="38"/>
+      <c r="E344" s="38"/>
+      <c r="F344" s="81"/>
+      <c r="G344" s="81"/>
+      <c r="H344" s="82"/>
       <c r="I344" s="96"/>
       <c r="J344" s="97"/>
       <c r="K344" s="97"/>
@@ -11034,18 +11072,18 @@
       <c r="Z344" s="15"/>
     </row>
     <row r="345" spans="1:26" s="36" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A345" s="37"/>
-      <c r="B345" s="81"/>
-      <c r="C345" s="38"/>
-      <c r="D345" s="38"/>
-      <c r="E345" s="38"/>
-      <c r="F345" s="81"/>
-      <c r="G345" s="81"/>
-      <c r="H345" s="82"/>
-      <c r="I345" s="107"/>
-      <c r="J345" s="108"/>
-      <c r="K345" s="108"/>
-      <c r="L345" s="110"/>
+      <c r="A345" s="72"/>
+      <c r="B345" s="68"/>
+      <c r="C345" s="53"/>
+      <c r="D345" s="53"/>
+      <c r="E345" s="53"/>
+      <c r="F345" s="68"/>
+      <c r="G345" s="68"/>
+      <c r="H345" s="66"/>
+      <c r="I345" s="100"/>
+      <c r="J345" s="101"/>
+      <c r="K345" s="101"/>
+      <c r="L345" s="102"/>
       <c r="M345" s="15"/>
       <c r="N345" s="15"/>
       <c r="O345" s="15"/>
@@ -11070,11 +11108,11 @@
       <c r="F346" s="68"/>
       <c r="G346" s="68"/>
       <c r="H346" s="66"/>
-      <c r="I346" s="96"/>
-      <c r="J346" s="97"/>
-      <c r="K346" s="97"/>
-      <c r="L346" s="99"/>
-      <c r="M346" s="15"/>
+      <c r="I346" s="100"/>
+      <c r="J346" s="101"/>
+      <c r="K346" s="101"/>
+      <c r="L346" s="102"/>
+      <c r="M346" s="13"/>
       <c r="N346" s="15"/>
       <c r="O346" s="15"/>
       <c r="P346" s="15"/>
@@ -11098,10 +11136,10 @@
       <c r="F347" s="68"/>
       <c r="G347" s="68"/>
       <c r="H347" s="66"/>
-      <c r="I347" s="100"/>
-      <c r="J347" s="101"/>
-      <c r="K347" s="101"/>
-      <c r="L347" s="102"/>
+      <c r="I347" s="96"/>
+      <c r="J347" s="97"/>
+      <c r="K347" s="97"/>
+      <c r="L347" s="99"/>
       <c r="M347" s="13"/>
       <c r="N347" s="13"/>
       <c r="O347" s="13"/>
@@ -11154,10 +11192,10 @@
       <c r="F349" s="68"/>
       <c r="G349" s="68"/>
       <c r="H349" s="66"/>
-      <c r="I349" s="96"/>
-      <c r="J349" s="97"/>
-      <c r="K349" s="97"/>
-      <c r="L349" s="99"/>
+      <c r="I349" s="100"/>
+      <c r="J349" s="101"/>
+      <c r="K349" s="101"/>
+      <c r="L349" s="102"/>
       <c r="M349" s="13"/>
       <c r="N349" s="13"/>
       <c r="O349" s="13"/>
@@ -11182,10 +11220,10 @@
       <c r="F350" s="68"/>
       <c r="G350" s="68"/>
       <c r="H350" s="66"/>
-      <c r="I350" s="100"/>
-      <c r="J350" s="101"/>
-      <c r="K350" s="101"/>
-      <c r="L350" s="102"/>
+      <c r="I350" s="104"/>
+      <c r="J350" s="105"/>
+      <c r="K350" s="105"/>
+      <c r="L350" s="106"/>
       <c r="M350" s="13"/>
       <c r="N350" s="13"/>
       <c r="O350" s="13"/>
@@ -11202,18 +11240,18 @@
       <c r="Z350" s="13"/>
     </row>
     <row r="351" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A351" s="72"/>
-      <c r="B351" s="68"/>
-      <c r="C351" s="53"/>
-      <c r="D351" s="53"/>
-      <c r="E351" s="53"/>
-      <c r="F351" s="68"/>
-      <c r="G351" s="68"/>
-      <c r="H351" s="66"/>
-      <c r="I351" s="100"/>
-      <c r="J351" s="101"/>
-      <c r="K351" s="101"/>
-      <c r="L351" s="102"/>
+      <c r="A351" s="74"/>
+      <c r="B351" s="75"/>
+      <c r="C351" s="76"/>
+      <c r="D351" s="76"/>
+      <c r="E351" s="76"/>
+      <c r="F351" s="75"/>
+      <c r="G351" s="75"/>
+      <c r="H351" s="77"/>
+      <c r="I351" s="104"/>
+      <c r="J351" s="105"/>
+      <c r="K351" s="105"/>
+      <c r="L351" s="106"/>
       <c r="M351" s="13"/>
       <c r="N351" s="13"/>
       <c r="O351" s="13"/>
@@ -11294,10 +11332,10 @@
       <c r="F354" s="75"/>
       <c r="G354" s="75"/>
       <c r="H354" s="77"/>
-      <c r="I354" s="104"/>
-      <c r="J354" s="105"/>
-      <c r="K354" s="105"/>
-      <c r="L354" s="106"/>
+      <c r="I354" s="96"/>
+      <c r="J354" s="97"/>
+      <c r="K354" s="97"/>
+      <c r="L354" s="99"/>
       <c r="M354" s="13"/>
       <c r="N354" s="13"/>
       <c r="O354" s="13"/>
@@ -11314,18 +11352,18 @@
       <c r="Z354" s="13"/>
     </row>
     <row r="355" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A355" s="74"/>
-      <c r="B355" s="75"/>
-      <c r="C355" s="76"/>
-      <c r="D355" s="76"/>
-      <c r="E355" s="76"/>
-      <c r="F355" s="75"/>
-      <c r="G355" s="75"/>
-      <c r="H355" s="77"/>
-      <c r="I355" s="104"/>
-      <c r="J355" s="105"/>
-      <c r="K355" s="105"/>
-      <c r="L355" s="106"/>
+      <c r="A355" s="72"/>
+      <c r="B355" s="68"/>
+      <c r="C355" s="53"/>
+      <c r="D355" s="53"/>
+      <c r="E355" s="53"/>
+      <c r="F355" s="68"/>
+      <c r="G355" s="68"/>
+      <c r="H355" s="66"/>
+      <c r="I355" s="96"/>
+      <c r="J355" s="97"/>
+      <c r="K355" s="97"/>
+      <c r="L355" s="99"/>
       <c r="M355" s="13"/>
       <c r="N355" s="13"/>
       <c r="O355" s="13"/>
@@ -11354,7 +11392,7 @@
       <c r="J356" s="97"/>
       <c r="K356" s="97"/>
       <c r="L356" s="99"/>
-      <c r="M356" s="13"/>
+      <c r="M356" s="15"/>
       <c r="N356" s="13"/>
       <c r="O356" s="13"/>
       <c r="P356" s="13"/>
@@ -11382,7 +11420,7 @@
       <c r="J357" s="97"/>
       <c r="K357" s="97"/>
       <c r="L357" s="99"/>
-      <c r="M357" s="15"/>
+      <c r="M357" s="13"/>
       <c r="N357" s="15"/>
       <c r="O357" s="15"/>
       <c r="P357" s="15"/>
@@ -11427,7 +11465,7 @@
     </row>
     <row r="359" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A359" s="72"/>
-      <c r="B359" s="68"/>
+      <c r="B359" s="80"/>
       <c r="C359" s="53"/>
       <c r="D359" s="53"/>
       <c r="E359" s="53"/>
@@ -11483,7 +11521,7 @@
     </row>
     <row r="361" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A361" s="72"/>
-      <c r="B361" s="80"/>
+      <c r="B361" s="68"/>
       <c r="C361" s="53"/>
       <c r="D361" s="53"/>
       <c r="E361" s="53"/>
@@ -11550,7 +11588,7 @@
       <c r="J363" s="97"/>
       <c r="K363" s="97"/>
       <c r="L363" s="99"/>
-      <c r="M363" s="13"/>
+      <c r="M363" s="78"/>
       <c r="N363" s="13"/>
       <c r="O363" s="13"/>
       <c r="P363" s="13"/>
@@ -11566,14 +11604,14 @@
       <c r="Z363" s="13"/>
     </row>
     <row r="364" spans="1:26" s="79" customFormat="1" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A364" s="72"/>
-      <c r="B364" s="68"/>
-      <c r="C364" s="53"/>
-      <c r="D364" s="53"/>
-      <c r="E364" s="53"/>
-      <c r="F364" s="68"/>
-      <c r="G364" s="68"/>
-      <c r="H364" s="66"/>
+      <c r="A364" s="14"/>
+      <c r="B364" s="19"/>
+      <c r="C364" s="18"/>
+      <c r="D364" s="18"/>
+      <c r="E364" s="18"/>
+      <c r="F364" s="19"/>
+      <c r="G364" s="19"/>
+      <c r="H364" s="48"/>
       <c r="I364" s="96"/>
       <c r="J364" s="97"/>
       <c r="K364" s="97"/>
@@ -11630,10 +11668,10 @@
       <c r="F366" s="19"/>
       <c r="G366" s="19"/>
       <c r="H366" s="48"/>
-      <c r="I366" s="96"/>
-      <c r="J366" s="97"/>
-      <c r="K366" s="97"/>
-      <c r="L366" s="99"/>
+      <c r="I366" s="100"/>
+      <c r="J366" s="101"/>
+      <c r="K366" s="101"/>
+      <c r="L366" s="102"/>
       <c r="M366" s="78"/>
       <c r="N366" s="78"/>
       <c r="O366" s="78"/>
@@ -11657,12 +11695,12 @@
       <c r="E367" s="18"/>
       <c r="F367" s="19"/>
       <c r="G367" s="19"/>
-      <c r="H367" s="48"/>
-      <c r="I367" s="96"/>
-      <c r="J367" s="97"/>
-      <c r="K367" s="97"/>
-      <c r="L367" s="99"/>
-      <c r="M367" s="78"/>
+      <c r="H367" s="93"/>
+      <c r="I367" s="100"/>
+      <c r="J367" s="101"/>
+      <c r="K367" s="101"/>
+      <c r="L367" s="102"/>
+      <c r="M367" s="13"/>
       <c r="N367" s="78"/>
       <c r="O367" s="78"/>
       <c r="P367" s="78"/>
@@ -11741,8 +11779,8 @@
       <c r="E370" s="18"/>
       <c r="F370" s="19"/>
       <c r="G370" s="19"/>
-      <c r="H370" s="93"/>
-      <c r="I370" s="100"/>
+      <c r="H370" s="94"/>
+      <c r="I370" s="103"/>
       <c r="J370" s="101"/>
       <c r="K370" s="101"/>
       <c r="L370" s="102"/>
@@ -11769,11 +11807,11 @@
       <c r="E371" s="18"/>
       <c r="F371" s="19"/>
       <c r="G371" s="19"/>
-      <c r="H371" s="94"/>
-      <c r="I371" s="100"/>
-      <c r="J371" s="101"/>
-      <c r="K371" s="101"/>
-      <c r="L371" s="102"/>
+      <c r="H371" s="19"/>
+      <c r="I371" s="96"/>
+      <c r="J371" s="97"/>
+      <c r="K371" s="97"/>
+      <c r="L371" s="99"/>
       <c r="M371" s="13"/>
       <c r="N371" s="13"/>
       <c r="O371" s="13"/>
@@ -11797,8 +11835,8 @@
       <c r="E372" s="18"/>
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
-      <c r="H372" s="19"/>
-      <c r="I372" s="103"/>
+      <c r="H372" s="48"/>
+      <c r="I372" s="100"/>
       <c r="J372" s="101"/>
       <c r="K372" s="101"/>
       <c r="L372" s="102"/>
@@ -11854,10 +11892,10 @@
       <c r="F374" s="19"/>
       <c r="G374" s="19"/>
       <c r="H374" s="48"/>
-      <c r="I374" s="100"/>
-      <c r="J374" s="101"/>
-      <c r="K374" s="101"/>
-      <c r="L374" s="102"/>
+      <c r="I374" s="96"/>
+      <c r="J374" s="97"/>
+      <c r="K374" s="97"/>
+      <c r="L374" s="99"/>
       <c r="M374" s="13"/>
       <c r="N374" s="13"/>
       <c r="O374" s="13"/>
@@ -11882,10 +11920,10 @@
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
       <c r="H375" s="48"/>
-      <c r="I375" s="96"/>
-      <c r="J375" s="97"/>
-      <c r="K375" s="97"/>
-      <c r="L375" s="99"/>
+      <c r="I375" s="100"/>
+      <c r="J375" s="101"/>
+      <c r="K375" s="101"/>
+      <c r="L375" s="102"/>
       <c r="M375" s="13"/>
       <c r="N375" s="13"/>
       <c r="O375" s="13"/>
@@ -11938,10 +11976,6 @@
       <c r="F377" s="19"/>
       <c r="G377" s="19"/>
       <c r="H377" s="48"/>
-      <c r="I377" s="100"/>
-      <c r="J377" s="101"/>
-      <c r="K377" s="101"/>
-      <c r="L377" s="102"/>
       <c r="M377" s="13"/>
       <c r="N377" s="13"/>
       <c r="O377" s="13"/>
@@ -11957,19 +11991,11 @@
       <c r="Y377" s="13"/>
       <c r="Z377" s="13"/>
     </row>
-    <row r="378" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A378" s="14"/>
-      <c r="B378" s="19"/>
-      <c r="C378" s="18"/>
-      <c r="D378" s="18"/>
-      <c r="E378" s="18"/>
-      <c r="F378" s="19"/>
-      <c r="G378" s="19"/>
-      <c r="H378" s="48"/>
+    <row r="378" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
       <c r="I378" s="96"/>
       <c r="J378" s="97"/>
       <c r="K378" s="97"/>
-      <c r="L378" s="99"/>
+      <c r="L378" s="98"/>
       <c r="M378" s="13"/>
       <c r="N378" s="13"/>
       <c r="O378" s="13"/>
@@ -11985,7 +12011,19 @@
       <c r="Y378" s="13"/>
       <c r="Z378" s="13"/>
     </row>
-    <row r="379" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
+      <c r="A379" s="14"/>
+      <c r="B379" s="19"/>
+      <c r="C379" s="18"/>
+      <c r="D379" s="18"/>
+      <c r="E379" s="18"/>
+      <c r="F379" s="19"/>
+      <c r="G379" s="19"/>
+      <c r="H379" s="48"/>
+      <c r="I379" s="96"/>
+      <c r="J379" s="97"/>
+      <c r="K379" s="97"/>
+      <c r="L379" s="98"/>
       <c r="M379" s="13"/>
       <c r="N379" s="13"/>
       <c r="O379" s="13"/>
@@ -18786,10 +18824,10 @@
       <c r="F622" s="19"/>
       <c r="G622" s="19"/>
       <c r="H622" s="48"/>
-      <c r="I622" s="96"/>
-      <c r="J622" s="97"/>
-      <c r="K622" s="97"/>
-      <c r="L622" s="98"/>
+      <c r="I622" s="18"/>
+      <c r="J622" s="18"/>
+      <c r="K622" s="18"/>
+      <c r="L622" s="18"/>
       <c r="M622" s="13"/>
       <c r="N622" s="13"/>
       <c r="O622" s="13"/>
@@ -18805,19 +18843,19 @@
       <c r="Y622" s="13"/>
       <c r="Z622" s="13"/>
     </row>
-    <row r="623" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A623" s="14"/>
-      <c r="B623" s="19"/>
+    <row r="623" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
+      <c r="A623" s="13"/>
+      <c r="B623" s="18"/>
       <c r="C623" s="18"/>
       <c r="D623" s="18"/>
       <c r="E623" s="18"/>
-      <c r="F623" s="19"/>
-      <c r="G623" s="19"/>
-      <c r="H623" s="48"/>
-      <c r="I623" s="96"/>
-      <c r="J623" s="97"/>
-      <c r="K623" s="97"/>
-      <c r="L623" s="98"/>
+      <c r="F623" s="18"/>
+      <c r="G623" s="18"/>
+      <c r="H623" s="18"/>
+      <c r="I623" s="18"/>
+      <c r="J623" s="18"/>
+      <c r="K623" s="18"/>
+      <c r="L623" s="18"/>
       <c r="M623" s="13"/>
       <c r="N623" s="13"/>
       <c r="O623" s="13"/>
@@ -30266,10 +30304,6 @@
       <c r="F1032" s="18"/>
       <c r="G1032" s="18"/>
       <c r="H1032" s="18"/>
-      <c r="I1032" s="18"/>
-      <c r="J1032" s="18"/>
-      <c r="K1032" s="18"/>
-      <c r="L1032" s="18"/>
       <c r="M1032" s="13"/>
       <c r="N1032" s="13"/>
       <c r="O1032" s="13"/>
@@ -30286,18 +30320,6 @@
       <c r="Z1032" s="13"/>
     </row>
     <row r="1033" spans="1:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A1033" s="13"/>
-      <c r="B1033" s="18"/>
-      <c r="C1033" s="18"/>
-      <c r="D1033" s="18"/>
-      <c r="E1033" s="18"/>
-      <c r="F1033" s="18"/>
-      <c r="G1033" s="18"/>
-      <c r="H1033" s="18"/>
-      <c r="I1033" s="18"/>
-      <c r="J1033" s="18"/>
-      <c r="K1033" s="18"/>
-      <c r="L1033" s="18"/>
       <c r="M1033" s="13"/>
       <c r="N1033" s="13"/>
       <c r="O1033" s="13"/>
@@ -30490,7 +30512,6 @@
       <c r="Z1044" s="13"/>
     </row>
     <row r="1045" spans="13:26" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="M1045" s="13"/>
       <c r="N1045" s="13"/>
       <c r="O1045" s="13"/>
       <c r="P1045" s="13"/>
@@ -30506,65 +30527,68 @@
       <c r="Z1045" s="13"/>
     </row>
   </sheetData>
-  <mergeCells count="611">
-    <mergeCell ref="I326:L326"/>
+  <mergeCells count="610">
+    <mergeCell ref="I5:L5"/>
     <mergeCell ref="I324:L324"/>
+    <mergeCell ref="I322:L322"/>
+    <mergeCell ref="I328:L328"/>
+    <mergeCell ref="I340:L340"/>
     <mergeCell ref="I330:L330"/>
-    <mergeCell ref="I342:L342"/>
+    <mergeCell ref="I331:L331"/>
     <mergeCell ref="I332:L332"/>
-    <mergeCell ref="I333:L333"/>
     <mergeCell ref="I334:L334"/>
-    <mergeCell ref="I336:L336"/>
-    <mergeCell ref="I339:L339"/>
+    <mergeCell ref="I337:L337"/>
+    <mergeCell ref="I317:L317"/>
+    <mergeCell ref="I318:L318"/>
     <mergeCell ref="I319:L319"/>
     <mergeCell ref="I320:L320"/>
     <mergeCell ref="I321:L321"/>
-    <mergeCell ref="I322:L322"/>
     <mergeCell ref="I323:L323"/>
-    <mergeCell ref="I325:L325"/>
+    <mergeCell ref="I306:L306"/>
+    <mergeCell ref="I307:L307"/>
     <mergeCell ref="I308:L308"/>
     <mergeCell ref="I309:L309"/>
     <mergeCell ref="I310:L310"/>
     <mergeCell ref="I311:L311"/>
     <mergeCell ref="I312:L312"/>
     <mergeCell ref="I313:L313"/>
+    <mergeCell ref="I316:L316"/>
     <mergeCell ref="I314:L314"/>
     <mergeCell ref="I315:L315"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="I316:L316"/>
-    <mergeCell ref="I317:L317"/>
+    <mergeCell ref="I252:L252"/>
+    <mergeCell ref="I253:L253"/>
+    <mergeCell ref="I284:L284"/>
+    <mergeCell ref="I285:L285"/>
+    <mergeCell ref="I286:L286"/>
+    <mergeCell ref="I287:L287"/>
+    <mergeCell ref="I289:L289"/>
+    <mergeCell ref="I290:L290"/>
+    <mergeCell ref="I291:L291"/>
     <mergeCell ref="I254:L254"/>
     <mergeCell ref="I255:L255"/>
-    <mergeCell ref="I286:L286"/>
-    <mergeCell ref="I287:L287"/>
-    <mergeCell ref="I288:L288"/>
-    <mergeCell ref="I289:L289"/>
-    <mergeCell ref="I291:L291"/>
-    <mergeCell ref="I292:L292"/>
-    <mergeCell ref="I293:L293"/>
     <mergeCell ref="I256:L256"/>
     <mergeCell ref="I257:L257"/>
     <mergeCell ref="I258:L258"/>
+    <mergeCell ref="I260:L260"/>
     <mergeCell ref="I259:L259"/>
-    <mergeCell ref="I260:L260"/>
+    <mergeCell ref="I271:L271"/>
+    <mergeCell ref="I272:L272"/>
+    <mergeCell ref="I270:L270"/>
+    <mergeCell ref="I261:L261"/>
     <mergeCell ref="I262:L262"/>
-    <mergeCell ref="I261:L261"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="I274:L274"/>
-    <mergeCell ref="I272:L272"/>
     <mergeCell ref="I263:L263"/>
     <mergeCell ref="I264:L264"/>
     <mergeCell ref="I265:L265"/>
-    <mergeCell ref="I266:L266"/>
-    <mergeCell ref="I267:L267"/>
-    <mergeCell ref="I253:L253"/>
+    <mergeCell ref="I251:L251"/>
+    <mergeCell ref="I230:L230"/>
+    <mergeCell ref="I231:L231"/>
     <mergeCell ref="I232:L232"/>
     <mergeCell ref="I233:L233"/>
     <mergeCell ref="I234:L234"/>
     <mergeCell ref="I235:L235"/>
     <mergeCell ref="I236:L236"/>
-    <mergeCell ref="I237:L237"/>
     <mergeCell ref="I238:L238"/>
+    <mergeCell ref="I239:L239"/>
     <mergeCell ref="I240:L240"/>
     <mergeCell ref="I241:L241"/>
     <mergeCell ref="I242:L242"/>
@@ -30573,263 +30597,261 @@
     <mergeCell ref="I245:L245"/>
     <mergeCell ref="I246:L246"/>
     <mergeCell ref="I247:L247"/>
+    <mergeCell ref="I249:L249"/>
+    <mergeCell ref="I250:L250"/>
+    <mergeCell ref="I237:L237"/>
     <mergeCell ref="I248:L248"/>
-    <mergeCell ref="I249:L249"/>
-    <mergeCell ref="I251:L251"/>
-    <mergeCell ref="I252:L252"/>
-    <mergeCell ref="I239:L239"/>
-    <mergeCell ref="I250:L250"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I68:L68"/>
     <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I70:L70"/>
     <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I128:L128"/>
     <mergeCell ref="I126:L126"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="I127:L127"/>
     <mergeCell ref="I107:L107"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="I68:L68"/>
     <mergeCell ref="I111:L111"/>
     <mergeCell ref="I110:L110"/>
-    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I93:L93"/>
     <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="I72:L72"/>
     <mergeCell ref="I97:L97"/>
     <mergeCell ref="I104:L104"/>
-    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I92:L92"/>
     <mergeCell ref="I101:L101"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="I108:L108"/>
     <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I89:L89"/>
     <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I81:L81"/>
     <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="I113:L113"/>
     <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="I223:L223"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="I221:L221"/>
+    <mergeCell ref="I197:L197"/>
+    <mergeCell ref="I166:L166"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="I185:L185"/>
+    <mergeCell ref="I186:L186"/>
+    <mergeCell ref="I191:L191"/>
+    <mergeCell ref="I192:L192"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="I196:L196"/>
     <mergeCell ref="I199:L199"/>
-    <mergeCell ref="I168:L168"/>
-    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="I220:L220"/>
+    <mergeCell ref="I203:L203"/>
+    <mergeCell ref="I208:L208"/>
+    <mergeCell ref="I209:L209"/>
+    <mergeCell ref="I210:L210"/>
+    <mergeCell ref="I212:L212"/>
+    <mergeCell ref="I213:L213"/>
+    <mergeCell ref="I211:L211"/>
+    <mergeCell ref="I206:L206"/>
+    <mergeCell ref="I204:L204"/>
+    <mergeCell ref="I207:L207"/>
+    <mergeCell ref="I214:L214"/>
+    <mergeCell ref="I217:L217"/>
+    <mergeCell ref="I219:L219"/>
+    <mergeCell ref="I205:L205"/>
+    <mergeCell ref="I201:L201"/>
+    <mergeCell ref="I218:L218"/>
+    <mergeCell ref="I200:L200"/>
+    <mergeCell ref="I202:L202"/>
+    <mergeCell ref="I195:L195"/>
+    <mergeCell ref="I194:L194"/>
+    <mergeCell ref="I193:L193"/>
     <mergeCell ref="I187:L187"/>
-    <mergeCell ref="I188:L188"/>
-    <mergeCell ref="I193:L193"/>
-    <mergeCell ref="I194:L194"/>
-    <mergeCell ref="I156:L156"/>
-    <mergeCell ref="I176:L176"/>
-    <mergeCell ref="I179:L179"/>
-    <mergeCell ref="I198:L198"/>
-    <mergeCell ref="I201:L201"/>
-    <mergeCell ref="I222:L222"/>
-    <mergeCell ref="I205:L205"/>
-    <mergeCell ref="I210:L210"/>
-    <mergeCell ref="I211:L211"/>
-    <mergeCell ref="I212:L212"/>
-    <mergeCell ref="I214:L214"/>
-    <mergeCell ref="I215:L215"/>
-    <mergeCell ref="I213:L213"/>
-    <mergeCell ref="I208:L208"/>
-    <mergeCell ref="I206:L206"/>
-    <mergeCell ref="I209:L209"/>
-    <mergeCell ref="I216:L216"/>
-    <mergeCell ref="I219:L219"/>
-    <mergeCell ref="I221:L221"/>
-    <mergeCell ref="I207:L207"/>
-    <mergeCell ref="I203:L203"/>
-    <mergeCell ref="I220:L220"/>
-    <mergeCell ref="I202:L202"/>
-    <mergeCell ref="I204:L204"/>
-    <mergeCell ref="I197:L197"/>
-    <mergeCell ref="I196:L196"/>
-    <mergeCell ref="I195:L195"/>
-    <mergeCell ref="I189:L189"/>
-    <mergeCell ref="I192:L192"/>
-    <mergeCell ref="I175:L175"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="I162:L162"/>
-    <mergeCell ref="I152:L152"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="I163:L163"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="I186:L186"/>
-    <mergeCell ref="I157:L157"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="I158:L158"/>
-    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="I190:L190"/>
+    <mergeCell ref="I173:L173"/>
     <mergeCell ref="I148:L148"/>
-    <mergeCell ref="I171:L171"/>
-    <mergeCell ref="I182:L182"/>
-    <mergeCell ref="I151:L151"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="I183:L183"/>
     <mergeCell ref="I135:L135"/>
     <mergeCell ref="I160:L160"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="I184:L184"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="I158:L158"/>
     <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I155:L155"/>
-    <mergeCell ref="I167:L167"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="I180:L180"/>
-    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="I165:L165"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="I79:L79"/>
     <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="I159:L159"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I229:L229"/>
+    <mergeCell ref="I223:L223"/>
+    <mergeCell ref="I226:L226"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="I225:L225"/>
+    <mergeCell ref="I224:L224"/>
+    <mergeCell ref="I227:L227"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="I182:L182"/>
+    <mergeCell ref="I183:L183"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="I188:L188"/>
+    <mergeCell ref="I189:L189"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="I198:L198"/>
+    <mergeCell ref="I216:L216"/>
+    <mergeCell ref="I215:L215"/>
+    <mergeCell ref="I222:L222"/>
+    <mergeCell ref="I41:L41"/>
     <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
     <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I231:L231"/>
-    <mergeCell ref="I225:L225"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="I230:L230"/>
-    <mergeCell ref="I227:L227"/>
-    <mergeCell ref="I226:L226"/>
-    <mergeCell ref="I229:L229"/>
-    <mergeCell ref="I178:L178"/>
-    <mergeCell ref="I164:L164"/>
-    <mergeCell ref="I173:L173"/>
-    <mergeCell ref="I174:L174"/>
-    <mergeCell ref="I184:L184"/>
-    <mergeCell ref="I185:L185"/>
-    <mergeCell ref="I181:L181"/>
-    <mergeCell ref="I165:L165"/>
-    <mergeCell ref="I166:L166"/>
-    <mergeCell ref="I172:L172"/>
-    <mergeCell ref="I190:L190"/>
-    <mergeCell ref="I191:L191"/>
-    <mergeCell ref="I170:L170"/>
-    <mergeCell ref="I200:L200"/>
-    <mergeCell ref="I218:L218"/>
-    <mergeCell ref="I217:L217"/>
-    <mergeCell ref="I224:L224"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I64:L64"/>
     <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
     <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I50:L50"/>
     <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I61:L61"/>
     <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I62:L62"/>
     <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I59:L59"/>
     <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I11:L11"/>
     <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
     <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I10:L10"/>
     <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I15:L15"/>
     <mergeCell ref="I1:L1"/>
     <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I42:L42"/>
     <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I43:L43"/>
     <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I47:L47"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I7:L7"/>
     <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I266:L266"/>
+    <mergeCell ref="I267:L267"/>
     <mergeCell ref="I268:L268"/>
     <mergeCell ref="I269:L269"/>
-    <mergeCell ref="I270:L270"/>
-    <mergeCell ref="I271:L271"/>
-    <mergeCell ref="I283:L283"/>
+    <mergeCell ref="I281:L281"/>
+    <mergeCell ref="I274:L274"/>
+    <mergeCell ref="I273:L273"/>
     <mergeCell ref="I276:L276"/>
-    <mergeCell ref="I275:L275"/>
+    <mergeCell ref="I277:L277"/>
     <mergeCell ref="I278:L278"/>
     <mergeCell ref="I279:L279"/>
     <mergeCell ref="I280:L280"/>
-    <mergeCell ref="I281:L281"/>
+    <mergeCell ref="I275:L275"/>
     <mergeCell ref="I282:L282"/>
-    <mergeCell ref="I277:L277"/>
-    <mergeCell ref="I284:L284"/>
-    <mergeCell ref="I290:L290"/>
+    <mergeCell ref="I288:L288"/>
+    <mergeCell ref="I341:L341"/>
+    <mergeCell ref="I342:L342"/>
     <mergeCell ref="I343:L343"/>
     <mergeCell ref="I344:L344"/>
     <mergeCell ref="I345:L345"/>
     <mergeCell ref="I346:L346"/>
     <mergeCell ref="I347:L347"/>
-    <mergeCell ref="I348:L348"/>
-    <mergeCell ref="I349:L349"/>
-    <mergeCell ref="I285:L285"/>
+    <mergeCell ref="I283:L283"/>
+    <mergeCell ref="I292:L292"/>
+    <mergeCell ref="I293:L293"/>
     <mergeCell ref="I294:L294"/>
     <mergeCell ref="I295:L295"/>
     <mergeCell ref="I296:L296"/>
@@ -30842,10 +30864,10 @@
     <mergeCell ref="I303:L303"/>
     <mergeCell ref="I304:L304"/>
     <mergeCell ref="I305:L305"/>
-    <mergeCell ref="I306:L306"/>
-    <mergeCell ref="I307:L307"/>
-    <mergeCell ref="I365:L365"/>
-    <mergeCell ref="I366:L366"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="I364:L364"/>
+    <mergeCell ref="I348:L348"/>
+    <mergeCell ref="I349:L349"/>
     <mergeCell ref="I350:L350"/>
     <mergeCell ref="I351:L351"/>
     <mergeCell ref="I352:L352"/>
@@ -30853,17 +30875,17 @@
     <mergeCell ref="I354:L354"/>
     <mergeCell ref="I355:L355"/>
     <mergeCell ref="I356:L356"/>
-    <mergeCell ref="I357:L357"/>
-    <mergeCell ref="I358:L358"/>
+    <mergeCell ref="I374:L374"/>
+    <mergeCell ref="I375:L375"/>
     <mergeCell ref="I376:L376"/>
-    <mergeCell ref="I377:L377"/>
+    <mergeCell ref="I2:L2"/>
     <mergeCell ref="I378:L378"/>
-    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I379:L379"/>
     <mergeCell ref="I380:L380"/>
     <mergeCell ref="I381:L381"/>
     <mergeCell ref="I382:L382"/>
-    <mergeCell ref="I383:L383"/>
-    <mergeCell ref="I384:L384"/>
+    <mergeCell ref="I365:L365"/>
+    <mergeCell ref="I366:L366"/>
     <mergeCell ref="I367:L367"/>
     <mergeCell ref="I368:L368"/>
     <mergeCell ref="I369:L369"/>
@@ -30871,14 +30893,14 @@
     <mergeCell ref="I371:L371"/>
     <mergeCell ref="I372:L372"/>
     <mergeCell ref="I373:L373"/>
-    <mergeCell ref="I374:L374"/>
-    <mergeCell ref="I375:L375"/>
+    <mergeCell ref="I357:L357"/>
+    <mergeCell ref="I358:L358"/>
     <mergeCell ref="I359:L359"/>
     <mergeCell ref="I360:L360"/>
     <mergeCell ref="I361:L361"/>
     <mergeCell ref="I362:L362"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="I364:L364"/>
+    <mergeCell ref="I383:L383"/>
+    <mergeCell ref="I384:L384"/>
     <mergeCell ref="I385:L385"/>
     <mergeCell ref="I386:L386"/>
     <mergeCell ref="I387:L387"/>
@@ -31102,13 +31124,13 @@
     <mergeCell ref="I605:L605"/>
     <mergeCell ref="I606:L606"/>
     <mergeCell ref="I607:L607"/>
-    <mergeCell ref="I608:L608"/>
-    <mergeCell ref="I609:L609"/>
+    <mergeCell ref="I617:L617"/>
+    <mergeCell ref="I618:L618"/>
     <mergeCell ref="I619:L619"/>
     <mergeCell ref="I620:L620"/>
     <mergeCell ref="I621:L621"/>
-    <mergeCell ref="I622:L622"/>
-    <mergeCell ref="I623:L623"/>
+    <mergeCell ref="I608:L608"/>
+    <mergeCell ref="I609:L609"/>
     <mergeCell ref="I610:L610"/>
     <mergeCell ref="I611:L611"/>
     <mergeCell ref="I612:L612"/>
@@ -31116,8 +31138,6 @@
     <mergeCell ref="I614:L614"/>
     <mergeCell ref="I615:L615"/>
     <mergeCell ref="I616:L616"/>
-    <mergeCell ref="I617:L617"/>
-    <mergeCell ref="I618:L618"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Log/實驗室公費記賬.xlsx
+++ b/Log/實驗室公費記賬.xlsx
@@ -835,9 +835,6 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -850,19 +847,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -871,65 +868,13 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -959,22 +904,77 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1263,7 +1263,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I15" sqref="I15:L16"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1305,12 +1305,12 @@
       <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="134" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="122"/>
-      <c r="K1" s="122"/>
-      <c r="L1" s="123"/>
+      <c r="J1" s="135"/>
+      <c r="K1" s="135"/>
+      <c r="L1" s="136"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
       <c r="O1" s="35"/>
@@ -1349,10 +1349,10 @@
       <c r="H2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="100"/>
+      <c r="I2" s="99"/>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
-      <c r="L2" s="98"/>
+      <c r="L2" s="105"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -1392,12 +1392,12 @@
       <c r="H3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="118" t="s">
+      <c r="I3" s="124" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="120"/>
+      <c r="J3" s="125"/>
+      <c r="K3" s="125"/>
+      <c r="L3" s="126"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -1437,10 +1437,10 @@
       <c r="H4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="115"/>
-      <c r="J4" s="116"/>
-      <c r="K4" s="116"/>
-      <c r="L4" s="117"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="122"/>
+      <c r="L4" s="123"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -1480,10 +1480,10 @@
       <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="115"/>
-      <c r="J5" s="116"/>
-      <c r="K5" s="116"/>
-      <c r="L5" s="117"/>
+      <c r="I5" s="121"/>
+      <c r="J5" s="122"/>
+      <c r="K5" s="122"/>
+      <c r="L5" s="123"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -1523,10 +1523,10 @@
       <c r="H6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="115"/>
-      <c r="J6" s="116"/>
-      <c r="K6" s="116"/>
-      <c r="L6" s="117"/>
+      <c r="I6" s="121"/>
+      <c r="J6" s="122"/>
+      <c r="K6" s="122"/>
+      <c r="L6" s="123"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -1566,10 +1566,10 @@
       <c r="H7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="115"/>
-      <c r="J7" s="116"/>
-      <c r="K7" s="116"/>
-      <c r="L7" s="117"/>
+      <c r="I7" s="121"/>
+      <c r="J7" s="122"/>
+      <c r="K7" s="122"/>
+      <c r="L7" s="123"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1609,10 +1609,10 @@
       <c r="H8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="115"/>
-      <c r="J8" s="116"/>
-      <c r="K8" s="116"/>
-      <c r="L8" s="117"/>
+      <c r="I8" s="121"/>
+      <c r="J8" s="122"/>
+      <c r="K8" s="122"/>
+      <c r="L8" s="123"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -1652,12 +1652,12 @@
       <c r="H9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="115" t="s">
+      <c r="I9" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="116"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
+      <c r="J9" s="122"/>
+      <c r="K9" s="122"/>
+      <c r="L9" s="123"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -1697,12 +1697,12 @@
       <c r="H10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="115" t="s">
+      <c r="I10" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="116"/>
-      <c r="K10" s="116"/>
-      <c r="L10" s="117"/>
+      <c r="J10" s="122"/>
+      <c r="K10" s="122"/>
+      <c r="L10" s="123"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1742,12 +1742,12 @@
       <c r="H11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="115" t="s">
+      <c r="I11" s="121" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="116"/>
-      <c r="K11" s="116"/>
-      <c r="L11" s="117"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="123"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1787,10 +1787,10 @@
       <c r="H12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="115"/>
-      <c r="J12" s="116"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
+      <c r="I12" s="121"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="123"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -1830,12 +1830,12 @@
       <c r="H13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="115" t="s">
+      <c r="I13" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="116"/>
-      <c r="K13" s="116"/>
-      <c r="L13" s="117"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="123"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1875,12 +1875,12 @@
       <c r="H14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="115" t="s">
+      <c r="I14" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="116"/>
-      <c r="K14" s="116"/>
-      <c r="L14" s="117"/>
+      <c r="J14" s="122"/>
+      <c r="K14" s="122"/>
+      <c r="L14" s="123"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -1920,12 +1920,12 @@
       <c r="H15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="115" t="s">
+      <c r="I15" s="121" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="116"/>
-      <c r="K15" s="116"/>
-      <c r="L15" s="117"/>
+      <c r="J15" s="122"/>
+      <c r="K15" s="122"/>
+      <c r="L15" s="123"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -1965,12 +1965,12 @@
       <c r="H16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="115" t="s">
+      <c r="I16" s="121" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="116"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
+      <c r="J16" s="122"/>
+      <c r="K16" s="122"/>
+      <c r="L16" s="123"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -1989,16 +1989,21 @@
     <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="18"/>
-      <c r="C17" s="18"/>
+      <c r="C17" s="18">
+        <v>9310</v>
+      </c>
       <c r="D17" s="18"/>
-      <c r="E17" s="18"/>
+      <c r="E17" s="18">
+        <f>SUM(E16,-C17)</f>
+        <v>20092</v>
+      </c>
       <c r="F17" s="19"/>
       <c r="G17" s="19"/>
       <c r="H17" s="19"/>
-      <c r="I17" s="115"/>
-      <c r="J17" s="116"/>
-      <c r="K17" s="116"/>
-      <c r="L17" s="117"/>
+      <c r="I17" s="121"/>
+      <c r="J17" s="122"/>
+      <c r="K17" s="122"/>
+      <c r="L17" s="123"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -2023,10 +2028,10 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="115"/>
-      <c r="J18" s="116"/>
-      <c r="K18" s="116"/>
-      <c r="L18" s="117"/>
+      <c r="I18" s="121"/>
+      <c r="J18" s="122"/>
+      <c r="K18" s="122"/>
+      <c r="L18" s="123"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -2051,10 +2056,10 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="116"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
+      <c r="I19" s="121"/>
+      <c r="J19" s="122"/>
+      <c r="K19" s="122"/>
+      <c r="L19" s="123"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -2079,10 +2084,10 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="115"/>
-      <c r="J20" s="116"/>
-      <c r="K20" s="116"/>
-      <c r="L20" s="117"/>
+      <c r="I20" s="121"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="123"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -2107,10 +2112,10 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="115"/>
-      <c r="J21" s="116"/>
-      <c r="K21" s="116"/>
-      <c r="L21" s="117"/>
+      <c r="I21" s="121"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="123"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -2135,10 +2140,10 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="116"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
+      <c r="I22" s="121"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="123"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -2163,10 +2168,10 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="118"/>
-      <c r="J23" s="119"/>
-      <c r="K23" s="119"/>
-      <c r="L23" s="120"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="126"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -2191,10 +2196,10 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="115"/>
-      <c r="J24" s="116"/>
-      <c r="K24" s="116"/>
-      <c r="L24" s="117"/>
+      <c r="I24" s="121"/>
+      <c r="J24" s="122"/>
+      <c r="K24" s="122"/>
+      <c r="L24" s="123"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -2219,10 +2224,10 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="116"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
+      <c r="I25" s="121"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123"/>
       <c r="M25" s="15"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -2247,10 +2252,10 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="115"/>
-      <c r="J26" s="116"/>
-      <c r="K26" s="116"/>
-      <c r="L26" s="117"/>
+      <c r="I26" s="121"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="123"/>
       <c r="M26" s="13"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
@@ -2275,10 +2280,10 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="115"/>
-      <c r="J27" s="116"/>
-      <c r="K27" s="116"/>
-      <c r="L27" s="117"/>
+      <c r="I27" s="121"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="123"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -2303,10 +2308,10 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="115"/>
-      <c r="J28" s="116"/>
-      <c r="K28" s="116"/>
-      <c r="L28" s="117"/>
+      <c r="I28" s="121"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="123"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -2331,10 +2336,10 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="116"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
+      <c r="I29" s="121"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="123"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -2359,10 +2364,10 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="115"/>
-      <c r="J30" s="116"/>
-      <c r="K30" s="116"/>
-      <c r="L30" s="117"/>
+      <c r="I30" s="121"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2387,10 +2392,10 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="115"/>
-      <c r="J31" s="116"/>
-      <c r="K31" s="116"/>
-      <c r="L31" s="117"/>
+      <c r="I31" s="121"/>
+      <c r="J31" s="122"/>
+      <c r="K31" s="122"/>
+      <c r="L31" s="123"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -2415,10 +2420,10 @@
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="116"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="123"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -2443,10 +2448,10 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="115"/>
-      <c r="J33" s="116"/>
-      <c r="K33" s="116"/>
-      <c r="L33" s="117"/>
+      <c r="I33" s="121"/>
+      <c r="J33" s="122"/>
+      <c r="K33" s="122"/>
+      <c r="L33" s="123"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -2471,10 +2476,10 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="118"/>
-      <c r="J34" s="119"/>
-      <c r="K34" s="119"/>
-      <c r="L34" s="120"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -2499,10 +2504,10 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="116"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
+      <c r="I35" s="121"/>
+      <c r="J35" s="122"/>
+      <c r="K35" s="122"/>
+      <c r="L35" s="123"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -2527,10 +2532,10 @@
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="118"/>
-      <c r="J36" s="119"/>
-      <c r="K36" s="119"/>
-      <c r="L36" s="120"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="126"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -2555,10 +2560,10 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="115"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="117"/>
+      <c r="I37" s="121"/>
+      <c r="J37" s="122"/>
+      <c r="K37" s="122"/>
+      <c r="L37" s="123"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -2583,10 +2588,10 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="115"/>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="117"/>
+      <c r="I38" s="121"/>
+      <c r="J38" s="122"/>
+      <c r="K38" s="122"/>
+      <c r="L38" s="123"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -2611,10 +2616,10 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="115"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="117"/>
+      <c r="I39" s="121"/>
+      <c r="J39" s="122"/>
+      <c r="K39" s="122"/>
+      <c r="L39" s="123"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -2639,10 +2644,10 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="115"/>
-      <c r="J40" s="116"/>
-      <c r="K40" s="116"/>
-      <c r="L40" s="117"/>
+      <c r="I40" s="121"/>
+      <c r="J40" s="122"/>
+      <c r="K40" s="122"/>
+      <c r="L40" s="123"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -2667,10 +2672,10 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="118"/>
-      <c r="J41" s="119"/>
-      <c r="K41" s="119"/>
-      <c r="L41" s="120"/>
+      <c r="I41" s="124"/>
+      <c r="J41" s="125"/>
+      <c r="K41" s="125"/>
+      <c r="L41" s="126"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -2695,10 +2700,10 @@
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="115"/>
-      <c r="J42" s="116"/>
-      <c r="K42" s="116"/>
-      <c r="L42" s="117"/>
+      <c r="I42" s="121"/>
+      <c r="J42" s="122"/>
+      <c r="K42" s="122"/>
+      <c r="L42" s="123"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
@@ -2723,10 +2728,10 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="115"/>
-      <c r="J43" s="116"/>
-      <c r="K43" s="116"/>
-      <c r="L43" s="117"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="122"/>
+      <c r="K43" s="122"/>
+      <c r="L43" s="123"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -2751,10 +2756,10 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="115"/>
-      <c r="J44" s="116"/>
-      <c r="K44" s="116"/>
-      <c r="L44" s="117"/>
+      <c r="I44" s="121"/>
+      <c r="J44" s="122"/>
+      <c r="K44" s="122"/>
+      <c r="L44" s="123"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -2779,10 +2784,10 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="115"/>
-      <c r="J45" s="116"/>
-      <c r="K45" s="116"/>
-      <c r="L45" s="117"/>
+      <c r="I45" s="121"/>
+      <c r="J45" s="122"/>
+      <c r="K45" s="122"/>
+      <c r="L45" s="123"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
@@ -2807,10 +2812,10 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="115"/>
-      <c r="J46" s="116"/>
-      <c r="K46" s="116"/>
-      <c r="L46" s="117"/>
+      <c r="I46" s="121"/>
+      <c r="J46" s="122"/>
+      <c r="K46" s="122"/>
+      <c r="L46" s="123"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -2863,10 +2868,10 @@
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="115"/>
-      <c r="J48" s="116"/>
-      <c r="K48" s="116"/>
-      <c r="L48" s="117"/>
+      <c r="I48" s="121"/>
+      <c r="J48" s="122"/>
+      <c r="K48" s="122"/>
+      <c r="L48" s="123"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -2891,10 +2896,10 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="115"/>
-      <c r="J49" s="116"/>
-      <c r="K49" s="116"/>
-      <c r="L49" s="117"/>
+      <c r="I49" s="121"/>
+      <c r="J49" s="122"/>
+      <c r="K49" s="122"/>
+      <c r="L49" s="123"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -2919,10 +2924,10 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="115"/>
-      <c r="J50" s="116"/>
-      <c r="K50" s="116"/>
-      <c r="L50" s="117"/>
+      <c r="I50" s="121"/>
+      <c r="J50" s="122"/>
+      <c r="K50" s="122"/>
+      <c r="L50" s="123"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -2947,10 +2952,10 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="115"/>
-      <c r="J51" s="116"/>
-      <c r="K51" s="116"/>
-      <c r="L51" s="117"/>
+      <c r="I51" s="121"/>
+      <c r="J51" s="122"/>
+      <c r="K51" s="122"/>
+      <c r="L51" s="123"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -2975,10 +2980,10 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="115"/>
-      <c r="J52" s="116"/>
-      <c r="K52" s="116"/>
-      <c r="L52" s="117"/>
+      <c r="I52" s="121"/>
+      <c r="J52" s="122"/>
+      <c r="K52" s="122"/>
+      <c r="L52" s="123"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -3003,10 +3008,10 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="115"/>
-      <c r="J53" s="116"/>
-      <c r="K53" s="116"/>
-      <c r="L53" s="117"/>
+      <c r="I53" s="121"/>
+      <c r="J53" s="122"/>
+      <c r="K53" s="122"/>
+      <c r="L53" s="123"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -3031,10 +3036,10 @@
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="115"/>
-      <c r="J54" s="116"/>
-      <c r="K54" s="116"/>
-      <c r="L54" s="117"/>
+      <c r="I54" s="121"/>
+      <c r="J54" s="122"/>
+      <c r="K54" s="122"/>
+      <c r="L54" s="123"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
@@ -3059,10 +3064,10 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="115"/>
-      <c r="J55" s="116"/>
-      <c r="K55" s="116"/>
-      <c r="L55" s="117"/>
+      <c r="I55" s="121"/>
+      <c r="J55" s="122"/>
+      <c r="K55" s="122"/>
+      <c r="L55" s="123"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
@@ -3087,10 +3092,10 @@
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="115"/>
-      <c r="J56" s="116"/>
-      <c r="K56" s="116"/>
-      <c r="L56" s="117"/>
+      <c r="I56" s="121"/>
+      <c r="J56" s="122"/>
+      <c r="K56" s="122"/>
+      <c r="L56" s="123"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
@@ -3115,10 +3120,10 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="115"/>
-      <c r="J57" s="116"/>
-      <c r="K57" s="116"/>
-      <c r="L57" s="117"/>
+      <c r="I57" s="121"/>
+      <c r="J57" s="122"/>
+      <c r="K57" s="122"/>
+      <c r="L57" s="123"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
@@ -3143,10 +3148,10 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="115"/>
-      <c r="J58" s="116"/>
-      <c r="K58" s="116"/>
-      <c r="L58" s="117"/>
+      <c r="I58" s="121"/>
+      <c r="J58" s="122"/>
+      <c r="K58" s="122"/>
+      <c r="L58" s="123"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
@@ -3171,10 +3176,10 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="115"/>
-      <c r="J59" s="116"/>
-      <c r="K59" s="116"/>
-      <c r="L59" s="117"/>
+      <c r="I59" s="121"/>
+      <c r="J59" s="122"/>
+      <c r="K59" s="122"/>
+      <c r="L59" s="123"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
@@ -3199,10 +3204,10 @@
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="115"/>
-      <c r="J60" s="116"/>
-      <c r="K60" s="116"/>
-      <c r="L60" s="117"/>
+      <c r="I60" s="121"/>
+      <c r="J60" s="122"/>
+      <c r="K60" s="122"/>
+      <c r="L60" s="123"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
@@ -3227,10 +3232,10 @@
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="115"/>
-      <c r="J61" s="116"/>
-      <c r="K61" s="116"/>
-      <c r="L61" s="117"/>
+      <c r="I61" s="121"/>
+      <c r="J61" s="122"/>
+      <c r="K61" s="122"/>
+      <c r="L61" s="123"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
@@ -3255,10 +3260,10 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="115"/>
-      <c r="J62" s="116"/>
-      <c r="K62" s="116"/>
-      <c r="L62" s="117"/>
+      <c r="I62" s="121"/>
+      <c r="J62" s="122"/>
+      <c r="K62" s="122"/>
+      <c r="L62" s="123"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
@@ -3283,10 +3288,10 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="115"/>
-      <c r="J63" s="116"/>
-      <c r="K63" s="116"/>
-      <c r="L63" s="117"/>
+      <c r="I63" s="121"/>
+      <c r="J63" s="122"/>
+      <c r="K63" s="122"/>
+      <c r="L63" s="123"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
@@ -3311,10 +3316,10 @@
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="115"/>
-      <c r="J64" s="116"/>
-      <c r="K64" s="116"/>
-      <c r="L64" s="117"/>
+      <c r="I64" s="121"/>
+      <c r="J64" s="122"/>
+      <c r="K64" s="122"/>
+      <c r="L64" s="123"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
@@ -3339,10 +3344,10 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="115"/>
-      <c r="J65" s="116"/>
-      <c r="K65" s="116"/>
-      <c r="L65" s="117"/>
+      <c r="I65" s="121"/>
+      <c r="J65" s="122"/>
+      <c r="K65" s="122"/>
+      <c r="L65" s="123"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
@@ -3367,10 +3372,10 @@
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="115"/>
-      <c r="J66" s="116"/>
-      <c r="K66" s="116"/>
-      <c r="L66" s="117"/>
+      <c r="I66" s="121"/>
+      <c r="J66" s="122"/>
+      <c r="K66" s="122"/>
+      <c r="L66" s="123"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
@@ -3395,10 +3400,10 @@
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="118"/>
-      <c r="J67" s="119"/>
-      <c r="K67" s="119"/>
-      <c r="L67" s="120"/>
+      <c r="I67" s="124"/>
+      <c r="J67" s="125"/>
+      <c r="K67" s="125"/>
+      <c r="L67" s="126"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
@@ -3423,10 +3428,10 @@
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="115"/>
-      <c r="J68" s="116"/>
-      <c r="K68" s="116"/>
-      <c r="L68" s="117"/>
+      <c r="I68" s="121"/>
+      <c r="J68" s="122"/>
+      <c r="K68" s="122"/>
+      <c r="L68" s="123"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
@@ -3451,10 +3456,10 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="115"/>
-      <c r="J69" s="116"/>
-      <c r="K69" s="116"/>
-      <c r="L69" s="117"/>
+      <c r="I69" s="121"/>
+      <c r="J69" s="122"/>
+      <c r="K69" s="122"/>
+      <c r="L69" s="123"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
@@ -3479,10 +3484,10 @@
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
-      <c r="I70" s="115"/>
-      <c r="J70" s="116"/>
-      <c r="K70" s="116"/>
-      <c r="L70" s="117"/>
+      <c r="I70" s="121"/>
+      <c r="J70" s="122"/>
+      <c r="K70" s="122"/>
+      <c r="L70" s="123"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
@@ -3507,10 +3512,10 @@
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="115"/>
-      <c r="J71" s="116"/>
-      <c r="K71" s="116"/>
-      <c r="L71" s="117"/>
+      <c r="I71" s="121"/>
+      <c r="J71" s="122"/>
+      <c r="K71" s="122"/>
+      <c r="L71" s="123"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
@@ -3535,10 +3540,10 @@
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="115"/>
-      <c r="J72" s="116"/>
-      <c r="K72" s="116"/>
-      <c r="L72" s="117"/>
+      <c r="I72" s="121"/>
+      <c r="J72" s="122"/>
+      <c r="K72" s="122"/>
+      <c r="L72" s="123"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
@@ -3563,10 +3568,10 @@
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="115"/>
-      <c r="J73" s="116"/>
-      <c r="K73" s="116"/>
-      <c r="L73" s="117"/>
+      <c r="I73" s="121"/>
+      <c r="J73" s="122"/>
+      <c r="K73" s="122"/>
+      <c r="L73" s="123"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
@@ -3591,10 +3596,10 @@
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="115"/>
-      <c r="J74" s="116"/>
-      <c r="K74" s="116"/>
-      <c r="L74" s="117"/>
+      <c r="I74" s="121"/>
+      <c r="J74" s="122"/>
+      <c r="K74" s="122"/>
+      <c r="L74" s="123"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
@@ -3619,10 +3624,10 @@
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="118"/>
-      <c r="J75" s="119"/>
-      <c r="K75" s="119"/>
-      <c r="L75" s="120"/>
+      <c r="I75" s="124"/>
+      <c r="J75" s="125"/>
+      <c r="K75" s="125"/>
+      <c r="L75" s="126"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
@@ -3647,10 +3652,10 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="115"/>
-      <c r="J76" s="116"/>
-      <c r="K76" s="116"/>
-      <c r="L76" s="117"/>
+      <c r="I76" s="121"/>
+      <c r="J76" s="122"/>
+      <c r="K76" s="122"/>
+      <c r="L76" s="123"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
@@ -3675,10 +3680,10 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="118"/>
-      <c r="J77" s="119"/>
-      <c r="K77" s="119"/>
-      <c r="L77" s="120"/>
+      <c r="I77" s="124"/>
+      <c r="J77" s="125"/>
+      <c r="K77" s="125"/>
+      <c r="L77" s="126"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
@@ -3703,10 +3708,10 @@
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="115"/>
-      <c r="J78" s="116"/>
-      <c r="K78" s="116"/>
-      <c r="L78" s="117"/>
+      <c r="I78" s="121"/>
+      <c r="J78" s="122"/>
+      <c r="K78" s="122"/>
+      <c r="L78" s="123"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
@@ -3731,10 +3736,10 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="115"/>
-      <c r="J79" s="116"/>
-      <c r="K79" s="116"/>
-      <c r="L79" s="117"/>
+      <c r="I79" s="121"/>
+      <c r="J79" s="122"/>
+      <c r="K79" s="122"/>
+      <c r="L79" s="123"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -3759,10 +3764,10 @@
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="118"/>
-      <c r="J80" s="119"/>
-      <c r="K80" s="119"/>
-      <c r="L80" s="120"/>
+      <c r="I80" s="124"/>
+      <c r="J80" s="125"/>
+      <c r="K80" s="125"/>
+      <c r="L80" s="126"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -3787,10 +3792,10 @@
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="115"/>
-      <c r="J81" s="116"/>
-      <c r="K81" s="116"/>
-      <c r="L81" s="117"/>
+      <c r="I81" s="121"/>
+      <c r="J81" s="122"/>
+      <c r="K81" s="122"/>
+      <c r="L81" s="123"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
@@ -3815,10 +3820,10 @@
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="118"/>
-      <c r="J82" s="119"/>
-      <c r="K82" s="119"/>
-      <c r="L82" s="120"/>
+      <c r="I82" s="124"/>
+      <c r="J82" s="125"/>
+      <c r="K82" s="125"/>
+      <c r="L82" s="126"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
@@ -3843,10 +3848,10 @@
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
-      <c r="I83" s="115"/>
-      <c r="J83" s="116"/>
-      <c r="K83" s="116"/>
-      <c r="L83" s="117"/>
+      <c r="I83" s="121"/>
+      <c r="J83" s="122"/>
+      <c r="K83" s="122"/>
+      <c r="L83" s="123"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
@@ -3871,10 +3876,10 @@
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="115"/>
-      <c r="J84" s="116"/>
-      <c r="K84" s="116"/>
-      <c r="L84" s="117"/>
+      <c r="I84" s="121"/>
+      <c r="J84" s="122"/>
+      <c r="K84" s="122"/>
+      <c r="L84" s="123"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
@@ -3899,10 +3904,10 @@
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="115"/>
-      <c r="J85" s="116"/>
-      <c r="K85" s="116"/>
-      <c r="L85" s="117"/>
+      <c r="I85" s="121"/>
+      <c r="J85" s="122"/>
+      <c r="K85" s="122"/>
+      <c r="L85" s="123"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
@@ -3927,10 +3932,10 @@
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="115"/>
-      <c r="J86" s="116"/>
-      <c r="K86" s="116"/>
-      <c r="L86" s="117"/>
+      <c r="I86" s="121"/>
+      <c r="J86" s="122"/>
+      <c r="K86" s="122"/>
+      <c r="L86" s="123"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
@@ -3955,10 +3960,10 @@
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="115"/>
-      <c r="J87" s="116"/>
-      <c r="K87" s="116"/>
-      <c r="L87" s="117"/>
+      <c r="I87" s="121"/>
+      <c r="J87" s="122"/>
+      <c r="K87" s="122"/>
+      <c r="L87" s="123"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
@@ -3983,10 +3988,10 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="118"/>
-      <c r="J88" s="119"/>
-      <c r="K88" s="119"/>
-      <c r="L88" s="120"/>
+      <c r="I88" s="124"/>
+      <c r="J88" s="125"/>
+      <c r="K88" s="125"/>
+      <c r="L88" s="126"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
@@ -4011,10 +4016,10 @@
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="115"/>
-      <c r="J89" s="116"/>
-      <c r="K89" s="116"/>
-      <c r="L89" s="117"/>
+      <c r="I89" s="121"/>
+      <c r="J89" s="122"/>
+      <c r="K89" s="122"/>
+      <c r="L89" s="123"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
@@ -4039,10 +4044,10 @@
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="115"/>
-      <c r="J90" s="116"/>
-      <c r="K90" s="116"/>
-      <c r="L90" s="117"/>
+      <c r="I90" s="121"/>
+      <c r="J90" s="122"/>
+      <c r="K90" s="122"/>
+      <c r="L90" s="123"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
@@ -4067,10 +4072,10 @@
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="115"/>
-      <c r="J91" s="116"/>
-      <c r="K91" s="116"/>
-      <c r="L91" s="117"/>
+      <c r="I91" s="121"/>
+      <c r="J91" s="122"/>
+      <c r="K91" s="122"/>
+      <c r="L91" s="123"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
       <c r="O91" s="13"/>
@@ -4095,10 +4100,10 @@
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="115"/>
-      <c r="J92" s="116"/>
-      <c r="K92" s="116"/>
-      <c r="L92" s="117"/>
+      <c r="I92" s="121"/>
+      <c r="J92" s="122"/>
+      <c r="K92" s="122"/>
+      <c r="L92" s="123"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
@@ -4123,10 +4128,10 @@
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
-      <c r="I93" s="115"/>
-      <c r="J93" s="116"/>
-      <c r="K93" s="116"/>
-      <c r="L93" s="117"/>
+      <c r="I93" s="121"/>
+      <c r="J93" s="122"/>
+      <c r="K93" s="122"/>
+      <c r="L93" s="123"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
       <c r="O93" s="13"/>
@@ -4151,10 +4156,10 @@
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="115"/>
-      <c r="J94" s="116"/>
-      <c r="K94" s="116"/>
-      <c r="L94" s="117"/>
+      <c r="I94" s="121"/>
+      <c r="J94" s="122"/>
+      <c r="K94" s="122"/>
+      <c r="L94" s="123"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
@@ -4179,10 +4184,10 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
-      <c r="I95" s="115"/>
-      <c r="J95" s="116"/>
-      <c r="K95" s="116"/>
-      <c r="L95" s="117"/>
+      <c r="I95" s="121"/>
+      <c r="J95" s="122"/>
+      <c r="K95" s="122"/>
+      <c r="L95" s="123"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
       <c r="O95" s="13"/>
@@ -4207,10 +4212,10 @@
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="115"/>
-      <c r="J96" s="116"/>
-      <c r="K96" s="116"/>
-      <c r="L96" s="117"/>
+      <c r="I96" s="121"/>
+      <c r="J96" s="122"/>
+      <c r="K96" s="122"/>
+      <c r="L96" s="123"/>
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
       <c r="O96" s="13"/>
@@ -4235,10 +4240,10 @@
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="118"/>
-      <c r="J97" s="119"/>
-      <c r="K97" s="119"/>
-      <c r="L97" s="120"/>
+      <c r="I97" s="124"/>
+      <c r="J97" s="125"/>
+      <c r="K97" s="125"/>
+      <c r="L97" s="126"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="13"/>
@@ -4263,10 +4268,10 @@
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="118"/>
-      <c r="J98" s="119"/>
-      <c r="K98" s="119"/>
-      <c r="L98" s="120"/>
+      <c r="I98" s="124"/>
+      <c r="J98" s="125"/>
+      <c r="K98" s="125"/>
+      <c r="L98" s="126"/>
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
@@ -4291,10 +4296,10 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
-      <c r="I99" s="118"/>
-      <c r="J99" s="119"/>
-      <c r="K99" s="119"/>
-      <c r="L99" s="120"/>
+      <c r="I99" s="124"/>
+      <c r="J99" s="125"/>
+      <c r="K99" s="125"/>
+      <c r="L99" s="126"/>
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
       <c r="O99" s="13"/>
@@ -4319,10 +4324,10 @@
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="118"/>
-      <c r="J100" s="119"/>
-      <c r="K100" s="119"/>
-      <c r="L100" s="120"/>
+      <c r="I100" s="124"/>
+      <c r="J100" s="125"/>
+      <c r="K100" s="125"/>
+      <c r="L100" s="126"/>
       <c r="M100" s="13"/>
       <c r="N100" s="13"/>
       <c r="O100" s="13"/>
@@ -4347,10 +4352,10 @@
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
-      <c r="I101" s="118"/>
-      <c r="J101" s="119"/>
-      <c r="K101" s="119"/>
-      <c r="L101" s="120"/>
+      <c r="I101" s="124"/>
+      <c r="J101" s="125"/>
+      <c r="K101" s="125"/>
+      <c r="L101" s="126"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
       <c r="O101" s="13"/>
@@ -4375,10 +4380,10 @@
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="115"/>
-      <c r="J102" s="116"/>
-      <c r="K102" s="116"/>
-      <c r="L102" s="117"/>
+      <c r="I102" s="121"/>
+      <c r="J102" s="122"/>
+      <c r="K102" s="122"/>
+      <c r="L102" s="123"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
@@ -4403,10 +4408,10 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="118"/>
-      <c r="J103" s="119"/>
-      <c r="K103" s="119"/>
-      <c r="L103" s="120"/>
+      <c r="I103" s="124"/>
+      <c r="J103" s="125"/>
+      <c r="K103" s="125"/>
+      <c r="L103" s="126"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
@@ -4431,10 +4436,10 @@
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="115"/>
-      <c r="J104" s="116"/>
-      <c r="K104" s="116"/>
-      <c r="L104" s="117"/>
+      <c r="I104" s="121"/>
+      <c r="J104" s="122"/>
+      <c r="K104" s="122"/>
+      <c r="L104" s="123"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
@@ -4459,10 +4464,10 @@
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="115"/>
-      <c r="J105" s="116"/>
-      <c r="K105" s="116"/>
-      <c r="L105" s="117"/>
+      <c r="I105" s="121"/>
+      <c r="J105" s="122"/>
+      <c r="K105" s="122"/>
+      <c r="L105" s="123"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
@@ -4487,10 +4492,10 @@
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
-      <c r="I106" s="118"/>
-      <c r="J106" s="119"/>
-      <c r="K106" s="119"/>
-      <c r="L106" s="120"/>
+      <c r="I106" s="124"/>
+      <c r="J106" s="125"/>
+      <c r="K106" s="125"/>
+      <c r="L106" s="126"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
@@ -4515,10 +4520,10 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="19"/>
-      <c r="I107" s="115"/>
-      <c r="J107" s="116"/>
-      <c r="K107" s="116"/>
-      <c r="L107" s="117"/>
+      <c r="I107" s="121"/>
+      <c r="J107" s="122"/>
+      <c r="K107" s="122"/>
+      <c r="L107" s="123"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
@@ -4543,10 +4548,10 @@
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="115"/>
-      <c r="J108" s="116"/>
-      <c r="K108" s="116"/>
-      <c r="L108" s="117"/>
+      <c r="I108" s="121"/>
+      <c r="J108" s="122"/>
+      <c r="K108" s="122"/>
+      <c r="L108" s="123"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
       <c r="O108" s="13"/>
@@ -4571,10 +4576,10 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="115"/>
-      <c r="J109" s="116"/>
-      <c r="K109" s="116"/>
-      <c r="L109" s="117"/>
+      <c r="I109" s="121"/>
+      <c r="J109" s="122"/>
+      <c r="K109" s="122"/>
+      <c r="L109" s="123"/>
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
@@ -4599,10 +4604,10 @@
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="118"/>
-      <c r="J110" s="119"/>
-      <c r="K110" s="119"/>
-      <c r="L110" s="120"/>
+      <c r="I110" s="124"/>
+      <c r="J110" s="125"/>
+      <c r="K110" s="125"/>
+      <c r="L110" s="126"/>
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
       <c r="O110" s="13"/>
@@ -4627,10 +4632,10 @@
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
-      <c r="I111" s="115"/>
-      <c r="J111" s="116"/>
-      <c r="K111" s="116"/>
-      <c r="L111" s="117"/>
+      <c r="I111" s="121"/>
+      <c r="J111" s="122"/>
+      <c r="K111" s="122"/>
+      <c r="L111" s="123"/>
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
       <c r="O111" s="13"/>
@@ -4655,10 +4660,10 @@
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="115"/>
-      <c r="J112" s="116"/>
-      <c r="K112" s="116"/>
-      <c r="L112" s="117"/>
+      <c r="I112" s="121"/>
+      <c r="J112" s="122"/>
+      <c r="K112" s="122"/>
+      <c r="L112" s="123"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
       <c r="O112" s="13"/>
@@ -4683,10 +4688,10 @@
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
-      <c r="I113" s="118"/>
-      <c r="J113" s="119"/>
-      <c r="K113" s="119"/>
-      <c r="L113" s="120"/>
+      <c r="I113" s="124"/>
+      <c r="J113" s="125"/>
+      <c r="K113" s="125"/>
+      <c r="L113" s="126"/>
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
       <c r="O113" s="13"/>
@@ -4711,10 +4716,10 @@
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="118"/>
-      <c r="J114" s="119"/>
-      <c r="K114" s="119"/>
-      <c r="L114" s="120"/>
+      <c r="I114" s="124"/>
+      <c r="J114" s="125"/>
+      <c r="K114" s="125"/>
+      <c r="L114" s="126"/>
       <c r="M114" s="13"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13"/>
@@ -4739,10 +4744,10 @@
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="118"/>
-      <c r="J115" s="119"/>
-      <c r="K115" s="119"/>
-      <c r="L115" s="120"/>
+      <c r="I115" s="124"/>
+      <c r="J115" s="125"/>
+      <c r="K115" s="125"/>
+      <c r="L115" s="126"/>
       <c r="M115" s="13"/>
       <c r="N115" s="13"/>
       <c r="O115" s="13"/>
@@ -4767,10 +4772,10 @@
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="115"/>
-      <c r="J116" s="116"/>
-      <c r="K116" s="116"/>
-      <c r="L116" s="117"/>
+      <c r="I116" s="121"/>
+      <c r="J116" s="122"/>
+      <c r="K116" s="122"/>
+      <c r="L116" s="123"/>
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
@@ -4795,10 +4800,10 @@
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="115"/>
-      <c r="J117" s="116"/>
-      <c r="K117" s="116"/>
-      <c r="L117" s="117"/>
+      <c r="I117" s="121"/>
+      <c r="J117" s="122"/>
+      <c r="K117" s="122"/>
+      <c r="L117" s="123"/>
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
@@ -4823,10 +4828,10 @@
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="118"/>
-      <c r="J118" s="119"/>
-      <c r="K118" s="119"/>
-      <c r="L118" s="120"/>
+      <c r="I118" s="124"/>
+      <c r="J118" s="125"/>
+      <c r="K118" s="125"/>
+      <c r="L118" s="126"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
@@ -4851,10 +4856,10 @@
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
-      <c r="I119" s="128"/>
-      <c r="J119" s="129"/>
-      <c r="K119" s="129"/>
-      <c r="L119" s="130"/>
+      <c r="I119" s="130"/>
+      <c r="J119" s="131"/>
+      <c r="K119" s="131"/>
+      <c r="L119" s="132"/>
       <c r="M119" s="13"/>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
@@ -4879,10 +4884,10 @@
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
-      <c r="I120" s="128"/>
-      <c r="J120" s="129"/>
-      <c r="K120" s="129"/>
-      <c r="L120" s="130"/>
+      <c r="I120" s="130"/>
+      <c r="J120" s="131"/>
+      <c r="K120" s="131"/>
+      <c r="L120" s="132"/>
       <c r="M120" s="13"/>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
@@ -4907,10 +4912,10 @@
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="124"/>
-      <c r="J121" s="125"/>
-      <c r="K121" s="125"/>
-      <c r="L121" s="126"/>
+      <c r="I121" s="127"/>
+      <c r="J121" s="128"/>
+      <c r="K121" s="128"/>
+      <c r="L121" s="129"/>
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
@@ -4935,10 +4940,10 @@
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="128"/>
-      <c r="J122" s="129"/>
-      <c r="K122" s="129"/>
-      <c r="L122" s="130"/>
+      <c r="I122" s="130"/>
+      <c r="J122" s="131"/>
+      <c r="K122" s="131"/>
+      <c r="L122" s="132"/>
       <c r="M122" s="13"/>
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
@@ -4963,10 +4968,10 @@
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="124"/>
-      <c r="J123" s="125"/>
-      <c r="K123" s="125"/>
-      <c r="L123" s="126"/>
+      <c r="I123" s="127"/>
+      <c r="J123" s="128"/>
+      <c r="K123" s="128"/>
+      <c r="L123" s="129"/>
       <c r="M123" s="13"/>
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
@@ -4991,10 +4996,10 @@
       <c r="F124" s="21"/>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="124"/>
-      <c r="J124" s="125"/>
-      <c r="K124" s="125"/>
-      <c r="L124" s="126"/>
+      <c r="I124" s="127"/>
+      <c r="J124" s="128"/>
+      <c r="K124" s="128"/>
+      <c r="L124" s="129"/>
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
@@ -5019,10 +5024,10 @@
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="128"/>
-      <c r="J125" s="129"/>
-      <c r="K125" s="129"/>
-      <c r="L125" s="130"/>
+      <c r="I125" s="130"/>
+      <c r="J125" s="131"/>
+      <c r="K125" s="131"/>
+      <c r="L125" s="132"/>
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
@@ -5047,10 +5052,10 @@
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
-      <c r="I126" s="124"/>
-      <c r="J126" s="125"/>
-      <c r="K126" s="125"/>
-      <c r="L126" s="126"/>
+      <c r="I126" s="127"/>
+      <c r="J126" s="128"/>
+      <c r="K126" s="128"/>
+      <c r="L126" s="129"/>
       <c r="M126" s="13"/>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
@@ -5075,10 +5080,10 @@
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="124"/>
-      <c r="J127" s="125"/>
-      <c r="K127" s="125"/>
-      <c r="L127" s="126"/>
+      <c r="I127" s="127"/>
+      <c r="J127" s="128"/>
+      <c r="K127" s="128"/>
+      <c r="L127" s="129"/>
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
@@ -5103,10 +5108,10 @@
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
-      <c r="I128" s="128"/>
-      <c r="J128" s="129"/>
-      <c r="K128" s="129"/>
-      <c r="L128" s="130"/>
+      <c r="I128" s="130"/>
+      <c r="J128" s="131"/>
+      <c r="K128" s="131"/>
+      <c r="L128" s="132"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
@@ -5131,10 +5136,10 @@
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
       <c r="H129" s="19"/>
-      <c r="I129" s="124"/>
-      <c r="J129" s="125"/>
-      <c r="K129" s="125"/>
-      <c r="L129" s="126"/>
+      <c r="I129" s="127"/>
+      <c r="J129" s="128"/>
+      <c r="K129" s="128"/>
+      <c r="L129" s="129"/>
       <c r="M129" s="13"/>
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
@@ -5159,10 +5164,10 @@
       <c r="F130" s="21"/>
       <c r="G130" s="19"/>
       <c r="H130" s="19"/>
-      <c r="I130" s="128"/>
-      <c r="J130" s="129"/>
-      <c r="K130" s="129"/>
-      <c r="L130" s="130"/>
+      <c r="I130" s="130"/>
+      <c r="J130" s="131"/>
+      <c r="K130" s="131"/>
+      <c r="L130" s="132"/>
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
@@ -5187,10 +5192,10 @@
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
-      <c r="I131" s="124"/>
-      <c r="J131" s="125"/>
-      <c r="K131" s="125"/>
-      <c r="L131" s="126"/>
+      <c r="I131" s="127"/>
+      <c r="J131" s="128"/>
+      <c r="K131" s="128"/>
+      <c r="L131" s="129"/>
       <c r="M131" s="13"/>
       <c r="N131" s="13"/>
       <c r="O131" s="13"/>
@@ -5215,10 +5220,10 @@
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
       <c r="H132" s="19"/>
-      <c r="I132" s="128"/>
-      <c r="J132" s="129"/>
-      <c r="K132" s="129"/>
-      <c r="L132" s="130"/>
+      <c r="I132" s="130"/>
+      <c r="J132" s="131"/>
+      <c r="K132" s="131"/>
+      <c r="L132" s="132"/>
       <c r="M132" s="13"/>
       <c r="N132" s="13"/>
       <c r="O132" s="13"/>
@@ -5243,10 +5248,10 @@
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
-      <c r="I133" s="128"/>
-      <c r="J133" s="129"/>
-      <c r="K133" s="129"/>
-      <c r="L133" s="130"/>
+      <c r="I133" s="130"/>
+      <c r="J133" s="131"/>
+      <c r="K133" s="131"/>
+      <c r="L133" s="132"/>
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
@@ -5271,10 +5276,10 @@
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
-      <c r="I134" s="128"/>
-      <c r="J134" s="129"/>
-      <c r="K134" s="129"/>
-      <c r="L134" s="130"/>
+      <c r="I134" s="130"/>
+      <c r="J134" s="131"/>
+      <c r="K134" s="131"/>
+      <c r="L134" s="132"/>
       <c r="M134" s="13"/>
       <c r="N134" s="13"/>
       <c r="O134" s="13"/>
@@ -5299,10 +5304,10 @@
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
-      <c r="I135" s="128"/>
-      <c r="J135" s="129"/>
-      <c r="K135" s="129"/>
-      <c r="L135" s="130"/>
+      <c r="I135" s="130"/>
+      <c r="J135" s="131"/>
+      <c r="K135" s="131"/>
+      <c r="L135" s="132"/>
       <c r="M135" s="13"/>
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
@@ -5326,10 +5331,10 @@
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
-      <c r="I136" s="128"/>
-      <c r="J136" s="129"/>
-      <c r="K136" s="129"/>
-      <c r="L136" s="130"/>
+      <c r="I136" s="130"/>
+      <c r="J136" s="131"/>
+      <c r="K136" s="131"/>
+      <c r="L136" s="132"/>
       <c r="M136" s="13"/>
       <c r="N136" s="13"/>
       <c r="O136" s="13"/>
@@ -5354,10 +5359,10 @@
       <c r="F137" s="19"/>
       <c r="G137" s="21"/>
       <c r="H137" s="19"/>
-      <c r="I137" s="128"/>
-      <c r="J137" s="129"/>
-      <c r="K137" s="129"/>
-      <c r="L137" s="130"/>
+      <c r="I137" s="130"/>
+      <c r="J137" s="131"/>
+      <c r="K137" s="131"/>
+      <c r="L137" s="132"/>
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
       <c r="O137" s="13"/>
@@ -5382,10 +5387,10 @@
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
-      <c r="I138" s="128"/>
-      <c r="J138" s="129"/>
-      <c r="K138" s="129"/>
-      <c r="L138" s="130"/>
+      <c r="I138" s="130"/>
+      <c r="J138" s="131"/>
+      <c r="K138" s="131"/>
+      <c r="L138" s="132"/>
       <c r="M138" s="13"/>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -5410,10 +5415,10 @@
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
-      <c r="I139" s="128"/>
-      <c r="J139" s="129"/>
-      <c r="K139" s="129"/>
-      <c r="L139" s="130"/>
+      <c r="I139" s="130"/>
+      <c r="J139" s="131"/>
+      <c r="K139" s="131"/>
+      <c r="L139" s="132"/>
       <c r="M139" s="13"/>
       <c r="N139" s="13"/>
       <c r="O139" s="13"/>
@@ -5438,10 +5443,10 @@
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="H140" s="19"/>
-      <c r="I140" s="128"/>
-      <c r="J140" s="129"/>
-      <c r="K140" s="129"/>
-      <c r="L140" s="130"/>
+      <c r="I140" s="130"/>
+      <c r="J140" s="131"/>
+      <c r="K140" s="131"/>
+      <c r="L140" s="132"/>
       <c r="M140" s="13"/>
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
@@ -5466,10 +5471,10 @@
       <c r="F141" s="19"/>
       <c r="G141" s="21"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="118"/>
-      <c r="J141" s="119"/>
-      <c r="K141" s="119"/>
-      <c r="L141" s="120"/>
+      <c r="I141" s="124"/>
+      <c r="J141" s="125"/>
+      <c r="K141" s="125"/>
+      <c r="L141" s="126"/>
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
       <c r="O141" s="13"/>
@@ -5494,10 +5499,10 @@
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="115"/>
-      <c r="J142" s="116"/>
-      <c r="K142" s="116"/>
-      <c r="L142" s="117"/>
+      <c r="I142" s="121"/>
+      <c r="J142" s="122"/>
+      <c r="K142" s="122"/>
+      <c r="L142" s="123"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
@@ -5522,10 +5527,10 @@
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
-      <c r="I143" s="118"/>
-      <c r="J143" s="119"/>
-      <c r="K143" s="119"/>
-      <c r="L143" s="120"/>
+      <c r="I143" s="124"/>
+      <c r="J143" s="125"/>
+      <c r="K143" s="125"/>
+      <c r="L143" s="126"/>
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
@@ -5550,10 +5555,10 @@
       <c r="F144" s="19"/>
       <c r="G144" s="21"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="118"/>
-      <c r="J144" s="119"/>
-      <c r="K144" s="119"/>
-      <c r="L144" s="120"/>
+      <c r="I144" s="124"/>
+      <c r="J144" s="125"/>
+      <c r="K144" s="125"/>
+      <c r="L144" s="126"/>
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
       <c r="O144" s="13"/>
@@ -5578,10 +5583,10 @@
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
-      <c r="I145" s="118"/>
-      <c r="J145" s="119"/>
-      <c r="K145" s="119"/>
-      <c r="L145" s="120"/>
+      <c r="I145" s="124"/>
+      <c r="J145" s="125"/>
+      <c r="K145" s="125"/>
+      <c r="L145" s="126"/>
       <c r="M145" s="13"/>
       <c r="N145" s="13"/>
       <c r="O145" s="13"/>
@@ -5606,10 +5611,10 @@
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
-      <c r="I146" s="118"/>
-      <c r="J146" s="119"/>
-      <c r="K146" s="119"/>
-      <c r="L146" s="120"/>
+      <c r="I146" s="124"/>
+      <c r="J146" s="125"/>
+      <c r="K146" s="125"/>
+      <c r="L146" s="126"/>
       <c r="M146" s="13"/>
       <c r="N146" s="13"/>
       <c r="O146" s="13"/>
@@ -5634,10 +5639,10 @@
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="115"/>
-      <c r="J147" s="116"/>
-      <c r="K147" s="116"/>
-      <c r="L147" s="117"/>
+      <c r="I147" s="121"/>
+      <c r="J147" s="122"/>
+      <c r="K147" s="122"/>
+      <c r="L147" s="123"/>
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
       <c r="O147" s="13"/>
@@ -5662,10 +5667,10 @@
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
       <c r="H148" s="19"/>
-      <c r="I148" s="118"/>
-      <c r="J148" s="119"/>
-      <c r="K148" s="119"/>
-      <c r="L148" s="120"/>
+      <c r="I148" s="124"/>
+      <c r="J148" s="125"/>
+      <c r="K148" s="125"/>
+      <c r="L148" s="126"/>
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
       <c r="O148" s="13"/>
@@ -5690,10 +5695,10 @@
       <c r="F149" s="19"/>
       <c r="G149" s="21"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="118"/>
-      <c r="J149" s="119"/>
-      <c r="K149" s="119"/>
-      <c r="L149" s="120"/>
+      <c r="I149" s="124"/>
+      <c r="J149" s="125"/>
+      <c r="K149" s="125"/>
+      <c r="L149" s="126"/>
       <c r="M149" s="13"/>
       <c r="N149" s="13"/>
       <c r="O149" s="13"/>
@@ -5718,10 +5723,10 @@
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="118"/>
-      <c r="J150" s="119"/>
-      <c r="K150" s="119"/>
-      <c r="L150" s="120"/>
+      <c r="I150" s="124"/>
+      <c r="J150" s="125"/>
+      <c r="K150" s="125"/>
+      <c r="L150" s="126"/>
       <c r="M150" s="13"/>
       <c r="N150" s="13"/>
       <c r="O150" s="13"/>
@@ -5746,10 +5751,10 @@
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="115"/>
-      <c r="J151" s="116"/>
-      <c r="K151" s="116"/>
-      <c r="L151" s="117"/>
+      <c r="I151" s="121"/>
+      <c r="J151" s="122"/>
+      <c r="K151" s="122"/>
+      <c r="L151" s="123"/>
       <c r="M151" s="13"/>
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
@@ -5774,10 +5779,10 @@
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="118"/>
-      <c r="J152" s="119"/>
-      <c r="K152" s="119"/>
-      <c r="L152" s="120"/>
+      <c r="I152" s="124"/>
+      <c r="J152" s="125"/>
+      <c r="K152" s="125"/>
+      <c r="L152" s="126"/>
       <c r="M152" s="13"/>
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
@@ -5802,10 +5807,10 @@
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="115"/>
-      <c r="J153" s="116"/>
-      <c r="K153" s="116"/>
-      <c r="L153" s="117"/>
+      <c r="I153" s="121"/>
+      <c r="J153" s="122"/>
+      <c r="K153" s="122"/>
+      <c r="L153" s="123"/>
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
@@ -5830,10 +5835,10 @@
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
-      <c r="I154" s="115"/>
-      <c r="J154" s="116"/>
-      <c r="K154" s="116"/>
-      <c r="L154" s="117"/>
+      <c r="I154" s="121"/>
+      <c r="J154" s="122"/>
+      <c r="K154" s="122"/>
+      <c r="L154" s="123"/>
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
       <c r="O154" s="13"/>
@@ -5858,10 +5863,10 @@
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
-      <c r="I155" s="118"/>
-      <c r="J155" s="119"/>
-      <c r="K155" s="119"/>
-      <c r="L155" s="120"/>
+      <c r="I155" s="124"/>
+      <c r="J155" s="125"/>
+      <c r="K155" s="125"/>
+      <c r="L155" s="126"/>
       <c r="M155" s="13"/>
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
@@ -5886,10 +5891,10 @@
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="118"/>
-      <c r="J156" s="119"/>
-      <c r="K156" s="119"/>
-      <c r="L156" s="120"/>
+      <c r="I156" s="124"/>
+      <c r="J156" s="125"/>
+      <c r="K156" s="125"/>
+      <c r="L156" s="126"/>
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
@@ -5914,10 +5919,10 @@
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
-      <c r="I157" s="118"/>
-      <c r="J157" s="119"/>
-      <c r="K157" s="119"/>
-      <c r="L157" s="120"/>
+      <c r="I157" s="124"/>
+      <c r="J157" s="125"/>
+      <c r="K157" s="125"/>
+      <c r="L157" s="126"/>
       <c r="M157" s="13"/>
       <c r="N157" s="13"/>
       <c r="O157" s="13"/>
@@ -5942,10 +5947,10 @@
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
-      <c r="I158" s="118"/>
-      <c r="J158" s="119"/>
-      <c r="K158" s="119"/>
-      <c r="L158" s="120"/>
+      <c r="I158" s="124"/>
+      <c r="J158" s="125"/>
+      <c r="K158" s="125"/>
+      <c r="L158" s="126"/>
       <c r="M158" s="13"/>
       <c r="N158" s="13"/>
       <c r="O158" s="13"/>
@@ -5970,10 +5975,10 @@
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
-      <c r="I159" s="118"/>
-      <c r="J159" s="119"/>
-      <c r="K159" s="119"/>
-      <c r="L159" s="120"/>
+      <c r="I159" s="124"/>
+      <c r="J159" s="125"/>
+      <c r="K159" s="125"/>
+      <c r="L159" s="126"/>
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
       <c r="O159" s="13"/>
@@ -5998,10 +6003,10 @@
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
-      <c r="I160" s="118"/>
-      <c r="J160" s="119"/>
-      <c r="K160" s="119"/>
-      <c r="L160" s="120"/>
+      <c r="I160" s="124"/>
+      <c r="J160" s="125"/>
+      <c r="K160" s="125"/>
+      <c r="L160" s="126"/>
       <c r="M160" s="13"/>
       <c r="N160" s="13"/>
       <c r="O160" s="13"/>
@@ -6026,10 +6031,10 @@
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
-      <c r="I161" s="118"/>
-      <c r="J161" s="119"/>
-      <c r="K161" s="119"/>
-      <c r="L161" s="120"/>
+      <c r="I161" s="124"/>
+      <c r="J161" s="125"/>
+      <c r="K161" s="125"/>
+      <c r="L161" s="126"/>
       <c r="M161" s="13"/>
       <c r="N161" s="13"/>
       <c r="O161" s="13"/>
@@ -6054,10 +6059,10 @@
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
-      <c r="I162" s="115"/>
-      <c r="J162" s="116"/>
-      <c r="K162" s="116"/>
-      <c r="L162" s="117"/>
+      <c r="I162" s="121"/>
+      <c r="J162" s="122"/>
+      <c r="K162" s="122"/>
+      <c r="L162" s="123"/>
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
@@ -6082,10 +6087,10 @@
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
-      <c r="I163" s="118"/>
-      <c r="J163" s="119"/>
-      <c r="K163" s="119"/>
-      <c r="L163" s="120"/>
+      <c r="I163" s="124"/>
+      <c r="J163" s="125"/>
+      <c r="K163" s="125"/>
+      <c r="L163" s="126"/>
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
       <c r="O163" s="13"/>
@@ -6110,10 +6115,10 @@
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
-      <c r="I164" s="118"/>
-      <c r="J164" s="119"/>
-      <c r="K164" s="119"/>
-      <c r="L164" s="120"/>
+      <c r="I164" s="124"/>
+      <c r="J164" s="125"/>
+      <c r="K164" s="125"/>
+      <c r="L164" s="126"/>
       <c r="M164" s="13"/>
       <c r="N164" s="13"/>
       <c r="O164" s="13"/>
@@ -6138,10 +6143,10 @@
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
-      <c r="I165" s="115"/>
-      <c r="J165" s="116"/>
-      <c r="K165" s="116"/>
-      <c r="L165" s="117"/>
+      <c r="I165" s="121"/>
+      <c r="J165" s="122"/>
+      <c r="K165" s="122"/>
+      <c r="L165" s="123"/>
       <c r="M165" s="13"/>
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
@@ -6166,10 +6171,10 @@
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
-      <c r="I166" s="118"/>
-      <c r="J166" s="119"/>
-      <c r="K166" s="119"/>
-      <c r="L166" s="120"/>
+      <c r="I166" s="124"/>
+      <c r="J166" s="125"/>
+      <c r="K166" s="125"/>
+      <c r="L166" s="126"/>
       <c r="M166" s="13"/>
       <c r="N166" s="13"/>
       <c r="O166" s="13"/>
@@ -6194,10 +6199,10 @@
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
-      <c r="I167" s="115"/>
-      <c r="J167" s="116"/>
-      <c r="K167" s="116"/>
-      <c r="L167" s="117"/>
+      <c r="I167" s="121"/>
+      <c r="J167" s="122"/>
+      <c r="K167" s="122"/>
+      <c r="L167" s="123"/>
       <c r="M167" s="13"/>
       <c r="N167" s="13"/>
       <c r="O167" s="13"/>
@@ -6222,10 +6227,10 @@
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
-      <c r="I168" s="115"/>
-      <c r="J168" s="116"/>
-      <c r="K168" s="116"/>
-      <c r="L168" s="117"/>
+      <c r="I168" s="121"/>
+      <c r="J168" s="122"/>
+      <c r="K168" s="122"/>
+      <c r="L168" s="123"/>
       <c r="M168" s="13"/>
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
@@ -6250,10 +6255,10 @@
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
-      <c r="I169" s="115"/>
-      <c r="J169" s="116"/>
-      <c r="K169" s="116"/>
-      <c r="L169" s="117"/>
+      <c r="I169" s="121"/>
+      <c r="J169" s="122"/>
+      <c r="K169" s="122"/>
+      <c r="L169" s="123"/>
       <c r="M169" s="13"/>
       <c r="N169" s="13"/>
       <c r="O169" s="13"/>
@@ -6278,10 +6283,10 @@
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
       <c r="H170" s="19"/>
-      <c r="I170" s="115"/>
-      <c r="J170" s="116"/>
-      <c r="K170" s="116"/>
-      <c r="L170" s="117"/>
+      <c r="I170" s="121"/>
+      <c r="J170" s="122"/>
+      <c r="K170" s="122"/>
+      <c r="L170" s="123"/>
       <c r="M170" s="13"/>
       <c r="N170" s="13"/>
       <c r="O170" s="13"/>
@@ -6306,10 +6311,10 @@
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
-      <c r="I171" s="118"/>
-      <c r="J171" s="119"/>
-      <c r="K171" s="119"/>
-      <c r="L171" s="120"/>
+      <c r="I171" s="124"/>
+      <c r="J171" s="125"/>
+      <c r="K171" s="125"/>
+      <c r="L171" s="126"/>
       <c r="M171" s="13"/>
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
@@ -6334,10 +6339,10 @@
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
-      <c r="I172" s="115"/>
-      <c r="J172" s="116"/>
-      <c r="K172" s="116"/>
-      <c r="L172" s="117"/>
+      <c r="I172" s="121"/>
+      <c r="J172" s="122"/>
+      <c r="K172" s="122"/>
+      <c r="L172" s="123"/>
       <c r="M172" s="13"/>
       <c r="N172" s="13"/>
       <c r="O172" s="13"/>
@@ -6362,10 +6367,10 @@
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
-      <c r="I173" s="118"/>
-      <c r="J173" s="119"/>
-      <c r="K173" s="119"/>
-      <c r="L173" s="120"/>
+      <c r="I173" s="124"/>
+      <c r="J173" s="125"/>
+      <c r="K173" s="125"/>
+      <c r="L173" s="126"/>
       <c r="M173" s="13"/>
       <c r="N173" s="13"/>
       <c r="O173" s="13"/>
@@ -6390,10 +6395,10 @@
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
-      <c r="I174" s="118"/>
-      <c r="J174" s="119"/>
-      <c r="K174" s="119"/>
-      <c r="L174" s="120"/>
+      <c r="I174" s="124"/>
+      <c r="J174" s="125"/>
+      <c r="K174" s="125"/>
+      <c r="L174" s="126"/>
       <c r="M174" s="13"/>
       <c r="N174" s="13"/>
       <c r="O174" s="13"/>
@@ -6418,10 +6423,10 @@
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
-      <c r="I175" s="118"/>
-      <c r="J175" s="119"/>
-      <c r="K175" s="119"/>
-      <c r="L175" s="120"/>
+      <c r="I175" s="124"/>
+      <c r="J175" s="125"/>
+      <c r="K175" s="125"/>
+      <c r="L175" s="126"/>
       <c r="M175" s="13"/>
       <c r="N175" s="13"/>
       <c r="O175" s="13"/>
@@ -6446,10 +6451,10 @@
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
       <c r="H176" s="19"/>
-      <c r="I176" s="118"/>
-      <c r="J176" s="119"/>
-      <c r="K176" s="119"/>
-      <c r="L176" s="120"/>
+      <c r="I176" s="124"/>
+      <c r="J176" s="125"/>
+      <c r="K176" s="125"/>
+      <c r="L176" s="126"/>
       <c r="M176" s="13"/>
       <c r="N176" s="13"/>
       <c r="O176" s="13"/>
@@ -6474,10 +6479,10 @@
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
-      <c r="I177" s="115"/>
-      <c r="J177" s="116"/>
-      <c r="K177" s="116"/>
-      <c r="L177" s="117"/>
+      <c r="I177" s="121"/>
+      <c r="J177" s="122"/>
+      <c r="K177" s="122"/>
+      <c r="L177" s="123"/>
       <c r="M177" s="13"/>
       <c r="N177" s="13"/>
       <c r="O177" s="13"/>
@@ -6502,10 +6507,10 @@
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
-      <c r="I178" s="118"/>
-      <c r="J178" s="119"/>
-      <c r="K178" s="119"/>
-      <c r="L178" s="120"/>
+      <c r="I178" s="124"/>
+      <c r="J178" s="125"/>
+      <c r="K178" s="125"/>
+      <c r="L178" s="126"/>
       <c r="M178" s="13"/>
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
@@ -6530,10 +6535,10 @@
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19"/>
-      <c r="I179" s="127"/>
-      <c r="J179" s="127"/>
-      <c r="K179" s="127"/>
-      <c r="L179" s="127"/>
+      <c r="I179" s="133"/>
+      <c r="J179" s="133"/>
+      <c r="K179" s="133"/>
+      <c r="L179" s="133"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
@@ -6558,10 +6563,10 @@
       <c r="F180" s="95"/>
       <c r="G180" s="95"/>
       <c r="H180" s="95"/>
-      <c r="I180" s="115"/>
-      <c r="J180" s="116"/>
-      <c r="K180" s="116"/>
-      <c r="L180" s="117"/>
+      <c r="I180" s="121"/>
+      <c r="J180" s="122"/>
+      <c r="K180" s="122"/>
+      <c r="L180" s="123"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
       <c r="O180" s="13"/>
@@ -6586,10 +6591,10 @@
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
       <c r="H181" s="19"/>
-      <c r="I181" s="115"/>
-      <c r="J181" s="116"/>
-      <c r="K181" s="116"/>
-      <c r="L181" s="117"/>
+      <c r="I181" s="121"/>
+      <c r="J181" s="122"/>
+      <c r="K181" s="122"/>
+      <c r="L181" s="123"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
@@ -6614,10 +6619,10 @@
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
-      <c r="I182" s="118"/>
-      <c r="J182" s="119"/>
-      <c r="K182" s="119"/>
-      <c r="L182" s="120"/>
+      <c r="I182" s="124"/>
+      <c r="J182" s="125"/>
+      <c r="K182" s="125"/>
+      <c r="L182" s="126"/>
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
@@ -6642,10 +6647,10 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
-      <c r="I183" s="118"/>
-      <c r="J183" s="119"/>
-      <c r="K183" s="119"/>
-      <c r="L183" s="120"/>
+      <c r="I183" s="124"/>
+      <c r="J183" s="125"/>
+      <c r="K183" s="125"/>
+      <c r="L183" s="126"/>
       <c r="M183" s="13"/>
       <c r="N183" s="13"/>
       <c r="O183" s="13"/>
@@ -6670,10 +6675,10 @@
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
       <c r="H184" s="19"/>
-      <c r="I184" s="118"/>
-      <c r="J184" s="119"/>
-      <c r="K184" s="119"/>
-      <c r="L184" s="120"/>
+      <c r="I184" s="124"/>
+      <c r="J184" s="125"/>
+      <c r="K184" s="125"/>
+      <c r="L184" s="126"/>
       <c r="M184" s="13"/>
       <c r="N184" s="13"/>
       <c r="O184" s="13"/>
@@ -6698,10 +6703,10 @@
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
       <c r="H185" s="19"/>
-      <c r="I185" s="118"/>
-      <c r="J185" s="119"/>
-      <c r="K185" s="119"/>
-      <c r="L185" s="120"/>
+      <c r="I185" s="124"/>
+      <c r="J185" s="125"/>
+      <c r="K185" s="125"/>
+      <c r="L185" s="126"/>
       <c r="M185" s="13"/>
       <c r="N185" s="13"/>
       <c r="O185" s="13"/>
@@ -6726,10 +6731,10 @@
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
-      <c r="I186" s="115"/>
-      <c r="J186" s="116"/>
-      <c r="K186" s="116"/>
-      <c r="L186" s="117"/>
+      <c r="I186" s="121"/>
+      <c r="J186" s="122"/>
+      <c r="K186" s="122"/>
+      <c r="L186" s="123"/>
       <c r="M186" s="13"/>
       <c r="N186" s="13"/>
       <c r="O186" s="13"/>
@@ -6754,10 +6759,10 @@
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
       <c r="H187" s="19"/>
-      <c r="I187" s="118"/>
-      <c r="J187" s="119"/>
-      <c r="K187" s="119"/>
-      <c r="L187" s="120"/>
+      <c r="I187" s="124"/>
+      <c r="J187" s="125"/>
+      <c r="K187" s="125"/>
+      <c r="L187" s="126"/>
       <c r="M187" s="13"/>
       <c r="N187" s="13"/>
       <c r="O187" s="13"/>
@@ -6782,10 +6787,10 @@
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
       <c r="H188" s="19"/>
-      <c r="I188" s="118"/>
-      <c r="J188" s="119"/>
-      <c r="K188" s="119"/>
-      <c r="L188" s="120"/>
+      <c r="I188" s="124"/>
+      <c r="J188" s="125"/>
+      <c r="K188" s="125"/>
+      <c r="L188" s="126"/>
       <c r="M188" s="13"/>
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
@@ -6810,10 +6815,10 @@
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
       <c r="H189" s="19"/>
-      <c r="I189" s="118"/>
-      <c r="J189" s="119"/>
-      <c r="K189" s="119"/>
-      <c r="L189" s="120"/>
+      <c r="I189" s="124"/>
+      <c r="J189" s="125"/>
+      <c r="K189" s="125"/>
+      <c r="L189" s="126"/>
       <c r="M189" s="13"/>
       <c r="N189" s="13"/>
       <c r="O189" s="13"/>
@@ -6838,10 +6843,10 @@
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
-      <c r="I190" s="118"/>
-      <c r="J190" s="119"/>
-      <c r="K190" s="119"/>
-      <c r="L190" s="120"/>
+      <c r="I190" s="124"/>
+      <c r="J190" s="125"/>
+      <c r="K190" s="125"/>
+      <c r="L190" s="126"/>
       <c r="M190" s="13"/>
       <c r="N190" s="13"/>
       <c r="O190" s="13"/>
@@ -6866,10 +6871,10 @@
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
       <c r="H191" s="19"/>
-      <c r="I191" s="118"/>
-      <c r="J191" s="119"/>
-      <c r="K191" s="119"/>
-      <c r="L191" s="120"/>
+      <c r="I191" s="124"/>
+      <c r="J191" s="125"/>
+      <c r="K191" s="125"/>
+      <c r="L191" s="126"/>
       <c r="M191" s="13"/>
       <c r="N191" s="13"/>
       <c r="O191" s="13"/>
@@ -6894,10 +6899,10 @@
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
       <c r="H192" s="19"/>
-      <c r="I192" s="118"/>
-      <c r="J192" s="119"/>
-      <c r="K192" s="119"/>
-      <c r="L192" s="120"/>
+      <c r="I192" s="124"/>
+      <c r="J192" s="125"/>
+      <c r="K192" s="125"/>
+      <c r="L192" s="126"/>
       <c r="M192" s="13"/>
       <c r="N192" s="13"/>
       <c r="O192" s="13"/>
@@ -6922,10 +6927,10 @@
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
       <c r="H193" s="19"/>
-      <c r="I193" s="118"/>
-      <c r="J193" s="119"/>
-      <c r="K193" s="119"/>
-      <c r="L193" s="120"/>
+      <c r="I193" s="124"/>
+      <c r="J193" s="125"/>
+      <c r="K193" s="125"/>
+      <c r="L193" s="126"/>
       <c r="M193" s="13"/>
       <c r="N193" s="13"/>
       <c r="O193" s="13"/>
@@ -6950,10 +6955,10 @@
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19"/>
-      <c r="I194" s="118"/>
-      <c r="J194" s="119"/>
-      <c r="K194" s="119"/>
-      <c r="L194" s="120"/>
+      <c r="I194" s="124"/>
+      <c r="J194" s="125"/>
+      <c r="K194" s="125"/>
+      <c r="L194" s="126"/>
       <c r="M194" s="13"/>
       <c r="N194" s="13"/>
       <c r="O194" s="13"/>
@@ -6978,10 +6983,10 @@
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="H195" s="19"/>
-      <c r="I195" s="118"/>
-      <c r="J195" s="119"/>
-      <c r="K195" s="119"/>
-      <c r="L195" s="120"/>
+      <c r="I195" s="124"/>
+      <c r="J195" s="125"/>
+      <c r="K195" s="125"/>
+      <c r="L195" s="126"/>
       <c r="M195" s="13"/>
       <c r="N195" s="13"/>
       <c r="O195" s="13"/>
@@ -7006,10 +7011,10 @@
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="H196" s="19"/>
-      <c r="I196" s="118"/>
-      <c r="J196" s="119"/>
-      <c r="K196" s="119"/>
-      <c r="L196" s="120"/>
+      <c r="I196" s="124"/>
+      <c r="J196" s="125"/>
+      <c r="K196" s="125"/>
+      <c r="L196" s="126"/>
       <c r="M196" s="13"/>
       <c r="N196" s="13"/>
       <c r="O196" s="13"/>
@@ -7034,10 +7039,10 @@
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
       <c r="H197" s="19"/>
-      <c r="I197" s="118"/>
-      <c r="J197" s="119"/>
-      <c r="K197" s="119"/>
-      <c r="L197" s="120"/>
+      <c r="I197" s="124"/>
+      <c r="J197" s="125"/>
+      <c r="K197" s="125"/>
+      <c r="L197" s="126"/>
       <c r="M197" s="13"/>
       <c r="N197" s="13"/>
       <c r="O197" s="13"/>
@@ -7062,10 +7067,10 @@
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="H198" s="19"/>
-      <c r="I198" s="118"/>
-      <c r="J198" s="119"/>
-      <c r="K198" s="119"/>
-      <c r="L198" s="120"/>
+      <c r="I198" s="124"/>
+      <c r="J198" s="125"/>
+      <c r="K198" s="125"/>
+      <c r="L198" s="126"/>
       <c r="M198" s="13"/>
       <c r="N198" s="13"/>
       <c r="O198" s="13"/>
@@ -7090,10 +7095,10 @@
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
       <c r="H199" s="19"/>
-      <c r="I199" s="118"/>
-      <c r="J199" s="119"/>
-      <c r="K199" s="119"/>
-      <c r="L199" s="120"/>
+      <c r="I199" s="124"/>
+      <c r="J199" s="125"/>
+      <c r="K199" s="125"/>
+      <c r="L199" s="126"/>
       <c r="M199" s="13"/>
       <c r="N199" s="13"/>
       <c r="O199" s="13"/>
@@ -7118,10 +7123,10 @@
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
       <c r="H200" s="19"/>
-      <c r="I200" s="118"/>
-      <c r="J200" s="119"/>
-      <c r="K200" s="119"/>
-      <c r="L200" s="120"/>
+      <c r="I200" s="124"/>
+      <c r="J200" s="125"/>
+      <c r="K200" s="125"/>
+      <c r="L200" s="126"/>
       <c r="M200" s="13"/>
       <c r="N200" s="13"/>
       <c r="O200" s="13"/>
@@ -7146,10 +7151,10 @@
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
       <c r="H201" s="19"/>
-      <c r="I201" s="118"/>
-      <c r="J201" s="119"/>
-      <c r="K201" s="119"/>
-      <c r="L201" s="120"/>
+      <c r="I201" s="124"/>
+      <c r="J201" s="125"/>
+      <c r="K201" s="125"/>
+      <c r="L201" s="126"/>
       <c r="M201" s="13"/>
       <c r="N201" s="13"/>
       <c r="O201" s="13"/>
@@ -7174,10 +7179,10 @@
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="19"/>
-      <c r="I202" s="118"/>
-      <c r="J202" s="119"/>
-      <c r="K202" s="119"/>
-      <c r="L202" s="120"/>
+      <c r="I202" s="124"/>
+      <c r="J202" s="125"/>
+      <c r="K202" s="125"/>
+      <c r="L202" s="126"/>
       <c r="M202" s="13"/>
       <c r="N202" s="13"/>
       <c r="O202" s="13"/>
@@ -7202,10 +7207,10 @@
       <c r="F203" s="19"/>
       <c r="G203" s="19"/>
       <c r="H203" s="19"/>
-      <c r="I203" s="118"/>
-      <c r="J203" s="119"/>
-      <c r="K203" s="119"/>
-      <c r="L203" s="120"/>
+      <c r="I203" s="124"/>
+      <c r="J203" s="125"/>
+      <c r="K203" s="125"/>
+      <c r="L203" s="126"/>
       <c r="M203" s="13"/>
       <c r="N203" s="13"/>
       <c r="O203" s="13"/>
@@ -7230,10 +7235,10 @@
       <c r="F204" s="19"/>
       <c r="G204" s="19"/>
       <c r="H204" s="19"/>
-      <c r="I204" s="118"/>
-      <c r="J204" s="119"/>
-      <c r="K204" s="119"/>
-      <c r="L204" s="120"/>
+      <c r="I204" s="124"/>
+      <c r="J204" s="125"/>
+      <c r="K204" s="125"/>
+      <c r="L204" s="126"/>
       <c r="M204" s="13"/>
       <c r="N204" s="13"/>
       <c r="O204" s="13"/>
@@ -7258,10 +7263,10 @@
       <c r="F205" s="19"/>
       <c r="G205" s="19"/>
       <c r="H205" s="19"/>
-      <c r="I205" s="118"/>
-      <c r="J205" s="119"/>
-      <c r="K205" s="119"/>
-      <c r="L205" s="120"/>
+      <c r="I205" s="124"/>
+      <c r="J205" s="125"/>
+      <c r="K205" s="125"/>
+      <c r="L205" s="126"/>
       <c r="M205" s="13"/>
       <c r="N205" s="13"/>
       <c r="O205" s="13"/>
@@ -7286,10 +7291,10 @@
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
       <c r="H206" s="19"/>
-      <c r="I206" s="115"/>
-      <c r="J206" s="116"/>
-      <c r="K206" s="116"/>
-      <c r="L206" s="117"/>
+      <c r="I206" s="121"/>
+      <c r="J206" s="122"/>
+      <c r="K206" s="122"/>
+      <c r="L206" s="123"/>
       <c r="M206" s="13"/>
       <c r="N206" s="13"/>
       <c r="O206" s="13"/>
@@ -7314,10 +7319,10 @@
       <c r="F207" s="19"/>
       <c r="G207" s="19"/>
       <c r="H207" s="19"/>
-      <c r="I207" s="118"/>
-      <c r="J207" s="119"/>
-      <c r="K207" s="119"/>
-      <c r="L207" s="120"/>
+      <c r="I207" s="124"/>
+      <c r="J207" s="125"/>
+      <c r="K207" s="125"/>
+      <c r="L207" s="126"/>
       <c r="M207" s="13"/>
       <c r="N207" s="13"/>
       <c r="O207" s="13"/>
@@ -7342,10 +7347,10 @@
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="19"/>
-      <c r="I208" s="118"/>
-      <c r="J208" s="119"/>
-      <c r="K208" s="119"/>
-      <c r="L208" s="120"/>
+      <c r="I208" s="124"/>
+      <c r="J208" s="125"/>
+      <c r="K208" s="125"/>
+      <c r="L208" s="126"/>
       <c r="M208" s="13"/>
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
@@ -7370,10 +7375,10 @@
       <c r="F209" s="19"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19"/>
-      <c r="I209" s="115"/>
-      <c r="J209" s="116"/>
-      <c r="K209" s="116"/>
-      <c r="L209" s="117"/>
+      <c r="I209" s="121"/>
+      <c r="J209" s="122"/>
+      <c r="K209" s="122"/>
+      <c r="L209" s="123"/>
       <c r="M209" s="13"/>
       <c r="N209" s="13"/>
       <c r="O209" s="13"/>
@@ -7398,10 +7403,10 @@
       <c r="F210" s="19"/>
       <c r="G210" s="19"/>
       <c r="H210" s="19"/>
-      <c r="I210" s="115"/>
-      <c r="J210" s="116"/>
-      <c r="K210" s="116"/>
-      <c r="L210" s="117"/>
+      <c r="I210" s="121"/>
+      <c r="J210" s="122"/>
+      <c r="K210" s="122"/>
+      <c r="L210" s="123"/>
       <c r="M210" s="13"/>
       <c r="N210" s="13"/>
       <c r="O210" s="13"/>
@@ -7426,10 +7431,10 @@
       <c r="F211" s="19"/>
       <c r="G211" s="19"/>
       <c r="H211" s="19"/>
-      <c r="I211" s="115"/>
-      <c r="J211" s="116"/>
-      <c r="K211" s="116"/>
-      <c r="L211" s="117"/>
+      <c r="I211" s="121"/>
+      <c r="J211" s="122"/>
+      <c r="K211" s="122"/>
+      <c r="L211" s="123"/>
       <c r="M211" s="13"/>
       <c r="N211" s="13"/>
       <c r="O211" s="13"/>
@@ -7454,10 +7459,10 @@
       <c r="F212" s="19"/>
       <c r="G212" s="19"/>
       <c r="H212" s="19"/>
-      <c r="I212" s="115"/>
-      <c r="J212" s="116"/>
-      <c r="K212" s="116"/>
-      <c r="L212" s="117"/>
+      <c r="I212" s="121"/>
+      <c r="J212" s="122"/>
+      <c r="K212" s="122"/>
+      <c r="L212" s="123"/>
       <c r="M212" s="13"/>
       <c r="N212" s="13"/>
       <c r="O212" s="13"/>
@@ -7482,10 +7487,10 @@
       <c r="F213" s="19"/>
       <c r="G213" s="19"/>
       <c r="H213" s="19"/>
-      <c r="I213" s="115"/>
-      <c r="J213" s="116"/>
-      <c r="K213" s="116"/>
-      <c r="L213" s="117"/>
+      <c r="I213" s="121"/>
+      <c r="J213" s="122"/>
+      <c r="K213" s="122"/>
+      <c r="L213" s="123"/>
       <c r="M213" s="13"/>
       <c r="N213" s="13"/>
       <c r="O213" s="13"/>
@@ -7510,10 +7515,10 @@
       <c r="F214" s="19"/>
       <c r="G214" s="19"/>
       <c r="H214" s="19"/>
-      <c r="I214" s="115"/>
-      <c r="J214" s="116"/>
-      <c r="K214" s="116"/>
-      <c r="L214" s="117"/>
+      <c r="I214" s="121"/>
+      <c r="J214" s="122"/>
+      <c r="K214" s="122"/>
+      <c r="L214" s="123"/>
       <c r="M214" s="13"/>
       <c r="N214" s="13"/>
       <c r="O214" s="13"/>
@@ -7538,10 +7543,10 @@
       <c r="F215" s="19"/>
       <c r="G215" s="19"/>
       <c r="H215" s="19"/>
-      <c r="I215" s="115"/>
-      <c r="J215" s="116"/>
-      <c r="K215" s="116"/>
-      <c r="L215" s="117"/>
+      <c r="I215" s="121"/>
+      <c r="J215" s="122"/>
+      <c r="K215" s="122"/>
+      <c r="L215" s="123"/>
       <c r="M215" s="13"/>
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
@@ -7566,10 +7571,10 @@
       <c r="F216" s="19"/>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
-      <c r="I216" s="118"/>
-      <c r="J216" s="119"/>
-      <c r="K216" s="119"/>
-      <c r="L216" s="120"/>
+      <c r="I216" s="124"/>
+      <c r="J216" s="125"/>
+      <c r="K216" s="125"/>
+      <c r="L216" s="126"/>
       <c r="M216" s="13"/>
       <c r="N216" s="13"/>
       <c r="O216" s="13"/>
@@ -7594,10 +7599,10 @@
       <c r="F217" s="19"/>
       <c r="G217" s="19"/>
       <c r="H217" s="19"/>
-      <c r="I217" s="118"/>
-      <c r="J217" s="119"/>
-      <c r="K217" s="119"/>
-      <c r="L217" s="120"/>
+      <c r="I217" s="124"/>
+      <c r="J217" s="125"/>
+      <c r="K217" s="125"/>
+      <c r="L217" s="126"/>
       <c r="M217" s="13"/>
       <c r="N217" s="13"/>
       <c r="O217" s="13"/>
@@ -7622,10 +7627,10 @@
       <c r="F218" s="19"/>
       <c r="G218" s="19"/>
       <c r="H218" s="19"/>
-      <c r="I218" s="118"/>
-      <c r="J218" s="119"/>
-      <c r="K218" s="119"/>
-      <c r="L218" s="120"/>
+      <c r="I218" s="124"/>
+      <c r="J218" s="125"/>
+      <c r="K218" s="125"/>
+      <c r="L218" s="126"/>
       <c r="M218" s="13"/>
       <c r="N218" s="13"/>
       <c r="O218" s="13"/>
@@ -7650,10 +7655,10 @@
       <c r="F219" s="19"/>
       <c r="G219" s="19"/>
       <c r="H219" s="19"/>
-      <c r="I219" s="115"/>
-      <c r="J219" s="116"/>
-      <c r="K219" s="116"/>
-      <c r="L219" s="117"/>
+      <c r="I219" s="121"/>
+      <c r="J219" s="122"/>
+      <c r="K219" s="122"/>
+      <c r="L219" s="123"/>
       <c r="M219" s="13"/>
       <c r="N219" s="13"/>
       <c r="O219" s="13"/>
@@ -7678,10 +7683,10 @@
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
       <c r="H220" s="19"/>
-      <c r="I220" s="118"/>
-      <c r="J220" s="119"/>
-      <c r="K220" s="119"/>
-      <c r="L220" s="120"/>
+      <c r="I220" s="124"/>
+      <c r="J220" s="125"/>
+      <c r="K220" s="125"/>
+      <c r="L220" s="126"/>
       <c r="M220" s="13"/>
       <c r="N220" s="13"/>
       <c r="O220" s="13"/>
@@ -7706,10 +7711,10 @@
       <c r="F221" s="19"/>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
-      <c r="I221" s="118"/>
-      <c r="J221" s="119"/>
-      <c r="K221" s="119"/>
-      <c r="L221" s="120"/>
+      <c r="I221" s="124"/>
+      <c r="J221" s="125"/>
+      <c r="K221" s="125"/>
+      <c r="L221" s="126"/>
       <c r="M221" s="13"/>
       <c r="N221" s="13"/>
       <c r="O221" s="13"/>
@@ -7734,10 +7739,10 @@
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
       <c r="H222" s="19"/>
-      <c r="I222" s="115"/>
-      <c r="J222" s="116"/>
-      <c r="K222" s="116"/>
-      <c r="L222" s="117"/>
+      <c r="I222" s="121"/>
+      <c r="J222" s="122"/>
+      <c r="K222" s="122"/>
+      <c r="L222" s="123"/>
       <c r="M222" s="13"/>
       <c r="N222" s="13"/>
       <c r="O222" s="13"/>
@@ -7762,10 +7767,10 @@
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
       <c r="H223" s="19"/>
-      <c r="I223" s="118"/>
-      <c r="J223" s="119"/>
-      <c r="K223" s="119"/>
-      <c r="L223" s="120"/>
+      <c r="I223" s="124"/>
+      <c r="J223" s="125"/>
+      <c r="K223" s="125"/>
+      <c r="L223" s="126"/>
       <c r="M223" s="13"/>
       <c r="N223" s="13"/>
       <c r="O223" s="13"/>
@@ -7790,10 +7795,10 @@
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
       <c r="H224" s="19"/>
-      <c r="I224" s="118"/>
-      <c r="J224" s="119"/>
-      <c r="K224" s="119"/>
-      <c r="L224" s="120"/>
+      <c r="I224" s="124"/>
+      <c r="J224" s="125"/>
+      <c r="K224" s="125"/>
+      <c r="L224" s="126"/>
       <c r="M224" s="13"/>
       <c r="N224" s="13"/>
       <c r="O224" s="13"/>
@@ -7818,10 +7823,10 @@
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
       <c r="H225" s="19"/>
-      <c r="I225" s="118"/>
-      <c r="J225" s="119"/>
-      <c r="K225" s="119"/>
-      <c r="L225" s="120"/>
+      <c r="I225" s="124"/>
+      <c r="J225" s="125"/>
+      <c r="K225" s="125"/>
+      <c r="L225" s="126"/>
       <c r="M225" s="13"/>
       <c r="N225" s="13"/>
       <c r="O225" s="13"/>
@@ -7846,10 +7851,10 @@
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
-      <c r="I226" s="118"/>
-      <c r="J226" s="119"/>
-      <c r="K226" s="119"/>
-      <c r="L226" s="120"/>
+      <c r="I226" s="124"/>
+      <c r="J226" s="125"/>
+      <c r="K226" s="125"/>
+      <c r="L226" s="126"/>
       <c r="M226" s="13"/>
       <c r="N226" s="13"/>
       <c r="O226" s="13"/>
@@ -7874,10 +7879,10 @@
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
       <c r="H227" s="19"/>
-      <c r="I227" s="118"/>
-      <c r="J227" s="119"/>
-      <c r="K227" s="119"/>
-      <c r="L227" s="120"/>
+      <c r="I227" s="124"/>
+      <c r="J227" s="125"/>
+      <c r="K227" s="125"/>
+      <c r="L227" s="126"/>
       <c r="M227" s="13"/>
       <c r="N227" s="13"/>
       <c r="O227" s="13"/>
@@ -7902,10 +7907,10 @@
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
       <c r="H228" s="19"/>
-      <c r="I228" s="124"/>
-      <c r="J228" s="125"/>
-      <c r="K228" s="125"/>
-      <c r="L228" s="126"/>
+      <c r="I228" s="127"/>
+      <c r="J228" s="128"/>
+      <c r="K228" s="128"/>
+      <c r="L228" s="129"/>
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
@@ -7930,10 +7935,10 @@
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
       <c r="H229" s="19"/>
-      <c r="I229" s="124"/>
-      <c r="J229" s="125"/>
-      <c r="K229" s="125"/>
-      <c r="L229" s="126"/>
+      <c r="I229" s="127"/>
+      <c r="J229" s="128"/>
+      <c r="K229" s="128"/>
+      <c r="L229" s="129"/>
       <c r="M229" s="13"/>
       <c r="N229" s="13"/>
       <c r="O229" s="13"/>
@@ -7958,10 +7963,10 @@
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
-      <c r="I230" s="131"/>
-      <c r="J230" s="132"/>
-      <c r="K230" s="132"/>
-      <c r="L230" s="133"/>
+      <c r="I230" s="112"/>
+      <c r="J230" s="113"/>
+      <c r="K230" s="113"/>
+      <c r="L230" s="114"/>
       <c r="M230" s="13"/>
       <c r="N230" s="13"/>
       <c r="O230" s="13"/>
@@ -7989,7 +7994,7 @@
       <c r="I231" s="96"/>
       <c r="J231" s="97"/>
       <c r="K231" s="97"/>
-      <c r="L231" s="99"/>
+      <c r="L231" s="98"/>
       <c r="M231" s="13"/>
       <c r="N231" s="13"/>
       <c r="O231" s="13"/>
@@ -8017,7 +8022,7 @@
       <c r="I232" s="96"/>
       <c r="J232" s="97"/>
       <c r="K232" s="97"/>
-      <c r="L232" s="99"/>
+      <c r="L232" s="98"/>
       <c r="M232" s="13"/>
       <c r="N232" s="13"/>
       <c r="O232" s="13"/>
@@ -8042,10 +8047,10 @@
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
       <c r="H233" s="31"/>
-      <c r="I233" s="134"/>
-      <c r="J233" s="135"/>
-      <c r="K233" s="135"/>
-      <c r="L233" s="136"/>
+      <c r="I233" s="115"/>
+      <c r="J233" s="116"/>
+      <c r="K233" s="116"/>
+      <c r="L233" s="117"/>
       <c r="M233" s="13"/>
       <c r="N233" s="13"/>
       <c r="O233" s="13"/>
@@ -8073,7 +8078,7 @@
       <c r="I234" s="96"/>
       <c r="J234" s="97"/>
       <c r="K234" s="97"/>
-      <c r="L234" s="99"/>
+      <c r="L234" s="98"/>
       <c r="M234" s="13"/>
       <c r="N234" s="13"/>
       <c r="O234" s="13"/>
@@ -8101,7 +8106,7 @@
       <c r="I235" s="96"/>
       <c r="J235" s="97"/>
       <c r="K235" s="97"/>
-      <c r="L235" s="99"/>
+      <c r="L235" s="98"/>
       <c r="M235" s="13"/>
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
@@ -8129,7 +8134,7 @@
       <c r="I236" s="96"/>
       <c r="J236" s="97"/>
       <c r="K236" s="97"/>
-      <c r="L236" s="99"/>
+      <c r="L236" s="98"/>
       <c r="M236" s="13"/>
       <c r="N236" s="13"/>
       <c r="O236" s="13"/>
@@ -8153,10 +8158,10 @@
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
       <c r="H237" s="42"/>
-      <c r="I237" s="137"/>
-      <c r="J237" s="138"/>
-      <c r="K237" s="138"/>
-      <c r="L237" s="139"/>
+      <c r="I237" s="118"/>
+      <c r="J237" s="119"/>
+      <c r="K237" s="119"/>
+      <c r="L237" s="120"/>
       <c r="M237" s="13"/>
       <c r="N237" s="13"/>
       <c r="O237" s="13"/>
@@ -8181,10 +8186,10 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="31"/>
-      <c r="I238" s="100"/>
-      <c r="J238" s="101"/>
-      <c r="K238" s="101"/>
-      <c r="L238" s="102"/>
+      <c r="I238" s="99"/>
+      <c r="J238" s="100"/>
+      <c r="K238" s="100"/>
+      <c r="L238" s="101"/>
       <c r="M238" s="13"/>
       <c r="N238" s="13"/>
       <c r="O238" s="13"/>
@@ -8212,7 +8217,7 @@
       <c r="I239" s="96"/>
       <c r="J239" s="97"/>
       <c r="K239" s="97"/>
-      <c r="L239" s="99"/>
+      <c r="L239" s="98"/>
       <c r="M239" s="13"/>
       <c r="N239" s="13"/>
       <c r="O239" s="13"/>
@@ -8240,7 +8245,7 @@
       <c r="I240" s="96"/>
       <c r="J240" s="97"/>
       <c r="K240" s="97"/>
-      <c r="L240" s="99"/>
+      <c r="L240" s="98"/>
       <c r="M240" s="13"/>
       <c r="N240" s="13"/>
       <c r="O240" s="13"/>
@@ -8268,7 +8273,7 @@
       <c r="I241" s="96"/>
       <c r="J241" s="97"/>
       <c r="K241" s="97"/>
-      <c r="L241" s="99"/>
+      <c r="L241" s="98"/>
       <c r="M241" s="13"/>
       <c r="N241" s="13"/>
       <c r="O241" s="13"/>
@@ -8296,7 +8301,7 @@
       <c r="I242" s="96"/>
       <c r="J242" s="97"/>
       <c r="K242" s="97"/>
-      <c r="L242" s="99"/>
+      <c r="L242" s="98"/>
       <c r="M242" s="13"/>
       <c r="N242" s="13"/>
       <c r="O242" s="13"/>
@@ -8324,7 +8329,7 @@
       <c r="I243" s="96"/>
       <c r="J243" s="97"/>
       <c r="K243" s="97"/>
-      <c r="L243" s="98"/>
+      <c r="L243" s="105"/>
       <c r="M243" s="13"/>
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
@@ -8352,7 +8357,7 @@
       <c r="I244" s="96"/>
       <c r="J244" s="97"/>
       <c r="K244" s="97"/>
-      <c r="L244" s="98"/>
+      <c r="L244" s="105"/>
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
       <c r="P244" s="13"/>
@@ -8379,7 +8384,7 @@
       <c r="I245" s="96"/>
       <c r="J245" s="97"/>
       <c r="K245" s="97"/>
-      <c r="L245" s="98"/>
+      <c r="L245" s="105"/>
       <c r="M245" s="25"/>
     </row>
     <row r="246" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -8394,7 +8399,7 @@
       <c r="I246" s="96"/>
       <c r="J246" s="97"/>
       <c r="K246" s="97"/>
-      <c r="L246" s="98"/>
+      <c r="L246" s="105"/>
       <c r="M246" s="25"/>
       <c r="N246" s="13"/>
       <c r="O246" s="13"/>
@@ -8422,7 +8427,7 @@
       <c r="I247" s="96"/>
       <c r="J247" s="97"/>
       <c r="K247" s="97"/>
-      <c r="L247" s="98"/>
+      <c r="L247" s="105"/>
       <c r="M247" s="25"/>
       <c r="N247" s="13"/>
       <c r="O247" s="13"/>
@@ -8447,10 +8452,10 @@
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
       <c r="H248" s="31"/>
-      <c r="I248" s="100"/>
-      <c r="J248" s="101"/>
-      <c r="K248" s="101"/>
-      <c r="L248" s="111"/>
+      <c r="I248" s="99"/>
+      <c r="J248" s="100"/>
+      <c r="K248" s="100"/>
+      <c r="L248" s="110"/>
       <c r="M248" s="25"/>
       <c r="N248" s="13"/>
       <c r="O248" s="13"/>
@@ -8478,7 +8483,7 @@
       <c r="I249" s="96"/>
       <c r="J249" s="97"/>
       <c r="K249" s="97"/>
-      <c r="L249" s="98"/>
+      <c r="L249" s="105"/>
       <c r="M249" s="25"/>
       <c r="N249" s="13"/>
       <c r="O249" s="13"/>
@@ -8503,10 +8508,10 @@
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
       <c r="H250" s="31"/>
-      <c r="I250" s="100"/>
-      <c r="J250" s="101"/>
-      <c r="K250" s="101"/>
-      <c r="L250" s="111"/>
+      <c r="I250" s="99"/>
+      <c r="J250" s="100"/>
+      <c r="K250" s="100"/>
+      <c r="L250" s="110"/>
       <c r="M250" s="25"/>
       <c r="N250" s="13"/>
       <c r="O250" s="13"/>
@@ -8534,7 +8539,7 @@
       <c r="I251" s="96"/>
       <c r="J251" s="97"/>
       <c r="K251" s="97"/>
-      <c r="L251" s="98"/>
+      <c r="L251" s="105"/>
       <c r="M251" s="25"/>
       <c r="N251" s="13"/>
       <c r="O251" s="13"/>
@@ -8562,7 +8567,7 @@
       <c r="I252" s="96"/>
       <c r="J252" s="97"/>
       <c r="K252" s="97"/>
-      <c r="L252" s="98"/>
+      <c r="L252" s="105"/>
       <c r="M252" s="25"/>
       <c r="N252" s="13"/>
       <c r="O252" s="13"/>
@@ -8590,7 +8595,7 @@
       <c r="I253" s="96"/>
       <c r="J253" s="97"/>
       <c r="K253" s="97"/>
-      <c r="L253" s="98"/>
+      <c r="L253" s="105"/>
       <c r="M253" s="25"/>
       <c r="N253" s="13"/>
       <c r="O253" s="13"/>
@@ -8615,10 +8620,10 @@
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
       <c r="H254" s="31"/>
-      <c r="I254" s="100"/>
-      <c r="J254" s="101"/>
-      <c r="K254" s="101"/>
-      <c r="L254" s="111"/>
+      <c r="I254" s="99"/>
+      <c r="J254" s="100"/>
+      <c r="K254" s="100"/>
+      <c r="L254" s="110"/>
       <c r="M254" s="25"/>
       <c r="N254" s="13"/>
       <c r="O254" s="13"/>
@@ -8646,7 +8651,7 @@
       <c r="I255" s="96"/>
       <c r="J255" s="97"/>
       <c r="K255" s="97"/>
-      <c r="L255" s="98"/>
+      <c r="L255" s="105"/>
       <c r="M255" s="25"/>
       <c r="N255" s="13"/>
       <c r="O255" s="13"/>
@@ -8671,10 +8676,10 @@
       <c r="F256" s="19"/>
       <c r="G256" s="19"/>
       <c r="H256" s="31"/>
-      <c r="I256" s="100"/>
-      <c r="J256" s="101"/>
-      <c r="K256" s="101"/>
-      <c r="L256" s="111"/>
+      <c r="I256" s="99"/>
+      <c r="J256" s="100"/>
+      <c r="K256" s="100"/>
+      <c r="L256" s="110"/>
       <c r="M256" s="25"/>
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
@@ -8699,10 +8704,10 @@
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
       <c r="H257" s="31"/>
-      <c r="I257" s="100"/>
-      <c r="J257" s="101"/>
-      <c r="K257" s="101"/>
-      <c r="L257" s="111"/>
+      <c r="I257" s="99"/>
+      <c r="J257" s="100"/>
+      <c r="K257" s="100"/>
+      <c r="L257" s="110"/>
       <c r="M257" s="25"/>
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
@@ -8730,7 +8735,7 @@
       <c r="I258" s="96"/>
       <c r="J258" s="97"/>
       <c r="K258" s="97"/>
-      <c r="L258" s="98"/>
+      <c r="L258" s="105"/>
       <c r="M258" s="25"/>
       <c r="N258" s="13"/>
       <c r="O258" s="13"/>
@@ -8755,10 +8760,10 @@
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
       <c r="H259" s="31"/>
-      <c r="I259" s="103"/>
-      <c r="J259" s="101"/>
-      <c r="K259" s="101"/>
-      <c r="L259" s="101"/>
+      <c r="I259" s="111"/>
+      <c r="J259" s="100"/>
+      <c r="K259" s="100"/>
+      <c r="L259" s="100"/>
       <c r="M259" s="25"/>
       <c r="N259" s="13"/>
       <c r="O259" s="13"/>
@@ -8782,10 +8787,10 @@
       <c r="F260" s="19"/>
       <c r="G260" s="19"/>
       <c r="H260" s="19"/>
-      <c r="I260" s="100"/>
-      <c r="J260" s="101"/>
-      <c r="K260" s="101"/>
-      <c r="L260" s="111"/>
+      <c r="I260" s="99"/>
+      <c r="J260" s="100"/>
+      <c r="K260" s="100"/>
+      <c r="L260" s="110"/>
       <c r="M260" s="25"/>
       <c r="N260" s="13"/>
       <c r="O260" s="13"/>
@@ -8810,10 +8815,10 @@
       <c r="F261" s="19"/>
       <c r="G261" s="19"/>
       <c r="H261" s="31"/>
-      <c r="I261" s="100"/>
-      <c r="J261" s="101"/>
-      <c r="K261" s="101"/>
-      <c r="L261" s="111"/>
+      <c r="I261" s="99"/>
+      <c r="J261" s="100"/>
+      <c r="K261" s="100"/>
+      <c r="L261" s="110"/>
       <c r="M261" s="25"/>
       <c r="N261" s="13"/>
       <c r="O261" s="13"/>
@@ -8841,7 +8846,7 @@
       <c r="I262" s="96"/>
       <c r="J262" s="97"/>
       <c r="K262" s="97"/>
-      <c r="L262" s="98"/>
+      <c r="L262" s="105"/>
       <c r="M262" s="25"/>
       <c r="N262" s="13"/>
       <c r="O262" s="13"/>
@@ -8869,7 +8874,7 @@
       <c r="I263" s="96"/>
       <c r="J263" s="97"/>
       <c r="K263" s="97"/>
-      <c r="L263" s="98"/>
+      <c r="L263" s="105"/>
       <c r="N263" s="13"/>
       <c r="O263" s="13"/>
       <c r="P263" s="13"/>
@@ -8893,10 +8898,10 @@
       <c r="F264" s="19"/>
       <c r="G264" s="19"/>
       <c r="H264" s="31"/>
-      <c r="I264" s="100"/>
-      <c r="J264" s="101"/>
-      <c r="K264" s="101"/>
-      <c r="L264" s="111"/>
+      <c r="I264" s="99"/>
+      <c r="J264" s="100"/>
+      <c r="K264" s="100"/>
+      <c r="L264" s="110"/>
       <c r="M264" s="25"/>
     </row>
     <row r="265" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -8908,10 +8913,10 @@
       <c r="F265" s="19"/>
       <c r="G265" s="19"/>
       <c r="H265" s="31"/>
-      <c r="I265" s="100"/>
-      <c r="J265" s="101"/>
-      <c r="K265" s="101"/>
-      <c r="L265" s="111"/>
+      <c r="I265" s="99"/>
+      <c r="J265" s="100"/>
+      <c r="K265" s="100"/>
+      <c r="L265" s="110"/>
       <c r="M265" s="25"/>
       <c r="N265" s="13"/>
       <c r="O265" s="13"/>
@@ -8936,10 +8941,10 @@
       <c r="F266" s="19"/>
       <c r="G266" s="19"/>
       <c r="H266" s="31"/>
-      <c r="I266" s="100"/>
-      <c r="J266" s="101"/>
-      <c r="K266" s="101"/>
-      <c r="L266" s="111"/>
+      <c r="I266" s="99"/>
+      <c r="J266" s="100"/>
+      <c r="K266" s="100"/>
+      <c r="L266" s="110"/>
       <c r="M266" s="25"/>
       <c r="N266" s="13"/>
       <c r="O266" s="13"/>
@@ -8967,7 +8972,7 @@
       <c r="I267" s="96"/>
       <c r="J267" s="97"/>
       <c r="K267" s="97"/>
-      <c r="L267" s="98"/>
+      <c r="L267" s="105"/>
       <c r="M267" s="25"/>
       <c r="N267" s="13"/>
       <c r="O267" s="13"/>
@@ -8995,7 +9000,7 @@
       <c r="I268" s="96"/>
       <c r="J268" s="97"/>
       <c r="K268" s="97"/>
-      <c r="L268" s="98"/>
+      <c r="L268" s="105"/>
       <c r="M268" s="25"/>
       <c r="N268" s="13"/>
       <c r="O268" s="13"/>
@@ -9023,7 +9028,7 @@
       <c r="I269" s="96"/>
       <c r="J269" s="97"/>
       <c r="K269" s="97"/>
-      <c r="L269" s="98"/>
+      <c r="L269" s="105"/>
       <c r="M269" s="25"/>
       <c r="N269" s="13"/>
       <c r="O269" s="13"/>
@@ -9051,7 +9056,7 @@
       <c r="I270" s="96"/>
       <c r="J270" s="97"/>
       <c r="K270" s="97"/>
-      <c r="L270" s="98"/>
+      <c r="L270" s="105"/>
       <c r="M270" s="25"/>
       <c r="N270" s="13"/>
       <c r="O270" s="13"/>
@@ -9076,10 +9081,10 @@
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
       <c r="H271" s="32"/>
-      <c r="I271" s="100"/>
-      <c r="J271" s="101"/>
-      <c r="K271" s="101"/>
-      <c r="L271" s="111"/>
+      <c r="I271" s="99"/>
+      <c r="J271" s="100"/>
+      <c r="K271" s="100"/>
+      <c r="L271" s="110"/>
       <c r="M271" s="25"/>
       <c r="N271" s="13"/>
       <c r="O271" s="13"/>
@@ -9104,10 +9109,10 @@
       <c r="F272" s="19"/>
       <c r="G272" s="19"/>
       <c r="H272" s="32"/>
-      <c r="I272" s="100"/>
-      <c r="J272" s="101"/>
-      <c r="K272" s="101"/>
-      <c r="L272" s="111"/>
+      <c r="I272" s="99"/>
+      <c r="J272" s="100"/>
+      <c r="K272" s="100"/>
+      <c r="L272" s="110"/>
       <c r="M272" s="25"/>
       <c r="N272" s="13"/>
       <c r="O272" s="13"/>
@@ -9132,10 +9137,10 @@
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
       <c r="H273" s="43"/>
-      <c r="I273" s="100"/>
-      <c r="J273" s="101"/>
-      <c r="K273" s="101"/>
-      <c r="L273" s="111"/>
+      <c r="I273" s="99"/>
+      <c r="J273" s="100"/>
+      <c r="K273" s="100"/>
+      <c r="L273" s="110"/>
       <c r="M273" s="25"/>
       <c r="N273" s="13"/>
       <c r="O273" s="13"/>
@@ -9163,7 +9168,7 @@
       <c r="I274" s="96"/>
       <c r="J274" s="97"/>
       <c r="K274" s="97"/>
-      <c r="L274" s="98"/>
+      <c r="L274" s="105"/>
       <c r="M274" s="25"/>
       <c r="N274" s="13"/>
       <c r="O274" s="13"/>
@@ -9191,7 +9196,7 @@
       <c r="I275" s="96"/>
       <c r="J275" s="97"/>
       <c r="K275" s="97"/>
-      <c r="L275" s="98"/>
+      <c r="L275" s="105"/>
       <c r="M275" s="25"/>
       <c r="N275" s="13"/>
       <c r="O275" s="13"/>
@@ -9219,7 +9224,7 @@
       <c r="I276" s="96"/>
       <c r="J276" s="97"/>
       <c r="K276" s="97"/>
-      <c r="L276" s="98"/>
+      <c r="L276" s="105"/>
       <c r="M276" s="25"/>
       <c r="N276" s="13"/>
       <c r="O276" s="13"/>
@@ -9247,7 +9252,7 @@
       <c r="I277" s="96"/>
       <c r="J277" s="97"/>
       <c r="K277" s="97"/>
-      <c r="L277" s="98"/>
+      <c r="L277" s="105"/>
       <c r="M277" s="25"/>
       <c r="N277" s="13"/>
       <c r="O277" s="13"/>
@@ -9275,7 +9280,7 @@
       <c r="I278" s="96"/>
       <c r="J278" s="97"/>
       <c r="K278" s="97"/>
-      <c r="L278" s="98"/>
+      <c r="L278" s="105"/>
       <c r="M278" s="25"/>
       <c r="N278" s="13"/>
       <c r="O278" s="13"/>
@@ -9303,7 +9308,7 @@
       <c r="I279" s="96"/>
       <c r="J279" s="97"/>
       <c r="K279" s="97"/>
-      <c r="L279" s="98"/>
+      <c r="L279" s="105"/>
       <c r="M279" s="25"/>
       <c r="N279" s="13"/>
       <c r="O279" s="13"/>
@@ -9331,7 +9336,7 @@
       <c r="I280" s="96"/>
       <c r="J280" s="97"/>
       <c r="K280" s="97"/>
-      <c r="L280" s="98"/>
+      <c r="L280" s="105"/>
       <c r="M280" s="25"/>
       <c r="N280" s="13"/>
       <c r="O280" s="13"/>
@@ -9356,10 +9361,10 @@
       <c r="F281" s="19"/>
       <c r="G281" s="19"/>
       <c r="H281" s="47"/>
-      <c r="I281" s="112"/>
-      <c r="J281" s="113"/>
-      <c r="K281" s="113"/>
-      <c r="L281" s="114"/>
+      <c r="I281" s="102"/>
+      <c r="J281" s="103"/>
+      <c r="K281" s="103"/>
+      <c r="L281" s="137"/>
       <c r="M281" s="25"/>
       <c r="N281" s="13"/>
       <c r="O281" s="13"/>
@@ -9384,10 +9389,10 @@
       <c r="F282" s="81"/>
       <c r="G282" s="81"/>
       <c r="H282" s="82"/>
-      <c r="I282" s="107"/>
-      <c r="J282" s="108"/>
-      <c r="K282" s="108"/>
-      <c r="L282" s="109"/>
+      <c r="I282" s="109"/>
+      <c r="J282" s="107"/>
+      <c r="K282" s="107"/>
+      <c r="L282" s="108"/>
       <c r="M282" s="25"/>
       <c r="N282" s="13"/>
       <c r="O282" s="13"/>
@@ -9412,10 +9417,10 @@
       <c r="F283" s="81"/>
       <c r="G283" s="81"/>
       <c r="H283" s="82"/>
-      <c r="I283" s="107"/>
-      <c r="J283" s="108"/>
-      <c r="K283" s="108"/>
-      <c r="L283" s="109"/>
+      <c r="I283" s="109"/>
+      <c r="J283" s="107"/>
+      <c r="K283" s="107"/>
+      <c r="L283" s="108"/>
       <c r="M283" s="25"/>
       <c r="N283" s="13"/>
       <c r="O283" s="13"/>
@@ -9440,10 +9445,10 @@
       <c r="F284" s="81"/>
       <c r="G284" s="81"/>
       <c r="H284" s="82"/>
-      <c r="I284" s="140"/>
-      <c r="J284" s="108"/>
-      <c r="K284" s="108"/>
-      <c r="L284" s="109"/>
+      <c r="I284" s="106"/>
+      <c r="J284" s="107"/>
+      <c r="K284" s="107"/>
+      <c r="L284" s="108"/>
       <c r="M284" s="25"/>
       <c r="N284" s="13"/>
       <c r="O284" s="13"/>
@@ -9468,10 +9473,10 @@
       <c r="F285" s="81"/>
       <c r="G285" s="81"/>
       <c r="H285" s="81"/>
-      <c r="I285" s="107"/>
-      <c r="J285" s="108"/>
-      <c r="K285" s="108"/>
-      <c r="L285" s="109"/>
+      <c r="I285" s="109"/>
+      <c r="J285" s="107"/>
+      <c r="K285" s="107"/>
+      <c r="L285" s="108"/>
       <c r="M285" s="25"/>
       <c r="N285" s="13"/>
       <c r="O285" s="13"/>
@@ -9496,10 +9501,10 @@
       <c r="F286" s="81"/>
       <c r="G286" s="81"/>
       <c r="H286" s="82"/>
-      <c r="I286" s="107"/>
-      <c r="J286" s="108"/>
-      <c r="K286" s="108"/>
-      <c r="L286" s="109"/>
+      <c r="I286" s="109"/>
+      <c r="J286" s="107"/>
+      <c r="K286" s="107"/>
+      <c r="L286" s="108"/>
       <c r="M286" s="25"/>
       <c r="N286" s="13"/>
       <c r="O286" s="13"/>
@@ -9527,7 +9532,7 @@
       <c r="I287" s="96"/>
       <c r="J287" s="97"/>
       <c r="K287" s="97"/>
-      <c r="L287" s="98"/>
+      <c r="L287" s="105"/>
       <c r="M287" s="25"/>
       <c r="N287" s="13"/>
       <c r="O287" s="13"/>
@@ -9555,7 +9560,7 @@
       <c r="I288" s="96"/>
       <c r="J288" s="97"/>
       <c r="K288" s="97"/>
-      <c r="L288" s="98"/>
+      <c r="L288" s="105"/>
       <c r="M288" s="25"/>
       <c r="N288" s="13"/>
       <c r="O288" s="13"/>
@@ -9580,10 +9585,10 @@
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
       <c r="H289" s="48"/>
-      <c r="I289" s="100"/>
-      <c r="J289" s="101"/>
-      <c r="K289" s="101"/>
-      <c r="L289" s="111"/>
+      <c r="I289" s="99"/>
+      <c r="J289" s="100"/>
+      <c r="K289" s="100"/>
+      <c r="L289" s="110"/>
       <c r="M289" s="25"/>
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
@@ -9611,7 +9616,7 @@
       <c r="I290" s="96"/>
       <c r="J290" s="97"/>
       <c r="K290" s="97"/>
-      <c r="L290" s="98"/>
+      <c r="L290" s="105"/>
       <c r="M290" s="25"/>
       <c r="N290" s="13"/>
       <c r="O290" s="13"/>
@@ -9636,10 +9641,10 @@
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
       <c r="H291" s="48"/>
-      <c r="I291" s="100"/>
-      <c r="J291" s="101"/>
-      <c r="K291" s="101"/>
-      <c r="L291" s="111"/>
+      <c r="I291" s="99"/>
+      <c r="J291" s="100"/>
+      <c r="K291" s="100"/>
+      <c r="L291" s="110"/>
       <c r="M291" s="25"/>
       <c r="N291" s="13"/>
       <c r="O291" s="13"/>
@@ -9667,7 +9672,7 @@
       <c r="I292" s="96"/>
       <c r="J292" s="97"/>
       <c r="K292" s="97"/>
-      <c r="L292" s="98"/>
+      <c r="L292" s="105"/>
       <c r="M292" s="25"/>
       <c r="N292" s="13"/>
       <c r="O292" s="13"/>
@@ -9695,7 +9700,7 @@
       <c r="I293" s="96"/>
       <c r="J293" s="97"/>
       <c r="K293" s="97"/>
-      <c r="L293" s="98"/>
+      <c r="L293" s="105"/>
       <c r="M293" s="25"/>
       <c r="N293" s="13"/>
       <c r="O293" s="13"/>
@@ -9720,10 +9725,10 @@
       <c r="F294" s="19"/>
       <c r="G294" s="19"/>
       <c r="H294" s="48"/>
-      <c r="I294" s="100"/>
-      <c r="J294" s="101"/>
-      <c r="K294" s="101"/>
-      <c r="L294" s="111"/>
+      <c r="I294" s="99"/>
+      <c r="J294" s="100"/>
+      <c r="K294" s="100"/>
+      <c r="L294" s="110"/>
       <c r="M294" s="83"/>
       <c r="N294" s="13"/>
       <c r="O294" s="13"/>
@@ -9748,10 +9753,10 @@
       <c r="F295" s="19"/>
       <c r="G295" s="19"/>
       <c r="H295" s="48"/>
-      <c r="I295" s="100"/>
-      <c r="J295" s="101"/>
-      <c r="K295" s="101"/>
-      <c r="L295" s="111"/>
+      <c r="I295" s="99"/>
+      <c r="J295" s="100"/>
+      <c r="K295" s="100"/>
+      <c r="L295" s="110"/>
       <c r="M295" s="83"/>
       <c r="N295" s="15"/>
       <c r="O295" s="15"/>
@@ -9779,7 +9784,7 @@
       <c r="I296" s="96"/>
       <c r="J296" s="97"/>
       <c r="K296" s="97"/>
-      <c r="L296" s="98"/>
+      <c r="L296" s="105"/>
       <c r="M296" s="83"/>
       <c r="N296" s="15"/>
       <c r="O296" s="15"/>
@@ -9807,7 +9812,7 @@
       <c r="I297" s="96"/>
       <c r="J297" s="97"/>
       <c r="K297" s="97"/>
-      <c r="L297" s="98"/>
+      <c r="L297" s="105"/>
       <c r="M297" s="83"/>
       <c r="N297" s="15"/>
       <c r="O297" s="15"/>
@@ -9835,7 +9840,7 @@
       <c r="I298" s="96"/>
       <c r="J298" s="97"/>
       <c r="K298" s="97"/>
-      <c r="L298" s="98"/>
+      <c r="L298" s="105"/>
       <c r="M298" s="83"/>
       <c r="N298" s="15"/>
       <c r="O298" s="15"/>
@@ -9863,7 +9868,7 @@
       <c r="I299" s="96"/>
       <c r="J299" s="97"/>
       <c r="K299" s="97"/>
-      <c r="L299" s="98"/>
+      <c r="L299" s="105"/>
       <c r="M299" s="83"/>
       <c r="N299" s="15"/>
       <c r="O299" s="15"/>
@@ -9891,7 +9896,7 @@
       <c r="I300" s="96"/>
       <c r="J300" s="97"/>
       <c r="K300" s="97"/>
-      <c r="L300" s="98"/>
+      <c r="L300" s="105"/>
       <c r="M300" s="25"/>
       <c r="N300" s="15"/>
       <c r="O300" s="15"/>
@@ -9919,7 +9924,7 @@
       <c r="I301" s="96"/>
       <c r="J301" s="97"/>
       <c r="K301" s="97"/>
-      <c r="L301" s="98"/>
+      <c r="L301" s="105"/>
       <c r="M301" s="25"/>
       <c r="N301" s="13"/>
       <c r="O301" s="13"/>
@@ -9947,7 +9952,7 @@
       <c r="I302" s="96"/>
       <c r="J302" s="97"/>
       <c r="K302" s="97"/>
-      <c r="L302" s="98"/>
+      <c r="L302" s="105"/>
       <c r="M302" s="25"/>
       <c r="N302" s="13"/>
       <c r="O302" s="13"/>
@@ -9975,7 +9980,7 @@
       <c r="I303" s="96"/>
       <c r="J303" s="97"/>
       <c r="K303" s="97"/>
-      <c r="L303" s="99"/>
+      <c r="L303" s="98"/>
       <c r="M303" s="25"/>
       <c r="N303" s="13"/>
       <c r="O303" s="13"/>
@@ -10003,7 +10008,7 @@
       <c r="I304" s="96"/>
       <c r="J304" s="97"/>
       <c r="K304" s="97"/>
-      <c r="L304" s="99"/>
+      <c r="L304" s="98"/>
       <c r="M304" s="13"/>
       <c r="N304" s="13"/>
       <c r="O304" s="13"/>
@@ -10031,7 +10036,7 @@
       <c r="I305" s="96"/>
       <c r="J305" s="97"/>
       <c r="K305" s="97"/>
-      <c r="L305" s="99"/>
+      <c r="L305" s="98"/>
       <c r="M305" s="13"/>
       <c r="N305" s="13"/>
       <c r="O305" s="13"/>
@@ -10059,7 +10064,7 @@
       <c r="I306" s="96"/>
       <c r="J306" s="97"/>
       <c r="K306" s="97"/>
-      <c r="L306" s="99"/>
+      <c r="L306" s="98"/>
       <c r="M306" s="13"/>
       <c r="N306" s="13"/>
       <c r="O306" s="13"/>
@@ -10087,7 +10092,7 @@
       <c r="I307" s="96"/>
       <c r="J307" s="97"/>
       <c r="K307" s="97"/>
-      <c r="L307" s="99"/>
+      <c r="L307" s="98"/>
       <c r="M307" s="13"/>
       <c r="N307" s="13"/>
       <c r="O307" s="13"/>
@@ -10115,7 +10120,7 @@
       <c r="I308" s="96"/>
       <c r="J308" s="97"/>
       <c r="K308" s="97"/>
-      <c r="L308" s="99"/>
+      <c r="L308" s="98"/>
       <c r="M308" s="13"/>
       <c r="N308" s="13"/>
       <c r="O308" s="13"/>
@@ -10143,7 +10148,7 @@
       <c r="I309" s="96"/>
       <c r="J309" s="97"/>
       <c r="K309" s="97"/>
-      <c r="L309" s="99"/>
+      <c r="L309" s="98"/>
       <c r="M309" s="13"/>
       <c r="N309" s="13"/>
       <c r="O309" s="13"/>
@@ -10171,7 +10176,7 @@
       <c r="I310" s="96"/>
       <c r="J310" s="97"/>
       <c r="K310" s="97"/>
-      <c r="L310" s="99"/>
+      <c r="L310" s="98"/>
       <c r="M310" s="13"/>
       <c r="N310" s="13"/>
       <c r="O310" s="13"/>
@@ -10199,7 +10204,7 @@
       <c r="I311" s="96"/>
       <c r="J311" s="97"/>
       <c r="K311" s="97"/>
-      <c r="L311" s="99"/>
+      <c r="L311" s="98"/>
       <c r="M311" s="13"/>
       <c r="N311" s="13"/>
       <c r="O311" s="13"/>
@@ -10227,7 +10232,7 @@
       <c r="I312" s="96"/>
       <c r="J312" s="97"/>
       <c r="K312" s="97"/>
-      <c r="L312" s="99"/>
+      <c r="L312" s="98"/>
       <c r="M312" s="13"/>
       <c r="N312" s="13"/>
       <c r="O312" s="13"/>
@@ -10255,7 +10260,7 @@
       <c r="I313" s="96"/>
       <c r="J313" s="97"/>
       <c r="K313" s="97"/>
-      <c r="L313" s="99"/>
+      <c r="L313" s="98"/>
       <c r="M313" s="13"/>
       <c r="N313" s="13"/>
       <c r="O313" s="13"/>
@@ -10280,10 +10285,10 @@
       <c r="F314" s="19"/>
       <c r="G314" s="19"/>
       <c r="H314" s="51"/>
-      <c r="I314" s="100"/>
-      <c r="J314" s="101"/>
-      <c r="K314" s="101"/>
-      <c r="L314" s="102"/>
+      <c r="I314" s="99"/>
+      <c r="J314" s="100"/>
+      <c r="K314" s="100"/>
+      <c r="L314" s="101"/>
       <c r="M314" s="13"/>
       <c r="N314" s="13"/>
       <c r="O314" s="13"/>
@@ -10308,10 +10313,10 @@
       <c r="F315" s="19"/>
       <c r="G315" s="19"/>
       <c r="H315" s="51"/>
-      <c r="I315" s="100"/>
-      <c r="J315" s="101"/>
-      <c r="K315" s="101"/>
-      <c r="L315" s="102"/>
+      <c r="I315" s="99"/>
+      <c r="J315" s="100"/>
+      <c r="K315" s="100"/>
+      <c r="L315" s="101"/>
       <c r="M315" s="13"/>
       <c r="N315" s="13"/>
       <c r="O315" s="13"/>
@@ -10339,7 +10344,7 @@
       <c r="I316" s="96"/>
       <c r="J316" s="97"/>
       <c r="K316" s="97"/>
-      <c r="L316" s="99"/>
+      <c r="L316" s="98"/>
       <c r="M316" s="13"/>
       <c r="N316" s="13"/>
       <c r="O316" s="13"/>
@@ -10367,7 +10372,7 @@
       <c r="I317" s="96"/>
       <c r="J317" s="97"/>
       <c r="K317" s="97"/>
-      <c r="L317" s="99"/>
+      <c r="L317" s="98"/>
       <c r="M317" s="13"/>
       <c r="N317" s="13"/>
       <c r="O317" s="13"/>
@@ -10392,10 +10397,10 @@
       <c r="F318" s="19"/>
       <c r="G318" s="19"/>
       <c r="H318" s="52"/>
-      <c r="I318" s="100"/>
-      <c r="J318" s="101"/>
-      <c r="K318" s="101"/>
-      <c r="L318" s="102"/>
+      <c r="I318" s="99"/>
+      <c r="J318" s="100"/>
+      <c r="K318" s="100"/>
+      <c r="L318" s="101"/>
       <c r="M318" s="13"/>
       <c r="N318" s="13"/>
       <c r="O318" s="13"/>
@@ -10423,7 +10428,7 @@
       <c r="I319" s="96"/>
       <c r="J319" s="97"/>
       <c r="K319" s="97"/>
-      <c r="L319" s="99"/>
+      <c r="L319" s="98"/>
       <c r="M319" s="13"/>
       <c r="N319" s="13"/>
       <c r="O319" s="13"/>
@@ -10451,7 +10456,7 @@
       <c r="I320" s="96"/>
       <c r="J320" s="97"/>
       <c r="K320" s="97"/>
-      <c r="L320" s="99"/>
+      <c r="L320" s="98"/>
       <c r="M320" s="13"/>
       <c r="N320" s="13"/>
       <c r="O320" s="13"/>
@@ -10479,7 +10484,7 @@
       <c r="I321" s="96"/>
       <c r="J321" s="97"/>
       <c r="K321" s="97"/>
-      <c r="L321" s="99"/>
+      <c r="L321" s="98"/>
       <c r="M321" s="13"/>
       <c r="N321" s="13"/>
       <c r="O321" s="13"/>
@@ -10507,7 +10512,7 @@
       <c r="I322" s="96"/>
       <c r="J322" s="97"/>
       <c r="K322" s="97"/>
-      <c r="L322" s="99"/>
+      <c r="L322" s="98"/>
       <c r="M322" s="13"/>
       <c r="N322" s="13"/>
       <c r="O322" s="13"/>
@@ -10535,7 +10540,7 @@
       <c r="I323" s="96"/>
       <c r="J323" s="97"/>
       <c r="K323" s="97"/>
-      <c r="L323" s="99"/>
+      <c r="L323" s="98"/>
       <c r="M323" s="13"/>
       <c r="N323" s="13"/>
       <c r="O323" s="13"/>
@@ -10560,10 +10565,10 @@
       <c r="F324" s="69"/>
       <c r="G324" s="19"/>
       <c r="H324" s="67"/>
-      <c r="I324" s="112"/>
-      <c r="J324" s="113"/>
-      <c r="K324" s="113"/>
-      <c r="L324" s="141"/>
+      <c r="I324" s="102"/>
+      <c r="J324" s="103"/>
+      <c r="K324" s="103"/>
+      <c r="L324" s="104"/>
       <c r="M324" s="13"/>
       <c r="N324" s="13"/>
       <c r="O324" s="13"/>
@@ -10672,10 +10677,10 @@
       <c r="F328" s="87"/>
       <c r="G328" s="81"/>
       <c r="H328" s="82"/>
-      <c r="I328" s="112"/>
-      <c r="J328" s="113"/>
-      <c r="K328" s="113"/>
-      <c r="L328" s="141"/>
+      <c r="I328" s="102"/>
+      <c r="J328" s="103"/>
+      <c r="K328" s="103"/>
+      <c r="L328" s="104"/>
       <c r="M328" s="13"/>
       <c r="N328" s="13"/>
       <c r="O328" s="13"/>
@@ -10728,10 +10733,10 @@
       <c r="F330" s="81"/>
       <c r="G330" s="81"/>
       <c r="H330" s="82"/>
-      <c r="I330" s="112"/>
-      <c r="J330" s="113"/>
-      <c r="K330" s="113"/>
-      <c r="L330" s="141"/>
+      <c r="I330" s="102"/>
+      <c r="J330" s="103"/>
+      <c r="K330" s="103"/>
+      <c r="L330" s="104"/>
       <c r="M330" s="13"/>
       <c r="N330" s="13"/>
       <c r="O330" s="13"/>
@@ -10756,10 +10761,10 @@
       <c r="F331" s="81"/>
       <c r="G331" s="81"/>
       <c r="H331" s="82"/>
-      <c r="I331" s="112"/>
-      <c r="J331" s="113"/>
-      <c r="K331" s="113"/>
-      <c r="L331" s="141"/>
+      <c r="I331" s="102"/>
+      <c r="J331" s="103"/>
+      <c r="K331" s="103"/>
+      <c r="L331" s="104"/>
       <c r="M331" s="13"/>
       <c r="N331" s="13"/>
       <c r="O331" s="13"/>
@@ -10784,10 +10789,10 @@
       <c r="F332" s="81"/>
       <c r="G332" s="81"/>
       <c r="H332" s="82"/>
-      <c r="I332" s="112"/>
-      <c r="J332" s="113"/>
-      <c r="K332" s="113"/>
-      <c r="L332" s="141"/>
+      <c r="I332" s="102"/>
+      <c r="J332" s="103"/>
+      <c r="K332" s="103"/>
+      <c r="L332" s="104"/>
       <c r="M332" s="13"/>
       <c r="N332" s="13"/>
       <c r="O332" s="13"/>
@@ -10840,10 +10845,10 @@
       <c r="F334" s="19"/>
       <c r="G334" s="19"/>
       <c r="H334" s="61"/>
-      <c r="I334" s="100"/>
-      <c r="J334" s="101"/>
-      <c r="K334" s="101"/>
-      <c r="L334" s="102"/>
+      <c r="I334" s="99"/>
+      <c r="J334" s="100"/>
+      <c r="K334" s="100"/>
+      <c r="L334" s="101"/>
       <c r="M334" s="13"/>
       <c r="N334" s="13"/>
       <c r="O334" s="13"/>
@@ -10927,7 +10932,7 @@
       <c r="I337" s="96"/>
       <c r="J337" s="97"/>
       <c r="K337" s="97"/>
-      <c r="L337" s="99"/>
+      <c r="L337" s="98"/>
       <c r="M337" s="15"/>
       <c r="N337" s="13"/>
       <c r="O337" s="13"/>
@@ -11008,10 +11013,10 @@
       <c r="F340" s="19"/>
       <c r="G340" s="19"/>
       <c r="H340" s="61"/>
-      <c r="I340" s="100"/>
-      <c r="J340" s="101"/>
-      <c r="K340" s="101"/>
-      <c r="L340" s="102"/>
+      <c r="I340" s="99"/>
+      <c r="J340" s="100"/>
+      <c r="K340" s="100"/>
+      <c r="L340" s="101"/>
       <c r="M340" s="15"/>
       <c r="N340" s="15"/>
       <c r="O340" s="15"/>
@@ -11039,7 +11044,7 @@
       <c r="I341" s="96"/>
       <c r="J341" s="97"/>
       <c r="K341" s="97"/>
-      <c r="L341" s="99"/>
+      <c r="L341" s="98"/>
       <c r="M341" s="15"/>
       <c r="N341" s="15"/>
       <c r="O341" s="15"/>
@@ -11067,7 +11072,7 @@
       <c r="I342" s="96"/>
       <c r="J342" s="97"/>
       <c r="K342" s="97"/>
-      <c r="L342" s="99"/>
+      <c r="L342" s="98"/>
       <c r="M342" s="15"/>
       <c r="N342" s="15"/>
       <c r="O342" s="15"/>
@@ -11092,10 +11097,10 @@
       <c r="F343" s="19"/>
       <c r="G343" s="19"/>
       <c r="H343" s="48"/>
-      <c r="I343" s="107"/>
-      <c r="J343" s="108"/>
-      <c r="K343" s="108"/>
-      <c r="L343" s="110"/>
+      <c r="I343" s="109"/>
+      <c r="J343" s="107"/>
+      <c r="K343" s="107"/>
+      <c r="L343" s="138"/>
       <c r="M343" s="15"/>
       <c r="N343" s="15"/>
       <c r="O343" s="15"/>
@@ -11123,7 +11128,7 @@
       <c r="I344" s="96"/>
       <c r="J344" s="97"/>
       <c r="K344" s="97"/>
-      <c r="L344" s="99"/>
+      <c r="L344" s="98"/>
       <c r="M344" s="15"/>
       <c r="N344" s="15"/>
       <c r="O344" s="15"/>
@@ -11148,10 +11153,10 @@
       <c r="F345" s="68"/>
       <c r="G345" s="68"/>
       <c r="H345" s="66"/>
-      <c r="I345" s="100"/>
-      <c r="J345" s="101"/>
-      <c r="K345" s="101"/>
-      <c r="L345" s="102"/>
+      <c r="I345" s="99"/>
+      <c r="J345" s="100"/>
+      <c r="K345" s="100"/>
+      <c r="L345" s="101"/>
       <c r="M345" s="15"/>
       <c r="N345" s="15"/>
       <c r="O345" s="15"/>
@@ -11176,10 +11181,10 @@
       <c r="F346" s="68"/>
       <c r="G346" s="68"/>
       <c r="H346" s="66"/>
-      <c r="I346" s="100"/>
-      <c r="J346" s="101"/>
-      <c r="K346" s="101"/>
-      <c r="L346" s="102"/>
+      <c r="I346" s="99"/>
+      <c r="J346" s="100"/>
+      <c r="K346" s="100"/>
+      <c r="L346" s="101"/>
       <c r="M346" s="13"/>
       <c r="N346" s="15"/>
       <c r="O346" s="15"/>
@@ -11207,7 +11212,7 @@
       <c r="I347" s="96"/>
       <c r="J347" s="97"/>
       <c r="K347" s="97"/>
-      <c r="L347" s="99"/>
+      <c r="L347" s="98"/>
       <c r="M347" s="13"/>
       <c r="N347" s="13"/>
       <c r="O347" s="13"/>
@@ -11232,10 +11237,10 @@
       <c r="F348" s="68"/>
       <c r="G348" s="68"/>
       <c r="H348" s="66"/>
-      <c r="I348" s="100"/>
-      <c r="J348" s="101"/>
-      <c r="K348" s="101"/>
-      <c r="L348" s="102"/>
+      <c r="I348" s="99"/>
+      <c r="J348" s="100"/>
+      <c r="K348" s="100"/>
+      <c r="L348" s="101"/>
       <c r="M348" s="13"/>
       <c r="N348" s="13"/>
       <c r="O348" s="13"/>
@@ -11260,10 +11265,10 @@
       <c r="F349" s="68"/>
       <c r="G349" s="68"/>
       <c r="H349" s="66"/>
-      <c r="I349" s="100"/>
-      <c r="J349" s="101"/>
-      <c r="K349" s="101"/>
-      <c r="L349" s="102"/>
+      <c r="I349" s="99"/>
+      <c r="J349" s="100"/>
+      <c r="K349" s="100"/>
+      <c r="L349" s="101"/>
       <c r="M349" s="13"/>
       <c r="N349" s="13"/>
       <c r="O349" s="13"/>
@@ -11288,10 +11293,10 @@
       <c r="F350" s="68"/>
       <c r="G350" s="68"/>
       <c r="H350" s="66"/>
-      <c r="I350" s="104"/>
-      <c r="J350" s="105"/>
-      <c r="K350" s="105"/>
-      <c r="L350" s="106"/>
+      <c r="I350" s="139"/>
+      <c r="J350" s="140"/>
+      <c r="K350" s="140"/>
+      <c r="L350" s="141"/>
       <c r="M350" s="13"/>
       <c r="N350" s="13"/>
       <c r="O350" s="13"/>
@@ -11316,10 +11321,10 @@
       <c r="F351" s="75"/>
       <c r="G351" s="75"/>
       <c r="H351" s="77"/>
-      <c r="I351" s="104"/>
-      <c r="J351" s="105"/>
-      <c r="K351" s="105"/>
-      <c r="L351" s="106"/>
+      <c r="I351" s="139"/>
+      <c r="J351" s="140"/>
+      <c r="K351" s="140"/>
+      <c r="L351" s="141"/>
       <c r="M351" s="13"/>
       <c r="N351" s="13"/>
       <c r="O351" s="13"/>
@@ -11344,10 +11349,10 @@
       <c r="F352" s="75"/>
       <c r="G352" s="75"/>
       <c r="H352" s="77"/>
-      <c r="I352" s="104"/>
-      <c r="J352" s="105"/>
-      <c r="K352" s="105"/>
-      <c r="L352" s="106"/>
+      <c r="I352" s="139"/>
+      <c r="J352" s="140"/>
+      <c r="K352" s="140"/>
+      <c r="L352" s="141"/>
       <c r="M352" s="13"/>
       <c r="N352" s="13"/>
       <c r="O352" s="13"/>
@@ -11372,10 +11377,10 @@
       <c r="F353" s="75"/>
       <c r="G353" s="75"/>
       <c r="H353" s="77"/>
-      <c r="I353" s="104"/>
-      <c r="J353" s="105"/>
-      <c r="K353" s="105"/>
-      <c r="L353" s="106"/>
+      <c r="I353" s="139"/>
+      <c r="J353" s="140"/>
+      <c r="K353" s="140"/>
+      <c r="L353" s="141"/>
       <c r="M353" s="13"/>
       <c r="N353" s="13"/>
       <c r="O353" s="13"/>
@@ -11403,7 +11408,7 @@
       <c r="I354" s="96"/>
       <c r="J354" s="97"/>
       <c r="K354" s="97"/>
-      <c r="L354" s="99"/>
+      <c r="L354" s="98"/>
       <c r="M354" s="13"/>
       <c r="N354" s="13"/>
       <c r="O354" s="13"/>
@@ -11431,7 +11436,7 @@
       <c r="I355" s="96"/>
       <c r="J355" s="97"/>
       <c r="K355" s="97"/>
-      <c r="L355" s="99"/>
+      <c r="L355" s="98"/>
       <c r="M355" s="13"/>
       <c r="N355" s="13"/>
       <c r="O355" s="13"/>
@@ -11459,7 +11464,7 @@
       <c r="I356" s="96"/>
       <c r="J356" s="97"/>
       <c r="K356" s="97"/>
-      <c r="L356" s="99"/>
+      <c r="L356" s="98"/>
       <c r="M356" s="15"/>
       <c r="N356" s="13"/>
       <c r="O356" s="13"/>
@@ -11487,7 +11492,7 @@
       <c r="I357" s="96"/>
       <c r="J357" s="97"/>
       <c r="K357" s="97"/>
-      <c r="L357" s="99"/>
+      <c r="L357" s="98"/>
       <c r="M357" s="13"/>
       <c r="N357" s="15"/>
       <c r="O357" s="15"/>
@@ -11515,7 +11520,7 @@
       <c r="I358" s="96"/>
       <c r="J358" s="97"/>
       <c r="K358" s="97"/>
-      <c r="L358" s="99"/>
+      <c r="L358" s="98"/>
       <c r="M358" s="13"/>
       <c r="N358" s="13"/>
       <c r="O358" s="13"/>
@@ -11543,7 +11548,7 @@
       <c r="I359" s="96"/>
       <c r="J359" s="97"/>
       <c r="K359" s="97"/>
-      <c r="L359" s="99"/>
+      <c r="L359" s="98"/>
       <c r="M359" s="13"/>
       <c r="N359" s="13"/>
       <c r="O359" s="13"/>
@@ -11571,7 +11576,7 @@
       <c r="I360" s="96"/>
       <c r="J360" s="97"/>
       <c r="K360" s="97"/>
-      <c r="L360" s="99"/>
+      <c r="L360" s="98"/>
       <c r="M360" s="13"/>
       <c r="N360" s="13"/>
       <c r="O360" s="13"/>
@@ -11599,7 +11604,7 @@
       <c r="I361" s="96"/>
       <c r="J361" s="97"/>
       <c r="K361" s="97"/>
-      <c r="L361" s="99"/>
+      <c r="L361" s="98"/>
       <c r="M361" s="13"/>
       <c r="N361" s="13"/>
       <c r="O361" s="13"/>
@@ -11627,7 +11632,7 @@
       <c r="I362" s="96"/>
       <c r="J362" s="97"/>
       <c r="K362" s="97"/>
-      <c r="L362" s="99"/>
+      <c r="L362" s="98"/>
       <c r="M362" s="13"/>
       <c r="N362" s="13"/>
       <c r="O362" s="13"/>
@@ -11655,7 +11660,7 @@
       <c r="I363" s="96"/>
       <c r="J363" s="97"/>
       <c r="K363" s="97"/>
-      <c r="L363" s="99"/>
+      <c r="L363" s="98"/>
       <c r="M363" s="78"/>
       <c r="N363" s="13"/>
       <c r="O363" s="13"/>
@@ -11683,7 +11688,7 @@
       <c r="I364" s="96"/>
       <c r="J364" s="97"/>
       <c r="K364" s="97"/>
-      <c r="L364" s="99"/>
+      <c r="L364" s="98"/>
       <c r="M364" s="78"/>
       <c r="N364" s="78"/>
       <c r="O364" s="78"/>
@@ -11711,7 +11716,7 @@
       <c r="I365" s="96"/>
       <c r="J365" s="97"/>
       <c r="K365" s="97"/>
-      <c r="L365" s="99"/>
+      <c r="L365" s="98"/>
       <c r="M365" s="78"/>
       <c r="N365" s="78"/>
       <c r="O365" s="78"/>
@@ -11736,10 +11741,10 @@
       <c r="F366" s="19"/>
       <c r="G366" s="19"/>
       <c r="H366" s="48"/>
-      <c r="I366" s="100"/>
-      <c r="J366" s="101"/>
-      <c r="K366" s="101"/>
-      <c r="L366" s="102"/>
+      <c r="I366" s="99"/>
+      <c r="J366" s="100"/>
+      <c r="K366" s="100"/>
+      <c r="L366" s="101"/>
       <c r="M366" s="78"/>
       <c r="N366" s="78"/>
       <c r="O366" s="78"/>
@@ -11764,10 +11769,10 @@
       <c r="F367" s="19"/>
       <c r="G367" s="19"/>
       <c r="H367" s="93"/>
-      <c r="I367" s="100"/>
-      <c r="J367" s="101"/>
-      <c r="K367" s="101"/>
-      <c r="L367" s="102"/>
+      <c r="I367" s="99"/>
+      <c r="J367" s="100"/>
+      <c r="K367" s="100"/>
+      <c r="L367" s="101"/>
       <c r="M367" s="13"/>
       <c r="N367" s="78"/>
       <c r="O367" s="78"/>
@@ -11792,10 +11797,10 @@
       <c r="F368" s="19"/>
       <c r="G368" s="19"/>
       <c r="H368" s="93"/>
-      <c r="I368" s="100"/>
-      <c r="J368" s="101"/>
-      <c r="K368" s="101"/>
-      <c r="L368" s="102"/>
+      <c r="I368" s="99"/>
+      <c r="J368" s="100"/>
+      <c r="K368" s="100"/>
+      <c r="L368" s="101"/>
       <c r="M368" s="13"/>
       <c r="N368" s="13"/>
       <c r="O368" s="13"/>
@@ -11820,10 +11825,10 @@
       <c r="F369" s="19"/>
       <c r="G369" s="19"/>
       <c r="H369" s="93"/>
-      <c r="I369" s="100"/>
-      <c r="J369" s="101"/>
-      <c r="K369" s="101"/>
-      <c r="L369" s="102"/>
+      <c r="I369" s="99"/>
+      <c r="J369" s="100"/>
+      <c r="K369" s="100"/>
+      <c r="L369" s="101"/>
       <c r="M369" s="13"/>
       <c r="N369" s="13"/>
       <c r="O369" s="13"/>
@@ -11848,10 +11853,10 @@
       <c r="F370" s="19"/>
       <c r="G370" s="19"/>
       <c r="H370" s="94"/>
-      <c r="I370" s="103"/>
-      <c r="J370" s="101"/>
-      <c r="K370" s="101"/>
-      <c r="L370" s="102"/>
+      <c r="I370" s="111"/>
+      <c r="J370" s="100"/>
+      <c r="K370" s="100"/>
+      <c r="L370" s="101"/>
       <c r="M370" s="13"/>
       <c r="N370" s="13"/>
       <c r="O370" s="13"/>
@@ -11879,7 +11884,7 @@
       <c r="I371" s="96"/>
       <c r="J371" s="97"/>
       <c r="K371" s="97"/>
-      <c r="L371" s="99"/>
+      <c r="L371" s="98"/>
       <c r="M371" s="13"/>
       <c r="N371" s="13"/>
       <c r="O371" s="13"/>
@@ -11904,10 +11909,10 @@
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
       <c r="H372" s="48"/>
-      <c r="I372" s="100"/>
-      <c r="J372" s="101"/>
-      <c r="K372" s="101"/>
-      <c r="L372" s="102"/>
+      <c r="I372" s="99"/>
+      <c r="J372" s="100"/>
+      <c r="K372" s="100"/>
+      <c r="L372" s="101"/>
       <c r="M372" s="13"/>
       <c r="N372" s="13"/>
       <c r="O372" s="13"/>
@@ -11935,7 +11940,7 @@
       <c r="I373" s="96"/>
       <c r="J373" s="97"/>
       <c r="K373" s="97"/>
-      <c r="L373" s="99"/>
+      <c r="L373" s="98"/>
       <c r="M373" s="13"/>
       <c r="N373" s="13"/>
       <c r="O373" s="13"/>
@@ -11963,7 +11968,7 @@
       <c r="I374" s="96"/>
       <c r="J374" s="97"/>
       <c r="K374" s="97"/>
-      <c r="L374" s="99"/>
+      <c r="L374" s="98"/>
       <c r="M374" s="13"/>
       <c r="N374" s="13"/>
       <c r="O374" s="13"/>
@@ -11988,10 +11993,10 @@
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
       <c r="H375" s="48"/>
-      <c r="I375" s="100"/>
-      <c r="J375" s="101"/>
-      <c r="K375" s="101"/>
-      <c r="L375" s="102"/>
+      <c r="I375" s="99"/>
+      <c r="J375" s="100"/>
+      <c r="K375" s="100"/>
+      <c r="L375" s="101"/>
       <c r="M375" s="13"/>
       <c r="N375" s="13"/>
       <c r="O375" s="13"/>
@@ -12019,7 +12024,7 @@
       <c r="I376" s="96"/>
       <c r="J376" s="97"/>
       <c r="K376" s="97"/>
-      <c r="L376" s="99"/>
+      <c r="L376" s="98"/>
       <c r="M376" s="13"/>
       <c r="N376" s="13"/>
       <c r="O376" s="13"/>
@@ -12063,7 +12068,7 @@
       <c r="I378" s="96"/>
       <c r="J378" s="97"/>
       <c r="K378" s="97"/>
-      <c r="L378" s="98"/>
+      <c r="L378" s="105"/>
       <c r="M378" s="13"/>
       <c r="N378" s="13"/>
       <c r="O378" s="13"/>
@@ -12091,7 +12096,7 @@
       <c r="I379" s="96"/>
       <c r="J379" s="97"/>
       <c r="K379" s="97"/>
-      <c r="L379" s="98"/>
+      <c r="L379" s="105"/>
       <c r="M379" s="13"/>
       <c r="N379" s="13"/>
       <c r="O379" s="13"/>
@@ -12119,7 +12124,7 @@
       <c r="I380" s="96"/>
       <c r="J380" s="97"/>
       <c r="K380" s="97"/>
-      <c r="L380" s="98"/>
+      <c r="L380" s="105"/>
       <c r="M380" s="13"/>
       <c r="N380" s="13"/>
       <c r="O380" s="13"/>
@@ -12147,7 +12152,7 @@
       <c r="I381" s="96"/>
       <c r="J381" s="97"/>
       <c r="K381" s="97"/>
-      <c r="L381" s="98"/>
+      <c r="L381" s="105"/>
       <c r="M381" s="13"/>
       <c r="N381" s="13"/>
       <c r="O381" s="13"/>
@@ -12175,7 +12180,7 @@
       <c r="I382" s="96"/>
       <c r="J382" s="97"/>
       <c r="K382" s="97"/>
-      <c r="L382" s="98"/>
+      <c r="L382" s="105"/>
       <c r="M382" s="13"/>
       <c r="N382" s="13"/>
       <c r="O382" s="13"/>
@@ -12203,7 +12208,7 @@
       <c r="I383" s="96"/>
       <c r="J383" s="97"/>
       <c r="K383" s="97"/>
-      <c r="L383" s="98"/>
+      <c r="L383" s="105"/>
       <c r="M383" s="13"/>
       <c r="N383" s="13"/>
       <c r="O383" s="13"/>
@@ -12231,7 +12236,7 @@
       <c r="I384" s="96"/>
       <c r="J384" s="97"/>
       <c r="K384" s="97"/>
-      <c r="L384" s="98"/>
+      <c r="L384" s="105"/>
       <c r="M384" s="13"/>
       <c r="N384" s="13"/>
       <c r="O384" s="13"/>
@@ -12259,7 +12264,7 @@
       <c r="I385" s="96"/>
       <c r="J385" s="97"/>
       <c r="K385" s="97"/>
-      <c r="L385" s="98"/>
+      <c r="L385" s="105"/>
       <c r="M385" s="13"/>
       <c r="N385" s="13"/>
       <c r="O385" s="13"/>
@@ -12287,7 +12292,7 @@
       <c r="I386" s="96"/>
       <c r="J386" s="97"/>
       <c r="K386" s="97"/>
-      <c r="L386" s="98"/>
+      <c r="L386" s="105"/>
       <c r="M386" s="13"/>
       <c r="N386" s="13"/>
       <c r="O386" s="13"/>
@@ -12315,7 +12320,7 @@
       <c r="I387" s="96"/>
       <c r="J387" s="97"/>
       <c r="K387" s="97"/>
-      <c r="L387" s="98"/>
+      <c r="L387" s="105"/>
       <c r="M387" s="13"/>
       <c r="N387" s="13"/>
       <c r="O387" s="13"/>
@@ -12343,7 +12348,7 @@
       <c r="I388" s="96"/>
       <c r="J388" s="97"/>
       <c r="K388" s="97"/>
-      <c r="L388" s="98"/>
+      <c r="L388" s="105"/>
       <c r="M388" s="13"/>
       <c r="N388" s="13"/>
       <c r="O388" s="13"/>
@@ -12371,7 +12376,7 @@
       <c r="I389" s="96"/>
       <c r="J389" s="97"/>
       <c r="K389" s="97"/>
-      <c r="L389" s="98"/>
+      <c r="L389" s="105"/>
       <c r="M389" s="13"/>
       <c r="N389" s="13"/>
       <c r="O389" s="13"/>
@@ -12399,7 +12404,7 @@
       <c r="I390" s="96"/>
       <c r="J390" s="97"/>
       <c r="K390" s="97"/>
-      <c r="L390" s="98"/>
+      <c r="L390" s="105"/>
       <c r="M390" s="13"/>
       <c r="N390" s="13"/>
       <c r="O390" s="13"/>
@@ -12427,7 +12432,7 @@
       <c r="I391" s="96"/>
       <c r="J391" s="97"/>
       <c r="K391" s="97"/>
-      <c r="L391" s="98"/>
+      <c r="L391" s="105"/>
       <c r="M391" s="13"/>
       <c r="N391" s="13"/>
       <c r="O391" s="13"/>
@@ -12455,7 +12460,7 @@
       <c r="I392" s="96"/>
       <c r="J392" s="97"/>
       <c r="K392" s="97"/>
-      <c r="L392" s="98"/>
+      <c r="L392" s="105"/>
       <c r="M392" s="13"/>
       <c r="N392" s="13"/>
       <c r="O392" s="13"/>
@@ -12483,7 +12488,7 @@
       <c r="I393" s="96"/>
       <c r="J393" s="97"/>
       <c r="K393" s="97"/>
-      <c r="L393" s="98"/>
+      <c r="L393" s="105"/>
       <c r="M393" s="13"/>
       <c r="N393" s="13"/>
       <c r="O393" s="13"/>
@@ -12511,7 +12516,7 @@
       <c r="I394" s="96"/>
       <c r="J394" s="97"/>
       <c r="K394" s="97"/>
-      <c r="L394" s="98"/>
+      <c r="L394" s="105"/>
       <c r="M394" s="13"/>
       <c r="N394" s="13"/>
       <c r="O394" s="13"/>
@@ -12539,7 +12544,7 @@
       <c r="I395" s="96"/>
       <c r="J395" s="97"/>
       <c r="K395" s="97"/>
-      <c r="L395" s="98"/>
+      <c r="L395" s="105"/>
       <c r="M395" s="13"/>
       <c r="N395" s="13"/>
       <c r="O395" s="13"/>
@@ -12567,7 +12572,7 @@
       <c r="I396" s="96"/>
       <c r="J396" s="97"/>
       <c r="K396" s="97"/>
-      <c r="L396" s="98"/>
+      <c r="L396" s="105"/>
       <c r="M396" s="13"/>
       <c r="N396" s="13"/>
       <c r="O396" s="13"/>
@@ -12595,7 +12600,7 @@
       <c r="I397" s="96"/>
       <c r="J397" s="97"/>
       <c r="K397" s="97"/>
-      <c r="L397" s="98"/>
+      <c r="L397" s="105"/>
       <c r="M397" s="13"/>
       <c r="N397" s="13"/>
       <c r="O397" s="13"/>
@@ -12623,7 +12628,7 @@
       <c r="I398" s="96"/>
       <c r="J398" s="97"/>
       <c r="K398" s="97"/>
-      <c r="L398" s="98"/>
+      <c r="L398" s="105"/>
       <c r="M398" s="13"/>
       <c r="N398" s="13"/>
       <c r="O398" s="13"/>
@@ -12651,7 +12656,7 @@
       <c r="I399" s="96"/>
       <c r="J399" s="97"/>
       <c r="K399" s="97"/>
-      <c r="L399" s="98"/>
+      <c r="L399" s="105"/>
       <c r="M399" s="13"/>
       <c r="N399" s="13"/>
       <c r="O399" s="13"/>
@@ -12679,7 +12684,7 @@
       <c r="I400" s="96"/>
       <c r="J400" s="97"/>
       <c r="K400" s="97"/>
-      <c r="L400" s="98"/>
+      <c r="L400" s="105"/>
       <c r="M400" s="13"/>
       <c r="N400" s="13"/>
       <c r="O400" s="13"/>
@@ -12707,7 +12712,7 @@
       <c r="I401" s="96"/>
       <c r="J401" s="97"/>
       <c r="K401" s="97"/>
-      <c r="L401" s="98"/>
+      <c r="L401" s="105"/>
       <c r="M401" s="13"/>
       <c r="N401" s="13"/>
       <c r="O401" s="13"/>
@@ -12735,7 +12740,7 @@
       <c r="I402" s="96"/>
       <c r="J402" s="97"/>
       <c r="K402" s="97"/>
-      <c r="L402" s="98"/>
+      <c r="L402" s="105"/>
       <c r="M402" s="13"/>
       <c r="N402" s="13"/>
       <c r="O402" s="13"/>
@@ -12763,7 +12768,7 @@
       <c r="I403" s="96"/>
       <c r="J403" s="97"/>
       <c r="K403" s="97"/>
-      <c r="L403" s="98"/>
+      <c r="L403" s="105"/>
       <c r="M403" s="13"/>
       <c r="N403" s="13"/>
       <c r="O403" s="13"/>
@@ -12791,7 +12796,7 @@
       <c r="I404" s="96"/>
       <c r="J404" s="97"/>
       <c r="K404" s="97"/>
-      <c r="L404" s="98"/>
+      <c r="L404" s="105"/>
       <c r="M404" s="13"/>
       <c r="N404" s="13"/>
       <c r="O404" s="13"/>
@@ -12819,7 +12824,7 @@
       <c r="I405" s="96"/>
       <c r="J405" s="97"/>
       <c r="K405" s="97"/>
-      <c r="L405" s="98"/>
+      <c r="L405" s="105"/>
       <c r="M405" s="13"/>
       <c r="N405" s="13"/>
       <c r="O405" s="13"/>
@@ -12847,7 +12852,7 @@
       <c r="I406" s="96"/>
       <c r="J406" s="97"/>
       <c r="K406" s="97"/>
-      <c r="L406" s="98"/>
+      <c r="L406" s="105"/>
       <c r="M406" s="13"/>
       <c r="N406" s="13"/>
       <c r="O406" s="13"/>
@@ -12875,7 +12880,7 @@
       <c r="I407" s="96"/>
       <c r="J407" s="97"/>
       <c r="K407" s="97"/>
-      <c r="L407" s="98"/>
+      <c r="L407" s="105"/>
       <c r="M407" s="13"/>
       <c r="N407" s="13"/>
       <c r="O407" s="13"/>
@@ -12903,7 +12908,7 @@
       <c r="I408" s="96"/>
       <c r="J408" s="97"/>
       <c r="K408" s="97"/>
-      <c r="L408" s="98"/>
+      <c r="L408" s="105"/>
       <c r="M408" s="13"/>
       <c r="N408" s="13"/>
       <c r="O408" s="13"/>
@@ -12931,7 +12936,7 @@
       <c r="I409" s="96"/>
       <c r="J409" s="97"/>
       <c r="K409" s="97"/>
-      <c r="L409" s="98"/>
+      <c r="L409" s="105"/>
       <c r="M409" s="13"/>
       <c r="N409" s="13"/>
       <c r="O409" s="13"/>
@@ -12959,7 +12964,7 @@
       <c r="I410" s="96"/>
       <c r="J410" s="97"/>
       <c r="K410" s="97"/>
-      <c r="L410" s="98"/>
+      <c r="L410" s="105"/>
       <c r="M410" s="13"/>
       <c r="N410" s="13"/>
       <c r="O410" s="13"/>
@@ -12987,7 +12992,7 @@
       <c r="I411" s="96"/>
       <c r="J411" s="97"/>
       <c r="K411" s="97"/>
-      <c r="L411" s="98"/>
+      <c r="L411" s="105"/>
       <c r="M411" s="13"/>
       <c r="N411" s="13"/>
       <c r="O411" s="13"/>
@@ -13015,7 +13020,7 @@
       <c r="I412" s="96"/>
       <c r="J412" s="97"/>
       <c r="K412" s="97"/>
-      <c r="L412" s="98"/>
+      <c r="L412" s="105"/>
       <c r="M412" s="13"/>
       <c r="N412" s="13"/>
       <c r="O412" s="13"/>
@@ -13043,7 +13048,7 @@
       <c r="I413" s="96"/>
       <c r="J413" s="97"/>
       <c r="K413" s="97"/>
-      <c r="L413" s="98"/>
+      <c r="L413" s="105"/>
       <c r="M413" s="13"/>
       <c r="N413" s="13"/>
       <c r="O413" s="13"/>
@@ -13071,7 +13076,7 @@
       <c r="I414" s="96"/>
       <c r="J414" s="97"/>
       <c r="K414" s="97"/>
-      <c r="L414" s="98"/>
+      <c r="L414" s="105"/>
       <c r="M414" s="13"/>
       <c r="N414" s="13"/>
       <c r="O414" s="13"/>
@@ -13099,7 +13104,7 @@
       <c r="I415" s="96"/>
       <c r="J415" s="97"/>
       <c r="K415" s="97"/>
-      <c r="L415" s="98"/>
+      <c r="L415" s="105"/>
       <c r="M415" s="13"/>
       <c r="N415" s="13"/>
       <c r="O415" s="13"/>
@@ -13127,7 +13132,7 @@
       <c r="I416" s="96"/>
       <c r="J416" s="97"/>
       <c r="K416" s="97"/>
-      <c r="L416" s="98"/>
+      <c r="L416" s="105"/>
       <c r="M416" s="13"/>
       <c r="N416" s="13"/>
       <c r="O416" s="13"/>
@@ -13155,7 +13160,7 @@
       <c r="I417" s="96"/>
       <c r="J417" s="97"/>
       <c r="K417" s="97"/>
-      <c r="L417" s="98"/>
+      <c r="L417" s="105"/>
       <c r="M417" s="13"/>
       <c r="N417" s="13"/>
       <c r="O417" s="13"/>
@@ -13183,7 +13188,7 @@
       <c r="I418" s="96"/>
       <c r="J418" s="97"/>
       <c r="K418" s="97"/>
-      <c r="L418" s="98"/>
+      <c r="L418" s="105"/>
       <c r="M418" s="13"/>
       <c r="N418" s="13"/>
       <c r="O418" s="13"/>
@@ -13211,7 +13216,7 @@
       <c r="I419" s="96"/>
       <c r="J419" s="97"/>
       <c r="K419" s="97"/>
-      <c r="L419" s="98"/>
+      <c r="L419" s="105"/>
       <c r="M419" s="13"/>
       <c r="N419" s="13"/>
       <c r="O419" s="13"/>
@@ -13239,7 +13244,7 @@
       <c r="I420" s="96"/>
       <c r="J420" s="97"/>
       <c r="K420" s="97"/>
-      <c r="L420" s="98"/>
+      <c r="L420" s="105"/>
       <c r="M420" s="13"/>
       <c r="N420" s="13"/>
       <c r="O420" s="13"/>
@@ -13267,7 +13272,7 @@
       <c r="I421" s="96"/>
       <c r="J421" s="97"/>
       <c r="K421" s="97"/>
-      <c r="L421" s="98"/>
+      <c r="L421" s="105"/>
       <c r="M421" s="13"/>
       <c r="N421" s="13"/>
       <c r="O421" s="13"/>
@@ -13295,7 +13300,7 @@
       <c r="I422" s="96"/>
       <c r="J422" s="97"/>
       <c r="K422" s="97"/>
-      <c r="L422" s="98"/>
+      <c r="L422" s="105"/>
       <c r="M422" s="13"/>
       <c r="N422" s="13"/>
       <c r="O422" s="13"/>
@@ -13323,7 +13328,7 @@
       <c r="I423" s="96"/>
       <c r="J423" s="97"/>
       <c r="K423" s="97"/>
-      <c r="L423" s="98"/>
+      <c r="L423" s="105"/>
       <c r="M423" s="13"/>
       <c r="N423" s="13"/>
       <c r="O423" s="13"/>
@@ -13351,7 +13356,7 @@
       <c r="I424" s="96"/>
       <c r="J424" s="97"/>
       <c r="K424" s="97"/>
-      <c r="L424" s="98"/>
+      <c r="L424" s="105"/>
       <c r="M424" s="13"/>
       <c r="N424" s="13"/>
       <c r="O424" s="13"/>
@@ -13379,7 +13384,7 @@
       <c r="I425" s="96"/>
       <c r="J425" s="97"/>
       <c r="K425" s="97"/>
-      <c r="L425" s="98"/>
+      <c r="L425" s="105"/>
       <c r="M425" s="13"/>
       <c r="N425" s="13"/>
       <c r="O425" s="13"/>
@@ -13407,7 +13412,7 @@
       <c r="I426" s="96"/>
       <c r="J426" s="97"/>
       <c r="K426" s="97"/>
-      <c r="L426" s="98"/>
+      <c r="L426" s="105"/>
       <c r="M426" s="13"/>
       <c r="N426" s="13"/>
       <c r="O426" s="13"/>
@@ -13435,7 +13440,7 @@
       <c r="I427" s="96"/>
       <c r="J427" s="97"/>
       <c r="K427" s="97"/>
-      <c r="L427" s="98"/>
+      <c r="L427" s="105"/>
       <c r="M427" s="13"/>
       <c r="N427" s="13"/>
       <c r="O427" s="13"/>
@@ -13463,7 +13468,7 @@
       <c r="I428" s="96"/>
       <c r="J428" s="97"/>
       <c r="K428" s="97"/>
-      <c r="L428" s="98"/>
+      <c r="L428" s="105"/>
       <c r="M428" s="13"/>
       <c r="N428" s="13"/>
       <c r="O428" s="13"/>
@@ -13491,7 +13496,7 @@
       <c r="I429" s="96"/>
       <c r="J429" s="97"/>
       <c r="K429" s="97"/>
-      <c r="L429" s="98"/>
+      <c r="L429" s="105"/>
       <c r="M429" s="13"/>
       <c r="N429" s="13"/>
       <c r="O429" s="13"/>
@@ -13519,7 +13524,7 @@
       <c r="I430" s="96"/>
       <c r="J430" s="97"/>
       <c r="K430" s="97"/>
-      <c r="L430" s="98"/>
+      <c r="L430" s="105"/>
       <c r="M430" s="13"/>
       <c r="N430" s="13"/>
       <c r="O430" s="13"/>
@@ -13547,7 +13552,7 @@
       <c r="I431" s="96"/>
       <c r="J431" s="97"/>
       <c r="K431" s="97"/>
-      <c r="L431" s="98"/>
+      <c r="L431" s="105"/>
       <c r="M431" s="13"/>
       <c r="N431" s="13"/>
       <c r="O431" s="13"/>
@@ -13575,7 +13580,7 @@
       <c r="I432" s="96"/>
       <c r="J432" s="97"/>
       <c r="K432" s="97"/>
-      <c r="L432" s="98"/>
+      <c r="L432" s="105"/>
       <c r="M432" s="13"/>
       <c r="N432" s="13"/>
       <c r="O432" s="13"/>
@@ -13603,7 +13608,7 @@
       <c r="I433" s="96"/>
       <c r="J433" s="97"/>
       <c r="K433" s="97"/>
-      <c r="L433" s="98"/>
+      <c r="L433" s="105"/>
       <c r="M433" s="13"/>
       <c r="N433" s="13"/>
       <c r="O433" s="13"/>
@@ -13631,7 +13636,7 @@
       <c r="I434" s="96"/>
       <c r="J434" s="97"/>
       <c r="K434" s="97"/>
-      <c r="L434" s="98"/>
+      <c r="L434" s="105"/>
       <c r="M434" s="13"/>
       <c r="N434" s="13"/>
       <c r="O434" s="13"/>
@@ -13659,7 +13664,7 @@
       <c r="I435" s="96"/>
       <c r="J435" s="97"/>
       <c r="K435" s="97"/>
-      <c r="L435" s="98"/>
+      <c r="L435" s="105"/>
       <c r="M435" s="13"/>
       <c r="N435" s="13"/>
       <c r="O435" s="13"/>
@@ -13687,7 +13692,7 @@
       <c r="I436" s="96"/>
       <c r="J436" s="97"/>
       <c r="K436" s="97"/>
-      <c r="L436" s="98"/>
+      <c r="L436" s="105"/>
       <c r="M436" s="13"/>
       <c r="N436" s="13"/>
       <c r="O436" s="13"/>
@@ -13715,7 +13720,7 @@
       <c r="I437" s="96"/>
       <c r="J437" s="97"/>
       <c r="K437" s="97"/>
-      <c r="L437" s="98"/>
+      <c r="L437" s="105"/>
       <c r="M437" s="13"/>
       <c r="N437" s="13"/>
       <c r="O437" s="13"/>
@@ -13743,7 +13748,7 @@
       <c r="I438" s="96"/>
       <c r="J438" s="97"/>
       <c r="K438" s="97"/>
-      <c r="L438" s="98"/>
+      <c r="L438" s="105"/>
       <c r="M438" s="13"/>
       <c r="N438" s="13"/>
       <c r="O438" s="13"/>
@@ -13771,7 +13776,7 @@
       <c r="I439" s="96"/>
       <c r="J439" s="97"/>
       <c r="K439" s="97"/>
-      <c r="L439" s="98"/>
+      <c r="L439" s="105"/>
       <c r="M439" s="13"/>
       <c r="N439" s="13"/>
       <c r="O439" s="13"/>
@@ -13799,7 +13804,7 @@
       <c r="I440" s="96"/>
       <c r="J440" s="97"/>
       <c r="K440" s="97"/>
-      <c r="L440" s="98"/>
+      <c r="L440" s="105"/>
       <c r="M440" s="13"/>
       <c r="N440" s="13"/>
       <c r="O440" s="13"/>
@@ -13827,7 +13832,7 @@
       <c r="I441" s="96"/>
       <c r="J441" s="97"/>
       <c r="K441" s="97"/>
-      <c r="L441" s="98"/>
+      <c r="L441" s="105"/>
       <c r="M441" s="13"/>
       <c r="N441" s="13"/>
       <c r="O441" s="13"/>
@@ -13855,7 +13860,7 @@
       <c r="I442" s="96"/>
       <c r="J442" s="97"/>
       <c r="K442" s="97"/>
-      <c r="L442" s="98"/>
+      <c r="L442" s="105"/>
       <c r="M442" s="13"/>
       <c r="N442" s="13"/>
       <c r="O442" s="13"/>
@@ -13883,7 +13888,7 @@
       <c r="I443" s="96"/>
       <c r="J443" s="97"/>
       <c r="K443" s="97"/>
-      <c r="L443" s="98"/>
+      <c r="L443" s="105"/>
       <c r="M443" s="13"/>
       <c r="N443" s="13"/>
       <c r="O443" s="13"/>
@@ -13911,7 +13916,7 @@
       <c r="I444" s="96"/>
       <c r="J444" s="97"/>
       <c r="K444" s="97"/>
-      <c r="L444" s="98"/>
+      <c r="L444" s="105"/>
       <c r="M444" s="13"/>
       <c r="N444" s="13"/>
       <c r="O444" s="13"/>
@@ -13939,7 +13944,7 @@
       <c r="I445" s="96"/>
       <c r="J445" s="97"/>
       <c r="K445" s="97"/>
-      <c r="L445" s="98"/>
+      <c r="L445" s="105"/>
       <c r="M445" s="13"/>
       <c r="N445" s="13"/>
       <c r="O445" s="13"/>
@@ -13967,7 +13972,7 @@
       <c r="I446" s="96"/>
       <c r="J446" s="97"/>
       <c r="K446" s="97"/>
-      <c r="L446" s="98"/>
+      <c r="L446" s="105"/>
       <c r="M446" s="13"/>
       <c r="N446" s="13"/>
       <c r="O446" s="13"/>
@@ -13995,7 +14000,7 @@
       <c r="I447" s="96"/>
       <c r="J447" s="97"/>
       <c r="K447" s="97"/>
-      <c r="L447" s="98"/>
+      <c r="L447" s="105"/>
       <c r="M447" s="13"/>
       <c r="N447" s="13"/>
       <c r="O447" s="13"/>
@@ -14023,7 +14028,7 @@
       <c r="I448" s="96"/>
       <c r="J448" s="97"/>
       <c r="K448" s="97"/>
-      <c r="L448" s="98"/>
+      <c r="L448" s="105"/>
       <c r="M448" s="13"/>
       <c r="N448" s="13"/>
       <c r="O448" s="13"/>
@@ -14051,7 +14056,7 @@
       <c r="I449" s="96"/>
       <c r="J449" s="97"/>
       <c r="K449" s="97"/>
-      <c r="L449" s="98"/>
+      <c r="L449" s="105"/>
       <c r="M449" s="13"/>
       <c r="N449" s="13"/>
       <c r="O449" s="13"/>
@@ -14079,7 +14084,7 @@
       <c r="I450" s="96"/>
       <c r="J450" s="97"/>
       <c r="K450" s="97"/>
-      <c r="L450" s="98"/>
+      <c r="L450" s="105"/>
       <c r="M450" s="13"/>
       <c r="N450" s="13"/>
       <c r="O450" s="13"/>
@@ -14107,7 +14112,7 @@
       <c r="I451" s="96"/>
       <c r="J451" s="97"/>
       <c r="K451" s="97"/>
-      <c r="L451" s="98"/>
+      <c r="L451" s="105"/>
       <c r="M451" s="13"/>
       <c r="N451" s="13"/>
       <c r="O451" s="13"/>
@@ -14135,7 +14140,7 @@
       <c r="I452" s="96"/>
       <c r="J452" s="97"/>
       <c r="K452" s="97"/>
-      <c r="L452" s="98"/>
+      <c r="L452" s="105"/>
       <c r="M452" s="13"/>
       <c r="N452" s="13"/>
       <c r="O452" s="13"/>
@@ -14163,7 +14168,7 @@
       <c r="I453" s="96"/>
       <c r="J453" s="97"/>
       <c r="K453" s="97"/>
-      <c r="L453" s="98"/>
+      <c r="L453" s="105"/>
       <c r="M453" s="13"/>
       <c r="N453" s="13"/>
       <c r="O453" s="13"/>
@@ -14191,7 +14196,7 @@
       <c r="I454" s="96"/>
       <c r="J454" s="97"/>
       <c r="K454" s="97"/>
-      <c r="L454" s="98"/>
+      <c r="L454" s="105"/>
       <c r="M454" s="13"/>
       <c r="N454" s="13"/>
       <c r="O454" s="13"/>
@@ -14219,7 +14224,7 @@
       <c r="I455" s="96"/>
       <c r="J455" s="97"/>
       <c r="K455" s="97"/>
-      <c r="L455" s="98"/>
+      <c r="L455" s="105"/>
       <c r="M455" s="13"/>
       <c r="N455" s="13"/>
       <c r="O455" s="13"/>
@@ -14247,7 +14252,7 @@
       <c r="I456" s="96"/>
       <c r="J456" s="97"/>
       <c r="K456" s="97"/>
-      <c r="L456" s="98"/>
+      <c r="L456" s="105"/>
       <c r="M456" s="13"/>
       <c r="N456" s="13"/>
       <c r="O456" s="13"/>
@@ -14275,7 +14280,7 @@
       <c r="I457" s="96"/>
       <c r="J457" s="97"/>
       <c r="K457" s="97"/>
-      <c r="L457" s="98"/>
+      <c r="L457" s="105"/>
       <c r="M457" s="13"/>
       <c r="N457" s="13"/>
       <c r="O457" s="13"/>
@@ -14303,7 +14308,7 @@
       <c r="I458" s="96"/>
       <c r="J458" s="97"/>
       <c r="K458" s="97"/>
-      <c r="L458" s="98"/>
+      <c r="L458" s="105"/>
       <c r="M458" s="13"/>
       <c r="N458" s="13"/>
       <c r="O458" s="13"/>
@@ -14331,7 +14336,7 @@
       <c r="I459" s="96"/>
       <c r="J459" s="97"/>
       <c r="K459" s="97"/>
-      <c r="L459" s="98"/>
+      <c r="L459" s="105"/>
       <c r="M459" s="13"/>
       <c r="N459" s="13"/>
       <c r="O459" s="13"/>
@@ -14359,7 +14364,7 @@
       <c r="I460" s="96"/>
       <c r="J460" s="97"/>
       <c r="K460" s="97"/>
-      <c r="L460" s="98"/>
+      <c r="L460" s="105"/>
       <c r="M460" s="13"/>
       <c r="N460" s="13"/>
       <c r="O460" s="13"/>
@@ -14387,7 +14392,7 @@
       <c r="I461" s="96"/>
       <c r="J461" s="97"/>
       <c r="K461" s="97"/>
-      <c r="L461" s="98"/>
+      <c r="L461" s="105"/>
       <c r="M461" s="13"/>
       <c r="N461" s="13"/>
       <c r="O461" s="13"/>
@@ -14415,7 +14420,7 @@
       <c r="I462" s="96"/>
       <c r="J462" s="97"/>
       <c r="K462" s="97"/>
-      <c r="L462" s="98"/>
+      <c r="L462" s="105"/>
       <c r="M462" s="13"/>
       <c r="N462" s="13"/>
       <c r="O462" s="13"/>
@@ -14443,7 +14448,7 @@
       <c r="I463" s="96"/>
       <c r="J463" s="97"/>
       <c r="K463" s="97"/>
-      <c r="L463" s="98"/>
+      <c r="L463" s="105"/>
       <c r="M463" s="13"/>
       <c r="N463" s="13"/>
       <c r="O463" s="13"/>
@@ -14471,7 +14476,7 @@
       <c r="I464" s="96"/>
       <c r="J464" s="97"/>
       <c r="K464" s="97"/>
-      <c r="L464" s="98"/>
+      <c r="L464" s="105"/>
       <c r="M464" s="13"/>
       <c r="N464" s="13"/>
       <c r="O464" s="13"/>
@@ -14499,7 +14504,7 @@
       <c r="I465" s="96"/>
       <c r="J465" s="97"/>
       <c r="K465" s="97"/>
-      <c r="L465" s="98"/>
+      <c r="L465" s="105"/>
       <c r="M465" s="13"/>
       <c r="N465" s="13"/>
       <c r="O465" s="13"/>
@@ -14527,7 +14532,7 @@
       <c r="I466" s="96"/>
       <c r="J466" s="97"/>
       <c r="K466" s="97"/>
-      <c r="L466" s="98"/>
+      <c r="L466" s="105"/>
       <c r="M466" s="13"/>
       <c r="N466" s="13"/>
       <c r="O466" s="13"/>
@@ -14555,7 +14560,7 @@
       <c r="I467" s="96"/>
       <c r="J467" s="97"/>
       <c r="K467" s="97"/>
-      <c r="L467" s="98"/>
+      <c r="L467" s="105"/>
       <c r="M467" s="13"/>
       <c r="N467" s="13"/>
       <c r="O467" s="13"/>
@@ -14583,7 +14588,7 @@
       <c r="I468" s="96"/>
       <c r="J468" s="97"/>
       <c r="K468" s="97"/>
-      <c r="L468" s="98"/>
+      <c r="L468" s="105"/>
       <c r="M468" s="13"/>
       <c r="N468" s="13"/>
       <c r="O468" s="13"/>
@@ -14611,7 +14616,7 @@
       <c r="I469" s="96"/>
       <c r="J469" s="97"/>
       <c r="K469" s="97"/>
-      <c r="L469" s="98"/>
+      <c r="L469" s="105"/>
       <c r="M469" s="13"/>
       <c r="N469" s="13"/>
       <c r="O469" s="13"/>
@@ -14639,7 +14644,7 @@
       <c r="I470" s="96"/>
       <c r="J470" s="97"/>
       <c r="K470" s="97"/>
-      <c r="L470" s="98"/>
+      <c r="L470" s="105"/>
       <c r="M470" s="13"/>
       <c r="N470" s="13"/>
       <c r="O470" s="13"/>
@@ -14667,7 +14672,7 @@
       <c r="I471" s="96"/>
       <c r="J471" s="97"/>
       <c r="K471" s="97"/>
-      <c r="L471" s="98"/>
+      <c r="L471" s="105"/>
       <c r="M471" s="13"/>
       <c r="N471" s="13"/>
       <c r="O471" s="13"/>
@@ -14695,7 +14700,7 @@
       <c r="I472" s="96"/>
       <c r="J472" s="97"/>
       <c r="K472" s="97"/>
-      <c r="L472" s="98"/>
+      <c r="L472" s="105"/>
       <c r="M472" s="13"/>
       <c r="N472" s="13"/>
       <c r="O472" s="13"/>
@@ -14723,7 +14728,7 @@
       <c r="I473" s="96"/>
       <c r="J473" s="97"/>
       <c r="K473" s="97"/>
-      <c r="L473" s="98"/>
+      <c r="L473" s="105"/>
       <c r="M473" s="13"/>
       <c r="N473" s="13"/>
       <c r="O473" s="13"/>
@@ -14751,7 +14756,7 @@
       <c r="I474" s="96"/>
       <c r="J474" s="97"/>
       <c r="K474" s="97"/>
-      <c r="L474" s="98"/>
+      <c r="L474" s="105"/>
       <c r="M474" s="13"/>
       <c r="N474" s="13"/>
       <c r="O474" s="13"/>
@@ -14779,7 +14784,7 @@
       <c r="I475" s="96"/>
       <c r="J475" s="97"/>
       <c r="K475" s="97"/>
-      <c r="L475" s="98"/>
+      <c r="L475" s="105"/>
       <c r="M475" s="13"/>
       <c r="N475" s="13"/>
       <c r="O475" s="13"/>
@@ -14807,7 +14812,7 @@
       <c r="I476" s="96"/>
       <c r="J476" s="97"/>
       <c r="K476" s="97"/>
-      <c r="L476" s="98"/>
+      <c r="L476" s="105"/>
       <c r="M476" s="13"/>
       <c r="N476" s="13"/>
       <c r="O476" s="13"/>
@@ -14835,7 +14840,7 @@
       <c r="I477" s="96"/>
       <c r="J477" s="97"/>
       <c r="K477" s="97"/>
-      <c r="L477" s="98"/>
+      <c r="L477" s="105"/>
       <c r="M477" s="13"/>
       <c r="N477" s="13"/>
       <c r="O477" s="13"/>
@@ -14863,7 +14868,7 @@
       <c r="I478" s="96"/>
       <c r="J478" s="97"/>
       <c r="K478" s="97"/>
-      <c r="L478" s="98"/>
+      <c r="L478" s="105"/>
       <c r="M478" s="13"/>
       <c r="N478" s="13"/>
       <c r="O478" s="13"/>
@@ -14891,7 +14896,7 @@
       <c r="I479" s="96"/>
       <c r="J479" s="97"/>
       <c r="K479" s="97"/>
-      <c r="L479" s="98"/>
+      <c r="L479" s="105"/>
       <c r="M479" s="13"/>
       <c r="N479" s="13"/>
       <c r="O479" s="13"/>
@@ -14919,7 +14924,7 @@
       <c r="I480" s="96"/>
       <c r="J480" s="97"/>
       <c r="K480" s="97"/>
-      <c r="L480" s="98"/>
+      <c r="L480" s="105"/>
       <c r="M480" s="13"/>
       <c r="N480" s="13"/>
       <c r="O480" s="13"/>
@@ -14947,7 +14952,7 @@
       <c r="I481" s="96"/>
       <c r="J481" s="97"/>
       <c r="K481" s="97"/>
-      <c r="L481" s="98"/>
+      <c r="L481" s="105"/>
       <c r="M481" s="13"/>
       <c r="N481" s="13"/>
       <c r="O481" s="13"/>
@@ -14975,7 +14980,7 @@
       <c r="I482" s="96"/>
       <c r="J482" s="97"/>
       <c r="K482" s="97"/>
-      <c r="L482" s="98"/>
+      <c r="L482" s="105"/>
       <c r="M482" s="13"/>
       <c r="N482" s="13"/>
       <c r="O482" s="13"/>
@@ -15003,7 +15008,7 @@
       <c r="I483" s="96"/>
       <c r="J483" s="97"/>
       <c r="K483" s="97"/>
-      <c r="L483" s="98"/>
+      <c r="L483" s="105"/>
       <c r="M483" s="13"/>
       <c r="N483" s="13"/>
       <c r="O483" s="13"/>
@@ -15031,7 +15036,7 @@
       <c r="I484" s="96"/>
       <c r="J484" s="97"/>
       <c r="K484" s="97"/>
-      <c r="L484" s="98"/>
+      <c r="L484" s="105"/>
       <c r="M484" s="13"/>
       <c r="N484" s="13"/>
       <c r="O484" s="13"/>
@@ -15059,7 +15064,7 @@
       <c r="I485" s="96"/>
       <c r="J485" s="97"/>
       <c r="K485" s="97"/>
-      <c r="L485" s="98"/>
+      <c r="L485" s="105"/>
       <c r="M485" s="13"/>
       <c r="N485" s="13"/>
       <c r="O485" s="13"/>
@@ -15087,7 +15092,7 @@
       <c r="I486" s="96"/>
       <c r="J486" s="97"/>
       <c r="K486" s="97"/>
-      <c r="L486" s="98"/>
+      <c r="L486" s="105"/>
       <c r="M486" s="13"/>
       <c r="N486" s="13"/>
       <c r="O486" s="13"/>
@@ -15115,7 +15120,7 @@
       <c r="I487" s="96"/>
       <c r="J487" s="97"/>
       <c r="K487" s="97"/>
-      <c r="L487" s="98"/>
+      <c r="L487" s="105"/>
       <c r="M487" s="13"/>
       <c r="N487" s="13"/>
       <c r="O487" s="13"/>
@@ -15143,7 +15148,7 @@
       <c r="I488" s="96"/>
       <c r="J488" s="97"/>
       <c r="K488" s="97"/>
-      <c r="L488" s="98"/>
+      <c r="L488" s="105"/>
       <c r="M488" s="13"/>
       <c r="N488" s="13"/>
       <c r="O488" s="13"/>
@@ -15171,7 +15176,7 @@
       <c r="I489" s="96"/>
       <c r="J489" s="97"/>
       <c r="K489" s="97"/>
-      <c r="L489" s="98"/>
+      <c r="L489" s="105"/>
       <c r="M489" s="13"/>
       <c r="N489" s="13"/>
       <c r="O489" s="13"/>
@@ -15199,7 +15204,7 @@
       <c r="I490" s="96"/>
       <c r="J490" s="97"/>
       <c r="K490" s="97"/>
-      <c r="L490" s="98"/>
+      <c r="L490" s="105"/>
       <c r="M490" s="13"/>
       <c r="N490" s="13"/>
       <c r="O490" s="13"/>
@@ -15227,7 +15232,7 @@
       <c r="I491" s="96"/>
       <c r="J491" s="97"/>
       <c r="K491" s="97"/>
-      <c r="L491" s="98"/>
+      <c r="L491" s="105"/>
       <c r="M491" s="13"/>
       <c r="N491" s="13"/>
       <c r="O491" s="13"/>
@@ -15255,7 +15260,7 @@
       <c r="I492" s="96"/>
       <c r="J492" s="97"/>
       <c r="K492" s="97"/>
-      <c r="L492" s="98"/>
+      <c r="L492" s="105"/>
       <c r="M492" s="13"/>
       <c r="N492" s="13"/>
       <c r="O492" s="13"/>
@@ -15283,7 +15288,7 @@
       <c r="I493" s="96"/>
       <c r="J493" s="97"/>
       <c r="K493" s="97"/>
-      <c r="L493" s="98"/>
+      <c r="L493" s="105"/>
       <c r="M493" s="13"/>
       <c r="N493" s="13"/>
       <c r="O493" s="13"/>
@@ -15311,7 +15316,7 @@
       <c r="I494" s="96"/>
       <c r="J494" s="97"/>
       <c r="K494" s="97"/>
-      <c r="L494" s="98"/>
+      <c r="L494" s="105"/>
       <c r="M494" s="13"/>
       <c r="N494" s="13"/>
       <c r="O494" s="13"/>
@@ -15339,7 +15344,7 @@
       <c r="I495" s="96"/>
       <c r="J495" s="97"/>
       <c r="K495" s="97"/>
-      <c r="L495" s="98"/>
+      <c r="L495" s="105"/>
       <c r="M495" s="13"/>
       <c r="N495" s="13"/>
       <c r="O495" s="13"/>
@@ -15367,7 +15372,7 @@
       <c r="I496" s="96"/>
       <c r="J496" s="97"/>
       <c r="K496" s="97"/>
-      <c r="L496" s="98"/>
+      <c r="L496" s="105"/>
       <c r="M496" s="13"/>
       <c r="N496" s="13"/>
       <c r="O496" s="13"/>
@@ -15395,7 +15400,7 @@
       <c r="I497" s="96"/>
       <c r="J497" s="97"/>
       <c r="K497" s="97"/>
-      <c r="L497" s="98"/>
+      <c r="L497" s="105"/>
       <c r="M497" s="13"/>
       <c r="N497" s="13"/>
       <c r="O497" s="13"/>
@@ -15423,7 +15428,7 @@
       <c r="I498" s="96"/>
       <c r="J498" s="97"/>
       <c r="K498" s="97"/>
-      <c r="L498" s="98"/>
+      <c r="L498" s="105"/>
       <c r="M498" s="13"/>
       <c r="N498" s="13"/>
       <c r="O498" s="13"/>
@@ -15451,7 +15456,7 @@
       <c r="I499" s="96"/>
       <c r="J499" s="97"/>
       <c r="K499" s="97"/>
-      <c r="L499" s="98"/>
+      <c r="L499" s="105"/>
       <c r="M499" s="13"/>
       <c r="N499" s="13"/>
       <c r="O499" s="13"/>
@@ -15479,7 +15484,7 @@
       <c r="I500" s="96"/>
       <c r="J500" s="97"/>
       <c r="K500" s="97"/>
-      <c r="L500" s="98"/>
+      <c r="L500" s="105"/>
       <c r="M500" s="13"/>
       <c r="N500" s="13"/>
       <c r="O500" s="13"/>
@@ -15507,7 +15512,7 @@
       <c r="I501" s="96"/>
       <c r="J501" s="97"/>
       <c r="K501" s="97"/>
-      <c r="L501" s="98"/>
+      <c r="L501" s="105"/>
       <c r="M501" s="13"/>
       <c r="N501" s="13"/>
       <c r="O501" s="13"/>
@@ -15535,7 +15540,7 @@
       <c r="I502" s="96"/>
       <c r="J502" s="97"/>
       <c r="K502" s="97"/>
-      <c r="L502" s="98"/>
+      <c r="L502" s="105"/>
       <c r="M502" s="13"/>
       <c r="N502" s="13"/>
       <c r="O502" s="13"/>
@@ -15563,7 +15568,7 @@
       <c r="I503" s="96"/>
       <c r="J503" s="97"/>
       <c r="K503" s="97"/>
-      <c r="L503" s="98"/>
+      <c r="L503" s="105"/>
       <c r="M503" s="13"/>
       <c r="N503" s="13"/>
       <c r="O503" s="13"/>
@@ -15591,7 +15596,7 @@
       <c r="I504" s="96"/>
       <c r="J504" s="97"/>
       <c r="K504" s="97"/>
-      <c r="L504" s="98"/>
+      <c r="L504" s="105"/>
       <c r="M504" s="13"/>
       <c r="N504" s="13"/>
       <c r="O504" s="13"/>
@@ -15619,7 +15624,7 @@
       <c r="I505" s="96"/>
       <c r="J505" s="97"/>
       <c r="K505" s="97"/>
-      <c r="L505" s="98"/>
+      <c r="L505" s="105"/>
       <c r="M505" s="13"/>
       <c r="N505" s="13"/>
       <c r="O505" s="13"/>
@@ -15647,7 +15652,7 @@
       <c r="I506" s="96"/>
       <c r="J506" s="97"/>
       <c r="K506" s="97"/>
-      <c r="L506" s="98"/>
+      <c r="L506" s="105"/>
       <c r="M506" s="13"/>
       <c r="N506" s="13"/>
       <c r="O506" s="13"/>
@@ -15675,7 +15680,7 @@
       <c r="I507" s="96"/>
       <c r="J507" s="97"/>
       <c r="K507" s="97"/>
-      <c r="L507" s="98"/>
+      <c r="L507" s="105"/>
       <c r="M507" s="13"/>
       <c r="N507" s="13"/>
       <c r="O507" s="13"/>
@@ -15703,7 +15708,7 @@
       <c r="I508" s="96"/>
       <c r="J508" s="97"/>
       <c r="K508" s="97"/>
-      <c r="L508" s="98"/>
+      <c r="L508" s="105"/>
       <c r="M508" s="13"/>
       <c r="N508" s="13"/>
       <c r="O508" s="13"/>
@@ -15731,7 +15736,7 @@
       <c r="I509" s="96"/>
       <c r="J509" s="97"/>
       <c r="K509" s="97"/>
-      <c r="L509" s="98"/>
+      <c r="L509" s="105"/>
       <c r="M509" s="13"/>
       <c r="N509" s="13"/>
       <c r="O509" s="13"/>
@@ -15759,7 +15764,7 @@
       <c r="I510" s="96"/>
       <c r="J510" s="97"/>
       <c r="K510" s="97"/>
-      <c r="L510" s="98"/>
+      <c r="L510" s="105"/>
       <c r="M510" s="13"/>
       <c r="N510" s="13"/>
       <c r="O510" s="13"/>
@@ -15787,7 +15792,7 @@
       <c r="I511" s="96"/>
       <c r="J511" s="97"/>
       <c r="K511" s="97"/>
-      <c r="L511" s="98"/>
+      <c r="L511" s="105"/>
       <c r="M511" s="13"/>
       <c r="N511" s="13"/>
       <c r="O511" s="13"/>
@@ -15815,7 +15820,7 @@
       <c r="I512" s="96"/>
       <c r="J512" s="97"/>
       <c r="K512" s="97"/>
-      <c r="L512" s="98"/>
+      <c r="L512" s="105"/>
       <c r="M512" s="13"/>
       <c r="N512" s="13"/>
       <c r="O512" s="13"/>
@@ -15843,7 +15848,7 @@
       <c r="I513" s="96"/>
       <c r="J513" s="97"/>
       <c r="K513" s="97"/>
-      <c r="L513" s="98"/>
+      <c r="L513" s="105"/>
       <c r="M513" s="13"/>
       <c r="N513" s="13"/>
       <c r="O513" s="13"/>
@@ -15871,7 +15876,7 @@
       <c r="I514" s="96"/>
       <c r="J514" s="97"/>
       <c r="K514" s="97"/>
-      <c r="L514" s="98"/>
+      <c r="L514" s="105"/>
       <c r="M514" s="13"/>
       <c r="N514" s="13"/>
       <c r="O514" s="13"/>
@@ -15899,7 +15904,7 @@
       <c r="I515" s="96"/>
       <c r="J515" s="97"/>
       <c r="K515" s="97"/>
-      <c r="L515" s="98"/>
+      <c r="L515" s="105"/>
       <c r="M515" s="13"/>
       <c r="N515" s="13"/>
       <c r="O515" s="13"/>
@@ -15927,7 +15932,7 @@
       <c r="I516" s="96"/>
       <c r="J516" s="97"/>
       <c r="K516" s="97"/>
-      <c r="L516" s="98"/>
+      <c r="L516" s="105"/>
       <c r="M516" s="13"/>
       <c r="N516" s="13"/>
       <c r="O516" s="13"/>
@@ -15955,7 +15960,7 @@
       <c r="I517" s="96"/>
       <c r="J517" s="97"/>
       <c r="K517" s="97"/>
-      <c r="L517" s="98"/>
+      <c r="L517" s="105"/>
       <c r="M517" s="13"/>
       <c r="N517" s="13"/>
       <c r="O517" s="13"/>
@@ -15983,7 +15988,7 @@
       <c r="I518" s="96"/>
       <c r="J518" s="97"/>
       <c r="K518" s="97"/>
-      <c r="L518" s="98"/>
+      <c r="L518" s="105"/>
       <c r="M518" s="13"/>
       <c r="N518" s="13"/>
       <c r="O518" s="13"/>
@@ -16011,7 +16016,7 @@
       <c r="I519" s="96"/>
       <c r="J519" s="97"/>
       <c r="K519" s="97"/>
-      <c r="L519" s="98"/>
+      <c r="L519" s="105"/>
       <c r="M519" s="13"/>
       <c r="N519" s="13"/>
       <c r="O519" s="13"/>
@@ -16039,7 +16044,7 @@
       <c r="I520" s="96"/>
       <c r="J520" s="97"/>
       <c r="K520" s="97"/>
-      <c r="L520" s="98"/>
+      <c r="L520" s="105"/>
       <c r="M520" s="13"/>
       <c r="N520" s="13"/>
       <c r="O520" s="13"/>
@@ -16067,7 +16072,7 @@
       <c r="I521" s="96"/>
       <c r="J521" s="97"/>
       <c r="K521" s="97"/>
-      <c r="L521" s="98"/>
+      <c r="L521" s="105"/>
       <c r="M521" s="13"/>
       <c r="N521" s="13"/>
       <c r="O521" s="13"/>
@@ -16095,7 +16100,7 @@
       <c r="I522" s="96"/>
       <c r="J522" s="97"/>
       <c r="K522" s="97"/>
-      <c r="L522" s="98"/>
+      <c r="L522" s="105"/>
       <c r="M522" s="13"/>
       <c r="N522" s="13"/>
       <c r="O522" s="13"/>
@@ -16123,7 +16128,7 @@
       <c r="I523" s="96"/>
       <c r="J523" s="97"/>
       <c r="K523" s="97"/>
-      <c r="L523" s="98"/>
+      <c r="L523" s="105"/>
       <c r="M523" s="13"/>
       <c r="N523" s="13"/>
       <c r="O523" s="13"/>
@@ -16151,7 +16156,7 @@
       <c r="I524" s="96"/>
       <c r="J524" s="97"/>
       <c r="K524" s="97"/>
-      <c r="L524" s="98"/>
+      <c r="L524" s="105"/>
       <c r="M524" s="13"/>
       <c r="N524" s="13"/>
       <c r="O524" s="13"/>
@@ -16179,7 +16184,7 @@
       <c r="I525" s="96"/>
       <c r="J525" s="97"/>
       <c r="K525" s="97"/>
-      <c r="L525" s="98"/>
+      <c r="L525" s="105"/>
       <c r="M525" s="13"/>
       <c r="N525" s="13"/>
       <c r="O525" s="13"/>
@@ -16207,7 +16212,7 @@
       <c r="I526" s="96"/>
       <c r="J526" s="97"/>
       <c r="K526" s="97"/>
-      <c r="L526" s="98"/>
+      <c r="L526" s="105"/>
       <c r="M526" s="13"/>
       <c r="N526" s="13"/>
       <c r="O526" s="13"/>
@@ -16235,7 +16240,7 @@
       <c r="I527" s="96"/>
       <c r="J527" s="97"/>
       <c r="K527" s="97"/>
-      <c r="L527" s="98"/>
+      <c r="L527" s="105"/>
       <c r="M527" s="13"/>
       <c r="N527" s="13"/>
       <c r="O527" s="13"/>
@@ -16263,7 +16268,7 @@
       <c r="I528" s="96"/>
       <c r="J528" s="97"/>
       <c r="K528" s="97"/>
-      <c r="L528" s="98"/>
+      <c r="L528" s="105"/>
       <c r="M528" s="13"/>
       <c r="N528" s="13"/>
       <c r="O528" s="13"/>
@@ -16291,7 +16296,7 @@
       <c r="I529" s="96"/>
       <c r="J529" s="97"/>
       <c r="K529" s="97"/>
-      <c r="L529" s="98"/>
+      <c r="L529" s="105"/>
       <c r="M529" s="13"/>
       <c r="N529" s="13"/>
       <c r="O529" s="13"/>
@@ -16319,7 +16324,7 @@
       <c r="I530" s="96"/>
       <c r="J530" s="97"/>
       <c r="K530" s="97"/>
-      <c r="L530" s="98"/>
+      <c r="L530" s="105"/>
       <c r="M530" s="13"/>
       <c r="N530" s="13"/>
       <c r="O530" s="13"/>
@@ -16347,7 +16352,7 @@
       <c r="I531" s="96"/>
       <c r="J531" s="97"/>
       <c r="K531" s="97"/>
-      <c r="L531" s="98"/>
+      <c r="L531" s="105"/>
       <c r="M531" s="13"/>
       <c r="N531" s="13"/>
       <c r="O531" s="13"/>
@@ -16375,7 +16380,7 @@
       <c r="I532" s="96"/>
       <c r="J532" s="97"/>
       <c r="K532" s="97"/>
-      <c r="L532" s="98"/>
+      <c r="L532" s="105"/>
       <c r="M532" s="13"/>
       <c r="N532" s="13"/>
       <c r="O532" s="13"/>
@@ -16403,7 +16408,7 @@
       <c r="I533" s="96"/>
       <c r="J533" s="97"/>
       <c r="K533" s="97"/>
-      <c r="L533" s="98"/>
+      <c r="L533" s="105"/>
       <c r="M533" s="13"/>
       <c r="N533" s="13"/>
       <c r="O533" s="13"/>
@@ -16431,7 +16436,7 @@
       <c r="I534" s="96"/>
       <c r="J534" s="97"/>
       <c r="K534" s="97"/>
-      <c r="L534" s="98"/>
+      <c r="L534" s="105"/>
       <c r="M534" s="13"/>
       <c r="N534" s="13"/>
       <c r="O534" s="13"/>
@@ -16459,7 +16464,7 @@
       <c r="I535" s="96"/>
       <c r="J535" s="97"/>
       <c r="K535" s="97"/>
-      <c r="L535" s="98"/>
+      <c r="L535" s="105"/>
       <c r="M535" s="13"/>
       <c r="N535" s="13"/>
       <c r="O535" s="13"/>
@@ -16487,7 +16492,7 @@
       <c r="I536" s="96"/>
       <c r="J536" s="97"/>
       <c r="K536" s="97"/>
-      <c r="L536" s="98"/>
+      <c r="L536" s="105"/>
       <c r="M536" s="13"/>
       <c r="N536" s="13"/>
       <c r="O536" s="13"/>
@@ -16515,7 +16520,7 @@
       <c r="I537" s="96"/>
       <c r="J537" s="97"/>
       <c r="K537" s="97"/>
-      <c r="L537" s="98"/>
+      <c r="L537" s="105"/>
       <c r="M537" s="13"/>
       <c r="N537" s="13"/>
       <c r="O537" s="13"/>
@@ -16543,7 +16548,7 @@
       <c r="I538" s="96"/>
       <c r="J538" s="97"/>
       <c r="K538" s="97"/>
-      <c r="L538" s="98"/>
+      <c r="L538" s="105"/>
       <c r="M538" s="13"/>
       <c r="N538" s="13"/>
       <c r="O538" s="13"/>
@@ -16571,7 +16576,7 @@
       <c r="I539" s="96"/>
       <c r="J539" s="97"/>
       <c r="K539" s="97"/>
-      <c r="L539" s="98"/>
+      <c r="L539" s="105"/>
       <c r="M539" s="13"/>
       <c r="N539" s="13"/>
       <c r="O539" s="13"/>
@@ -16599,7 +16604,7 @@
       <c r="I540" s="96"/>
       <c r="J540" s="97"/>
       <c r="K540" s="97"/>
-      <c r="L540" s="98"/>
+      <c r="L540" s="105"/>
       <c r="M540" s="13"/>
       <c r="N540" s="13"/>
       <c r="O540" s="13"/>
@@ -16627,7 +16632,7 @@
       <c r="I541" s="96"/>
       <c r="J541" s="97"/>
       <c r="K541" s="97"/>
-      <c r="L541" s="98"/>
+      <c r="L541" s="105"/>
       <c r="M541" s="13"/>
       <c r="N541" s="13"/>
       <c r="O541" s="13"/>
@@ -16655,7 +16660,7 @@
       <c r="I542" s="96"/>
       <c r="J542" s="97"/>
       <c r="K542" s="97"/>
-      <c r="L542" s="98"/>
+      <c r="L542" s="105"/>
       <c r="M542" s="13"/>
       <c r="N542" s="13"/>
       <c r="O542" s="13"/>
@@ -16683,7 +16688,7 @@
       <c r="I543" s="96"/>
       <c r="J543" s="97"/>
       <c r="K543" s="97"/>
-      <c r="L543" s="98"/>
+      <c r="L543" s="105"/>
       <c r="M543" s="13"/>
       <c r="N543" s="13"/>
       <c r="O543" s="13"/>
@@ -16711,7 +16716,7 @@
       <c r="I544" s="96"/>
       <c r="J544" s="97"/>
       <c r="K544" s="97"/>
-      <c r="L544" s="98"/>
+      <c r="L544" s="105"/>
       <c r="M544" s="13"/>
       <c r="N544" s="13"/>
       <c r="O544" s="13"/>
@@ -16739,7 +16744,7 @@
       <c r="I545" s="96"/>
       <c r="J545" s="97"/>
       <c r="K545" s="97"/>
-      <c r="L545" s="98"/>
+      <c r="L545" s="105"/>
       <c r="M545" s="13"/>
       <c r="N545" s="13"/>
       <c r="O545" s="13"/>
@@ -16767,7 +16772,7 @@
       <c r="I546" s="96"/>
       <c r="J546" s="97"/>
       <c r="K546" s="97"/>
-      <c r="L546" s="98"/>
+      <c r="L546" s="105"/>
       <c r="M546" s="13"/>
       <c r="N546" s="13"/>
       <c r="O546" s="13"/>
@@ -16795,7 +16800,7 @@
       <c r="I547" s="96"/>
       <c r="J547" s="97"/>
       <c r="K547" s="97"/>
-      <c r="L547" s="98"/>
+      <c r="L547" s="105"/>
       <c r="M547" s="13"/>
       <c r="N547" s="13"/>
       <c r="O547" s="13"/>
@@ -16823,7 +16828,7 @@
       <c r="I548" s="96"/>
       <c r="J548" s="97"/>
       <c r="K548" s="97"/>
-      <c r="L548" s="98"/>
+      <c r="L548" s="105"/>
       <c r="M548" s="13"/>
       <c r="N548" s="13"/>
       <c r="O548" s="13"/>
@@ -16851,7 +16856,7 @@
       <c r="I549" s="96"/>
       <c r="J549" s="97"/>
       <c r="K549" s="97"/>
-      <c r="L549" s="98"/>
+      <c r="L549" s="105"/>
       <c r="M549" s="13"/>
       <c r="N549" s="13"/>
       <c r="O549" s="13"/>
@@ -16879,7 +16884,7 @@
       <c r="I550" s="96"/>
       <c r="J550" s="97"/>
       <c r="K550" s="97"/>
-      <c r="L550" s="98"/>
+      <c r="L550" s="105"/>
       <c r="M550" s="13"/>
       <c r="N550" s="13"/>
       <c r="O550" s="13"/>
@@ -16907,7 +16912,7 @@
       <c r="I551" s="96"/>
       <c r="J551" s="97"/>
       <c r="K551" s="97"/>
-      <c r="L551" s="98"/>
+      <c r="L551" s="105"/>
       <c r="M551" s="13"/>
       <c r="N551" s="13"/>
       <c r="O551" s="13"/>
@@ -16935,7 +16940,7 @@
       <c r="I552" s="96"/>
       <c r="J552" s="97"/>
       <c r="K552" s="97"/>
-      <c r="L552" s="98"/>
+      <c r="L552" s="105"/>
       <c r="M552" s="13"/>
       <c r="N552" s="13"/>
       <c r="O552" s="13"/>
@@ -16963,7 +16968,7 @@
       <c r="I553" s="96"/>
       <c r="J553" s="97"/>
       <c r="K553" s="97"/>
-      <c r="L553" s="98"/>
+      <c r="L553" s="105"/>
       <c r="M553" s="13"/>
       <c r="N553" s="13"/>
       <c r="O553" s="13"/>
@@ -16991,7 +16996,7 @@
       <c r="I554" s="96"/>
       <c r="J554" s="97"/>
       <c r="K554" s="97"/>
-      <c r="L554" s="98"/>
+      <c r="L554" s="105"/>
       <c r="M554" s="13"/>
       <c r="N554" s="13"/>
       <c r="O554" s="13"/>
@@ -17019,7 +17024,7 @@
       <c r="I555" s="96"/>
       <c r="J555" s="97"/>
       <c r="K555" s="97"/>
-      <c r="L555" s="98"/>
+      <c r="L555" s="105"/>
       <c r="M555" s="13"/>
       <c r="N555" s="13"/>
       <c r="O555" s="13"/>
@@ -17047,7 +17052,7 @@
       <c r="I556" s="96"/>
       <c r="J556" s="97"/>
       <c r="K556" s="97"/>
-      <c r="L556" s="98"/>
+      <c r="L556" s="105"/>
       <c r="M556" s="13"/>
       <c r="N556" s="13"/>
       <c r="O556" s="13"/>
@@ -17075,7 +17080,7 @@
       <c r="I557" s="96"/>
       <c r="J557" s="97"/>
       <c r="K557" s="97"/>
-      <c r="L557" s="98"/>
+      <c r="L557" s="105"/>
       <c r="M557" s="13"/>
       <c r="N557" s="13"/>
       <c r="O557" s="13"/>
@@ -17103,7 +17108,7 @@
       <c r="I558" s="96"/>
       <c r="J558" s="97"/>
       <c r="K558" s="97"/>
-      <c r="L558" s="98"/>
+      <c r="L558" s="105"/>
       <c r="M558" s="13"/>
       <c r="N558" s="13"/>
       <c r="O558" s="13"/>
@@ -17131,7 +17136,7 @@
       <c r="I559" s="96"/>
       <c r="J559" s="97"/>
       <c r="K559" s="97"/>
-      <c r="L559" s="98"/>
+      <c r="L559" s="105"/>
       <c r="M559" s="13"/>
       <c r="N559" s="13"/>
       <c r="O559" s="13"/>
@@ -17159,7 +17164,7 @@
       <c r="I560" s="96"/>
       <c r="J560" s="97"/>
       <c r="K560" s="97"/>
-      <c r="L560" s="98"/>
+      <c r="L560" s="105"/>
       <c r="M560" s="13"/>
       <c r="N560" s="13"/>
       <c r="O560" s="13"/>
@@ -17187,7 +17192,7 @@
       <c r="I561" s="96"/>
       <c r="J561" s="97"/>
       <c r="K561" s="97"/>
-      <c r="L561" s="98"/>
+      <c r="L561" s="105"/>
       <c r="M561" s="13"/>
       <c r="N561" s="13"/>
       <c r="O561" s="13"/>
@@ -17215,7 +17220,7 @@
       <c r="I562" s="96"/>
       <c r="J562" s="97"/>
       <c r="K562" s="97"/>
-      <c r="L562" s="98"/>
+      <c r="L562" s="105"/>
       <c r="M562" s="13"/>
       <c r="N562" s="13"/>
       <c r="O562" s="13"/>
@@ -17243,7 +17248,7 @@
       <c r="I563" s="96"/>
       <c r="J563" s="97"/>
       <c r="K563" s="97"/>
-      <c r="L563" s="98"/>
+      <c r="L563" s="105"/>
       <c r="M563" s="13"/>
       <c r="N563" s="13"/>
       <c r="O563" s="13"/>
@@ -17271,7 +17276,7 @@
       <c r="I564" s="96"/>
       <c r="J564" s="97"/>
       <c r="K564" s="97"/>
-      <c r="L564" s="98"/>
+      <c r="L564" s="105"/>
       <c r="M564" s="13"/>
       <c r="N564" s="13"/>
       <c r="O564" s="13"/>
@@ -17299,7 +17304,7 @@
       <c r="I565" s="96"/>
       <c r="J565" s="97"/>
       <c r="K565" s="97"/>
-      <c r="L565" s="98"/>
+      <c r="L565" s="105"/>
       <c r="M565" s="13"/>
       <c r="N565" s="13"/>
       <c r="O565" s="13"/>
@@ -17327,7 +17332,7 @@
       <c r="I566" s="96"/>
       <c r="J566" s="97"/>
       <c r="K566" s="97"/>
-      <c r="L566" s="98"/>
+      <c r="L566" s="105"/>
       <c r="M566" s="13"/>
       <c r="N566" s="13"/>
       <c r="O566" s="13"/>
@@ -17355,7 +17360,7 @@
       <c r="I567" s="96"/>
       <c r="J567" s="97"/>
       <c r="K567" s="97"/>
-      <c r="L567" s="98"/>
+      <c r="L567" s="105"/>
       <c r="M567" s="13"/>
       <c r="N567" s="13"/>
       <c r="O567" s="13"/>
@@ -17383,7 +17388,7 @@
       <c r="I568" s="96"/>
       <c r="J568" s="97"/>
       <c r="K568" s="97"/>
-      <c r="L568" s="98"/>
+      <c r="L568" s="105"/>
       <c r="M568" s="13"/>
       <c r="N568" s="13"/>
       <c r="O568" s="13"/>
@@ -17411,7 +17416,7 @@
       <c r="I569" s="96"/>
       <c r="J569" s="97"/>
       <c r="K569" s="97"/>
-      <c r="L569" s="98"/>
+      <c r="L569" s="105"/>
       <c r="M569" s="13"/>
       <c r="N569" s="13"/>
       <c r="O569" s="13"/>
@@ -17439,7 +17444,7 @@
       <c r="I570" s="96"/>
       <c r="J570" s="97"/>
       <c r="K570" s="97"/>
-      <c r="L570" s="98"/>
+      <c r="L570" s="105"/>
       <c r="M570" s="13"/>
       <c r="N570" s="13"/>
       <c r="O570" s="13"/>
@@ -17467,7 +17472,7 @@
       <c r="I571" s="96"/>
       <c r="J571" s="97"/>
       <c r="K571" s="97"/>
-      <c r="L571" s="98"/>
+      <c r="L571" s="105"/>
       <c r="M571" s="13"/>
       <c r="N571" s="13"/>
       <c r="O571" s="13"/>
@@ -17495,7 +17500,7 @@
       <c r="I572" s="96"/>
       <c r="J572" s="97"/>
       <c r="K572" s="97"/>
-      <c r="L572" s="98"/>
+      <c r="L572" s="105"/>
       <c r="M572" s="13"/>
       <c r="N572" s="13"/>
       <c r="O572" s="13"/>
@@ -17523,7 +17528,7 @@
       <c r="I573" s="96"/>
       <c r="J573" s="97"/>
       <c r="K573" s="97"/>
-      <c r="L573" s="98"/>
+      <c r="L573" s="105"/>
       <c r="M573" s="13"/>
       <c r="N573" s="13"/>
       <c r="O573" s="13"/>
@@ -17551,7 +17556,7 @@
       <c r="I574" s="96"/>
       <c r="J574" s="97"/>
       <c r="K574" s="97"/>
-      <c r="L574" s="98"/>
+      <c r="L574" s="105"/>
       <c r="M574" s="13"/>
       <c r="N574" s="13"/>
       <c r="O574" s="13"/>
@@ -17579,7 +17584,7 @@
       <c r="I575" s="96"/>
       <c r="J575" s="97"/>
       <c r="K575" s="97"/>
-      <c r="L575" s="98"/>
+      <c r="L575" s="105"/>
       <c r="M575" s="13"/>
       <c r="N575" s="13"/>
       <c r="O575" s="13"/>
@@ -17607,7 +17612,7 @@
       <c r="I576" s="96"/>
       <c r="J576" s="97"/>
       <c r="K576" s="97"/>
-      <c r="L576" s="98"/>
+      <c r="L576" s="105"/>
       <c r="M576" s="13"/>
       <c r="N576" s="13"/>
       <c r="O576" s="13"/>
@@ -17635,7 +17640,7 @@
       <c r="I577" s="96"/>
       <c r="J577" s="97"/>
       <c r="K577" s="97"/>
-      <c r="L577" s="98"/>
+      <c r="L577" s="105"/>
       <c r="M577" s="13"/>
       <c r="N577" s="13"/>
       <c r="O577" s="13"/>
@@ -17663,7 +17668,7 @@
       <c r="I578" s="96"/>
       <c r="J578" s="97"/>
       <c r="K578" s="97"/>
-      <c r="L578" s="98"/>
+      <c r="L578" s="105"/>
       <c r="M578" s="13"/>
       <c r="N578" s="13"/>
       <c r="O578" s="13"/>
@@ -17691,7 +17696,7 @@
       <c r="I579" s="96"/>
       <c r="J579" s="97"/>
       <c r="K579" s="97"/>
-      <c r="L579" s="98"/>
+      <c r="L579" s="105"/>
       <c r="M579" s="13"/>
       <c r="N579" s="13"/>
       <c r="O579" s="13"/>
@@ -17719,7 +17724,7 @@
       <c r="I580" s="96"/>
       <c r="J580" s="97"/>
       <c r="K580" s="97"/>
-      <c r="L580" s="98"/>
+      <c r="L580" s="105"/>
       <c r="M580" s="13"/>
       <c r="N580" s="13"/>
       <c r="O580" s="13"/>
@@ -17747,7 +17752,7 @@
       <c r="I581" s="96"/>
       <c r="J581" s="97"/>
       <c r="K581" s="97"/>
-      <c r="L581" s="98"/>
+      <c r="L581" s="105"/>
       <c r="M581" s="13"/>
       <c r="N581" s="13"/>
       <c r="O581" s="13"/>
@@ -17775,7 +17780,7 @@
       <c r="I582" s="96"/>
       <c r="J582" s="97"/>
       <c r="K582" s="97"/>
-      <c r="L582" s="98"/>
+      <c r="L582" s="105"/>
       <c r="M582" s="13"/>
       <c r="N582" s="13"/>
       <c r="O582" s="13"/>
@@ -17803,7 +17808,7 @@
       <c r="I583" s="96"/>
       <c r="J583" s="97"/>
       <c r="K583" s="97"/>
-      <c r="L583" s="98"/>
+      <c r="L583" s="105"/>
       <c r="M583" s="13"/>
       <c r="N583" s="13"/>
       <c r="O583" s="13"/>
@@ -17831,7 +17836,7 @@
       <c r="I584" s="96"/>
       <c r="J584" s="97"/>
       <c r="K584" s="97"/>
-      <c r="L584" s="98"/>
+      <c r="L584" s="105"/>
       <c r="M584" s="13"/>
       <c r="N584" s="13"/>
       <c r="O584" s="13"/>
@@ -17859,7 +17864,7 @@
       <c r="I585" s="96"/>
       <c r="J585" s="97"/>
       <c r="K585" s="97"/>
-      <c r="L585" s="98"/>
+      <c r="L585" s="105"/>
       <c r="M585" s="13"/>
       <c r="N585" s="13"/>
       <c r="O585" s="13"/>
@@ -17887,7 +17892,7 @@
       <c r="I586" s="96"/>
       <c r="J586" s="97"/>
       <c r="K586" s="97"/>
-      <c r="L586" s="98"/>
+      <c r="L586" s="105"/>
       <c r="M586" s="13"/>
       <c r="N586" s="13"/>
       <c r="O586" s="13"/>
@@ -17915,7 +17920,7 @@
       <c r="I587" s="96"/>
       <c r="J587" s="97"/>
       <c r="K587" s="97"/>
-      <c r="L587" s="98"/>
+      <c r="L587" s="105"/>
       <c r="M587" s="13"/>
       <c r="N587" s="13"/>
       <c r="O587" s="13"/>
@@ -17943,7 +17948,7 @@
       <c r="I588" s="96"/>
       <c r="J588" s="97"/>
       <c r="K588" s="97"/>
-      <c r="L588" s="98"/>
+      <c r="L588" s="105"/>
       <c r="M588" s="13"/>
       <c r="N588" s="13"/>
       <c r="O588" s="13"/>
@@ -17971,7 +17976,7 @@
       <c r="I589" s="96"/>
       <c r="J589" s="97"/>
       <c r="K589" s="97"/>
-      <c r="L589" s="98"/>
+      <c r="L589" s="105"/>
       <c r="M589" s="13"/>
       <c r="N589" s="13"/>
       <c r="O589" s="13"/>
@@ -17999,7 +18004,7 @@
       <c r="I590" s="96"/>
       <c r="J590" s="97"/>
       <c r="K590" s="97"/>
-      <c r="L590" s="98"/>
+      <c r="L590" s="105"/>
       <c r="M590" s="13"/>
       <c r="N590" s="13"/>
       <c r="O590" s="13"/>
@@ -18027,7 +18032,7 @@
       <c r="I591" s="96"/>
       <c r="J591" s="97"/>
       <c r="K591" s="97"/>
-      <c r="L591" s="98"/>
+      <c r="L591" s="105"/>
       <c r="M591" s="13"/>
       <c r="N591" s="13"/>
       <c r="O591" s="13"/>
@@ -18055,7 +18060,7 @@
       <c r="I592" s="96"/>
       <c r="J592" s="97"/>
       <c r="K592" s="97"/>
-      <c r="L592" s="98"/>
+      <c r="L592" s="105"/>
       <c r="M592" s="13"/>
       <c r="N592" s="13"/>
       <c r="O592" s="13"/>
@@ -18083,7 +18088,7 @@
       <c r="I593" s="96"/>
       <c r="J593" s="97"/>
       <c r="K593" s="97"/>
-      <c r="L593" s="98"/>
+      <c r="L593" s="105"/>
       <c r="M593" s="13"/>
       <c r="N593" s="13"/>
       <c r="O593" s="13"/>
@@ -18111,7 +18116,7 @@
       <c r="I594" s="96"/>
       <c r="J594" s="97"/>
       <c r="K594" s="97"/>
-      <c r="L594" s="98"/>
+      <c r="L594" s="105"/>
       <c r="M594" s="13"/>
       <c r="N594" s="13"/>
       <c r="O594" s="13"/>
@@ -18139,7 +18144,7 @@
       <c r="I595" s="96"/>
       <c r="J595" s="97"/>
       <c r="K595" s="97"/>
-      <c r="L595" s="98"/>
+      <c r="L595" s="105"/>
       <c r="M595" s="13"/>
       <c r="N595" s="13"/>
       <c r="O595" s="13"/>
@@ -18167,7 +18172,7 @@
       <c r="I596" s="96"/>
       <c r="J596" s="97"/>
       <c r="K596" s="97"/>
-      <c r="L596" s="98"/>
+      <c r="L596" s="105"/>
       <c r="M596" s="13"/>
       <c r="N596" s="13"/>
       <c r="O596" s="13"/>
@@ -18195,7 +18200,7 @@
       <c r="I597" s="96"/>
       <c r="J597" s="97"/>
       <c r="K597" s="97"/>
-      <c r="L597" s="98"/>
+      <c r="L597" s="105"/>
       <c r="M597" s="13"/>
       <c r="N597" s="13"/>
       <c r="O597" s="13"/>
@@ -18223,7 +18228,7 @@
       <c r="I598" s="96"/>
       <c r="J598" s="97"/>
       <c r="K598" s="97"/>
-      <c r="L598" s="98"/>
+      <c r="L598" s="105"/>
       <c r="M598" s="13"/>
       <c r="N598" s="13"/>
       <c r="O598" s="13"/>
@@ -18251,7 +18256,7 @@
       <c r="I599" s="96"/>
       <c r="J599" s="97"/>
       <c r="K599" s="97"/>
-      <c r="L599" s="98"/>
+      <c r="L599" s="105"/>
       <c r="M599" s="13"/>
       <c r="N599" s="13"/>
       <c r="O599" s="13"/>
@@ -18279,7 +18284,7 @@
       <c r="I600" s="96"/>
       <c r="J600" s="97"/>
       <c r="K600" s="97"/>
-      <c r="L600" s="98"/>
+      <c r="L600" s="105"/>
       <c r="M600" s="13"/>
       <c r="N600" s="13"/>
       <c r="O600" s="13"/>
@@ -18307,7 +18312,7 @@
       <c r="I601" s="96"/>
       <c r="J601" s="97"/>
       <c r="K601" s="97"/>
-      <c r="L601" s="98"/>
+      <c r="L601" s="105"/>
       <c r="M601" s="13"/>
       <c r="N601" s="13"/>
       <c r="O601" s="13"/>
@@ -18335,7 +18340,7 @@
       <c r="I602" s="96"/>
       <c r="J602" s="97"/>
       <c r="K602" s="97"/>
-      <c r="L602" s="98"/>
+      <c r="L602" s="105"/>
       <c r="M602" s="13"/>
       <c r="N602" s="13"/>
       <c r="O602" s="13"/>
@@ -18363,7 +18368,7 @@
       <c r="I603" s="96"/>
       <c r="J603" s="97"/>
       <c r="K603" s="97"/>
-      <c r="L603" s="98"/>
+      <c r="L603" s="105"/>
       <c r="M603" s="13"/>
       <c r="N603" s="13"/>
       <c r="O603" s="13"/>
@@ -18391,7 +18396,7 @@
       <c r="I604" s="96"/>
       <c r="J604" s="97"/>
       <c r="K604" s="97"/>
-      <c r="L604" s="98"/>
+      <c r="L604" s="105"/>
       <c r="M604" s="13"/>
       <c r="N604" s="13"/>
       <c r="O604" s="13"/>
@@ -18419,7 +18424,7 @@
       <c r="I605" s="96"/>
       <c r="J605" s="97"/>
       <c r="K605" s="97"/>
-      <c r="L605" s="98"/>
+      <c r="L605" s="105"/>
       <c r="M605" s="13"/>
       <c r="N605" s="13"/>
       <c r="O605" s="13"/>
@@ -18447,7 +18452,7 @@
       <c r="I606" s="96"/>
       <c r="J606" s="97"/>
       <c r="K606" s="97"/>
-      <c r="L606" s="98"/>
+      <c r="L606" s="105"/>
       <c r="M606" s="13"/>
       <c r="N606" s="13"/>
       <c r="O606" s="13"/>
@@ -18475,7 +18480,7 @@
       <c r="I607" s="96"/>
       <c r="J607" s="97"/>
       <c r="K607" s="97"/>
-      <c r="L607" s="98"/>
+      <c r="L607" s="105"/>
       <c r="M607" s="13"/>
       <c r="N607" s="13"/>
       <c r="O607" s="13"/>
@@ -18503,7 +18508,7 @@
       <c r="I608" s="96"/>
       <c r="J608" s="97"/>
       <c r="K608" s="97"/>
-      <c r="L608" s="98"/>
+      <c r="L608" s="105"/>
       <c r="M608" s="13"/>
       <c r="N608" s="13"/>
       <c r="O608" s="13"/>
@@ -18531,7 +18536,7 @@
       <c r="I609" s="96"/>
       <c r="J609" s="97"/>
       <c r="K609" s="97"/>
-      <c r="L609" s="98"/>
+      <c r="L609" s="105"/>
       <c r="M609" s="13"/>
       <c r="N609" s="13"/>
       <c r="O609" s="13"/>
@@ -18559,7 +18564,7 @@
       <c r="I610" s="96"/>
       <c r="J610" s="97"/>
       <c r="K610" s="97"/>
-      <c r="L610" s="98"/>
+      <c r="L610" s="105"/>
       <c r="M610" s="13"/>
       <c r="N610" s="13"/>
       <c r="O610" s="13"/>
@@ -18587,7 +18592,7 @@
       <c r="I611" s="96"/>
       <c r="J611" s="97"/>
       <c r="K611" s="97"/>
-      <c r="L611" s="98"/>
+      <c r="L611" s="105"/>
       <c r="M611" s="13"/>
       <c r="N611" s="13"/>
       <c r="O611" s="13"/>
@@ -18615,7 +18620,7 @@
       <c r="I612" s="96"/>
       <c r="J612" s="97"/>
       <c r="K612" s="97"/>
-      <c r="L612" s="98"/>
+      <c r="L612" s="105"/>
       <c r="M612" s="13"/>
       <c r="N612" s="13"/>
       <c r="O612" s="13"/>
@@ -18643,7 +18648,7 @@
       <c r="I613" s="96"/>
       <c r="J613" s="97"/>
       <c r="K613" s="97"/>
-      <c r="L613" s="98"/>
+      <c r="L613" s="105"/>
       <c r="M613" s="13"/>
       <c r="N613" s="13"/>
       <c r="O613" s="13"/>
@@ -18671,7 +18676,7 @@
       <c r="I614" s="96"/>
       <c r="J614" s="97"/>
       <c r="K614" s="97"/>
-      <c r="L614" s="98"/>
+      <c r="L614" s="105"/>
       <c r="M614" s="13"/>
       <c r="N614" s="13"/>
       <c r="O614" s="13"/>
@@ -18699,7 +18704,7 @@
       <c r="I615" s="96"/>
       <c r="J615" s="97"/>
       <c r="K615" s="97"/>
-      <c r="L615" s="98"/>
+      <c r="L615" s="105"/>
       <c r="M615" s="13"/>
       <c r="N615" s="13"/>
       <c r="O615" s="13"/>
@@ -18727,7 +18732,7 @@
       <c r="I616" s="96"/>
       <c r="J616" s="97"/>
       <c r="K616" s="97"/>
-      <c r="L616" s="98"/>
+      <c r="L616" s="105"/>
       <c r="M616" s="13"/>
       <c r="N616" s="13"/>
       <c r="O616" s="13"/>
@@ -18755,7 +18760,7 @@
       <c r="I617" s="96"/>
       <c r="J617" s="97"/>
       <c r="K617" s="97"/>
-      <c r="L617" s="98"/>
+      <c r="L617" s="105"/>
       <c r="M617" s="13"/>
       <c r="N617" s="13"/>
       <c r="O617" s="13"/>
@@ -18783,7 +18788,7 @@
       <c r="I618" s="96"/>
       <c r="J618" s="97"/>
       <c r="K618" s="97"/>
-      <c r="L618" s="98"/>
+      <c r="L618" s="105"/>
       <c r="M618" s="13"/>
       <c r="N618" s="13"/>
       <c r="O618" s="13"/>
@@ -18811,7 +18816,7 @@
       <c r="I619" s="96"/>
       <c r="J619" s="97"/>
       <c r="K619" s="97"/>
-      <c r="L619" s="98"/>
+      <c r="L619" s="105"/>
       <c r="M619" s="13"/>
       <c r="N619" s="13"/>
       <c r="O619" s="13"/>
@@ -18839,7 +18844,7 @@
       <c r="I620" s="96"/>
       <c r="J620" s="97"/>
       <c r="K620" s="97"/>
-      <c r="L620" s="98"/>
+      <c r="L620" s="105"/>
       <c r="M620" s="13"/>
       <c r="N620" s="13"/>
       <c r="O620" s="13"/>
@@ -18867,7 +18872,7 @@
       <c r="I621" s="96"/>
       <c r="J621" s="97"/>
       <c r="K621" s="97"/>
-      <c r="L621" s="98"/>
+      <c r="L621" s="105"/>
       <c r="M621" s="13"/>
       <c r="N621" s="13"/>
       <c r="O621" s="13"/>
@@ -30596,32 +30601,566 @@
     </row>
   </sheetData>
   <mergeCells count="610">
-    <mergeCell ref="I317:L317"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="I319:L319"/>
-    <mergeCell ref="I320:L320"/>
-    <mergeCell ref="I321:L321"/>
-    <mergeCell ref="I323:L323"/>
-    <mergeCell ref="I306:L306"/>
-    <mergeCell ref="I307:L307"/>
-    <mergeCell ref="I308:L308"/>
-    <mergeCell ref="I309:L309"/>
-    <mergeCell ref="I310:L310"/>
-    <mergeCell ref="I311:L311"/>
-    <mergeCell ref="I312:L312"/>
-    <mergeCell ref="I313:L313"/>
-    <mergeCell ref="I324:L324"/>
-    <mergeCell ref="I322:L322"/>
-    <mergeCell ref="I328:L328"/>
-    <mergeCell ref="I340:L340"/>
-    <mergeCell ref="I330:L330"/>
-    <mergeCell ref="I331:L331"/>
-    <mergeCell ref="I332:L332"/>
-    <mergeCell ref="I334:L334"/>
-    <mergeCell ref="I337:L337"/>
-    <mergeCell ref="I316:L316"/>
-    <mergeCell ref="I314:L314"/>
-    <mergeCell ref="I315:L315"/>
+    <mergeCell ref="I617:L617"/>
+    <mergeCell ref="I618:L618"/>
+    <mergeCell ref="I619:L619"/>
+    <mergeCell ref="I620:L620"/>
+    <mergeCell ref="I621:L621"/>
+    <mergeCell ref="I608:L608"/>
+    <mergeCell ref="I609:L609"/>
+    <mergeCell ref="I610:L610"/>
+    <mergeCell ref="I611:L611"/>
+    <mergeCell ref="I612:L612"/>
+    <mergeCell ref="I613:L613"/>
+    <mergeCell ref="I614:L614"/>
+    <mergeCell ref="I615:L615"/>
+    <mergeCell ref="I616:L616"/>
+    <mergeCell ref="I599:L599"/>
+    <mergeCell ref="I600:L600"/>
+    <mergeCell ref="I601:L601"/>
+    <mergeCell ref="I602:L602"/>
+    <mergeCell ref="I603:L603"/>
+    <mergeCell ref="I604:L604"/>
+    <mergeCell ref="I605:L605"/>
+    <mergeCell ref="I606:L606"/>
+    <mergeCell ref="I607:L607"/>
+    <mergeCell ref="I590:L590"/>
+    <mergeCell ref="I591:L591"/>
+    <mergeCell ref="I592:L592"/>
+    <mergeCell ref="I593:L593"/>
+    <mergeCell ref="I594:L594"/>
+    <mergeCell ref="I595:L595"/>
+    <mergeCell ref="I596:L596"/>
+    <mergeCell ref="I597:L597"/>
+    <mergeCell ref="I598:L598"/>
+    <mergeCell ref="I581:L581"/>
+    <mergeCell ref="I582:L582"/>
+    <mergeCell ref="I583:L583"/>
+    <mergeCell ref="I584:L584"/>
+    <mergeCell ref="I585:L585"/>
+    <mergeCell ref="I586:L586"/>
+    <mergeCell ref="I587:L587"/>
+    <mergeCell ref="I588:L588"/>
+    <mergeCell ref="I589:L589"/>
+    <mergeCell ref="I572:L572"/>
+    <mergeCell ref="I573:L573"/>
+    <mergeCell ref="I574:L574"/>
+    <mergeCell ref="I575:L575"/>
+    <mergeCell ref="I576:L576"/>
+    <mergeCell ref="I577:L577"/>
+    <mergeCell ref="I578:L578"/>
+    <mergeCell ref="I579:L579"/>
+    <mergeCell ref="I580:L580"/>
+    <mergeCell ref="I563:L563"/>
+    <mergeCell ref="I564:L564"/>
+    <mergeCell ref="I565:L565"/>
+    <mergeCell ref="I566:L566"/>
+    <mergeCell ref="I567:L567"/>
+    <mergeCell ref="I568:L568"/>
+    <mergeCell ref="I569:L569"/>
+    <mergeCell ref="I570:L570"/>
+    <mergeCell ref="I571:L571"/>
+    <mergeCell ref="I554:L554"/>
+    <mergeCell ref="I555:L555"/>
+    <mergeCell ref="I556:L556"/>
+    <mergeCell ref="I557:L557"/>
+    <mergeCell ref="I558:L558"/>
+    <mergeCell ref="I559:L559"/>
+    <mergeCell ref="I560:L560"/>
+    <mergeCell ref="I561:L561"/>
+    <mergeCell ref="I562:L562"/>
+    <mergeCell ref="I545:L545"/>
+    <mergeCell ref="I546:L546"/>
+    <mergeCell ref="I547:L547"/>
+    <mergeCell ref="I548:L548"/>
+    <mergeCell ref="I549:L549"/>
+    <mergeCell ref="I550:L550"/>
+    <mergeCell ref="I551:L551"/>
+    <mergeCell ref="I552:L552"/>
+    <mergeCell ref="I553:L553"/>
+    <mergeCell ref="I536:L536"/>
+    <mergeCell ref="I537:L537"/>
+    <mergeCell ref="I538:L538"/>
+    <mergeCell ref="I539:L539"/>
+    <mergeCell ref="I540:L540"/>
+    <mergeCell ref="I541:L541"/>
+    <mergeCell ref="I542:L542"/>
+    <mergeCell ref="I543:L543"/>
+    <mergeCell ref="I544:L544"/>
+    <mergeCell ref="I527:L527"/>
+    <mergeCell ref="I528:L528"/>
+    <mergeCell ref="I529:L529"/>
+    <mergeCell ref="I530:L530"/>
+    <mergeCell ref="I531:L531"/>
+    <mergeCell ref="I532:L532"/>
+    <mergeCell ref="I533:L533"/>
+    <mergeCell ref="I534:L534"/>
+    <mergeCell ref="I535:L535"/>
+    <mergeCell ref="I518:L518"/>
+    <mergeCell ref="I519:L519"/>
+    <mergeCell ref="I520:L520"/>
+    <mergeCell ref="I521:L521"/>
+    <mergeCell ref="I522:L522"/>
+    <mergeCell ref="I523:L523"/>
+    <mergeCell ref="I524:L524"/>
+    <mergeCell ref="I525:L525"/>
+    <mergeCell ref="I526:L526"/>
+    <mergeCell ref="I509:L509"/>
+    <mergeCell ref="I510:L510"/>
+    <mergeCell ref="I511:L511"/>
+    <mergeCell ref="I512:L512"/>
+    <mergeCell ref="I513:L513"/>
+    <mergeCell ref="I514:L514"/>
+    <mergeCell ref="I515:L515"/>
+    <mergeCell ref="I516:L516"/>
+    <mergeCell ref="I517:L517"/>
+    <mergeCell ref="I500:L500"/>
+    <mergeCell ref="I501:L501"/>
+    <mergeCell ref="I502:L502"/>
+    <mergeCell ref="I503:L503"/>
+    <mergeCell ref="I504:L504"/>
+    <mergeCell ref="I505:L505"/>
+    <mergeCell ref="I506:L506"/>
+    <mergeCell ref="I507:L507"/>
+    <mergeCell ref="I508:L508"/>
+    <mergeCell ref="I491:L491"/>
+    <mergeCell ref="I492:L492"/>
+    <mergeCell ref="I493:L493"/>
+    <mergeCell ref="I494:L494"/>
+    <mergeCell ref="I495:L495"/>
+    <mergeCell ref="I496:L496"/>
+    <mergeCell ref="I497:L497"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="I499:L499"/>
+    <mergeCell ref="I482:L482"/>
+    <mergeCell ref="I483:L483"/>
+    <mergeCell ref="I484:L484"/>
+    <mergeCell ref="I485:L485"/>
+    <mergeCell ref="I486:L486"/>
+    <mergeCell ref="I487:L487"/>
+    <mergeCell ref="I488:L488"/>
+    <mergeCell ref="I489:L489"/>
+    <mergeCell ref="I490:L490"/>
+    <mergeCell ref="I473:L473"/>
+    <mergeCell ref="I474:L474"/>
+    <mergeCell ref="I475:L475"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="I477:L477"/>
+    <mergeCell ref="I478:L478"/>
+    <mergeCell ref="I479:L479"/>
+    <mergeCell ref="I480:L480"/>
+    <mergeCell ref="I481:L481"/>
+    <mergeCell ref="I464:L464"/>
+    <mergeCell ref="I465:L465"/>
+    <mergeCell ref="I466:L466"/>
+    <mergeCell ref="I467:L467"/>
+    <mergeCell ref="I468:L468"/>
+    <mergeCell ref="I469:L469"/>
+    <mergeCell ref="I470:L470"/>
+    <mergeCell ref="I471:L471"/>
+    <mergeCell ref="I472:L472"/>
+    <mergeCell ref="I455:L455"/>
+    <mergeCell ref="I456:L456"/>
+    <mergeCell ref="I457:L457"/>
+    <mergeCell ref="I458:L458"/>
+    <mergeCell ref="I459:L459"/>
+    <mergeCell ref="I460:L460"/>
+    <mergeCell ref="I461:L461"/>
+    <mergeCell ref="I462:L462"/>
+    <mergeCell ref="I463:L463"/>
+    <mergeCell ref="I446:L446"/>
+    <mergeCell ref="I447:L447"/>
+    <mergeCell ref="I448:L448"/>
+    <mergeCell ref="I449:L449"/>
+    <mergeCell ref="I450:L450"/>
+    <mergeCell ref="I451:L451"/>
+    <mergeCell ref="I452:L452"/>
+    <mergeCell ref="I453:L453"/>
+    <mergeCell ref="I454:L454"/>
+    <mergeCell ref="I437:L437"/>
+    <mergeCell ref="I438:L438"/>
+    <mergeCell ref="I439:L439"/>
+    <mergeCell ref="I440:L440"/>
+    <mergeCell ref="I441:L441"/>
+    <mergeCell ref="I442:L442"/>
+    <mergeCell ref="I443:L443"/>
+    <mergeCell ref="I444:L444"/>
+    <mergeCell ref="I445:L445"/>
+    <mergeCell ref="I428:L428"/>
+    <mergeCell ref="I429:L429"/>
+    <mergeCell ref="I430:L430"/>
+    <mergeCell ref="I431:L431"/>
+    <mergeCell ref="I432:L432"/>
+    <mergeCell ref="I433:L433"/>
+    <mergeCell ref="I434:L434"/>
+    <mergeCell ref="I435:L435"/>
+    <mergeCell ref="I436:L436"/>
+    <mergeCell ref="I419:L419"/>
+    <mergeCell ref="I420:L420"/>
+    <mergeCell ref="I421:L421"/>
+    <mergeCell ref="I422:L422"/>
+    <mergeCell ref="I423:L423"/>
+    <mergeCell ref="I424:L424"/>
+    <mergeCell ref="I425:L425"/>
+    <mergeCell ref="I426:L426"/>
+    <mergeCell ref="I427:L427"/>
+    <mergeCell ref="I410:L410"/>
+    <mergeCell ref="I411:L411"/>
+    <mergeCell ref="I412:L412"/>
+    <mergeCell ref="I413:L413"/>
+    <mergeCell ref="I414:L414"/>
+    <mergeCell ref="I415:L415"/>
+    <mergeCell ref="I416:L416"/>
+    <mergeCell ref="I417:L417"/>
+    <mergeCell ref="I418:L418"/>
+    <mergeCell ref="I401:L401"/>
+    <mergeCell ref="I402:L402"/>
+    <mergeCell ref="I403:L403"/>
+    <mergeCell ref="I404:L404"/>
+    <mergeCell ref="I405:L405"/>
+    <mergeCell ref="I406:L406"/>
+    <mergeCell ref="I407:L407"/>
+    <mergeCell ref="I408:L408"/>
+    <mergeCell ref="I409:L409"/>
+    <mergeCell ref="I392:L392"/>
+    <mergeCell ref="I393:L393"/>
+    <mergeCell ref="I394:L394"/>
+    <mergeCell ref="I395:L395"/>
+    <mergeCell ref="I396:L396"/>
+    <mergeCell ref="I397:L397"/>
+    <mergeCell ref="I398:L398"/>
+    <mergeCell ref="I399:L399"/>
+    <mergeCell ref="I400:L400"/>
+    <mergeCell ref="I383:L383"/>
+    <mergeCell ref="I384:L384"/>
+    <mergeCell ref="I385:L385"/>
+    <mergeCell ref="I386:L386"/>
+    <mergeCell ref="I387:L387"/>
+    <mergeCell ref="I388:L388"/>
+    <mergeCell ref="I389:L389"/>
+    <mergeCell ref="I390:L390"/>
+    <mergeCell ref="I391:L391"/>
+    <mergeCell ref="I374:L374"/>
+    <mergeCell ref="I375:L375"/>
+    <mergeCell ref="I376:L376"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="I378:L378"/>
+    <mergeCell ref="I379:L379"/>
+    <mergeCell ref="I380:L380"/>
+    <mergeCell ref="I381:L381"/>
+    <mergeCell ref="I382:L382"/>
+    <mergeCell ref="I365:L365"/>
+    <mergeCell ref="I366:L366"/>
+    <mergeCell ref="I367:L367"/>
+    <mergeCell ref="I368:L368"/>
+    <mergeCell ref="I369:L369"/>
+    <mergeCell ref="I370:L370"/>
+    <mergeCell ref="I371:L371"/>
+    <mergeCell ref="I372:L372"/>
+    <mergeCell ref="I373:L373"/>
+    <mergeCell ref="I357:L357"/>
+    <mergeCell ref="I358:L358"/>
+    <mergeCell ref="I359:L359"/>
+    <mergeCell ref="I360:L360"/>
+    <mergeCell ref="I361:L361"/>
+    <mergeCell ref="I362:L362"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="I364:L364"/>
+    <mergeCell ref="I348:L348"/>
+    <mergeCell ref="I349:L349"/>
+    <mergeCell ref="I350:L350"/>
+    <mergeCell ref="I351:L351"/>
+    <mergeCell ref="I352:L352"/>
+    <mergeCell ref="I353:L353"/>
+    <mergeCell ref="I354:L354"/>
+    <mergeCell ref="I355:L355"/>
+    <mergeCell ref="I356:L356"/>
+    <mergeCell ref="I282:L282"/>
+    <mergeCell ref="I288:L288"/>
+    <mergeCell ref="I341:L341"/>
+    <mergeCell ref="I342:L342"/>
+    <mergeCell ref="I343:L343"/>
+    <mergeCell ref="I344:L344"/>
+    <mergeCell ref="I345:L345"/>
+    <mergeCell ref="I346:L346"/>
+    <mergeCell ref="I347:L347"/>
+    <mergeCell ref="I283:L283"/>
+    <mergeCell ref="I292:L292"/>
+    <mergeCell ref="I293:L293"/>
+    <mergeCell ref="I294:L294"/>
+    <mergeCell ref="I295:L295"/>
+    <mergeCell ref="I296:L296"/>
+    <mergeCell ref="I297:L297"/>
+    <mergeCell ref="I298:L298"/>
+    <mergeCell ref="I299:L299"/>
+    <mergeCell ref="I300:L300"/>
+    <mergeCell ref="I301:L301"/>
+    <mergeCell ref="I302:L302"/>
+    <mergeCell ref="I303:L303"/>
+    <mergeCell ref="I304:L304"/>
+    <mergeCell ref="I305:L305"/>
+    <mergeCell ref="I266:L266"/>
+    <mergeCell ref="I267:L267"/>
+    <mergeCell ref="I268:L268"/>
+    <mergeCell ref="I269:L269"/>
+    <mergeCell ref="I281:L281"/>
+    <mergeCell ref="I274:L274"/>
+    <mergeCell ref="I273:L273"/>
+    <mergeCell ref="I276:L276"/>
+    <mergeCell ref="I277:L277"/>
+    <mergeCell ref="I278:L278"/>
+    <mergeCell ref="I279:L279"/>
+    <mergeCell ref="I280:L280"/>
+    <mergeCell ref="I275:L275"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I229:L229"/>
+    <mergeCell ref="I223:L223"/>
+    <mergeCell ref="I226:L226"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="I225:L225"/>
+    <mergeCell ref="I224:L224"/>
+    <mergeCell ref="I227:L227"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="I182:L182"/>
+    <mergeCell ref="I183:L183"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="I188:L188"/>
+    <mergeCell ref="I189:L189"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="I198:L198"/>
+    <mergeCell ref="I216:L216"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I222:L222"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="I165:L165"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="I184:L184"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="I158:L158"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="I194:L194"/>
+    <mergeCell ref="I193:L193"/>
+    <mergeCell ref="I187:L187"/>
+    <mergeCell ref="I190:L190"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="I214:L214"/>
+    <mergeCell ref="I217:L217"/>
+    <mergeCell ref="I219:L219"/>
+    <mergeCell ref="I205:L205"/>
+    <mergeCell ref="I201:L201"/>
+    <mergeCell ref="I218:L218"/>
+    <mergeCell ref="I200:L200"/>
+    <mergeCell ref="I202:L202"/>
+    <mergeCell ref="I195:L195"/>
+    <mergeCell ref="I215:L215"/>
+    <mergeCell ref="I221:L221"/>
+    <mergeCell ref="I197:L197"/>
+    <mergeCell ref="I166:L166"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="I185:L185"/>
+    <mergeCell ref="I186:L186"/>
+    <mergeCell ref="I191:L191"/>
+    <mergeCell ref="I192:L192"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="I196:L196"/>
+    <mergeCell ref="I199:L199"/>
+    <mergeCell ref="I220:L220"/>
+    <mergeCell ref="I203:L203"/>
+    <mergeCell ref="I208:L208"/>
+    <mergeCell ref="I209:L209"/>
+    <mergeCell ref="I210:L210"/>
+    <mergeCell ref="I212:L212"/>
+    <mergeCell ref="I213:L213"/>
+    <mergeCell ref="I211:L211"/>
+    <mergeCell ref="I206:L206"/>
+    <mergeCell ref="I204:L204"/>
+    <mergeCell ref="I207:L207"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I251:L251"/>
+    <mergeCell ref="I230:L230"/>
+    <mergeCell ref="I231:L231"/>
+    <mergeCell ref="I232:L232"/>
+    <mergeCell ref="I233:L233"/>
+    <mergeCell ref="I234:L234"/>
+    <mergeCell ref="I235:L235"/>
+    <mergeCell ref="I236:L236"/>
+    <mergeCell ref="I238:L238"/>
+    <mergeCell ref="I239:L239"/>
+    <mergeCell ref="I240:L240"/>
+    <mergeCell ref="I241:L241"/>
+    <mergeCell ref="I242:L242"/>
+    <mergeCell ref="I243:L243"/>
+    <mergeCell ref="I244:L244"/>
+    <mergeCell ref="I245:L245"/>
+    <mergeCell ref="I246:L246"/>
+    <mergeCell ref="I247:L247"/>
+    <mergeCell ref="I249:L249"/>
+    <mergeCell ref="I250:L250"/>
+    <mergeCell ref="I237:L237"/>
+    <mergeCell ref="I248:L248"/>
     <mergeCell ref="I252:L252"/>
     <mergeCell ref="I253:L253"/>
     <mergeCell ref="I284:L284"/>
@@ -30646,566 +31185,32 @@
     <mergeCell ref="I263:L263"/>
     <mergeCell ref="I264:L264"/>
     <mergeCell ref="I265:L265"/>
-    <mergeCell ref="I251:L251"/>
-    <mergeCell ref="I230:L230"/>
-    <mergeCell ref="I231:L231"/>
-    <mergeCell ref="I232:L232"/>
-    <mergeCell ref="I233:L233"/>
-    <mergeCell ref="I234:L234"/>
-    <mergeCell ref="I235:L235"/>
-    <mergeCell ref="I236:L236"/>
-    <mergeCell ref="I238:L238"/>
-    <mergeCell ref="I239:L239"/>
-    <mergeCell ref="I240:L240"/>
-    <mergeCell ref="I241:L241"/>
-    <mergeCell ref="I242:L242"/>
-    <mergeCell ref="I243:L243"/>
-    <mergeCell ref="I244:L244"/>
-    <mergeCell ref="I245:L245"/>
-    <mergeCell ref="I246:L246"/>
-    <mergeCell ref="I247:L247"/>
-    <mergeCell ref="I249:L249"/>
-    <mergeCell ref="I250:L250"/>
-    <mergeCell ref="I237:L237"/>
-    <mergeCell ref="I248:L248"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I221:L221"/>
-    <mergeCell ref="I197:L197"/>
-    <mergeCell ref="I166:L166"/>
-    <mergeCell ref="I167:L167"/>
-    <mergeCell ref="I185:L185"/>
-    <mergeCell ref="I186:L186"/>
-    <mergeCell ref="I191:L191"/>
-    <mergeCell ref="I192:L192"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="I174:L174"/>
-    <mergeCell ref="I177:L177"/>
-    <mergeCell ref="I196:L196"/>
-    <mergeCell ref="I199:L199"/>
-    <mergeCell ref="I220:L220"/>
-    <mergeCell ref="I203:L203"/>
-    <mergeCell ref="I208:L208"/>
-    <mergeCell ref="I209:L209"/>
-    <mergeCell ref="I210:L210"/>
-    <mergeCell ref="I212:L212"/>
-    <mergeCell ref="I213:L213"/>
-    <mergeCell ref="I211:L211"/>
-    <mergeCell ref="I206:L206"/>
-    <mergeCell ref="I204:L204"/>
-    <mergeCell ref="I207:L207"/>
-    <mergeCell ref="I214:L214"/>
-    <mergeCell ref="I217:L217"/>
-    <mergeCell ref="I219:L219"/>
-    <mergeCell ref="I205:L205"/>
-    <mergeCell ref="I201:L201"/>
-    <mergeCell ref="I218:L218"/>
-    <mergeCell ref="I200:L200"/>
-    <mergeCell ref="I202:L202"/>
-    <mergeCell ref="I195:L195"/>
-    <mergeCell ref="I194:L194"/>
-    <mergeCell ref="I193:L193"/>
-    <mergeCell ref="I187:L187"/>
-    <mergeCell ref="I190:L190"/>
-    <mergeCell ref="I173:L173"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="I160:L160"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="I184:L184"/>
-    <mergeCell ref="I155:L155"/>
-    <mergeCell ref="I159:L159"/>
-    <mergeCell ref="I156:L156"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="I169:L169"/>
-    <mergeCell ref="I180:L180"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="I151:L151"/>
-    <mergeCell ref="I181:L181"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="I158:L158"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="I215:L215"/>
-    <mergeCell ref="I222:L222"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="I165:L165"/>
-    <mergeCell ref="I152:L152"/>
-    <mergeCell ref="I178:L178"/>
-    <mergeCell ref="I175:L175"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="I157:L157"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I229:L229"/>
-    <mergeCell ref="I223:L223"/>
-    <mergeCell ref="I226:L226"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="I225:L225"/>
-    <mergeCell ref="I224:L224"/>
-    <mergeCell ref="I227:L227"/>
-    <mergeCell ref="I176:L176"/>
-    <mergeCell ref="I162:L162"/>
-    <mergeCell ref="I171:L171"/>
-    <mergeCell ref="I172:L172"/>
-    <mergeCell ref="I182:L182"/>
-    <mergeCell ref="I183:L183"/>
-    <mergeCell ref="I179:L179"/>
-    <mergeCell ref="I163:L163"/>
-    <mergeCell ref="I164:L164"/>
-    <mergeCell ref="I170:L170"/>
-    <mergeCell ref="I188:L188"/>
-    <mergeCell ref="I189:L189"/>
-    <mergeCell ref="I168:L168"/>
-    <mergeCell ref="I198:L198"/>
-    <mergeCell ref="I216:L216"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I266:L266"/>
-    <mergeCell ref="I267:L267"/>
-    <mergeCell ref="I268:L268"/>
-    <mergeCell ref="I269:L269"/>
-    <mergeCell ref="I281:L281"/>
-    <mergeCell ref="I274:L274"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="I276:L276"/>
-    <mergeCell ref="I277:L277"/>
-    <mergeCell ref="I278:L278"/>
-    <mergeCell ref="I279:L279"/>
-    <mergeCell ref="I280:L280"/>
-    <mergeCell ref="I275:L275"/>
-    <mergeCell ref="I282:L282"/>
-    <mergeCell ref="I288:L288"/>
-    <mergeCell ref="I341:L341"/>
-    <mergeCell ref="I342:L342"/>
-    <mergeCell ref="I343:L343"/>
-    <mergeCell ref="I344:L344"/>
-    <mergeCell ref="I345:L345"/>
-    <mergeCell ref="I346:L346"/>
-    <mergeCell ref="I347:L347"/>
-    <mergeCell ref="I283:L283"/>
-    <mergeCell ref="I292:L292"/>
-    <mergeCell ref="I293:L293"/>
-    <mergeCell ref="I294:L294"/>
-    <mergeCell ref="I295:L295"/>
-    <mergeCell ref="I296:L296"/>
-    <mergeCell ref="I297:L297"/>
-    <mergeCell ref="I298:L298"/>
-    <mergeCell ref="I299:L299"/>
-    <mergeCell ref="I300:L300"/>
-    <mergeCell ref="I301:L301"/>
-    <mergeCell ref="I302:L302"/>
-    <mergeCell ref="I303:L303"/>
-    <mergeCell ref="I304:L304"/>
-    <mergeCell ref="I305:L305"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="I364:L364"/>
-    <mergeCell ref="I348:L348"/>
-    <mergeCell ref="I349:L349"/>
-    <mergeCell ref="I350:L350"/>
-    <mergeCell ref="I351:L351"/>
-    <mergeCell ref="I352:L352"/>
-    <mergeCell ref="I353:L353"/>
-    <mergeCell ref="I354:L354"/>
-    <mergeCell ref="I355:L355"/>
-    <mergeCell ref="I356:L356"/>
-    <mergeCell ref="I374:L374"/>
-    <mergeCell ref="I375:L375"/>
-    <mergeCell ref="I376:L376"/>
-    <mergeCell ref="I2:L2"/>
-    <mergeCell ref="I378:L378"/>
-    <mergeCell ref="I379:L379"/>
-    <mergeCell ref="I380:L380"/>
-    <mergeCell ref="I381:L381"/>
-    <mergeCell ref="I382:L382"/>
-    <mergeCell ref="I365:L365"/>
-    <mergeCell ref="I366:L366"/>
-    <mergeCell ref="I367:L367"/>
-    <mergeCell ref="I368:L368"/>
-    <mergeCell ref="I369:L369"/>
-    <mergeCell ref="I370:L370"/>
-    <mergeCell ref="I371:L371"/>
-    <mergeCell ref="I372:L372"/>
-    <mergeCell ref="I373:L373"/>
-    <mergeCell ref="I357:L357"/>
-    <mergeCell ref="I358:L358"/>
-    <mergeCell ref="I359:L359"/>
-    <mergeCell ref="I360:L360"/>
-    <mergeCell ref="I361:L361"/>
-    <mergeCell ref="I362:L362"/>
-    <mergeCell ref="I383:L383"/>
-    <mergeCell ref="I384:L384"/>
-    <mergeCell ref="I385:L385"/>
-    <mergeCell ref="I386:L386"/>
-    <mergeCell ref="I387:L387"/>
-    <mergeCell ref="I388:L388"/>
-    <mergeCell ref="I389:L389"/>
-    <mergeCell ref="I390:L390"/>
-    <mergeCell ref="I391:L391"/>
-    <mergeCell ref="I392:L392"/>
-    <mergeCell ref="I393:L393"/>
-    <mergeCell ref="I394:L394"/>
-    <mergeCell ref="I395:L395"/>
-    <mergeCell ref="I396:L396"/>
-    <mergeCell ref="I397:L397"/>
-    <mergeCell ref="I398:L398"/>
-    <mergeCell ref="I399:L399"/>
-    <mergeCell ref="I400:L400"/>
-    <mergeCell ref="I401:L401"/>
-    <mergeCell ref="I402:L402"/>
-    <mergeCell ref="I403:L403"/>
-    <mergeCell ref="I404:L404"/>
-    <mergeCell ref="I405:L405"/>
-    <mergeCell ref="I406:L406"/>
-    <mergeCell ref="I407:L407"/>
-    <mergeCell ref="I408:L408"/>
-    <mergeCell ref="I409:L409"/>
-    <mergeCell ref="I410:L410"/>
-    <mergeCell ref="I411:L411"/>
-    <mergeCell ref="I412:L412"/>
-    <mergeCell ref="I413:L413"/>
-    <mergeCell ref="I414:L414"/>
-    <mergeCell ref="I415:L415"/>
-    <mergeCell ref="I416:L416"/>
-    <mergeCell ref="I417:L417"/>
-    <mergeCell ref="I418:L418"/>
-    <mergeCell ref="I419:L419"/>
-    <mergeCell ref="I420:L420"/>
-    <mergeCell ref="I421:L421"/>
-    <mergeCell ref="I422:L422"/>
-    <mergeCell ref="I423:L423"/>
-    <mergeCell ref="I424:L424"/>
-    <mergeCell ref="I425:L425"/>
-    <mergeCell ref="I426:L426"/>
-    <mergeCell ref="I427:L427"/>
-    <mergeCell ref="I428:L428"/>
-    <mergeCell ref="I429:L429"/>
-    <mergeCell ref="I430:L430"/>
-    <mergeCell ref="I431:L431"/>
-    <mergeCell ref="I432:L432"/>
-    <mergeCell ref="I433:L433"/>
-    <mergeCell ref="I434:L434"/>
-    <mergeCell ref="I435:L435"/>
-    <mergeCell ref="I436:L436"/>
-    <mergeCell ref="I437:L437"/>
-    <mergeCell ref="I438:L438"/>
-    <mergeCell ref="I439:L439"/>
-    <mergeCell ref="I440:L440"/>
-    <mergeCell ref="I441:L441"/>
-    <mergeCell ref="I442:L442"/>
-    <mergeCell ref="I443:L443"/>
-    <mergeCell ref="I444:L444"/>
-    <mergeCell ref="I445:L445"/>
-    <mergeCell ref="I446:L446"/>
-    <mergeCell ref="I447:L447"/>
-    <mergeCell ref="I448:L448"/>
-    <mergeCell ref="I449:L449"/>
-    <mergeCell ref="I450:L450"/>
-    <mergeCell ref="I451:L451"/>
-    <mergeCell ref="I452:L452"/>
-    <mergeCell ref="I453:L453"/>
-    <mergeCell ref="I454:L454"/>
-    <mergeCell ref="I455:L455"/>
-    <mergeCell ref="I456:L456"/>
-    <mergeCell ref="I457:L457"/>
-    <mergeCell ref="I458:L458"/>
-    <mergeCell ref="I459:L459"/>
-    <mergeCell ref="I460:L460"/>
-    <mergeCell ref="I461:L461"/>
-    <mergeCell ref="I462:L462"/>
-    <mergeCell ref="I463:L463"/>
-    <mergeCell ref="I464:L464"/>
-    <mergeCell ref="I465:L465"/>
-    <mergeCell ref="I466:L466"/>
-    <mergeCell ref="I467:L467"/>
-    <mergeCell ref="I468:L468"/>
-    <mergeCell ref="I469:L469"/>
-    <mergeCell ref="I470:L470"/>
-    <mergeCell ref="I471:L471"/>
-    <mergeCell ref="I472:L472"/>
-    <mergeCell ref="I473:L473"/>
-    <mergeCell ref="I474:L474"/>
-    <mergeCell ref="I475:L475"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="I477:L477"/>
-    <mergeCell ref="I478:L478"/>
-    <mergeCell ref="I479:L479"/>
-    <mergeCell ref="I480:L480"/>
-    <mergeCell ref="I481:L481"/>
-    <mergeCell ref="I482:L482"/>
-    <mergeCell ref="I483:L483"/>
-    <mergeCell ref="I484:L484"/>
-    <mergeCell ref="I485:L485"/>
-    <mergeCell ref="I486:L486"/>
-    <mergeCell ref="I487:L487"/>
-    <mergeCell ref="I488:L488"/>
-    <mergeCell ref="I489:L489"/>
-    <mergeCell ref="I490:L490"/>
-    <mergeCell ref="I491:L491"/>
-    <mergeCell ref="I492:L492"/>
-    <mergeCell ref="I493:L493"/>
-    <mergeCell ref="I494:L494"/>
-    <mergeCell ref="I495:L495"/>
-    <mergeCell ref="I496:L496"/>
-    <mergeCell ref="I497:L497"/>
-    <mergeCell ref="I498:L498"/>
-    <mergeCell ref="I499:L499"/>
-    <mergeCell ref="I500:L500"/>
-    <mergeCell ref="I501:L501"/>
-    <mergeCell ref="I502:L502"/>
-    <mergeCell ref="I503:L503"/>
-    <mergeCell ref="I504:L504"/>
-    <mergeCell ref="I505:L505"/>
-    <mergeCell ref="I506:L506"/>
-    <mergeCell ref="I507:L507"/>
-    <mergeCell ref="I508:L508"/>
-    <mergeCell ref="I509:L509"/>
-    <mergeCell ref="I510:L510"/>
-    <mergeCell ref="I511:L511"/>
-    <mergeCell ref="I512:L512"/>
-    <mergeCell ref="I513:L513"/>
-    <mergeCell ref="I514:L514"/>
-    <mergeCell ref="I515:L515"/>
-    <mergeCell ref="I516:L516"/>
-    <mergeCell ref="I517:L517"/>
-    <mergeCell ref="I518:L518"/>
-    <mergeCell ref="I519:L519"/>
-    <mergeCell ref="I520:L520"/>
-    <mergeCell ref="I521:L521"/>
-    <mergeCell ref="I522:L522"/>
-    <mergeCell ref="I523:L523"/>
-    <mergeCell ref="I524:L524"/>
-    <mergeCell ref="I525:L525"/>
-    <mergeCell ref="I526:L526"/>
-    <mergeCell ref="I527:L527"/>
-    <mergeCell ref="I528:L528"/>
-    <mergeCell ref="I529:L529"/>
-    <mergeCell ref="I530:L530"/>
-    <mergeCell ref="I531:L531"/>
-    <mergeCell ref="I532:L532"/>
-    <mergeCell ref="I533:L533"/>
-    <mergeCell ref="I534:L534"/>
-    <mergeCell ref="I535:L535"/>
-    <mergeCell ref="I536:L536"/>
-    <mergeCell ref="I537:L537"/>
-    <mergeCell ref="I538:L538"/>
-    <mergeCell ref="I539:L539"/>
-    <mergeCell ref="I540:L540"/>
-    <mergeCell ref="I541:L541"/>
-    <mergeCell ref="I542:L542"/>
-    <mergeCell ref="I543:L543"/>
-    <mergeCell ref="I544:L544"/>
-    <mergeCell ref="I545:L545"/>
-    <mergeCell ref="I546:L546"/>
-    <mergeCell ref="I547:L547"/>
-    <mergeCell ref="I548:L548"/>
-    <mergeCell ref="I549:L549"/>
-    <mergeCell ref="I550:L550"/>
-    <mergeCell ref="I551:L551"/>
-    <mergeCell ref="I552:L552"/>
-    <mergeCell ref="I553:L553"/>
-    <mergeCell ref="I554:L554"/>
-    <mergeCell ref="I555:L555"/>
-    <mergeCell ref="I556:L556"/>
-    <mergeCell ref="I557:L557"/>
-    <mergeCell ref="I558:L558"/>
-    <mergeCell ref="I559:L559"/>
-    <mergeCell ref="I560:L560"/>
-    <mergeCell ref="I561:L561"/>
-    <mergeCell ref="I562:L562"/>
-    <mergeCell ref="I563:L563"/>
-    <mergeCell ref="I564:L564"/>
-    <mergeCell ref="I565:L565"/>
-    <mergeCell ref="I566:L566"/>
-    <mergeCell ref="I567:L567"/>
-    <mergeCell ref="I568:L568"/>
-    <mergeCell ref="I569:L569"/>
-    <mergeCell ref="I570:L570"/>
-    <mergeCell ref="I571:L571"/>
-    <mergeCell ref="I572:L572"/>
-    <mergeCell ref="I573:L573"/>
-    <mergeCell ref="I574:L574"/>
-    <mergeCell ref="I575:L575"/>
-    <mergeCell ref="I576:L576"/>
-    <mergeCell ref="I577:L577"/>
-    <mergeCell ref="I578:L578"/>
-    <mergeCell ref="I579:L579"/>
-    <mergeCell ref="I580:L580"/>
-    <mergeCell ref="I581:L581"/>
-    <mergeCell ref="I582:L582"/>
-    <mergeCell ref="I583:L583"/>
-    <mergeCell ref="I584:L584"/>
-    <mergeCell ref="I585:L585"/>
-    <mergeCell ref="I586:L586"/>
-    <mergeCell ref="I587:L587"/>
-    <mergeCell ref="I588:L588"/>
-    <mergeCell ref="I589:L589"/>
-    <mergeCell ref="I590:L590"/>
-    <mergeCell ref="I591:L591"/>
-    <mergeCell ref="I592:L592"/>
-    <mergeCell ref="I593:L593"/>
-    <mergeCell ref="I594:L594"/>
-    <mergeCell ref="I595:L595"/>
-    <mergeCell ref="I596:L596"/>
-    <mergeCell ref="I597:L597"/>
-    <mergeCell ref="I598:L598"/>
-    <mergeCell ref="I599:L599"/>
-    <mergeCell ref="I600:L600"/>
-    <mergeCell ref="I601:L601"/>
-    <mergeCell ref="I602:L602"/>
-    <mergeCell ref="I603:L603"/>
-    <mergeCell ref="I604:L604"/>
-    <mergeCell ref="I605:L605"/>
-    <mergeCell ref="I606:L606"/>
-    <mergeCell ref="I607:L607"/>
-    <mergeCell ref="I617:L617"/>
-    <mergeCell ref="I618:L618"/>
-    <mergeCell ref="I619:L619"/>
-    <mergeCell ref="I620:L620"/>
-    <mergeCell ref="I621:L621"/>
-    <mergeCell ref="I608:L608"/>
-    <mergeCell ref="I609:L609"/>
-    <mergeCell ref="I610:L610"/>
-    <mergeCell ref="I611:L611"/>
-    <mergeCell ref="I612:L612"/>
-    <mergeCell ref="I613:L613"/>
-    <mergeCell ref="I614:L614"/>
-    <mergeCell ref="I615:L615"/>
-    <mergeCell ref="I616:L616"/>
+    <mergeCell ref="I324:L324"/>
+    <mergeCell ref="I322:L322"/>
+    <mergeCell ref="I328:L328"/>
+    <mergeCell ref="I340:L340"/>
+    <mergeCell ref="I330:L330"/>
+    <mergeCell ref="I331:L331"/>
+    <mergeCell ref="I332:L332"/>
+    <mergeCell ref="I334:L334"/>
+    <mergeCell ref="I337:L337"/>
+    <mergeCell ref="I317:L317"/>
+    <mergeCell ref="I318:L318"/>
+    <mergeCell ref="I319:L319"/>
+    <mergeCell ref="I320:L320"/>
+    <mergeCell ref="I321:L321"/>
+    <mergeCell ref="I323:L323"/>
+    <mergeCell ref="I306:L306"/>
+    <mergeCell ref="I307:L307"/>
+    <mergeCell ref="I308:L308"/>
+    <mergeCell ref="I309:L309"/>
+    <mergeCell ref="I310:L310"/>
+    <mergeCell ref="I311:L311"/>
+    <mergeCell ref="I312:L312"/>
+    <mergeCell ref="I313:L313"/>
+    <mergeCell ref="I316:L316"/>
+    <mergeCell ref="I314:L314"/>
+    <mergeCell ref="I315:L315"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31228,7 +31233,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="142" t="s">
+      <c r="A1" s="144" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="143"/>
@@ -31236,7 +31241,7 @@
       <c r="D1" s="143"/>
       <c r="E1" s="143"/>
       <c r="F1" s="143"/>
-      <c r="G1" s="144"/>
+      <c r="G1" s="145"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -31262,12 +31267,12 @@
       <c r="C2" s="3">
         <v>603</v>
       </c>
-      <c r="D2" s="142" t="s">
+      <c r="D2" s="144" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="143"/>
       <c r="F2" s="143"/>
-      <c r="G2" s="144"/>
+      <c r="G2" s="145"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -31293,12 +31298,12 @@
       <c r="C3" s="3">
         <v>1020</v>
       </c>
-      <c r="D3" s="142" t="s">
+      <c r="D3" s="144" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="143"/>
       <c r="F3" s="143"/>
-      <c r="G3" s="144"/>
+      <c r="G3" s="145"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -31324,12 +31329,12 @@
       <c r="C4" s="3">
         <v>540</v>
       </c>
-      <c r="D4" s="142" t="s">
+      <c r="D4" s="144" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="143"/>
       <c r="F4" s="143"/>
-      <c r="G4" s="144"/>
+      <c r="G4" s="145"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -31355,12 +31360,12 @@
       <c r="C5" s="3">
         <v>1020</v>
       </c>
-      <c r="D5" s="142" t="s">
+      <c r="D5" s="144" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="143"/>
       <c r="F5" s="143"/>
-      <c r="G5" s="144"/>
+      <c r="G5" s="145"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -31386,12 +31391,12 @@
       <c r="C6" s="3">
         <v>1600</v>
       </c>
-      <c r="D6" s="142" t="s">
+      <c r="D6" s="144" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="143"/>
       <c r="F6" s="143"/>
-      <c r="G6" s="144"/>
+      <c r="G6" s="145"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -31417,12 +31422,12 @@
       <c r="C7" s="3">
         <v>500</v>
       </c>
-      <c r="D7" s="142" t="s">
+      <c r="D7" s="144" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
-      <c r="G7" s="144"/>
+      <c r="G7" s="145"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -31448,12 +31453,12 @@
       <c r="C8" s="3">
         <v>360</v>
       </c>
-      <c r="D8" s="142" t="s">
+      <c r="D8" s="144" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="143"/>
       <c r="F8" s="143"/>
-      <c r="G8" s="144"/>
+      <c r="G8" s="145"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -31479,12 +31484,12 @@
       <c r="C9" s="3">
         <v>320</v>
       </c>
-      <c r="D9" s="142" t="s">
+      <c r="D9" s="144" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="143"/>
       <c r="F9" s="143"/>
-      <c r="G9" s="144"/>
+      <c r="G9" s="145"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -31510,12 +31515,12 @@
       <c r="C10" s="7">
         <v>2739</v>
       </c>
-      <c r="D10" s="145" t="s">
+      <c r="D10" s="147" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="143"/>
       <c r="F10" s="143"/>
-      <c r="G10" s="144"/>
+      <c r="G10" s="145"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -31535,14 +31540,14 @@
       <c r="A11" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="144"/>
+      <c r="B11" s="145"/>
       <c r="C11">
         <f>SUM(C2:C10)</f>
         <v>8702</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="147" t="s">
+      <c r="A13" s="142" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="143"/>
@@ -31550,7 +31555,7 @@
       <c r="D13" s="143"/>
       <c r="E13" s="143"/>
       <c r="F13" s="143"/>
-      <c r="G13" s="144"/>
+      <c r="G13" s="145"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -31562,12 +31567,12 @@
       <c r="C14" s="4">
         <v>4000</v>
       </c>
-      <c r="D14" s="142" t="s">
+      <c r="D14" s="144" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="143"/>
       <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
+      <c r="G14" s="145"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -31593,12 +31598,12 @@
       <c r="C15" s="4">
         <v>4000</v>
       </c>
-      <c r="D15" s="142" t="s">
+      <c r="D15" s="144" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="143"/>
       <c r="F15" s="143"/>
-      <c r="G15" s="144"/>
+      <c r="G15" s="145"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -31624,12 +31629,12 @@
       <c r="C16" s="4">
         <v>9000</v>
       </c>
-      <c r="D16" s="142" t="s">
+      <c r="D16" s="144" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="143"/>
       <c r="F16" s="143"/>
-      <c r="G16" s="144"/>
+      <c r="G16" s="145"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -31655,12 +31660,12 @@
       <c r="C17" s="4">
         <v>4000</v>
       </c>
-      <c r="D17" s="142" t="s">
+      <c r="D17" s="144" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="143"/>
       <c r="F17" s="143"/>
-      <c r="G17" s="144"/>
+      <c r="G17" s="145"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -31686,12 +31691,12 @@
       <c r="C18" s="4">
         <v>3000</v>
       </c>
-      <c r="D18" s="142" t="s">
+      <c r="D18" s="144" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="143"/>
       <c r="F18" s="143"/>
-      <c r="G18" s="144"/>
+      <c r="G18" s="145"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -31717,12 +31722,12 @@
       <c r="C19" s="4">
         <v>10000</v>
       </c>
-      <c r="D19" s="142" t="s">
+      <c r="D19" s="144" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="143"/>
       <c r="F19" s="143"/>
-      <c r="G19" s="144"/>
+      <c r="G19" s="145"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -31742,25 +31747,25 @@
       <c r="A20" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="144"/>
+      <c r="B20" s="145"/>
       <c r="C20">
         <f>SUM(C14:C19)</f>
         <v>34000</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="147" t="s">
+      <c r="A22" s="142" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="143"/>
-      <c r="C22" s="144"/>
+      <c r="C22" s="145"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="147" t="s">
+      <c r="A23" s="142" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="143"/>
@@ -31772,7 +31777,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="147" t="s">
+      <c r="A24" s="142" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="143"/>
@@ -31788,7 +31793,7 @@
       <c r="A25" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="144"/>
+      <c r="B25" s="145"/>
       <c r="C25" s="12">
         <f>C24-C23</f>
         <v>25298</v>
@@ -31796,13 +31801,6 @@
     </row>
   </sheetData>
   <mergeCells count="23">
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
@@ -31819,6 +31817,13 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D2:G2"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Log/實驗室公費記賬.xlsx
+++ b/Log/實驗室公費記賬.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\master-degree\Log\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="114" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="49">
   <si>
     <t>台法交流計畫款項 （以匯至老師戶頭）</t>
   </si>
@@ -177,6 +177,10 @@
   </si>
   <si>
     <t>杜卡勒(榮譽)</t>
+  </si>
+  <si>
+    <t>人工智能基礎書籍</t>
+    <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -564,7 +568,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="148">
+  <cellXfs count="149">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,6 +839,9 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -847,19 +854,19 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -868,13 +875,65 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -904,78 +963,26 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1263,7 +1270,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
+      <selection pane="bottomRight" activeCell="I21" sqref="I21:L21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1305,12 +1312,12 @@
       <c r="H1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="I1" s="134" t="s">
+      <c r="I1" s="121" t="s">
         <v>15</v>
       </c>
-      <c r="J1" s="135"/>
-      <c r="K1" s="135"/>
-      <c r="L1" s="136"/>
+      <c r="J1" s="122"/>
+      <c r="K1" s="122"/>
+      <c r="L1" s="123"/>
       <c r="M1" s="35"/>
       <c r="N1" s="35"/>
       <c r="O1" s="35"/>
@@ -1338,7 +1345,7 @@
       </c>
       <c r="D2" s="18"/>
       <c r="E2" s="18">
-        <v>21169</v>
+        <v>21191</v>
       </c>
       <c r="F2" s="19" t="s">
         <v>34</v>
@@ -1349,10 +1356,10 @@
       <c r="H2" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="I2" s="99"/>
+      <c r="I2" s="100"/>
       <c r="J2" s="97"/>
       <c r="K2" s="97"/>
-      <c r="L2" s="105"/>
+      <c r="L2" s="98"/>
       <c r="M2" s="15"/>
       <c r="N2" s="15"/>
       <c r="O2" s="15"/>
@@ -1381,7 +1388,7 @@
       <c r="D3" s="18"/>
       <c r="E3" s="18">
         <f>SUM(E2,-C3)</f>
-        <v>21054</v>
+        <v>21076</v>
       </c>
       <c r="F3" s="19" t="s">
         <v>38</v>
@@ -1392,12 +1399,12 @@
       <c r="H3" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I3" s="124" t="s">
+      <c r="I3" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="J3" s="125"/>
-      <c r="K3" s="125"/>
-      <c r="L3" s="126"/>
+      <c r="J3" s="119"/>
+      <c r="K3" s="119"/>
+      <c r="L3" s="120"/>
       <c r="M3" s="15"/>
       <c r="N3" s="15"/>
       <c r="O3" s="15"/>
@@ -1426,7 +1433,7 @@
       <c r="D4" s="18"/>
       <c r="E4" s="18">
         <f>SUM(E3,-C4)</f>
-        <v>19054</v>
+        <v>19076</v>
       </c>
       <c r="F4" s="19" t="s">
         <v>39</v>
@@ -1437,10 +1444,10 @@
       <c r="H4" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I4" s="121"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="116"/>
+      <c r="K4" s="116"/>
+      <c r="L4" s="117"/>
       <c r="M4" s="13"/>
       <c r="N4" s="13"/>
       <c r="O4" s="13"/>
@@ -1469,7 +1476,7 @@
       <c r="D5" s="18"/>
       <c r="E5" s="18">
         <f>SUM(E4,-C5)</f>
-        <v>18939</v>
+        <v>18961</v>
       </c>
       <c r="F5" s="19" t="s">
         <v>45</v>
@@ -1480,10 +1487,10 @@
       <c r="H5" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I5" s="121"/>
-      <c r="J5" s="122"/>
-      <c r="K5" s="122"/>
-      <c r="L5" s="123"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="117"/>
       <c r="M5" s="13"/>
       <c r="N5" s="13"/>
       <c r="O5" s="13"/>
@@ -1508,11 +1515,11 @@
       </c>
       <c r="C6" s="18"/>
       <c r="D6" s="18">
-        <v>11678</v>
+        <v>11878</v>
       </c>
       <c r="E6" s="18">
         <f>SUM(E5,D6)</f>
-        <v>30617</v>
+        <v>30839</v>
       </c>
       <c r="F6" s="19" t="s">
         <v>34</v>
@@ -1523,10 +1530,10 @@
       <c r="H6" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I6" s="121"/>
-      <c r="J6" s="122"/>
-      <c r="K6" s="122"/>
-      <c r="L6" s="123"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="116"/>
+      <c r="K6" s="116"/>
+      <c r="L6" s="117"/>
       <c r="M6" s="13"/>
       <c r="N6" s="13"/>
       <c r="O6" s="13"/>
@@ -1555,7 +1562,7 @@
       <c r="D7" s="18"/>
       <c r="E7" s="18">
         <f>SUM(E6,-C7)</f>
-        <v>28857</v>
+        <v>29079</v>
       </c>
       <c r="F7" s="19" t="s">
         <v>34</v>
@@ -1566,10 +1573,10 @@
       <c r="H7" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I7" s="121"/>
-      <c r="J7" s="122"/>
-      <c r="K7" s="122"/>
-      <c r="L7" s="123"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="116"/>
+      <c r="K7" s="116"/>
+      <c r="L7" s="117"/>
       <c r="M7" s="13"/>
       <c r="N7" s="13"/>
       <c r="O7" s="13"/>
@@ -1598,7 +1605,7 @@
       <c r="D8" s="18"/>
       <c r="E8" s="18">
         <f>SUM(E7,-C8)</f>
-        <v>28642</v>
+        <v>28864</v>
       </c>
       <c r="F8" s="19" t="s">
         <v>34</v>
@@ -1609,10 +1616,10 @@
       <c r="H8" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I8" s="121"/>
-      <c r="J8" s="122"/>
-      <c r="K8" s="122"/>
-      <c r="L8" s="123"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="116"/>
+      <c r="K8" s="116"/>
+      <c r="L8" s="117"/>
       <c r="M8" s="13"/>
       <c r="N8" s="13"/>
       <c r="O8" s="13"/>
@@ -1641,7 +1648,7 @@
       <c r="D9" s="18"/>
       <c r="E9" s="18">
         <f>SUM(E8,-C9)</f>
-        <v>28537</v>
+        <v>28759</v>
       </c>
       <c r="F9" s="19" t="s">
         <v>34</v>
@@ -1652,12 +1659,12 @@
       <c r="H9" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I9" s="121" t="s">
+      <c r="I9" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="J9" s="122"/>
-      <c r="K9" s="122"/>
-      <c r="L9" s="123"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
       <c r="M9" s="13"/>
       <c r="N9" s="13"/>
       <c r="O9" s="13"/>
@@ -1686,7 +1693,7 @@
       <c r="D10" s="18"/>
       <c r="E10" s="18">
         <f>SUM(E9,-C10)</f>
-        <v>28432</v>
+        <v>28654</v>
       </c>
       <c r="F10" s="19" t="s">
         <v>34</v>
@@ -1697,12 +1704,12 @@
       <c r="H10" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I10" s="121" t="s">
+      <c r="I10" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="J10" s="122"/>
-      <c r="K10" s="122"/>
-      <c r="L10" s="123"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="117"/>
       <c r="M10" s="13"/>
       <c r="N10" s="13"/>
       <c r="O10" s="13"/>
@@ -1731,7 +1738,7 @@
       <c r="D11" s="18"/>
       <c r="E11" s="18">
         <f>SUM(E10,-C11)</f>
-        <v>27832</v>
+        <v>28054</v>
       </c>
       <c r="F11" s="19" t="s">
         <v>34</v>
@@ -1742,12 +1749,12 @@
       <c r="H11" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I11" s="121" t="s">
+      <c r="I11" s="115" t="s">
         <v>47</v>
       </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="123"/>
+      <c r="J11" s="116"/>
+      <c r="K11" s="116"/>
+      <c r="L11" s="117"/>
       <c r="M11" s="13"/>
       <c r="N11" s="13"/>
       <c r="O11" s="13"/>
@@ -1776,7 +1783,7 @@
       </c>
       <c r="E12" s="18">
         <f>SUM(E11,D12)</f>
-        <v>29832</v>
+        <v>30054</v>
       </c>
       <c r="F12" s="19" t="s">
         <v>34</v>
@@ -1787,10 +1794,10 @@
       <c r="H12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I12" s="121"/>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="123"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="117"/>
       <c r="M12" s="13"/>
       <c r="N12" s="13"/>
       <c r="O12" s="13"/>
@@ -1819,7 +1826,7 @@
       <c r="D13" s="38"/>
       <c r="E13" s="18">
         <f>SUM(E12,-C13)</f>
-        <v>29727</v>
+        <v>29949</v>
       </c>
       <c r="F13" s="19" t="s">
         <v>34</v>
@@ -1830,12 +1837,12 @@
       <c r="H13" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I13" s="121" t="s">
+      <c r="I13" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="J13" s="122"/>
-      <c r="K13" s="122"/>
-      <c r="L13" s="123"/>
+      <c r="J13" s="116"/>
+      <c r="K13" s="116"/>
+      <c r="L13" s="117"/>
       <c r="M13" s="13"/>
       <c r="N13" s="13"/>
       <c r="O13" s="13"/>
@@ -1864,7 +1871,7 @@
       <c r="D14" s="18"/>
       <c r="E14" s="18">
         <f>SUM(E13,-C14)</f>
-        <v>29622</v>
+        <v>29844</v>
       </c>
       <c r="F14" s="19" t="s">
         <v>34</v>
@@ -1875,12 +1882,12 @@
       <c r="H14" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I14" s="121" t="s">
+      <c r="I14" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="J14" s="122"/>
-      <c r="K14" s="122"/>
-      <c r="L14" s="123"/>
+      <c r="J14" s="116"/>
+      <c r="K14" s="116"/>
+      <c r="L14" s="117"/>
       <c r="M14" s="13"/>
       <c r="N14" s="13"/>
       <c r="O14" s="13"/>
@@ -1909,7 +1916,7 @@
       <c r="D15" s="18"/>
       <c r="E15" s="18">
         <f>SUM(E14,-C15)</f>
-        <v>29517</v>
+        <v>29739</v>
       </c>
       <c r="F15" s="19" t="s">
         <v>34</v>
@@ -1920,12 +1927,12 @@
       <c r="H15" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I15" s="121" t="s">
+      <c r="I15" s="115" t="s">
         <v>40</v>
       </c>
-      <c r="J15" s="122"/>
-      <c r="K15" s="122"/>
-      <c r="L15" s="123"/>
+      <c r="J15" s="116"/>
+      <c r="K15" s="116"/>
+      <c r="L15" s="117"/>
       <c r="M15" s="13"/>
       <c r="N15" s="13"/>
       <c r="O15" s="13"/>
@@ -1954,7 +1961,7 @@
       <c r="D16" s="18"/>
       <c r="E16" s="18">
         <f>SUM(E15,-C16)</f>
-        <v>29402</v>
+        <v>29624</v>
       </c>
       <c r="F16" s="19" t="s">
         <v>34</v>
@@ -1965,12 +1972,12 @@
       <c r="H16" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="I16" s="121" t="s">
+      <c r="I16" s="115" t="s">
         <v>46</v>
       </c>
-      <c r="J16" s="122"/>
-      <c r="K16" s="122"/>
-      <c r="L16" s="123"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="117"/>
       <c r="M16" s="13"/>
       <c r="N16" s="13"/>
       <c r="O16" s="13"/>
@@ -1987,23 +1994,33 @@
       <c r="Z16" s="13"/>
     </row>
     <row r="17" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="18"/>
+      <c r="A17" s="37">
+        <v>43419</v>
+      </c>
+      <c r="B17" s="148" t="s">
+        <v>48</v>
+      </c>
       <c r="C17" s="18">
-        <v>9310</v>
+        <v>174</v>
       </c>
       <c r="D17" s="18"/>
       <c r="E17" s="18">
         <f>SUM(E16,-C17)</f>
-        <v>20092</v>
+        <v>29450</v>
       </c>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="121"/>
-      <c r="J17" s="122"/>
-      <c r="K17" s="122"/>
-      <c r="L17" s="123"/>
+      <c r="F17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="H17" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="I17" s="115"/>
+      <c r="J17" s="116"/>
+      <c r="K17" s="116"/>
+      <c r="L17" s="117"/>
       <c r="M17" s="13"/>
       <c r="N17" s="13"/>
       <c r="O17" s="13"/>
@@ -2028,10 +2045,10 @@
       <c r="F18" s="19"/>
       <c r="G18" s="19"/>
       <c r="H18" s="19"/>
-      <c r="I18" s="121"/>
-      <c r="J18" s="122"/>
-      <c r="K18" s="122"/>
-      <c r="L18" s="123"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="116"/>
+      <c r="K18" s="116"/>
+      <c r="L18" s="117"/>
       <c r="M18" s="13"/>
       <c r="N18" s="13"/>
       <c r="O18" s="13"/>
@@ -2056,10 +2073,10 @@
       <c r="F19" s="19"/>
       <c r="G19" s="19"/>
       <c r="H19" s="19"/>
-      <c r="I19" s="121"/>
-      <c r="J19" s="122"/>
-      <c r="K19" s="122"/>
-      <c r="L19" s="123"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
       <c r="M19" s="13"/>
       <c r="N19" s="13"/>
       <c r="O19" s="13"/>
@@ -2084,10 +2101,10 @@
       <c r="F20" s="19"/>
       <c r="G20" s="19"/>
       <c r="H20" s="19"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="123"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="116"/>
+      <c r="K20" s="116"/>
+      <c r="L20" s="117"/>
       <c r="M20" s="13"/>
       <c r="N20" s="13"/>
       <c r="O20" s="13"/>
@@ -2112,10 +2129,10 @@
       <c r="F21" s="19"/>
       <c r="G21" s="19"/>
       <c r="H21" s="19"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="123"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="116"/>
+      <c r="K21" s="116"/>
+      <c r="L21" s="117"/>
       <c r="M21" s="13"/>
       <c r="N21" s="13"/>
       <c r="O21" s="13"/>
@@ -2140,10 +2157,10 @@
       <c r="F22" s="19"/>
       <c r="G22" s="19"/>
       <c r="H22" s="19"/>
-      <c r="I22" s="121"/>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="123"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
       <c r="M22" s="13"/>
       <c r="N22" s="13"/>
       <c r="O22" s="13"/>
@@ -2168,10 +2185,10 @@
       <c r="F23" s="19"/>
       <c r="G23" s="19"/>
       <c r="H23" s="19"/>
-      <c r="I23" s="124"/>
-      <c r="J23" s="125"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="126"/>
+      <c r="I23" s="118"/>
+      <c r="J23" s="119"/>
+      <c r="K23" s="119"/>
+      <c r="L23" s="120"/>
       <c r="M23" s="13"/>
       <c r="N23" s="13"/>
       <c r="O23" s="13"/>
@@ -2196,10 +2213,10 @@
       <c r="F24" s="19"/>
       <c r="G24" s="19"/>
       <c r="H24" s="19"/>
-      <c r="I24" s="121"/>
-      <c r="J24" s="122"/>
-      <c r="K24" s="122"/>
-      <c r="L24" s="123"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="116"/>
+      <c r="K24" s="116"/>
+      <c r="L24" s="117"/>
       <c r="M24" s="13"/>
       <c r="N24" s="13"/>
       <c r="O24" s="13"/>
@@ -2224,10 +2241,10 @@
       <c r="F25" s="19"/>
       <c r="G25" s="19"/>
       <c r="H25" s="19"/>
-      <c r="I25" s="121"/>
-      <c r="J25" s="122"/>
-      <c r="K25" s="122"/>
-      <c r="L25" s="123"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="117"/>
       <c r="M25" s="15"/>
       <c r="N25" s="13"/>
       <c r="O25" s="13"/>
@@ -2252,10 +2269,10 @@
       <c r="F26" s="19"/>
       <c r="G26" s="19"/>
       <c r="H26" s="19"/>
-      <c r="I26" s="121"/>
-      <c r="J26" s="122"/>
-      <c r="K26" s="122"/>
-      <c r="L26" s="123"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="116"/>
+      <c r="K26" s="116"/>
+      <c r="L26" s="117"/>
       <c r="M26" s="13"/>
       <c r="N26" s="15"/>
       <c r="O26" s="15"/>
@@ -2280,10 +2297,10 @@
       <c r="F27" s="19"/>
       <c r="G27" s="19"/>
       <c r="H27" s="19"/>
-      <c r="I27" s="121"/>
-      <c r="J27" s="122"/>
-      <c r="K27" s="122"/>
-      <c r="L27" s="123"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="116"/>
+      <c r="K27" s="116"/>
+      <c r="L27" s="117"/>
       <c r="M27" s="13"/>
       <c r="N27" s="13"/>
       <c r="O27" s="13"/>
@@ -2308,10 +2325,10 @@
       <c r="F28" s="19"/>
       <c r="G28" s="19"/>
       <c r="H28" s="19"/>
-      <c r="I28" s="121"/>
-      <c r="J28" s="122"/>
-      <c r="K28" s="122"/>
-      <c r="L28" s="123"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="116"/>
+      <c r="K28" s="116"/>
+      <c r="L28" s="117"/>
       <c r="M28" s="13"/>
       <c r="N28" s="13"/>
       <c r="O28" s="13"/>
@@ -2336,10 +2353,10 @@
       <c r="F29" s="19"/>
       <c r="G29" s="19"/>
       <c r="H29" s="19"/>
-      <c r="I29" s="121"/>
-      <c r="J29" s="122"/>
-      <c r="K29" s="122"/>
-      <c r="L29" s="123"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="117"/>
       <c r="M29" s="13"/>
       <c r="N29" s="13"/>
       <c r="O29" s="13"/>
@@ -2364,10 +2381,10 @@
       <c r="F30" s="19"/>
       <c r="G30" s="19"/>
       <c r="H30" s="19"/>
-      <c r="I30" s="121"/>
-      <c r="J30" s="122"/>
-      <c r="K30" s="122"/>
-      <c r="L30" s="123"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="116"/>
+      <c r="K30" s="116"/>
+      <c r="L30" s="117"/>
       <c r="M30" s="13"/>
       <c r="N30" s="13"/>
       <c r="O30" s="13"/>
@@ -2392,10 +2409,10 @@
       <c r="F31" s="19"/>
       <c r="G31" s="19"/>
       <c r="H31" s="19"/>
-      <c r="I31" s="121"/>
-      <c r="J31" s="122"/>
-      <c r="K31" s="122"/>
-      <c r="L31" s="123"/>
+      <c r="I31" s="115"/>
+      <c r="J31" s="116"/>
+      <c r="K31" s="116"/>
+      <c r="L31" s="117"/>
       <c r="M31" s="13"/>
       <c r="N31" s="13"/>
       <c r="O31" s="13"/>
@@ -2420,10 +2437,10 @@
       <c r="F32" s="19"/>
       <c r="G32" s="19"/>
       <c r="H32" s="19"/>
-      <c r="I32" s="121"/>
-      <c r="J32" s="122"/>
-      <c r="K32" s="122"/>
-      <c r="L32" s="123"/>
+      <c r="I32" s="115"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="117"/>
       <c r="M32" s="13"/>
       <c r="N32" s="13"/>
       <c r="O32" s="13"/>
@@ -2448,10 +2465,10 @@
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
       <c r="H33" s="19"/>
-      <c r="I33" s="121"/>
-      <c r="J33" s="122"/>
-      <c r="K33" s="122"/>
-      <c r="L33" s="123"/>
+      <c r="I33" s="115"/>
+      <c r="J33" s="116"/>
+      <c r="K33" s="116"/>
+      <c r="L33" s="117"/>
       <c r="M33" s="13"/>
       <c r="N33" s="13"/>
       <c r="O33" s="13"/>
@@ -2476,10 +2493,10 @@
       <c r="F34" s="19"/>
       <c r="G34" s="19"/>
       <c r="H34" s="19"/>
-      <c r="I34" s="124"/>
-      <c r="J34" s="125"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
+      <c r="I34" s="118"/>
+      <c r="J34" s="119"/>
+      <c r="K34" s="119"/>
+      <c r="L34" s="120"/>
       <c r="M34" s="13"/>
       <c r="N34" s="13"/>
       <c r="O34" s="13"/>
@@ -2504,10 +2521,10 @@
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
-      <c r="I35" s="121"/>
-      <c r="J35" s="122"/>
-      <c r="K35" s="122"/>
-      <c r="L35" s="123"/>
+      <c r="I35" s="115"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="117"/>
       <c r="M35" s="13"/>
       <c r="N35" s="13"/>
       <c r="O35" s="13"/>
@@ -2532,10 +2549,10 @@
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
-      <c r="I36" s="124"/>
-      <c r="J36" s="125"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="126"/>
+      <c r="I36" s="118"/>
+      <c r="J36" s="119"/>
+      <c r="K36" s="119"/>
+      <c r="L36" s="120"/>
       <c r="M36" s="13"/>
       <c r="N36" s="13"/>
       <c r="O36" s="13"/>
@@ -2560,10 +2577,10 @@
       <c r="F37" s="19"/>
       <c r="G37" s="19"/>
       <c r="H37" s="19"/>
-      <c r="I37" s="121"/>
-      <c r="J37" s="122"/>
-      <c r="K37" s="122"/>
-      <c r="L37" s="123"/>
+      <c r="I37" s="115"/>
+      <c r="J37" s="116"/>
+      <c r="K37" s="116"/>
+      <c r="L37" s="117"/>
       <c r="M37" s="13"/>
       <c r="N37" s="13"/>
       <c r="O37" s="13"/>
@@ -2588,10 +2605,10 @@
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
       <c r="H38" s="19"/>
-      <c r="I38" s="121"/>
-      <c r="J38" s="122"/>
-      <c r="K38" s="122"/>
-      <c r="L38" s="123"/>
+      <c r="I38" s="115"/>
+      <c r="J38" s="116"/>
+      <c r="K38" s="116"/>
+      <c r="L38" s="117"/>
       <c r="M38" s="13"/>
       <c r="N38" s="13"/>
       <c r="O38" s="13"/>
@@ -2616,10 +2633,10 @@
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
       <c r="H39" s="19"/>
-      <c r="I39" s="121"/>
-      <c r="J39" s="122"/>
-      <c r="K39" s="122"/>
-      <c r="L39" s="123"/>
+      <c r="I39" s="115"/>
+      <c r="J39" s="116"/>
+      <c r="K39" s="116"/>
+      <c r="L39" s="117"/>
       <c r="M39" s="13"/>
       <c r="N39" s="13"/>
       <c r="O39" s="13"/>
@@ -2644,10 +2661,10 @@
       <c r="F40" s="19"/>
       <c r="G40" s="19"/>
       <c r="H40" s="19"/>
-      <c r="I40" s="121"/>
-      <c r="J40" s="122"/>
-      <c r="K40" s="122"/>
-      <c r="L40" s="123"/>
+      <c r="I40" s="115"/>
+      <c r="J40" s="116"/>
+      <c r="K40" s="116"/>
+      <c r="L40" s="117"/>
       <c r="M40" s="13"/>
       <c r="N40" s="13"/>
       <c r="O40" s="13"/>
@@ -2672,10 +2689,10 @@
       <c r="F41" s="19"/>
       <c r="G41" s="19"/>
       <c r="H41" s="19"/>
-      <c r="I41" s="124"/>
-      <c r="J41" s="125"/>
-      <c r="K41" s="125"/>
-      <c r="L41" s="126"/>
+      <c r="I41" s="118"/>
+      <c r="J41" s="119"/>
+      <c r="K41" s="119"/>
+      <c r="L41" s="120"/>
       <c r="M41" s="13"/>
       <c r="N41" s="13"/>
       <c r="O41" s="13"/>
@@ -2700,10 +2717,10 @@
       <c r="F42" s="19"/>
       <c r="G42" s="19"/>
       <c r="H42" s="19"/>
-      <c r="I42" s="121"/>
-      <c r="J42" s="122"/>
-      <c r="K42" s="122"/>
-      <c r="L42" s="123"/>
+      <c r="I42" s="115"/>
+      <c r="J42" s="116"/>
+      <c r="K42" s="116"/>
+      <c r="L42" s="117"/>
       <c r="M42" s="13"/>
       <c r="N42" s="13"/>
       <c r="O42" s="13"/>
@@ -2728,10 +2745,10 @@
       <c r="F43" s="19"/>
       <c r="G43" s="19"/>
       <c r="H43" s="19"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="122"/>
-      <c r="K43" s="122"/>
-      <c r="L43" s="123"/>
+      <c r="I43" s="115"/>
+      <c r="J43" s="116"/>
+      <c r="K43" s="116"/>
+      <c r="L43" s="117"/>
       <c r="M43" s="13"/>
       <c r="N43" s="13"/>
       <c r="O43" s="13"/>
@@ -2756,10 +2773,10 @@
       <c r="F44" s="19"/>
       <c r="G44" s="19"/>
       <c r="H44" s="19"/>
-      <c r="I44" s="121"/>
-      <c r="J44" s="122"/>
-      <c r="K44" s="122"/>
-      <c r="L44" s="123"/>
+      <c r="I44" s="115"/>
+      <c r="J44" s="116"/>
+      <c r="K44" s="116"/>
+      <c r="L44" s="117"/>
       <c r="M44" s="13"/>
       <c r="N44" s="13"/>
       <c r="O44" s="13"/>
@@ -2784,10 +2801,10 @@
       <c r="F45" s="19"/>
       <c r="G45" s="19"/>
       <c r="H45" s="19"/>
-      <c r="I45" s="121"/>
-      <c r="J45" s="122"/>
-      <c r="K45" s="122"/>
-      <c r="L45" s="123"/>
+      <c r="I45" s="115"/>
+      <c r="J45" s="116"/>
+      <c r="K45" s="116"/>
+      <c r="L45" s="117"/>
       <c r="M45" s="13"/>
       <c r="N45" s="13"/>
       <c r="O45" s="13"/>
@@ -2812,10 +2829,10 @@
       <c r="F46" s="19"/>
       <c r="G46" s="19"/>
       <c r="H46" s="19"/>
-      <c r="I46" s="121"/>
-      <c r="J46" s="122"/>
-      <c r="K46" s="122"/>
-      <c r="L46" s="123"/>
+      <c r="I46" s="115"/>
+      <c r="J46" s="116"/>
+      <c r="K46" s="116"/>
+      <c r="L46" s="117"/>
       <c r="M46" s="13"/>
       <c r="N46" s="13"/>
       <c r="O46" s="13"/>
@@ -2868,10 +2885,10 @@
       <c r="F48" s="19"/>
       <c r="G48" s="19"/>
       <c r="H48" s="19"/>
-      <c r="I48" s="121"/>
-      <c r="J48" s="122"/>
-      <c r="K48" s="122"/>
-      <c r="L48" s="123"/>
+      <c r="I48" s="115"/>
+      <c r="J48" s="116"/>
+      <c r="K48" s="116"/>
+      <c r="L48" s="117"/>
       <c r="M48" s="13"/>
       <c r="N48" s="13"/>
       <c r="O48" s="13"/>
@@ -2896,10 +2913,10 @@
       <c r="F49" s="19"/>
       <c r="G49" s="19"/>
       <c r="H49" s="19"/>
-      <c r="I49" s="121"/>
-      <c r="J49" s="122"/>
-      <c r="K49" s="122"/>
-      <c r="L49" s="123"/>
+      <c r="I49" s="115"/>
+      <c r="J49" s="116"/>
+      <c r="K49" s="116"/>
+      <c r="L49" s="117"/>
       <c r="M49" s="13"/>
       <c r="N49" s="13"/>
       <c r="O49" s="13"/>
@@ -2924,10 +2941,10 @@
       <c r="F50" s="19"/>
       <c r="G50" s="19"/>
       <c r="H50" s="19"/>
-      <c r="I50" s="121"/>
-      <c r="J50" s="122"/>
-      <c r="K50" s="122"/>
-      <c r="L50" s="123"/>
+      <c r="I50" s="115"/>
+      <c r="J50" s="116"/>
+      <c r="K50" s="116"/>
+      <c r="L50" s="117"/>
       <c r="M50" s="13"/>
       <c r="N50" s="13"/>
       <c r="O50" s="13"/>
@@ -2952,10 +2969,10 @@
       <c r="F51" s="19"/>
       <c r="G51" s="19"/>
       <c r="H51" s="19"/>
-      <c r="I51" s="121"/>
-      <c r="J51" s="122"/>
-      <c r="K51" s="122"/>
-      <c r="L51" s="123"/>
+      <c r="I51" s="115"/>
+      <c r="J51" s="116"/>
+      <c r="K51" s="116"/>
+      <c r="L51" s="117"/>
       <c r="M51" s="13"/>
       <c r="N51" s="13"/>
       <c r="O51" s="13"/>
@@ -2980,10 +2997,10 @@
       <c r="F52" s="19"/>
       <c r="G52" s="19"/>
       <c r="H52" s="19"/>
-      <c r="I52" s="121"/>
-      <c r="J52" s="122"/>
-      <c r="K52" s="122"/>
-      <c r="L52" s="123"/>
+      <c r="I52" s="115"/>
+      <c r="J52" s="116"/>
+      <c r="K52" s="116"/>
+      <c r="L52" s="117"/>
       <c r="M52" s="13"/>
       <c r="N52" s="13"/>
       <c r="O52" s="13"/>
@@ -3008,10 +3025,10 @@
       <c r="F53" s="19"/>
       <c r="G53" s="19"/>
       <c r="H53" s="19"/>
-      <c r="I53" s="121"/>
-      <c r="J53" s="122"/>
-      <c r="K53" s="122"/>
-      <c r="L53" s="123"/>
+      <c r="I53" s="115"/>
+      <c r="J53" s="116"/>
+      <c r="K53" s="116"/>
+      <c r="L53" s="117"/>
       <c r="M53" s="13"/>
       <c r="N53" s="13"/>
       <c r="O53" s="13"/>
@@ -3036,10 +3053,10 @@
       <c r="F54" s="19"/>
       <c r="G54" s="19"/>
       <c r="H54" s="19"/>
-      <c r="I54" s="121"/>
-      <c r="J54" s="122"/>
-      <c r="K54" s="122"/>
-      <c r="L54" s="123"/>
+      <c r="I54" s="115"/>
+      <c r="J54" s="116"/>
+      <c r="K54" s="116"/>
+      <c r="L54" s="117"/>
       <c r="M54" s="13"/>
       <c r="N54" s="13"/>
       <c r="O54" s="13"/>
@@ -3064,10 +3081,10 @@
       <c r="F55" s="19"/>
       <c r="G55" s="19"/>
       <c r="H55" s="19"/>
-      <c r="I55" s="121"/>
-      <c r="J55" s="122"/>
-      <c r="K55" s="122"/>
-      <c r="L55" s="123"/>
+      <c r="I55" s="115"/>
+      <c r="J55" s="116"/>
+      <c r="K55" s="116"/>
+      <c r="L55" s="117"/>
       <c r="M55" s="13"/>
       <c r="N55" s="13"/>
       <c r="O55" s="13"/>
@@ -3092,10 +3109,10 @@
       <c r="F56" s="19"/>
       <c r="G56" s="19"/>
       <c r="H56" s="19"/>
-      <c r="I56" s="121"/>
-      <c r="J56" s="122"/>
-      <c r="K56" s="122"/>
-      <c r="L56" s="123"/>
+      <c r="I56" s="115"/>
+      <c r="J56" s="116"/>
+      <c r="K56" s="116"/>
+      <c r="L56" s="117"/>
       <c r="M56" s="13"/>
       <c r="N56" s="13"/>
       <c r="O56" s="13"/>
@@ -3120,10 +3137,10 @@
       <c r="F57" s="19"/>
       <c r="G57" s="19"/>
       <c r="H57" s="19"/>
-      <c r="I57" s="121"/>
-      <c r="J57" s="122"/>
-      <c r="K57" s="122"/>
-      <c r="L57" s="123"/>
+      <c r="I57" s="115"/>
+      <c r="J57" s="116"/>
+      <c r="K57" s="116"/>
+      <c r="L57" s="117"/>
       <c r="M57" s="13"/>
       <c r="N57" s="13"/>
       <c r="O57" s="13"/>
@@ -3148,10 +3165,10 @@
       <c r="F58" s="19"/>
       <c r="G58" s="19"/>
       <c r="H58" s="19"/>
-      <c r="I58" s="121"/>
-      <c r="J58" s="122"/>
-      <c r="K58" s="122"/>
-      <c r="L58" s="123"/>
+      <c r="I58" s="115"/>
+      <c r="J58" s="116"/>
+      <c r="K58" s="116"/>
+      <c r="L58" s="117"/>
       <c r="M58" s="13"/>
       <c r="N58" s="13"/>
       <c r="O58" s="13"/>
@@ -3176,10 +3193,10 @@
       <c r="F59" s="19"/>
       <c r="G59" s="19"/>
       <c r="H59" s="19"/>
-      <c r="I59" s="121"/>
-      <c r="J59" s="122"/>
-      <c r="K59" s="122"/>
-      <c r="L59" s="123"/>
+      <c r="I59" s="115"/>
+      <c r="J59" s="116"/>
+      <c r="K59" s="116"/>
+      <c r="L59" s="117"/>
       <c r="M59" s="13"/>
       <c r="N59" s="13"/>
       <c r="O59" s="13"/>
@@ -3204,10 +3221,10 @@
       <c r="F60" s="19"/>
       <c r="G60" s="19"/>
       <c r="H60" s="19"/>
-      <c r="I60" s="121"/>
-      <c r="J60" s="122"/>
-      <c r="K60" s="122"/>
-      <c r="L60" s="123"/>
+      <c r="I60" s="115"/>
+      <c r="J60" s="116"/>
+      <c r="K60" s="116"/>
+      <c r="L60" s="117"/>
       <c r="M60" s="13"/>
       <c r="N60" s="13"/>
       <c r="O60" s="13"/>
@@ -3232,10 +3249,10 @@
       <c r="F61" s="19"/>
       <c r="G61" s="19"/>
       <c r="H61" s="19"/>
-      <c r="I61" s="121"/>
-      <c r="J61" s="122"/>
-      <c r="K61" s="122"/>
-      <c r="L61" s="123"/>
+      <c r="I61" s="115"/>
+      <c r="J61" s="116"/>
+      <c r="K61" s="116"/>
+      <c r="L61" s="117"/>
       <c r="M61" s="13"/>
       <c r="N61" s="13"/>
       <c r="O61" s="13"/>
@@ -3260,10 +3277,10 @@
       <c r="F62" s="19"/>
       <c r="G62" s="19"/>
       <c r="H62" s="19"/>
-      <c r="I62" s="121"/>
-      <c r="J62" s="122"/>
-      <c r="K62" s="122"/>
-      <c r="L62" s="123"/>
+      <c r="I62" s="115"/>
+      <c r="J62" s="116"/>
+      <c r="K62" s="116"/>
+      <c r="L62" s="117"/>
       <c r="M62" s="13"/>
       <c r="N62" s="13"/>
       <c r="O62" s="13"/>
@@ -3288,10 +3305,10 @@
       <c r="F63" s="19"/>
       <c r="G63" s="19"/>
       <c r="H63" s="19"/>
-      <c r="I63" s="121"/>
-      <c r="J63" s="122"/>
-      <c r="K63" s="122"/>
-      <c r="L63" s="123"/>
+      <c r="I63" s="115"/>
+      <c r="J63" s="116"/>
+      <c r="K63" s="116"/>
+      <c r="L63" s="117"/>
       <c r="M63" s="13"/>
       <c r="N63" s="13"/>
       <c r="O63" s="13"/>
@@ -3316,10 +3333,10 @@
       <c r="F64" s="19"/>
       <c r="G64" s="19"/>
       <c r="H64" s="19"/>
-      <c r="I64" s="121"/>
-      <c r="J64" s="122"/>
-      <c r="K64" s="122"/>
-      <c r="L64" s="123"/>
+      <c r="I64" s="115"/>
+      <c r="J64" s="116"/>
+      <c r="K64" s="116"/>
+      <c r="L64" s="117"/>
       <c r="M64" s="13"/>
       <c r="N64" s="13"/>
       <c r="O64" s="13"/>
@@ -3344,10 +3361,10 @@
       <c r="F65" s="19"/>
       <c r="G65" s="19"/>
       <c r="H65" s="19"/>
-      <c r="I65" s="121"/>
-      <c r="J65" s="122"/>
-      <c r="K65" s="122"/>
-      <c r="L65" s="123"/>
+      <c r="I65" s="115"/>
+      <c r="J65" s="116"/>
+      <c r="K65" s="116"/>
+      <c r="L65" s="117"/>
       <c r="M65" s="13"/>
       <c r="N65" s="13"/>
       <c r="O65" s="13"/>
@@ -3372,10 +3389,10 @@
       <c r="F66" s="19"/>
       <c r="G66" s="19"/>
       <c r="H66" s="19"/>
-      <c r="I66" s="121"/>
-      <c r="J66" s="122"/>
-      <c r="K66" s="122"/>
-      <c r="L66" s="123"/>
+      <c r="I66" s="115"/>
+      <c r="J66" s="116"/>
+      <c r="K66" s="116"/>
+      <c r="L66" s="117"/>
       <c r="M66" s="13"/>
       <c r="N66" s="13"/>
       <c r="O66" s="13"/>
@@ -3400,10 +3417,10 @@
       <c r="F67" s="19"/>
       <c r="G67" s="19"/>
       <c r="H67" s="19"/>
-      <c r="I67" s="124"/>
-      <c r="J67" s="125"/>
-      <c r="K67" s="125"/>
-      <c r="L67" s="126"/>
+      <c r="I67" s="118"/>
+      <c r="J67" s="119"/>
+      <c r="K67" s="119"/>
+      <c r="L67" s="120"/>
       <c r="M67" s="13"/>
       <c r="N67" s="13"/>
       <c r="O67" s="13"/>
@@ -3428,10 +3445,10 @@
       <c r="F68" s="19"/>
       <c r="G68" s="19"/>
       <c r="H68" s="19"/>
-      <c r="I68" s="121"/>
-      <c r="J68" s="122"/>
-      <c r="K68" s="122"/>
-      <c r="L68" s="123"/>
+      <c r="I68" s="115"/>
+      <c r="J68" s="116"/>
+      <c r="K68" s="116"/>
+      <c r="L68" s="117"/>
       <c r="M68" s="13"/>
       <c r="N68" s="13"/>
       <c r="O68" s="13"/>
@@ -3456,10 +3473,10 @@
       <c r="F69" s="19"/>
       <c r="G69" s="19"/>
       <c r="H69" s="19"/>
-      <c r="I69" s="121"/>
-      <c r="J69" s="122"/>
-      <c r="K69" s="122"/>
-      <c r="L69" s="123"/>
+      <c r="I69" s="115"/>
+      <c r="J69" s="116"/>
+      <c r="K69" s="116"/>
+      <c r="L69" s="117"/>
       <c r="M69" s="13"/>
       <c r="N69" s="13"/>
       <c r="O69" s="13"/>
@@ -3484,10 +3501,10 @@
       <c r="F70" s="19"/>
       <c r="G70" s="19"/>
       <c r="H70" s="19"/>
-      <c r="I70" s="121"/>
-      <c r="J70" s="122"/>
-      <c r="K70" s="122"/>
-      <c r="L70" s="123"/>
+      <c r="I70" s="115"/>
+      <c r="J70" s="116"/>
+      <c r="K70" s="116"/>
+      <c r="L70" s="117"/>
       <c r="M70" s="13"/>
       <c r="N70" s="13"/>
       <c r="O70" s="13"/>
@@ -3512,10 +3529,10 @@
       <c r="F71" s="19"/>
       <c r="G71" s="19"/>
       <c r="H71" s="19"/>
-      <c r="I71" s="121"/>
-      <c r="J71" s="122"/>
-      <c r="K71" s="122"/>
-      <c r="L71" s="123"/>
+      <c r="I71" s="115"/>
+      <c r="J71" s="116"/>
+      <c r="K71" s="116"/>
+      <c r="L71" s="117"/>
       <c r="M71" s="13"/>
       <c r="N71" s="13"/>
       <c r="O71" s="13"/>
@@ -3540,10 +3557,10 @@
       <c r="F72" s="19"/>
       <c r="G72" s="19"/>
       <c r="H72" s="19"/>
-      <c r="I72" s="121"/>
-      <c r="J72" s="122"/>
-      <c r="K72" s="122"/>
-      <c r="L72" s="123"/>
+      <c r="I72" s="115"/>
+      <c r="J72" s="116"/>
+      <c r="K72" s="116"/>
+      <c r="L72" s="117"/>
       <c r="M72" s="13"/>
       <c r="N72" s="13"/>
       <c r="O72" s="13"/>
@@ -3568,10 +3585,10 @@
       <c r="F73" s="19"/>
       <c r="G73" s="19"/>
       <c r="H73" s="19"/>
-      <c r="I73" s="121"/>
-      <c r="J73" s="122"/>
-      <c r="K73" s="122"/>
-      <c r="L73" s="123"/>
+      <c r="I73" s="115"/>
+      <c r="J73" s="116"/>
+      <c r="K73" s="116"/>
+      <c r="L73" s="117"/>
       <c r="M73" s="13"/>
       <c r="N73" s="13"/>
       <c r="O73" s="13"/>
@@ -3596,10 +3613,10 @@
       <c r="F74" s="19"/>
       <c r="G74" s="19"/>
       <c r="H74" s="19"/>
-      <c r="I74" s="121"/>
-      <c r="J74" s="122"/>
-      <c r="K74" s="122"/>
-      <c r="L74" s="123"/>
+      <c r="I74" s="115"/>
+      <c r="J74" s="116"/>
+      <c r="K74" s="116"/>
+      <c r="L74" s="117"/>
       <c r="M74" s="13"/>
       <c r="N74" s="13"/>
       <c r="O74" s="13"/>
@@ -3624,10 +3641,10 @@
       <c r="F75" s="19"/>
       <c r="G75" s="19"/>
       <c r="H75" s="19"/>
-      <c r="I75" s="124"/>
-      <c r="J75" s="125"/>
-      <c r="K75" s="125"/>
-      <c r="L75" s="126"/>
+      <c r="I75" s="118"/>
+      <c r="J75" s="119"/>
+      <c r="K75" s="119"/>
+      <c r="L75" s="120"/>
       <c r="M75" s="13"/>
       <c r="N75" s="13"/>
       <c r="O75" s="13"/>
@@ -3652,10 +3669,10 @@
       <c r="F76" s="19"/>
       <c r="G76" s="19"/>
       <c r="H76" s="19"/>
-      <c r="I76" s="121"/>
-      <c r="J76" s="122"/>
-      <c r="K76" s="122"/>
-      <c r="L76" s="123"/>
+      <c r="I76" s="115"/>
+      <c r="J76" s="116"/>
+      <c r="K76" s="116"/>
+      <c r="L76" s="117"/>
       <c r="M76" s="13"/>
       <c r="N76" s="13"/>
       <c r="O76" s="13"/>
@@ -3680,10 +3697,10 @@
       <c r="F77" s="19"/>
       <c r="G77" s="19"/>
       <c r="H77" s="19"/>
-      <c r="I77" s="124"/>
-      <c r="J77" s="125"/>
-      <c r="K77" s="125"/>
-      <c r="L77" s="126"/>
+      <c r="I77" s="118"/>
+      <c r="J77" s="119"/>
+      <c r="K77" s="119"/>
+      <c r="L77" s="120"/>
       <c r="M77" s="13"/>
       <c r="N77" s="13"/>
       <c r="O77" s="13"/>
@@ -3708,10 +3725,10 @@
       <c r="F78" s="19"/>
       <c r="G78" s="19"/>
       <c r="H78" s="19"/>
-      <c r="I78" s="121"/>
-      <c r="J78" s="122"/>
-      <c r="K78" s="122"/>
-      <c r="L78" s="123"/>
+      <c r="I78" s="115"/>
+      <c r="J78" s="116"/>
+      <c r="K78" s="116"/>
+      <c r="L78" s="117"/>
       <c r="M78" s="13"/>
       <c r="N78" s="13"/>
       <c r="O78" s="13"/>
@@ -3736,10 +3753,10 @@
       <c r="F79" s="19"/>
       <c r="G79" s="19"/>
       <c r="H79" s="19"/>
-      <c r="I79" s="121"/>
-      <c r="J79" s="122"/>
-      <c r="K79" s="122"/>
-      <c r="L79" s="123"/>
+      <c r="I79" s="115"/>
+      <c r="J79" s="116"/>
+      <c r="K79" s="116"/>
+      <c r="L79" s="117"/>
       <c r="M79" s="13"/>
       <c r="N79" s="13"/>
       <c r="O79" s="13"/>
@@ -3764,10 +3781,10 @@
       <c r="F80" s="19"/>
       <c r="G80" s="19"/>
       <c r="H80" s="19"/>
-      <c r="I80" s="124"/>
-      <c r="J80" s="125"/>
-      <c r="K80" s="125"/>
-      <c r="L80" s="126"/>
+      <c r="I80" s="118"/>
+      <c r="J80" s="119"/>
+      <c r="K80" s="119"/>
+      <c r="L80" s="120"/>
       <c r="M80" s="13"/>
       <c r="N80" s="13"/>
       <c r="O80" s="13"/>
@@ -3792,10 +3809,10 @@
       <c r="F81" s="19"/>
       <c r="G81" s="19"/>
       <c r="H81" s="19"/>
-      <c r="I81" s="121"/>
-      <c r="J81" s="122"/>
-      <c r="K81" s="122"/>
-      <c r="L81" s="123"/>
+      <c r="I81" s="115"/>
+      <c r="J81" s="116"/>
+      <c r="K81" s="116"/>
+      <c r="L81" s="117"/>
       <c r="M81" s="13"/>
       <c r="N81" s="13"/>
       <c r="O81" s="13"/>
@@ -3820,10 +3837,10 @@
       <c r="F82" s="19"/>
       <c r="G82" s="19"/>
       <c r="H82" s="19"/>
-      <c r="I82" s="124"/>
-      <c r="J82" s="125"/>
-      <c r="K82" s="125"/>
-      <c r="L82" s="126"/>
+      <c r="I82" s="118"/>
+      <c r="J82" s="119"/>
+      <c r="K82" s="119"/>
+      <c r="L82" s="120"/>
       <c r="M82" s="13"/>
       <c r="N82" s="13"/>
       <c r="O82" s="13"/>
@@ -3848,10 +3865,10 @@
       <c r="F83" s="19"/>
       <c r="G83" s="19"/>
       <c r="H83" s="19"/>
-      <c r="I83" s="121"/>
-      <c r="J83" s="122"/>
-      <c r="K83" s="122"/>
-      <c r="L83" s="123"/>
+      <c r="I83" s="115"/>
+      <c r="J83" s="116"/>
+      <c r="K83" s="116"/>
+      <c r="L83" s="117"/>
       <c r="M83" s="13"/>
       <c r="N83" s="13"/>
       <c r="O83" s="13"/>
@@ -3876,10 +3893,10 @@
       <c r="F84" s="19"/>
       <c r="G84" s="19"/>
       <c r="H84" s="19"/>
-      <c r="I84" s="121"/>
-      <c r="J84" s="122"/>
-      <c r="K84" s="122"/>
-      <c r="L84" s="123"/>
+      <c r="I84" s="115"/>
+      <c r="J84" s="116"/>
+      <c r="K84" s="116"/>
+      <c r="L84" s="117"/>
       <c r="M84" s="13"/>
       <c r="N84" s="13"/>
       <c r="O84" s="13"/>
@@ -3904,10 +3921,10 @@
       <c r="F85" s="19"/>
       <c r="G85" s="19"/>
       <c r="H85" s="19"/>
-      <c r="I85" s="121"/>
-      <c r="J85" s="122"/>
-      <c r="K85" s="122"/>
-      <c r="L85" s="123"/>
+      <c r="I85" s="115"/>
+      <c r="J85" s="116"/>
+      <c r="K85" s="116"/>
+      <c r="L85" s="117"/>
       <c r="M85" s="13"/>
       <c r="N85" s="13"/>
       <c r="O85" s="13"/>
@@ -3932,10 +3949,10 @@
       <c r="F86" s="19"/>
       <c r="G86" s="19"/>
       <c r="H86" s="19"/>
-      <c r="I86" s="121"/>
-      <c r="J86" s="122"/>
-      <c r="K86" s="122"/>
-      <c r="L86" s="123"/>
+      <c r="I86" s="115"/>
+      <c r="J86" s="116"/>
+      <c r="K86" s="116"/>
+      <c r="L86" s="117"/>
       <c r="M86" s="13"/>
       <c r="N86" s="13"/>
       <c r="O86" s="13"/>
@@ -3960,10 +3977,10 @@
       <c r="F87" s="19"/>
       <c r="G87" s="19"/>
       <c r="H87" s="19"/>
-      <c r="I87" s="121"/>
-      <c r="J87" s="122"/>
-      <c r="K87" s="122"/>
-      <c r="L87" s="123"/>
+      <c r="I87" s="115"/>
+      <c r="J87" s="116"/>
+      <c r="K87" s="116"/>
+      <c r="L87" s="117"/>
       <c r="M87" s="13"/>
       <c r="N87" s="13"/>
       <c r="O87" s="13"/>
@@ -3988,10 +4005,10 @@
       <c r="F88" s="19"/>
       <c r="G88" s="19"/>
       <c r="H88" s="19"/>
-      <c r="I88" s="124"/>
-      <c r="J88" s="125"/>
-      <c r="K88" s="125"/>
-      <c r="L88" s="126"/>
+      <c r="I88" s="118"/>
+      <c r="J88" s="119"/>
+      <c r="K88" s="119"/>
+      <c r="L88" s="120"/>
       <c r="M88" s="13"/>
       <c r="N88" s="13"/>
       <c r="O88" s="13"/>
@@ -4016,10 +4033,10 @@
       <c r="F89" s="19"/>
       <c r="G89" s="19"/>
       <c r="H89" s="19"/>
-      <c r="I89" s="121"/>
-      <c r="J89" s="122"/>
-      <c r="K89" s="122"/>
-      <c r="L89" s="123"/>
+      <c r="I89" s="115"/>
+      <c r="J89" s="116"/>
+      <c r="K89" s="116"/>
+      <c r="L89" s="117"/>
       <c r="M89" s="13"/>
       <c r="N89" s="13"/>
       <c r="O89" s="13"/>
@@ -4044,10 +4061,10 @@
       <c r="F90" s="19"/>
       <c r="G90" s="19"/>
       <c r="H90" s="19"/>
-      <c r="I90" s="121"/>
-      <c r="J90" s="122"/>
-      <c r="K90" s="122"/>
-      <c r="L90" s="123"/>
+      <c r="I90" s="115"/>
+      <c r="J90" s="116"/>
+      <c r="K90" s="116"/>
+      <c r="L90" s="117"/>
       <c r="M90" s="13"/>
       <c r="N90" s="13"/>
       <c r="O90" s="13"/>
@@ -4072,10 +4089,10 @@
       <c r="F91" s="19"/>
       <c r="G91" s="19"/>
       <c r="H91" s="19"/>
-      <c r="I91" s="121"/>
-      <c r="J91" s="122"/>
-      <c r="K91" s="122"/>
-      <c r="L91" s="123"/>
+      <c r="I91" s="115"/>
+      <c r="J91" s="116"/>
+      <c r="K91" s="116"/>
+      <c r="L91" s="117"/>
       <c r="M91" s="13"/>
       <c r="N91" s="13"/>
       <c r="O91" s="13"/>
@@ -4100,10 +4117,10 @@
       <c r="F92" s="19"/>
       <c r="G92" s="19"/>
       <c r="H92" s="19"/>
-      <c r="I92" s="121"/>
-      <c r="J92" s="122"/>
-      <c r="K92" s="122"/>
-      <c r="L92" s="123"/>
+      <c r="I92" s="115"/>
+      <c r="J92" s="116"/>
+      <c r="K92" s="116"/>
+      <c r="L92" s="117"/>
       <c r="M92" s="13"/>
       <c r="N92" s="13"/>
       <c r="O92" s="13"/>
@@ -4128,10 +4145,10 @@
       <c r="F93" s="19"/>
       <c r="G93" s="19"/>
       <c r="H93" s="19"/>
-      <c r="I93" s="121"/>
-      <c r="J93" s="122"/>
-      <c r="K93" s="122"/>
-      <c r="L93" s="123"/>
+      <c r="I93" s="115"/>
+      <c r="J93" s="116"/>
+      <c r="K93" s="116"/>
+      <c r="L93" s="117"/>
       <c r="M93" s="13"/>
       <c r="N93" s="13"/>
       <c r="O93" s="13"/>
@@ -4156,10 +4173,10 @@
       <c r="F94" s="19"/>
       <c r="G94" s="19"/>
       <c r="H94" s="19"/>
-      <c r="I94" s="121"/>
-      <c r="J94" s="122"/>
-      <c r="K94" s="122"/>
-      <c r="L94" s="123"/>
+      <c r="I94" s="115"/>
+      <c r="J94" s="116"/>
+      <c r="K94" s="116"/>
+      <c r="L94" s="117"/>
       <c r="M94" s="13"/>
       <c r="N94" s="13"/>
       <c r="O94" s="13"/>
@@ -4184,10 +4201,10 @@
       <c r="F95" s="19"/>
       <c r="G95" s="19"/>
       <c r="H95" s="19"/>
-      <c r="I95" s="121"/>
-      <c r="J95" s="122"/>
-      <c r="K95" s="122"/>
-      <c r="L95" s="123"/>
+      <c r="I95" s="115"/>
+      <c r="J95" s="116"/>
+      <c r="K95" s="116"/>
+      <c r="L95" s="117"/>
       <c r="M95" s="13"/>
       <c r="N95" s="13"/>
       <c r="O95" s="13"/>
@@ -4212,10 +4229,10 @@
       <c r="F96" s="19"/>
       <c r="G96" s="19"/>
       <c r="H96" s="19"/>
-      <c r="I96" s="121"/>
-      <c r="J96" s="122"/>
-      <c r="K96" s="122"/>
-      <c r="L96" s="123"/>
+      <c r="I96" s="115"/>
+      <c r="J96" s="116"/>
+      <c r="K96" s="116"/>
+      <c r="L96" s="117"/>
       <c r="M96" s="13"/>
       <c r="N96" s="13"/>
       <c r="O96" s="13"/>
@@ -4240,10 +4257,10 @@
       <c r="F97" s="19"/>
       <c r="G97" s="19"/>
       <c r="H97" s="19"/>
-      <c r="I97" s="124"/>
-      <c r="J97" s="125"/>
-      <c r="K97" s="125"/>
-      <c r="L97" s="126"/>
+      <c r="I97" s="118"/>
+      <c r="J97" s="119"/>
+      <c r="K97" s="119"/>
+      <c r="L97" s="120"/>
       <c r="M97" s="13"/>
       <c r="N97" s="13"/>
       <c r="O97" s="13"/>
@@ -4268,10 +4285,10 @@
       <c r="F98" s="19"/>
       <c r="G98" s="19"/>
       <c r="H98" s="19"/>
-      <c r="I98" s="124"/>
-      <c r="J98" s="125"/>
-      <c r="K98" s="125"/>
-      <c r="L98" s="126"/>
+      <c r="I98" s="118"/>
+      <c r="J98" s="119"/>
+      <c r="K98" s="119"/>
+      <c r="L98" s="120"/>
       <c r="M98" s="13"/>
       <c r="N98" s="13"/>
       <c r="O98" s="13"/>
@@ -4296,10 +4313,10 @@
       <c r="F99" s="19"/>
       <c r="G99" s="19"/>
       <c r="H99" s="19"/>
-      <c r="I99" s="124"/>
-      <c r="J99" s="125"/>
-      <c r="K99" s="125"/>
-      <c r="L99" s="126"/>
+      <c r="I99" s="118"/>
+      <c r="J99" s="119"/>
+      <c r="K99" s="119"/>
+      <c r="L99" s="120"/>
       <c r="M99" s="13"/>
       <c r="N99" s="13"/>
       <c r="O99" s="13"/>
@@ -4324,10 +4341,10 @@
       <c r="F100" s="19"/>
       <c r="G100" s="19"/>
       <c r="H100" s="19"/>
-      <c r="I100" s="124"/>
-      <c r="J100" s="125"/>
-      <c r="K100" s="125"/>
-      <c r="L100" s="126"/>
+      <c r="I100" s="118"/>
+      <c r="J100" s="119"/>
+      <c r="K100" s="119"/>
+      <c r="L100" s="120"/>
       <c r="M100" s="13"/>
       <c r="N100" s="13"/>
       <c r="O100" s="13"/>
@@ -4352,10 +4369,10 @@
       <c r="F101" s="19"/>
       <c r="G101" s="19"/>
       <c r="H101" s="19"/>
-      <c r="I101" s="124"/>
-      <c r="J101" s="125"/>
-      <c r="K101" s="125"/>
-      <c r="L101" s="126"/>
+      <c r="I101" s="118"/>
+      <c r="J101" s="119"/>
+      <c r="K101" s="119"/>
+      <c r="L101" s="120"/>
       <c r="M101" s="13"/>
       <c r="N101" s="13"/>
       <c r="O101" s="13"/>
@@ -4380,10 +4397,10 @@
       <c r="F102" s="19"/>
       <c r="G102" s="19"/>
       <c r="H102" s="19"/>
-      <c r="I102" s="121"/>
-      <c r="J102" s="122"/>
-      <c r="K102" s="122"/>
-      <c r="L102" s="123"/>
+      <c r="I102" s="115"/>
+      <c r="J102" s="116"/>
+      <c r="K102" s="116"/>
+      <c r="L102" s="117"/>
       <c r="M102" s="13"/>
       <c r="N102" s="13"/>
       <c r="O102" s="13"/>
@@ -4408,10 +4425,10 @@
       <c r="F103" s="19"/>
       <c r="G103" s="19"/>
       <c r="H103" s="19"/>
-      <c r="I103" s="124"/>
-      <c r="J103" s="125"/>
-      <c r="K103" s="125"/>
-      <c r="L103" s="126"/>
+      <c r="I103" s="118"/>
+      <c r="J103" s="119"/>
+      <c r="K103" s="119"/>
+      <c r="L103" s="120"/>
       <c r="M103" s="13"/>
       <c r="N103" s="13"/>
       <c r="O103" s="13"/>
@@ -4436,10 +4453,10 @@
       <c r="F104" s="19"/>
       <c r="G104" s="19"/>
       <c r="H104" s="19"/>
-      <c r="I104" s="121"/>
-      <c r="J104" s="122"/>
-      <c r="K104" s="122"/>
-      <c r="L104" s="123"/>
+      <c r="I104" s="115"/>
+      <c r="J104" s="116"/>
+      <c r="K104" s="116"/>
+      <c r="L104" s="117"/>
       <c r="M104" s="13"/>
       <c r="N104" s="13"/>
       <c r="O104" s="13"/>
@@ -4464,10 +4481,10 @@
       <c r="F105" s="19"/>
       <c r="G105" s="19"/>
       <c r="H105" s="19"/>
-      <c r="I105" s="121"/>
-      <c r="J105" s="122"/>
-      <c r="K105" s="122"/>
-      <c r="L105" s="123"/>
+      <c r="I105" s="115"/>
+      <c r="J105" s="116"/>
+      <c r="K105" s="116"/>
+      <c r="L105" s="117"/>
       <c r="M105" s="13"/>
       <c r="N105" s="13"/>
       <c r="O105" s="13"/>
@@ -4492,10 +4509,10 @@
       <c r="F106" s="19"/>
       <c r="G106" s="19"/>
       <c r="H106" s="19"/>
-      <c r="I106" s="124"/>
-      <c r="J106" s="125"/>
-      <c r="K106" s="125"/>
-      <c r="L106" s="126"/>
+      <c r="I106" s="118"/>
+      <c r="J106" s="119"/>
+      <c r="K106" s="119"/>
+      <c r="L106" s="120"/>
       <c r="M106" s="13"/>
       <c r="N106" s="13"/>
       <c r="O106" s="13"/>
@@ -4520,10 +4537,10 @@
       <c r="F107" s="19"/>
       <c r="G107" s="19"/>
       <c r="H107" s="19"/>
-      <c r="I107" s="121"/>
-      <c r="J107" s="122"/>
-      <c r="K107" s="122"/>
-      <c r="L107" s="123"/>
+      <c r="I107" s="115"/>
+      <c r="J107" s="116"/>
+      <c r="K107" s="116"/>
+      <c r="L107" s="117"/>
       <c r="M107" s="13"/>
       <c r="N107" s="13"/>
       <c r="O107" s="13"/>
@@ -4548,10 +4565,10 @@
       <c r="F108" s="19"/>
       <c r="G108" s="19"/>
       <c r="H108" s="19"/>
-      <c r="I108" s="121"/>
-      <c r="J108" s="122"/>
-      <c r="K108" s="122"/>
-      <c r="L108" s="123"/>
+      <c r="I108" s="115"/>
+      <c r="J108" s="116"/>
+      <c r="K108" s="116"/>
+      <c r="L108" s="117"/>
       <c r="M108" s="13"/>
       <c r="N108" s="13"/>
       <c r="O108" s="13"/>
@@ -4576,10 +4593,10 @@
       <c r="F109" s="19"/>
       <c r="G109" s="19"/>
       <c r="H109" s="19"/>
-      <c r="I109" s="121"/>
-      <c r="J109" s="122"/>
-      <c r="K109" s="122"/>
-      <c r="L109" s="123"/>
+      <c r="I109" s="115"/>
+      <c r="J109" s="116"/>
+      <c r="K109" s="116"/>
+      <c r="L109" s="117"/>
       <c r="M109" s="13"/>
       <c r="N109" s="13"/>
       <c r="O109" s="13"/>
@@ -4604,10 +4621,10 @@
       <c r="F110" s="19"/>
       <c r="G110" s="19"/>
       <c r="H110" s="19"/>
-      <c r="I110" s="124"/>
-      <c r="J110" s="125"/>
-      <c r="K110" s="125"/>
-      <c r="L110" s="126"/>
+      <c r="I110" s="118"/>
+      <c r="J110" s="119"/>
+      <c r="K110" s="119"/>
+      <c r="L110" s="120"/>
       <c r="M110" s="13"/>
       <c r="N110" s="13"/>
       <c r="O110" s="13"/>
@@ -4632,10 +4649,10 @@
       <c r="F111" s="19"/>
       <c r="G111" s="19"/>
       <c r="H111" s="19"/>
-      <c r="I111" s="121"/>
-      <c r="J111" s="122"/>
-      <c r="K111" s="122"/>
-      <c r="L111" s="123"/>
+      <c r="I111" s="115"/>
+      <c r="J111" s="116"/>
+      <c r="K111" s="116"/>
+      <c r="L111" s="117"/>
       <c r="M111" s="13"/>
       <c r="N111" s="13"/>
       <c r="O111" s="13"/>
@@ -4660,10 +4677,10 @@
       <c r="F112" s="19"/>
       <c r="G112" s="19"/>
       <c r="H112" s="19"/>
-      <c r="I112" s="121"/>
-      <c r="J112" s="122"/>
-      <c r="K112" s="122"/>
-      <c r="L112" s="123"/>
+      <c r="I112" s="115"/>
+      <c r="J112" s="116"/>
+      <c r="K112" s="116"/>
+      <c r="L112" s="117"/>
       <c r="M112" s="13"/>
       <c r="N112" s="13"/>
       <c r="O112" s="13"/>
@@ -4688,10 +4705,10 @@
       <c r="F113" s="19"/>
       <c r="G113" s="19"/>
       <c r="H113" s="19"/>
-      <c r="I113" s="124"/>
-      <c r="J113" s="125"/>
-      <c r="K113" s="125"/>
-      <c r="L113" s="126"/>
+      <c r="I113" s="118"/>
+      <c r="J113" s="119"/>
+      <c r="K113" s="119"/>
+      <c r="L113" s="120"/>
       <c r="M113" s="13"/>
       <c r="N113" s="13"/>
       <c r="O113" s="13"/>
@@ -4716,10 +4733,10 @@
       <c r="F114" s="19"/>
       <c r="G114" s="19"/>
       <c r="H114" s="19"/>
-      <c r="I114" s="124"/>
-      <c r="J114" s="125"/>
-      <c r="K114" s="125"/>
-      <c r="L114" s="126"/>
+      <c r="I114" s="118"/>
+      <c r="J114" s="119"/>
+      <c r="K114" s="119"/>
+      <c r="L114" s="120"/>
       <c r="M114" s="13"/>
       <c r="N114" s="13"/>
       <c r="O114" s="13"/>
@@ -4744,10 +4761,10 @@
       <c r="F115" s="19"/>
       <c r="G115" s="19"/>
       <c r="H115" s="19"/>
-      <c r="I115" s="124"/>
-      <c r="J115" s="125"/>
-      <c r="K115" s="125"/>
-      <c r="L115" s="126"/>
+      <c r="I115" s="118"/>
+      <c r="J115" s="119"/>
+      <c r="K115" s="119"/>
+      <c r="L115" s="120"/>
       <c r="M115" s="13"/>
       <c r="N115" s="13"/>
       <c r="O115" s="13"/>
@@ -4772,10 +4789,10 @@
       <c r="F116" s="19"/>
       <c r="G116" s="19"/>
       <c r="H116" s="19"/>
-      <c r="I116" s="121"/>
-      <c r="J116" s="122"/>
-      <c r="K116" s="122"/>
-      <c r="L116" s="123"/>
+      <c r="I116" s="115"/>
+      <c r="J116" s="116"/>
+      <c r="K116" s="116"/>
+      <c r="L116" s="117"/>
       <c r="M116" s="13"/>
       <c r="N116" s="13"/>
       <c r="O116" s="13"/>
@@ -4800,10 +4817,10 @@
       <c r="F117" s="19"/>
       <c r="G117" s="19"/>
       <c r="H117" s="19"/>
-      <c r="I117" s="121"/>
-      <c r="J117" s="122"/>
-      <c r="K117" s="122"/>
-      <c r="L117" s="123"/>
+      <c r="I117" s="115"/>
+      <c r="J117" s="116"/>
+      <c r="K117" s="116"/>
+      <c r="L117" s="117"/>
       <c r="M117" s="13"/>
       <c r="N117" s="13"/>
       <c r="O117" s="13"/>
@@ -4828,10 +4845,10 @@
       <c r="F118" s="19"/>
       <c r="G118" s="19"/>
       <c r="H118" s="19"/>
-      <c r="I118" s="124"/>
-      <c r="J118" s="125"/>
-      <c r="K118" s="125"/>
-      <c r="L118" s="126"/>
+      <c r="I118" s="118"/>
+      <c r="J118" s="119"/>
+      <c r="K118" s="119"/>
+      <c r="L118" s="120"/>
       <c r="M118" s="13"/>
       <c r="N118" s="13"/>
       <c r="O118" s="13"/>
@@ -4856,10 +4873,10 @@
       <c r="F119" s="19"/>
       <c r="G119" s="19"/>
       <c r="H119" s="19"/>
-      <c r="I119" s="130"/>
-      <c r="J119" s="131"/>
-      <c r="K119" s="131"/>
-      <c r="L119" s="132"/>
+      <c r="I119" s="128"/>
+      <c r="J119" s="129"/>
+      <c r="K119" s="129"/>
+      <c r="L119" s="130"/>
       <c r="M119" s="13"/>
       <c r="N119" s="13"/>
       <c r="O119" s="13"/>
@@ -4884,10 +4901,10 @@
       <c r="F120" s="19"/>
       <c r="G120" s="19"/>
       <c r="H120" s="19"/>
-      <c r="I120" s="130"/>
-      <c r="J120" s="131"/>
-      <c r="K120" s="131"/>
-      <c r="L120" s="132"/>
+      <c r="I120" s="128"/>
+      <c r="J120" s="129"/>
+      <c r="K120" s="129"/>
+      <c r="L120" s="130"/>
       <c r="M120" s="13"/>
       <c r="N120" s="13"/>
       <c r="O120" s="13"/>
@@ -4912,10 +4929,10 @@
       <c r="F121" s="19"/>
       <c r="G121" s="19"/>
       <c r="H121" s="19"/>
-      <c r="I121" s="127"/>
-      <c r="J121" s="128"/>
-      <c r="K121" s="128"/>
-      <c r="L121" s="129"/>
+      <c r="I121" s="124"/>
+      <c r="J121" s="125"/>
+      <c r="K121" s="125"/>
+      <c r="L121" s="126"/>
       <c r="M121" s="13"/>
       <c r="N121" s="13"/>
       <c r="O121" s="13"/>
@@ -4940,10 +4957,10 @@
       <c r="F122" s="19"/>
       <c r="G122" s="19"/>
       <c r="H122" s="19"/>
-      <c r="I122" s="130"/>
-      <c r="J122" s="131"/>
-      <c r="K122" s="131"/>
-      <c r="L122" s="132"/>
+      <c r="I122" s="128"/>
+      <c r="J122" s="129"/>
+      <c r="K122" s="129"/>
+      <c r="L122" s="130"/>
       <c r="M122" s="13"/>
       <c r="N122" s="13"/>
       <c r="O122" s="13"/>
@@ -4968,10 +4985,10 @@
       <c r="F123" s="19"/>
       <c r="G123" s="19"/>
       <c r="H123" s="19"/>
-      <c r="I123" s="127"/>
-      <c r="J123" s="128"/>
-      <c r="K123" s="128"/>
-      <c r="L123" s="129"/>
+      <c r="I123" s="124"/>
+      <c r="J123" s="125"/>
+      <c r="K123" s="125"/>
+      <c r="L123" s="126"/>
       <c r="M123" s="13"/>
       <c r="N123" s="13"/>
       <c r="O123" s="13"/>
@@ -4996,10 +5013,10 @@
       <c r="F124" s="21"/>
       <c r="G124" s="19"/>
       <c r="H124" s="19"/>
-      <c r="I124" s="127"/>
-      <c r="J124" s="128"/>
-      <c r="K124" s="128"/>
-      <c r="L124" s="129"/>
+      <c r="I124" s="124"/>
+      <c r="J124" s="125"/>
+      <c r="K124" s="125"/>
+      <c r="L124" s="126"/>
       <c r="M124" s="13"/>
       <c r="N124" s="13"/>
       <c r="O124" s="13"/>
@@ -5024,10 +5041,10 @@
       <c r="F125" s="19"/>
       <c r="G125" s="19"/>
       <c r="H125" s="19"/>
-      <c r="I125" s="130"/>
-      <c r="J125" s="131"/>
-      <c r="K125" s="131"/>
-      <c r="L125" s="132"/>
+      <c r="I125" s="128"/>
+      <c r="J125" s="129"/>
+      <c r="K125" s="129"/>
+      <c r="L125" s="130"/>
       <c r="M125" s="13"/>
       <c r="N125" s="13"/>
       <c r="O125" s="13"/>
@@ -5052,10 +5069,10 @@
       <c r="F126" s="19"/>
       <c r="G126" s="19"/>
       <c r="H126" s="19"/>
-      <c r="I126" s="127"/>
-      <c r="J126" s="128"/>
-      <c r="K126" s="128"/>
-      <c r="L126" s="129"/>
+      <c r="I126" s="124"/>
+      <c r="J126" s="125"/>
+      <c r="K126" s="125"/>
+      <c r="L126" s="126"/>
       <c r="M126" s="13"/>
       <c r="N126" s="13"/>
       <c r="O126" s="13"/>
@@ -5080,10 +5097,10 @@
       <c r="F127" s="19"/>
       <c r="G127" s="19"/>
       <c r="H127" s="19"/>
-      <c r="I127" s="127"/>
-      <c r="J127" s="128"/>
-      <c r="K127" s="128"/>
-      <c r="L127" s="129"/>
+      <c r="I127" s="124"/>
+      <c r="J127" s="125"/>
+      <c r="K127" s="125"/>
+      <c r="L127" s="126"/>
       <c r="M127" s="13"/>
       <c r="N127" s="13"/>
       <c r="O127" s="13"/>
@@ -5108,10 +5125,10 @@
       <c r="F128" s="19"/>
       <c r="G128" s="19"/>
       <c r="H128" s="19"/>
-      <c r="I128" s="130"/>
-      <c r="J128" s="131"/>
-      <c r="K128" s="131"/>
-      <c r="L128" s="132"/>
+      <c r="I128" s="128"/>
+      <c r="J128" s="129"/>
+      <c r="K128" s="129"/>
+      <c r="L128" s="130"/>
       <c r="M128" s="13"/>
       <c r="N128" s="13"/>
       <c r="O128" s="13"/>
@@ -5136,10 +5153,10 @@
       <c r="F129" s="19"/>
       <c r="G129" s="19"/>
       <c r="H129" s="19"/>
-      <c r="I129" s="127"/>
-      <c r="J129" s="128"/>
-      <c r="K129" s="128"/>
-      <c r="L129" s="129"/>
+      <c r="I129" s="124"/>
+      <c r="J129" s="125"/>
+      <c r="K129" s="125"/>
+      <c r="L129" s="126"/>
       <c r="M129" s="13"/>
       <c r="N129" s="13"/>
       <c r="O129" s="13"/>
@@ -5164,10 +5181,10 @@
       <c r="F130" s="21"/>
       <c r="G130" s="19"/>
       <c r="H130" s="19"/>
-      <c r="I130" s="130"/>
-      <c r="J130" s="131"/>
-      <c r="K130" s="131"/>
-      <c r="L130" s="132"/>
+      <c r="I130" s="128"/>
+      <c r="J130" s="129"/>
+      <c r="K130" s="129"/>
+      <c r="L130" s="130"/>
       <c r="M130" s="13"/>
       <c r="N130" s="13"/>
       <c r="O130" s="13"/>
@@ -5192,10 +5209,10 @@
       <c r="F131" s="19"/>
       <c r="G131" s="19"/>
       <c r="H131" s="19"/>
-      <c r="I131" s="127"/>
-      <c r="J131" s="128"/>
-      <c r="K131" s="128"/>
-      <c r="L131" s="129"/>
+      <c r="I131" s="124"/>
+      <c r="J131" s="125"/>
+      <c r="K131" s="125"/>
+      <c r="L131" s="126"/>
       <c r="M131" s="13"/>
       <c r="N131" s="13"/>
       <c r="O131" s="13"/>
@@ -5220,10 +5237,10 @@
       <c r="F132" s="19"/>
       <c r="G132" s="19"/>
       <c r="H132" s="19"/>
-      <c r="I132" s="130"/>
-      <c r="J132" s="131"/>
-      <c r="K132" s="131"/>
-      <c r="L132" s="132"/>
+      <c r="I132" s="128"/>
+      <c r="J132" s="129"/>
+      <c r="K132" s="129"/>
+      <c r="L132" s="130"/>
       <c r="M132" s="13"/>
       <c r="N132" s="13"/>
       <c r="O132" s="13"/>
@@ -5248,10 +5265,10 @@
       <c r="F133" s="19"/>
       <c r="G133" s="19"/>
       <c r="H133" s="19"/>
-      <c r="I133" s="130"/>
-      <c r="J133" s="131"/>
-      <c r="K133" s="131"/>
-      <c r="L133" s="132"/>
+      <c r="I133" s="128"/>
+      <c r="J133" s="129"/>
+      <c r="K133" s="129"/>
+      <c r="L133" s="130"/>
       <c r="M133" s="13"/>
       <c r="N133" s="13"/>
       <c r="O133" s="13"/>
@@ -5276,10 +5293,10 @@
       <c r="F134" s="19"/>
       <c r="G134" s="19"/>
       <c r="H134" s="19"/>
-      <c r="I134" s="130"/>
-      <c r="J134" s="131"/>
-      <c r="K134" s="131"/>
-      <c r="L134" s="132"/>
+      <c r="I134" s="128"/>
+      <c r="J134" s="129"/>
+      <c r="K134" s="129"/>
+      <c r="L134" s="130"/>
       <c r="M134" s="13"/>
       <c r="N134" s="13"/>
       <c r="O134" s="13"/>
@@ -5304,10 +5321,10 @@
       <c r="F135" s="19"/>
       <c r="G135" s="19"/>
       <c r="H135" s="19"/>
-      <c r="I135" s="130"/>
-      <c r="J135" s="131"/>
-      <c r="K135" s="131"/>
-      <c r="L135" s="132"/>
+      <c r="I135" s="128"/>
+      <c r="J135" s="129"/>
+      <c r="K135" s="129"/>
+      <c r="L135" s="130"/>
       <c r="M135" s="13"/>
       <c r="N135" s="13"/>
       <c r="O135" s="13"/>
@@ -5331,10 +5348,10 @@
       <c r="F136" s="19"/>
       <c r="G136" s="19"/>
       <c r="H136" s="19"/>
-      <c r="I136" s="130"/>
-      <c r="J136" s="131"/>
-      <c r="K136" s="131"/>
-      <c r="L136" s="132"/>
+      <c r="I136" s="128"/>
+      <c r="J136" s="129"/>
+      <c r="K136" s="129"/>
+      <c r="L136" s="130"/>
       <c r="M136" s="13"/>
       <c r="N136" s="13"/>
       <c r="O136" s="13"/>
@@ -5359,10 +5376,10 @@
       <c r="F137" s="19"/>
       <c r="G137" s="21"/>
       <c r="H137" s="19"/>
-      <c r="I137" s="130"/>
-      <c r="J137" s="131"/>
-      <c r="K137" s="131"/>
-      <c r="L137" s="132"/>
+      <c r="I137" s="128"/>
+      <c r="J137" s="129"/>
+      <c r="K137" s="129"/>
+      <c r="L137" s="130"/>
       <c r="M137" s="13"/>
       <c r="N137" s="13"/>
       <c r="O137" s="13"/>
@@ -5387,10 +5404,10 @@
       <c r="F138" s="19"/>
       <c r="G138" s="19"/>
       <c r="H138" s="19"/>
-      <c r="I138" s="130"/>
-      <c r="J138" s="131"/>
-      <c r="K138" s="131"/>
-      <c r="L138" s="132"/>
+      <c r="I138" s="128"/>
+      <c r="J138" s="129"/>
+      <c r="K138" s="129"/>
+      <c r="L138" s="130"/>
       <c r="M138" s="13"/>
       <c r="N138" s="13"/>
       <c r="O138" s="13"/>
@@ -5415,10 +5432,10 @@
       <c r="F139" s="19"/>
       <c r="G139" s="19"/>
       <c r="H139" s="19"/>
-      <c r="I139" s="130"/>
-      <c r="J139" s="131"/>
-      <c r="K139" s="131"/>
-      <c r="L139" s="132"/>
+      <c r="I139" s="128"/>
+      <c r="J139" s="129"/>
+      <c r="K139" s="129"/>
+      <c r="L139" s="130"/>
       <c r="M139" s="13"/>
       <c r="N139" s="13"/>
       <c r="O139" s="13"/>
@@ -5443,10 +5460,10 @@
       <c r="F140" s="19"/>
       <c r="G140" s="19"/>
       <c r="H140" s="19"/>
-      <c r="I140" s="130"/>
-      <c r="J140" s="131"/>
-      <c r="K140" s="131"/>
-      <c r="L140" s="132"/>
+      <c r="I140" s="128"/>
+      <c r="J140" s="129"/>
+      <c r="K140" s="129"/>
+      <c r="L140" s="130"/>
       <c r="M140" s="13"/>
       <c r="N140" s="13"/>
       <c r="O140" s="13"/>
@@ -5471,10 +5488,10 @@
       <c r="F141" s="19"/>
       <c r="G141" s="21"/>
       <c r="H141" s="19"/>
-      <c r="I141" s="124"/>
-      <c r="J141" s="125"/>
-      <c r="K141" s="125"/>
-      <c r="L141" s="126"/>
+      <c r="I141" s="118"/>
+      <c r="J141" s="119"/>
+      <c r="K141" s="119"/>
+      <c r="L141" s="120"/>
       <c r="M141" s="13"/>
       <c r="N141" s="13"/>
       <c r="O141" s="13"/>
@@ -5499,10 +5516,10 @@
       <c r="F142" s="19"/>
       <c r="G142" s="19"/>
       <c r="H142" s="19"/>
-      <c r="I142" s="121"/>
-      <c r="J142" s="122"/>
-      <c r="K142" s="122"/>
-      <c r="L142" s="123"/>
+      <c r="I142" s="115"/>
+      <c r="J142" s="116"/>
+      <c r="K142" s="116"/>
+      <c r="L142" s="117"/>
       <c r="M142" s="13"/>
       <c r="N142" s="13"/>
       <c r="O142" s="13"/>
@@ -5527,10 +5544,10 @@
       <c r="F143" s="19"/>
       <c r="G143" s="19"/>
       <c r="H143" s="19"/>
-      <c r="I143" s="124"/>
-      <c r="J143" s="125"/>
-      <c r="K143" s="125"/>
-      <c r="L143" s="126"/>
+      <c r="I143" s="118"/>
+      <c r="J143" s="119"/>
+      <c r="K143" s="119"/>
+      <c r="L143" s="120"/>
       <c r="M143" s="13"/>
       <c r="N143" s="13"/>
       <c r="O143" s="13"/>
@@ -5555,10 +5572,10 @@
       <c r="F144" s="19"/>
       <c r="G144" s="21"/>
       <c r="H144" s="19"/>
-      <c r="I144" s="124"/>
-      <c r="J144" s="125"/>
-      <c r="K144" s="125"/>
-      <c r="L144" s="126"/>
+      <c r="I144" s="118"/>
+      <c r="J144" s="119"/>
+      <c r="K144" s="119"/>
+      <c r="L144" s="120"/>
       <c r="M144" s="13"/>
       <c r="N144" s="13"/>
       <c r="O144" s="13"/>
@@ -5583,10 +5600,10 @@
       <c r="F145" s="19"/>
       <c r="G145" s="19"/>
       <c r="H145" s="19"/>
-      <c r="I145" s="124"/>
-      <c r="J145" s="125"/>
-      <c r="K145" s="125"/>
-      <c r="L145" s="126"/>
+      <c r="I145" s="118"/>
+      <c r="J145" s="119"/>
+      <c r="K145" s="119"/>
+      <c r="L145" s="120"/>
       <c r="M145" s="13"/>
       <c r="N145" s="13"/>
       <c r="O145" s="13"/>
@@ -5611,10 +5628,10 @@
       <c r="F146" s="19"/>
       <c r="G146" s="19"/>
       <c r="H146" s="19"/>
-      <c r="I146" s="124"/>
-      <c r="J146" s="125"/>
-      <c r="K146" s="125"/>
-      <c r="L146" s="126"/>
+      <c r="I146" s="118"/>
+      <c r="J146" s="119"/>
+      <c r="K146" s="119"/>
+      <c r="L146" s="120"/>
       <c r="M146" s="13"/>
       <c r="N146" s="13"/>
       <c r="O146" s="13"/>
@@ -5639,10 +5656,10 @@
       <c r="F147" s="19"/>
       <c r="G147" s="19"/>
       <c r="H147" s="19"/>
-      <c r="I147" s="121"/>
-      <c r="J147" s="122"/>
-      <c r="K147" s="122"/>
-      <c r="L147" s="123"/>
+      <c r="I147" s="115"/>
+      <c r="J147" s="116"/>
+      <c r="K147" s="116"/>
+      <c r="L147" s="117"/>
       <c r="M147" s="13"/>
       <c r="N147" s="13"/>
       <c r="O147" s="13"/>
@@ -5667,10 +5684,10 @@
       <c r="F148" s="19"/>
       <c r="G148" s="19"/>
       <c r="H148" s="19"/>
-      <c r="I148" s="124"/>
-      <c r="J148" s="125"/>
-      <c r="K148" s="125"/>
-      <c r="L148" s="126"/>
+      <c r="I148" s="118"/>
+      <c r="J148" s="119"/>
+      <c r="K148" s="119"/>
+      <c r="L148" s="120"/>
       <c r="M148" s="13"/>
       <c r="N148" s="13"/>
       <c r="O148" s="13"/>
@@ -5695,10 +5712,10 @@
       <c r="F149" s="19"/>
       <c r="G149" s="21"/>
       <c r="H149" s="19"/>
-      <c r="I149" s="124"/>
-      <c r="J149" s="125"/>
-      <c r="K149" s="125"/>
-      <c r="L149" s="126"/>
+      <c r="I149" s="118"/>
+      <c r="J149" s="119"/>
+      <c r="K149" s="119"/>
+      <c r="L149" s="120"/>
       <c r="M149" s="13"/>
       <c r="N149" s="13"/>
       <c r="O149" s="13"/>
@@ -5723,10 +5740,10 @@
       <c r="F150" s="19"/>
       <c r="G150" s="19"/>
       <c r="H150" s="19"/>
-      <c r="I150" s="124"/>
-      <c r="J150" s="125"/>
-      <c r="K150" s="125"/>
-      <c r="L150" s="126"/>
+      <c r="I150" s="118"/>
+      <c r="J150" s="119"/>
+      <c r="K150" s="119"/>
+      <c r="L150" s="120"/>
       <c r="M150" s="13"/>
       <c r="N150" s="13"/>
       <c r="O150" s="13"/>
@@ -5751,10 +5768,10 @@
       <c r="F151" s="19"/>
       <c r="G151" s="19"/>
       <c r="H151" s="19"/>
-      <c r="I151" s="121"/>
-      <c r="J151" s="122"/>
-      <c r="K151" s="122"/>
-      <c r="L151" s="123"/>
+      <c r="I151" s="115"/>
+      <c r="J151" s="116"/>
+      <c r="K151" s="116"/>
+      <c r="L151" s="117"/>
       <c r="M151" s="13"/>
       <c r="N151" s="13"/>
       <c r="O151" s="13"/>
@@ -5779,10 +5796,10 @@
       <c r="F152" s="19"/>
       <c r="G152" s="19"/>
       <c r="H152" s="19"/>
-      <c r="I152" s="124"/>
-      <c r="J152" s="125"/>
-      <c r="K152" s="125"/>
-      <c r="L152" s="126"/>
+      <c r="I152" s="118"/>
+      <c r="J152" s="119"/>
+      <c r="K152" s="119"/>
+      <c r="L152" s="120"/>
       <c r="M152" s="13"/>
       <c r="N152" s="13"/>
       <c r="O152" s="13"/>
@@ -5807,10 +5824,10 @@
       <c r="F153" s="19"/>
       <c r="G153" s="19"/>
       <c r="H153" s="19"/>
-      <c r="I153" s="121"/>
-      <c r="J153" s="122"/>
-      <c r="K153" s="122"/>
-      <c r="L153" s="123"/>
+      <c r="I153" s="115"/>
+      <c r="J153" s="116"/>
+      <c r="K153" s="116"/>
+      <c r="L153" s="117"/>
       <c r="M153" s="13"/>
       <c r="N153" s="13"/>
       <c r="O153" s="13"/>
@@ -5835,10 +5852,10 @@
       <c r="F154" s="19"/>
       <c r="G154" s="19"/>
       <c r="H154" s="19"/>
-      <c r="I154" s="121"/>
-      <c r="J154" s="122"/>
-      <c r="K154" s="122"/>
-      <c r="L154" s="123"/>
+      <c r="I154" s="115"/>
+      <c r="J154" s="116"/>
+      <c r="K154" s="116"/>
+      <c r="L154" s="117"/>
       <c r="M154" s="13"/>
       <c r="N154" s="13"/>
       <c r="O154" s="13"/>
@@ -5863,10 +5880,10 @@
       <c r="F155" s="19"/>
       <c r="G155" s="19"/>
       <c r="H155" s="19"/>
-      <c r="I155" s="124"/>
-      <c r="J155" s="125"/>
-      <c r="K155" s="125"/>
-      <c r="L155" s="126"/>
+      <c r="I155" s="118"/>
+      <c r="J155" s="119"/>
+      <c r="K155" s="119"/>
+      <c r="L155" s="120"/>
       <c r="M155" s="13"/>
       <c r="N155" s="13"/>
       <c r="O155" s="13"/>
@@ -5891,10 +5908,10 @@
       <c r="F156" s="19"/>
       <c r="G156" s="19"/>
       <c r="H156" s="19"/>
-      <c r="I156" s="124"/>
-      <c r="J156" s="125"/>
-      <c r="K156" s="125"/>
-      <c r="L156" s="126"/>
+      <c r="I156" s="118"/>
+      <c r="J156" s="119"/>
+      <c r="K156" s="119"/>
+      <c r="L156" s="120"/>
       <c r="M156" s="13"/>
       <c r="N156" s="13"/>
       <c r="O156" s="13"/>
@@ -5919,10 +5936,10 @@
       <c r="F157" s="19"/>
       <c r="G157" s="19"/>
       <c r="H157" s="19"/>
-      <c r="I157" s="124"/>
-      <c r="J157" s="125"/>
-      <c r="K157" s="125"/>
-      <c r="L157" s="126"/>
+      <c r="I157" s="118"/>
+      <c r="J157" s="119"/>
+      <c r="K157" s="119"/>
+      <c r="L157" s="120"/>
       <c r="M157" s="13"/>
       <c r="N157" s="13"/>
       <c r="O157" s="13"/>
@@ -5947,10 +5964,10 @@
       <c r="F158" s="19"/>
       <c r="G158" s="19"/>
       <c r="H158" s="19"/>
-      <c r="I158" s="124"/>
-      <c r="J158" s="125"/>
-      <c r="K158" s="125"/>
-      <c r="L158" s="126"/>
+      <c r="I158" s="118"/>
+      <c r="J158" s="119"/>
+      <c r="K158" s="119"/>
+      <c r="L158" s="120"/>
       <c r="M158" s="13"/>
       <c r="N158" s="13"/>
       <c r="O158" s="13"/>
@@ -5975,10 +5992,10 @@
       <c r="F159" s="19"/>
       <c r="G159" s="19"/>
       <c r="H159" s="19"/>
-      <c r="I159" s="124"/>
-      <c r="J159" s="125"/>
-      <c r="K159" s="125"/>
-      <c r="L159" s="126"/>
+      <c r="I159" s="118"/>
+      <c r="J159" s="119"/>
+      <c r="K159" s="119"/>
+      <c r="L159" s="120"/>
       <c r="M159" s="13"/>
       <c r="N159" s="13"/>
       <c r="O159" s="13"/>
@@ -6003,10 +6020,10 @@
       <c r="F160" s="19"/>
       <c r="G160" s="19"/>
       <c r="H160" s="19"/>
-      <c r="I160" s="124"/>
-      <c r="J160" s="125"/>
-      <c r="K160" s="125"/>
-      <c r="L160" s="126"/>
+      <c r="I160" s="118"/>
+      <c r="J160" s="119"/>
+      <c r="K160" s="119"/>
+      <c r="L160" s="120"/>
       <c r="M160" s="13"/>
       <c r="N160" s="13"/>
       <c r="O160" s="13"/>
@@ -6031,10 +6048,10 @@
       <c r="F161" s="19"/>
       <c r="G161" s="19"/>
       <c r="H161" s="19"/>
-      <c r="I161" s="124"/>
-      <c r="J161" s="125"/>
-      <c r="K161" s="125"/>
-      <c r="L161" s="126"/>
+      <c r="I161" s="118"/>
+      <c r="J161" s="119"/>
+      <c r="K161" s="119"/>
+      <c r="L161" s="120"/>
       <c r="M161" s="13"/>
       <c r="N161" s="13"/>
       <c r="O161" s="13"/>
@@ -6059,10 +6076,10 @@
       <c r="F162" s="19"/>
       <c r="G162" s="19"/>
       <c r="H162" s="19"/>
-      <c r="I162" s="121"/>
-      <c r="J162" s="122"/>
-      <c r="K162" s="122"/>
-      <c r="L162" s="123"/>
+      <c r="I162" s="115"/>
+      <c r="J162" s="116"/>
+      <c r="K162" s="116"/>
+      <c r="L162" s="117"/>
       <c r="M162" s="13"/>
       <c r="N162" s="13"/>
       <c r="O162" s="13"/>
@@ -6087,10 +6104,10 @@
       <c r="F163" s="19"/>
       <c r="G163" s="19"/>
       <c r="H163" s="19"/>
-      <c r="I163" s="124"/>
-      <c r="J163" s="125"/>
-      <c r="K163" s="125"/>
-      <c r="L163" s="126"/>
+      <c r="I163" s="118"/>
+      <c r="J163" s="119"/>
+      <c r="K163" s="119"/>
+      <c r="L163" s="120"/>
       <c r="M163" s="13"/>
       <c r="N163" s="13"/>
       <c r="O163" s="13"/>
@@ -6115,10 +6132,10 @@
       <c r="F164" s="19"/>
       <c r="G164" s="19"/>
       <c r="H164" s="19"/>
-      <c r="I164" s="124"/>
-      <c r="J164" s="125"/>
-      <c r="K164" s="125"/>
-      <c r="L164" s="126"/>
+      <c r="I164" s="118"/>
+      <c r="J164" s="119"/>
+      <c r="K164" s="119"/>
+      <c r="L164" s="120"/>
       <c r="M164" s="13"/>
       <c r="N164" s="13"/>
       <c r="O164" s="13"/>
@@ -6143,10 +6160,10 @@
       <c r="F165" s="19"/>
       <c r="G165" s="19"/>
       <c r="H165" s="19"/>
-      <c r="I165" s="121"/>
-      <c r="J165" s="122"/>
-      <c r="K165" s="122"/>
-      <c r="L165" s="123"/>
+      <c r="I165" s="115"/>
+      <c r="J165" s="116"/>
+      <c r="K165" s="116"/>
+      <c r="L165" s="117"/>
       <c r="M165" s="13"/>
       <c r="N165" s="13"/>
       <c r="O165" s="13"/>
@@ -6171,10 +6188,10 @@
       <c r="F166" s="19"/>
       <c r="G166" s="19"/>
       <c r="H166" s="19"/>
-      <c r="I166" s="124"/>
-      <c r="J166" s="125"/>
-      <c r="K166" s="125"/>
-      <c r="L166" s="126"/>
+      <c r="I166" s="118"/>
+      <c r="J166" s="119"/>
+      <c r="K166" s="119"/>
+      <c r="L166" s="120"/>
       <c r="M166" s="13"/>
       <c r="N166" s="13"/>
       <c r="O166" s="13"/>
@@ -6199,10 +6216,10 @@
       <c r="F167" s="19"/>
       <c r="G167" s="19"/>
       <c r="H167" s="19"/>
-      <c r="I167" s="121"/>
-      <c r="J167" s="122"/>
-      <c r="K167" s="122"/>
-      <c r="L167" s="123"/>
+      <c r="I167" s="115"/>
+      <c r="J167" s="116"/>
+      <c r="K167" s="116"/>
+      <c r="L167" s="117"/>
       <c r="M167" s="13"/>
       <c r="N167" s="13"/>
       <c r="O167" s="13"/>
@@ -6227,10 +6244,10 @@
       <c r="F168" s="19"/>
       <c r="G168" s="19"/>
       <c r="H168" s="19"/>
-      <c r="I168" s="121"/>
-      <c r="J168" s="122"/>
-      <c r="K168" s="122"/>
-      <c r="L168" s="123"/>
+      <c r="I168" s="115"/>
+      <c r="J168" s="116"/>
+      <c r="K168" s="116"/>
+      <c r="L168" s="117"/>
       <c r="M168" s="13"/>
       <c r="N168" s="13"/>
       <c r="O168" s="13"/>
@@ -6255,10 +6272,10 @@
       <c r="F169" s="19"/>
       <c r="G169" s="19"/>
       <c r="H169" s="19"/>
-      <c r="I169" s="121"/>
-      <c r="J169" s="122"/>
-      <c r="K169" s="122"/>
-      <c r="L169" s="123"/>
+      <c r="I169" s="115"/>
+      <c r="J169" s="116"/>
+      <c r="K169" s="116"/>
+      <c r="L169" s="117"/>
       <c r="M169" s="13"/>
       <c r="N169" s="13"/>
       <c r="O169" s="13"/>
@@ -6283,10 +6300,10 @@
       <c r="F170" s="19"/>
       <c r="G170" s="19"/>
       <c r="H170" s="19"/>
-      <c r="I170" s="121"/>
-      <c r="J170" s="122"/>
-      <c r="K170" s="122"/>
-      <c r="L170" s="123"/>
+      <c r="I170" s="115"/>
+      <c r="J170" s="116"/>
+      <c r="K170" s="116"/>
+      <c r="L170" s="117"/>
       <c r="M170" s="13"/>
       <c r="N170" s="13"/>
       <c r="O170" s="13"/>
@@ -6311,10 +6328,10 @@
       <c r="F171" s="19"/>
       <c r="G171" s="19"/>
       <c r="H171" s="19"/>
-      <c r="I171" s="124"/>
-      <c r="J171" s="125"/>
-      <c r="K171" s="125"/>
-      <c r="L171" s="126"/>
+      <c r="I171" s="118"/>
+      <c r="J171" s="119"/>
+      <c r="K171" s="119"/>
+      <c r="L171" s="120"/>
       <c r="M171" s="13"/>
       <c r="N171" s="13"/>
       <c r="O171" s="13"/>
@@ -6339,10 +6356,10 @@
       <c r="F172" s="19"/>
       <c r="G172" s="19"/>
       <c r="H172" s="19"/>
-      <c r="I172" s="121"/>
-      <c r="J172" s="122"/>
-      <c r="K172" s="122"/>
-      <c r="L172" s="123"/>
+      <c r="I172" s="115"/>
+      <c r="J172" s="116"/>
+      <c r="K172" s="116"/>
+      <c r="L172" s="117"/>
       <c r="M172" s="13"/>
       <c r="N172" s="13"/>
       <c r="O172" s="13"/>
@@ -6367,10 +6384,10 @@
       <c r="F173" s="19"/>
       <c r="G173" s="19"/>
       <c r="H173" s="19"/>
-      <c r="I173" s="124"/>
-      <c r="J173" s="125"/>
-      <c r="K173" s="125"/>
-      <c r="L173" s="126"/>
+      <c r="I173" s="118"/>
+      <c r="J173" s="119"/>
+      <c r="K173" s="119"/>
+      <c r="L173" s="120"/>
       <c r="M173" s="13"/>
       <c r="N173" s="13"/>
       <c r="O173" s="13"/>
@@ -6395,10 +6412,10 @@
       <c r="F174" s="19"/>
       <c r="G174" s="19"/>
       <c r="H174" s="19"/>
-      <c r="I174" s="124"/>
-      <c r="J174" s="125"/>
-      <c r="K174" s="125"/>
-      <c r="L174" s="126"/>
+      <c r="I174" s="118"/>
+      <c r="J174" s="119"/>
+      <c r="K174" s="119"/>
+      <c r="L174" s="120"/>
       <c r="M174" s="13"/>
       <c r="N174" s="13"/>
       <c r="O174" s="13"/>
@@ -6423,10 +6440,10 @@
       <c r="F175" s="19"/>
       <c r="G175" s="19"/>
       <c r="H175" s="19"/>
-      <c r="I175" s="124"/>
-      <c r="J175" s="125"/>
-      <c r="K175" s="125"/>
-      <c r="L175" s="126"/>
+      <c r="I175" s="118"/>
+      <c r="J175" s="119"/>
+      <c r="K175" s="119"/>
+      <c r="L175" s="120"/>
       <c r="M175" s="13"/>
       <c r="N175" s="13"/>
       <c r="O175" s="13"/>
@@ -6451,10 +6468,10 @@
       <c r="F176" s="19"/>
       <c r="G176" s="19"/>
       <c r="H176" s="19"/>
-      <c r="I176" s="124"/>
-      <c r="J176" s="125"/>
-      <c r="K176" s="125"/>
-      <c r="L176" s="126"/>
+      <c r="I176" s="118"/>
+      <c r="J176" s="119"/>
+      <c r="K176" s="119"/>
+      <c r="L176" s="120"/>
       <c r="M176" s="13"/>
       <c r="N176" s="13"/>
       <c r="O176" s="13"/>
@@ -6479,10 +6496,10 @@
       <c r="F177" s="19"/>
       <c r="G177" s="19"/>
       <c r="H177" s="19"/>
-      <c r="I177" s="121"/>
-      <c r="J177" s="122"/>
-      <c r="K177" s="122"/>
-      <c r="L177" s="123"/>
+      <c r="I177" s="115"/>
+      <c r="J177" s="116"/>
+      <c r="K177" s="116"/>
+      <c r="L177" s="117"/>
       <c r="M177" s="13"/>
       <c r="N177" s="13"/>
       <c r="O177" s="13"/>
@@ -6507,10 +6524,10 @@
       <c r="F178" s="19"/>
       <c r="G178" s="19"/>
       <c r="H178" s="19"/>
-      <c r="I178" s="124"/>
-      <c r="J178" s="125"/>
-      <c r="K178" s="125"/>
-      <c r="L178" s="126"/>
+      <c r="I178" s="118"/>
+      <c r="J178" s="119"/>
+      <c r="K178" s="119"/>
+      <c r="L178" s="120"/>
       <c r="M178" s="13"/>
       <c r="N178" s="13"/>
       <c r="O178" s="13"/>
@@ -6535,10 +6552,10 @@
       <c r="F179" s="19"/>
       <c r="G179" s="19"/>
       <c r="H179" s="19"/>
-      <c r="I179" s="133"/>
-      <c r="J179" s="133"/>
-      <c r="K179" s="133"/>
-      <c r="L179" s="133"/>
+      <c r="I179" s="127"/>
+      <c r="J179" s="127"/>
+      <c r="K179" s="127"/>
+      <c r="L179" s="127"/>
       <c r="M179" s="13"/>
       <c r="N179" s="13"/>
       <c r="O179" s="13"/>
@@ -6563,10 +6580,10 @@
       <c r="F180" s="95"/>
       <c r="G180" s="95"/>
       <c r="H180" s="95"/>
-      <c r="I180" s="121"/>
-      <c r="J180" s="122"/>
-      <c r="K180" s="122"/>
-      <c r="L180" s="123"/>
+      <c r="I180" s="115"/>
+      <c r="J180" s="116"/>
+      <c r="K180" s="116"/>
+      <c r="L180" s="117"/>
       <c r="M180" s="13"/>
       <c r="N180" s="13"/>
       <c r="O180" s="13"/>
@@ -6591,10 +6608,10 @@
       <c r="F181" s="19"/>
       <c r="G181" s="19"/>
       <c r="H181" s="19"/>
-      <c r="I181" s="121"/>
-      <c r="J181" s="122"/>
-      <c r="K181" s="122"/>
-      <c r="L181" s="123"/>
+      <c r="I181" s="115"/>
+      <c r="J181" s="116"/>
+      <c r="K181" s="116"/>
+      <c r="L181" s="117"/>
       <c r="M181" s="13"/>
       <c r="N181" s="13"/>
       <c r="O181" s="13"/>
@@ -6619,10 +6636,10 @@
       <c r="F182" s="19"/>
       <c r="G182" s="19"/>
       <c r="H182" s="19"/>
-      <c r="I182" s="124"/>
-      <c r="J182" s="125"/>
-      <c r="K182" s="125"/>
-      <c r="L182" s="126"/>
+      <c r="I182" s="118"/>
+      <c r="J182" s="119"/>
+      <c r="K182" s="119"/>
+      <c r="L182" s="120"/>
       <c r="M182" s="13"/>
       <c r="N182" s="13"/>
       <c r="O182" s="13"/>
@@ -6647,10 +6664,10 @@
       <c r="F183" s="19"/>
       <c r="G183" s="19"/>
       <c r="H183" s="19"/>
-      <c r="I183" s="124"/>
-      <c r="J183" s="125"/>
-      <c r="K183" s="125"/>
-      <c r="L183" s="126"/>
+      <c r="I183" s="118"/>
+      <c r="J183" s="119"/>
+      <c r="K183" s="119"/>
+      <c r="L183" s="120"/>
       <c r="M183" s="13"/>
       <c r="N183" s="13"/>
       <c r="O183" s="13"/>
@@ -6675,10 +6692,10 @@
       <c r="F184" s="19"/>
       <c r="G184" s="19"/>
       <c r="H184" s="19"/>
-      <c r="I184" s="124"/>
-      <c r="J184" s="125"/>
-      <c r="K184" s="125"/>
-      <c r="L184" s="126"/>
+      <c r="I184" s="118"/>
+      <c r="J184" s="119"/>
+      <c r="K184" s="119"/>
+      <c r="L184" s="120"/>
       <c r="M184" s="13"/>
       <c r="N184" s="13"/>
       <c r="O184" s="13"/>
@@ -6703,10 +6720,10 @@
       <c r="F185" s="19"/>
       <c r="G185" s="19"/>
       <c r="H185" s="19"/>
-      <c r="I185" s="124"/>
-      <c r="J185" s="125"/>
-      <c r="K185" s="125"/>
-      <c r="L185" s="126"/>
+      <c r="I185" s="118"/>
+      <c r="J185" s="119"/>
+      <c r="K185" s="119"/>
+      <c r="L185" s="120"/>
       <c r="M185" s="13"/>
       <c r="N185" s="13"/>
       <c r="O185" s="13"/>
@@ -6731,10 +6748,10 @@
       <c r="F186" s="19"/>
       <c r="G186" s="19"/>
       <c r="H186" s="19"/>
-      <c r="I186" s="121"/>
-      <c r="J186" s="122"/>
-      <c r="K186" s="122"/>
-      <c r="L186" s="123"/>
+      <c r="I186" s="115"/>
+      <c r="J186" s="116"/>
+      <c r="K186" s="116"/>
+      <c r="L186" s="117"/>
       <c r="M186" s="13"/>
       <c r="N186" s="13"/>
       <c r="O186" s="13"/>
@@ -6759,10 +6776,10 @@
       <c r="F187" s="19"/>
       <c r="G187" s="19"/>
       <c r="H187" s="19"/>
-      <c r="I187" s="124"/>
-      <c r="J187" s="125"/>
-      <c r="K187" s="125"/>
-      <c r="L187" s="126"/>
+      <c r="I187" s="118"/>
+      <c r="J187" s="119"/>
+      <c r="K187" s="119"/>
+      <c r="L187" s="120"/>
       <c r="M187" s="13"/>
       <c r="N187" s="13"/>
       <c r="O187" s="13"/>
@@ -6787,10 +6804,10 @@
       <c r="F188" s="19"/>
       <c r="G188" s="19"/>
       <c r="H188" s="19"/>
-      <c r="I188" s="124"/>
-      <c r="J188" s="125"/>
-      <c r="K188" s="125"/>
-      <c r="L188" s="126"/>
+      <c r="I188" s="118"/>
+      <c r="J188" s="119"/>
+      <c r="K188" s="119"/>
+      <c r="L188" s="120"/>
       <c r="M188" s="13"/>
       <c r="N188" s="13"/>
       <c r="O188" s="13"/>
@@ -6815,10 +6832,10 @@
       <c r="F189" s="19"/>
       <c r="G189" s="19"/>
       <c r="H189" s="19"/>
-      <c r="I189" s="124"/>
-      <c r="J189" s="125"/>
-      <c r="K189" s="125"/>
-      <c r="L189" s="126"/>
+      <c r="I189" s="118"/>
+      <c r="J189" s="119"/>
+      <c r="K189" s="119"/>
+      <c r="L189" s="120"/>
       <c r="M189" s="13"/>
       <c r="N189" s="13"/>
       <c r="O189" s="13"/>
@@ -6843,10 +6860,10 @@
       <c r="F190" s="19"/>
       <c r="G190" s="19"/>
       <c r="H190" s="19"/>
-      <c r="I190" s="124"/>
-      <c r="J190" s="125"/>
-      <c r="K190" s="125"/>
-      <c r="L190" s="126"/>
+      <c r="I190" s="118"/>
+      <c r="J190" s="119"/>
+      <c r="K190" s="119"/>
+      <c r="L190" s="120"/>
       <c r="M190" s="13"/>
       <c r="N190" s="13"/>
       <c r="O190" s="13"/>
@@ -6871,10 +6888,10 @@
       <c r="F191" s="19"/>
       <c r="G191" s="19"/>
       <c r="H191" s="19"/>
-      <c r="I191" s="124"/>
-      <c r="J191" s="125"/>
-      <c r="K191" s="125"/>
-      <c r="L191" s="126"/>
+      <c r="I191" s="118"/>
+      <c r="J191" s="119"/>
+      <c r="K191" s="119"/>
+      <c r="L191" s="120"/>
       <c r="M191" s="13"/>
       <c r="N191" s="13"/>
       <c r="O191" s="13"/>
@@ -6899,10 +6916,10 @@
       <c r="F192" s="19"/>
       <c r="G192" s="19"/>
       <c r="H192" s="19"/>
-      <c r="I192" s="124"/>
-      <c r="J192" s="125"/>
-      <c r="K192" s="125"/>
-      <c r="L192" s="126"/>
+      <c r="I192" s="118"/>
+      <c r="J192" s="119"/>
+      <c r="K192" s="119"/>
+      <c r="L192" s="120"/>
       <c r="M192" s="13"/>
       <c r="N192" s="13"/>
       <c r="O192" s="13"/>
@@ -6927,10 +6944,10 @@
       <c r="F193" s="19"/>
       <c r="G193" s="19"/>
       <c r="H193" s="19"/>
-      <c r="I193" s="124"/>
-      <c r="J193" s="125"/>
-      <c r="K193" s="125"/>
-      <c r="L193" s="126"/>
+      <c r="I193" s="118"/>
+      <c r="J193" s="119"/>
+      <c r="K193" s="119"/>
+      <c r="L193" s="120"/>
       <c r="M193" s="13"/>
       <c r="N193" s="13"/>
       <c r="O193" s="13"/>
@@ -6955,10 +6972,10 @@
       <c r="F194" s="19"/>
       <c r="G194" s="19"/>
       <c r="H194" s="19"/>
-      <c r="I194" s="124"/>
-      <c r="J194" s="125"/>
-      <c r="K194" s="125"/>
-      <c r="L194" s="126"/>
+      <c r="I194" s="118"/>
+      <c r="J194" s="119"/>
+      <c r="K194" s="119"/>
+      <c r="L194" s="120"/>
       <c r="M194" s="13"/>
       <c r="N194" s="13"/>
       <c r="O194" s="13"/>
@@ -6983,10 +7000,10 @@
       <c r="F195" s="19"/>
       <c r="G195" s="19"/>
       <c r="H195" s="19"/>
-      <c r="I195" s="124"/>
-      <c r="J195" s="125"/>
-      <c r="K195" s="125"/>
-      <c r="L195" s="126"/>
+      <c r="I195" s="118"/>
+      <c r="J195" s="119"/>
+      <c r="K195" s="119"/>
+      <c r="L195" s="120"/>
       <c r="M195" s="13"/>
       <c r="N195" s="13"/>
       <c r="O195" s="13"/>
@@ -7011,10 +7028,10 @@
       <c r="F196" s="19"/>
       <c r="G196" s="19"/>
       <c r="H196" s="19"/>
-      <c r="I196" s="124"/>
-      <c r="J196" s="125"/>
-      <c r="K196" s="125"/>
-      <c r="L196" s="126"/>
+      <c r="I196" s="118"/>
+      <c r="J196" s="119"/>
+      <c r="K196" s="119"/>
+      <c r="L196" s="120"/>
       <c r="M196" s="13"/>
       <c r="N196" s="13"/>
       <c r="O196" s="13"/>
@@ -7039,10 +7056,10 @@
       <c r="F197" s="19"/>
       <c r="G197" s="19"/>
       <c r="H197" s="19"/>
-      <c r="I197" s="124"/>
-      <c r="J197" s="125"/>
-      <c r="K197" s="125"/>
-      <c r="L197" s="126"/>
+      <c r="I197" s="118"/>
+      <c r="J197" s="119"/>
+      <c r="K197" s="119"/>
+      <c r="L197" s="120"/>
       <c r="M197" s="13"/>
       <c r="N197" s="13"/>
       <c r="O197" s="13"/>
@@ -7067,10 +7084,10 @@
       <c r="F198" s="19"/>
       <c r="G198" s="19"/>
       <c r="H198" s="19"/>
-      <c r="I198" s="124"/>
-      <c r="J198" s="125"/>
-      <c r="K198" s="125"/>
-      <c r="L198" s="126"/>
+      <c r="I198" s="118"/>
+      <c r="J198" s="119"/>
+      <c r="K198" s="119"/>
+      <c r="L198" s="120"/>
       <c r="M198" s="13"/>
       <c r="N198" s="13"/>
       <c r="O198" s="13"/>
@@ -7095,10 +7112,10 @@
       <c r="F199" s="19"/>
       <c r="G199" s="19"/>
       <c r="H199" s="19"/>
-      <c r="I199" s="124"/>
-      <c r="J199" s="125"/>
-      <c r="K199" s="125"/>
-      <c r="L199" s="126"/>
+      <c r="I199" s="118"/>
+      <c r="J199" s="119"/>
+      <c r="K199" s="119"/>
+      <c r="L199" s="120"/>
       <c r="M199" s="13"/>
       <c r="N199" s="13"/>
       <c r="O199" s="13"/>
@@ -7123,10 +7140,10 @@
       <c r="F200" s="19"/>
       <c r="G200" s="19"/>
       <c r="H200" s="19"/>
-      <c r="I200" s="124"/>
-      <c r="J200" s="125"/>
-      <c r="K200" s="125"/>
-      <c r="L200" s="126"/>
+      <c r="I200" s="118"/>
+      <c r="J200" s="119"/>
+      <c r="K200" s="119"/>
+      <c r="L200" s="120"/>
       <c r="M200" s="13"/>
       <c r="N200" s="13"/>
       <c r="O200" s="13"/>
@@ -7151,10 +7168,10 @@
       <c r="F201" s="19"/>
       <c r="G201" s="19"/>
       <c r="H201" s="19"/>
-      <c r="I201" s="124"/>
-      <c r="J201" s="125"/>
-      <c r="K201" s="125"/>
-      <c r="L201" s="126"/>
+      <c r="I201" s="118"/>
+      <c r="J201" s="119"/>
+      <c r="K201" s="119"/>
+      <c r="L201" s="120"/>
       <c r="M201" s="13"/>
       <c r="N201" s="13"/>
       <c r="O201" s="13"/>
@@ -7179,10 +7196,10 @@
       <c r="F202" s="19"/>
       <c r="G202" s="19"/>
       <c r="H202" s="19"/>
-      <c r="I202" s="124"/>
-      <c r="J202" s="125"/>
-      <c r="K202" s="125"/>
-      <c r="L202" s="126"/>
+      <c r="I202" s="118"/>
+      <c r="J202" s="119"/>
+      <c r="K202" s="119"/>
+      <c r="L202" s="120"/>
       <c r="M202" s="13"/>
       <c r="N202" s="13"/>
       <c r="O202" s="13"/>
@@ -7207,10 +7224,10 @@
       <c r="F203" s="19"/>
       <c r="G203" s="19"/>
       <c r="H203" s="19"/>
-      <c r="I203" s="124"/>
-      <c r="J203" s="125"/>
-      <c r="K203" s="125"/>
-      <c r="L203" s="126"/>
+      <c r="I203" s="118"/>
+      <c r="J203" s="119"/>
+      <c r="K203" s="119"/>
+      <c r="L203" s="120"/>
       <c r="M203" s="13"/>
       <c r="N203" s="13"/>
       <c r="O203" s="13"/>
@@ -7235,10 +7252,10 @@
       <c r="F204" s="19"/>
       <c r="G204" s="19"/>
       <c r="H204" s="19"/>
-      <c r="I204" s="124"/>
-      <c r="J204" s="125"/>
-      <c r="K204" s="125"/>
-      <c r="L204" s="126"/>
+      <c r="I204" s="118"/>
+      <c r="J204" s="119"/>
+      <c r="K204" s="119"/>
+      <c r="L204" s="120"/>
       <c r="M204" s="13"/>
       <c r="N204" s="13"/>
       <c r="O204" s="13"/>
@@ -7263,10 +7280,10 @@
       <c r="F205" s="19"/>
       <c r="G205" s="19"/>
       <c r="H205" s="19"/>
-      <c r="I205" s="124"/>
-      <c r="J205" s="125"/>
-      <c r="K205" s="125"/>
-      <c r="L205" s="126"/>
+      <c r="I205" s="118"/>
+      <c r="J205" s="119"/>
+      <c r="K205" s="119"/>
+      <c r="L205" s="120"/>
       <c r="M205" s="13"/>
       <c r="N205" s="13"/>
       <c r="O205" s="13"/>
@@ -7291,10 +7308,10 @@
       <c r="F206" s="19"/>
       <c r="G206" s="19"/>
       <c r="H206" s="19"/>
-      <c r="I206" s="121"/>
-      <c r="J206" s="122"/>
-      <c r="K206" s="122"/>
-      <c r="L206" s="123"/>
+      <c r="I206" s="115"/>
+      <c r="J206" s="116"/>
+      <c r="K206" s="116"/>
+      <c r="L206" s="117"/>
       <c r="M206" s="13"/>
       <c r="N206" s="13"/>
       <c r="O206" s="13"/>
@@ -7319,10 +7336,10 @@
       <c r="F207" s="19"/>
       <c r="G207" s="19"/>
       <c r="H207" s="19"/>
-      <c r="I207" s="124"/>
-      <c r="J207" s="125"/>
-      <c r="K207" s="125"/>
-      <c r="L207" s="126"/>
+      <c r="I207" s="118"/>
+      <c r="J207" s="119"/>
+      <c r="K207" s="119"/>
+      <c r="L207" s="120"/>
       <c r="M207" s="13"/>
       <c r="N207" s="13"/>
       <c r="O207" s="13"/>
@@ -7347,10 +7364,10 @@
       <c r="F208" s="19"/>
       <c r="G208" s="19"/>
       <c r="H208" s="19"/>
-      <c r="I208" s="124"/>
-      <c r="J208" s="125"/>
-      <c r="K208" s="125"/>
-      <c r="L208" s="126"/>
+      <c r="I208" s="118"/>
+      <c r="J208" s="119"/>
+      <c r="K208" s="119"/>
+      <c r="L208" s="120"/>
       <c r="M208" s="13"/>
       <c r="N208" s="13"/>
       <c r="O208" s="13"/>
@@ -7375,10 +7392,10 @@
       <c r="F209" s="19"/>
       <c r="G209" s="19"/>
       <c r="H209" s="19"/>
-      <c r="I209" s="121"/>
-      <c r="J209" s="122"/>
-      <c r="K209" s="122"/>
-      <c r="L209" s="123"/>
+      <c r="I209" s="115"/>
+      <c r="J209" s="116"/>
+      <c r="K209" s="116"/>
+      <c r="L209" s="117"/>
       <c r="M209" s="13"/>
       <c r="N209" s="13"/>
       <c r="O209" s="13"/>
@@ -7403,10 +7420,10 @@
       <c r="F210" s="19"/>
       <c r="G210" s="19"/>
       <c r="H210" s="19"/>
-      <c r="I210" s="121"/>
-      <c r="J210" s="122"/>
-      <c r="K210" s="122"/>
-      <c r="L210" s="123"/>
+      <c r="I210" s="115"/>
+      <c r="J210" s="116"/>
+      <c r="K210" s="116"/>
+      <c r="L210" s="117"/>
       <c r="M210" s="13"/>
       <c r="N210" s="13"/>
       <c r="O210" s="13"/>
@@ -7431,10 +7448,10 @@
       <c r="F211" s="19"/>
       <c r="G211" s="19"/>
       <c r="H211" s="19"/>
-      <c r="I211" s="121"/>
-      <c r="J211" s="122"/>
-      <c r="K211" s="122"/>
-      <c r="L211" s="123"/>
+      <c r="I211" s="115"/>
+      <c r="J211" s="116"/>
+      <c r="K211" s="116"/>
+      <c r="L211" s="117"/>
       <c r="M211" s="13"/>
       <c r="N211" s="13"/>
       <c r="O211" s="13"/>
@@ -7459,10 +7476,10 @@
       <c r="F212" s="19"/>
       <c r="G212" s="19"/>
       <c r="H212" s="19"/>
-      <c r="I212" s="121"/>
-      <c r="J212" s="122"/>
-      <c r="K212" s="122"/>
-      <c r="L212" s="123"/>
+      <c r="I212" s="115"/>
+      <c r="J212" s="116"/>
+      <c r="K212" s="116"/>
+      <c r="L212" s="117"/>
       <c r="M212" s="13"/>
       <c r="N212" s="13"/>
       <c r="O212" s="13"/>
@@ -7487,10 +7504,10 @@
       <c r="F213" s="19"/>
       <c r="G213" s="19"/>
       <c r="H213" s="19"/>
-      <c r="I213" s="121"/>
-      <c r="J213" s="122"/>
-      <c r="K213" s="122"/>
-      <c r="L213" s="123"/>
+      <c r="I213" s="115"/>
+      <c r="J213" s="116"/>
+      <c r="K213" s="116"/>
+      <c r="L213" s="117"/>
       <c r="M213" s="13"/>
       <c r="N213" s="13"/>
       <c r="O213" s="13"/>
@@ -7515,10 +7532,10 @@
       <c r="F214" s="19"/>
       <c r="G214" s="19"/>
       <c r="H214" s="19"/>
-      <c r="I214" s="121"/>
-      <c r="J214" s="122"/>
-      <c r="K214" s="122"/>
-      <c r="L214" s="123"/>
+      <c r="I214" s="115"/>
+      <c r="J214" s="116"/>
+      <c r="K214" s="116"/>
+      <c r="L214" s="117"/>
       <c r="M214" s="13"/>
       <c r="N214" s="13"/>
       <c r="O214" s="13"/>
@@ -7543,10 +7560,10 @@
       <c r="F215" s="19"/>
       <c r="G215" s="19"/>
       <c r="H215" s="19"/>
-      <c r="I215" s="121"/>
-      <c r="J215" s="122"/>
-      <c r="K215" s="122"/>
-      <c r="L215" s="123"/>
+      <c r="I215" s="115"/>
+      <c r="J215" s="116"/>
+      <c r="K215" s="116"/>
+      <c r="L215" s="117"/>
       <c r="M215" s="13"/>
       <c r="N215" s="13"/>
       <c r="O215" s="13"/>
@@ -7571,10 +7588,10 @@
       <c r="F216" s="19"/>
       <c r="G216" s="19"/>
       <c r="H216" s="19"/>
-      <c r="I216" s="124"/>
-      <c r="J216" s="125"/>
-      <c r="K216" s="125"/>
-      <c r="L216" s="126"/>
+      <c r="I216" s="118"/>
+      <c r="J216" s="119"/>
+      <c r="K216" s="119"/>
+      <c r="L216" s="120"/>
       <c r="M216" s="13"/>
       <c r="N216" s="13"/>
       <c r="O216" s="13"/>
@@ -7599,10 +7616,10 @@
       <c r="F217" s="19"/>
       <c r="G217" s="19"/>
       <c r="H217" s="19"/>
-      <c r="I217" s="124"/>
-      <c r="J217" s="125"/>
-      <c r="K217" s="125"/>
-      <c r="L217" s="126"/>
+      <c r="I217" s="118"/>
+      <c r="J217" s="119"/>
+      <c r="K217" s="119"/>
+      <c r="L217" s="120"/>
       <c r="M217" s="13"/>
       <c r="N217" s="13"/>
       <c r="O217" s="13"/>
@@ -7627,10 +7644,10 @@
       <c r="F218" s="19"/>
       <c r="G218" s="19"/>
       <c r="H218" s="19"/>
-      <c r="I218" s="124"/>
-      <c r="J218" s="125"/>
-      <c r="K218" s="125"/>
-      <c r="L218" s="126"/>
+      <c r="I218" s="118"/>
+      <c r="J218" s="119"/>
+      <c r="K218" s="119"/>
+      <c r="L218" s="120"/>
       <c r="M218" s="13"/>
       <c r="N218" s="13"/>
       <c r="O218" s="13"/>
@@ -7655,10 +7672,10 @@
       <c r="F219" s="19"/>
       <c r="G219" s="19"/>
       <c r="H219" s="19"/>
-      <c r="I219" s="121"/>
-      <c r="J219" s="122"/>
-      <c r="K219" s="122"/>
-      <c r="L219" s="123"/>
+      <c r="I219" s="115"/>
+      <c r="J219" s="116"/>
+      <c r="K219" s="116"/>
+      <c r="L219" s="117"/>
       <c r="M219" s="13"/>
       <c r="N219" s="13"/>
       <c r="O219" s="13"/>
@@ -7683,10 +7700,10 @@
       <c r="F220" s="19"/>
       <c r="G220" s="19"/>
       <c r="H220" s="19"/>
-      <c r="I220" s="124"/>
-      <c r="J220" s="125"/>
-      <c r="K220" s="125"/>
-      <c r="L220" s="126"/>
+      <c r="I220" s="118"/>
+      <c r="J220" s="119"/>
+      <c r="K220" s="119"/>
+      <c r="L220" s="120"/>
       <c r="M220" s="13"/>
       <c r="N220" s="13"/>
       <c r="O220" s="13"/>
@@ -7711,10 +7728,10 @@
       <c r="F221" s="19"/>
       <c r="G221" s="19"/>
       <c r="H221" s="19"/>
-      <c r="I221" s="124"/>
-      <c r="J221" s="125"/>
-      <c r="K221" s="125"/>
-      <c r="L221" s="126"/>
+      <c r="I221" s="118"/>
+      <c r="J221" s="119"/>
+      <c r="K221" s="119"/>
+      <c r="L221" s="120"/>
       <c r="M221" s="13"/>
       <c r="N221" s="13"/>
       <c r="O221" s="13"/>
@@ -7739,10 +7756,10 @@
       <c r="F222" s="19"/>
       <c r="G222" s="19"/>
       <c r="H222" s="19"/>
-      <c r="I222" s="121"/>
-      <c r="J222" s="122"/>
-      <c r="K222" s="122"/>
-      <c r="L222" s="123"/>
+      <c r="I222" s="115"/>
+      <c r="J222" s="116"/>
+      <c r="K222" s="116"/>
+      <c r="L222" s="117"/>
       <c r="M222" s="13"/>
       <c r="N222" s="13"/>
       <c r="O222" s="13"/>
@@ -7767,10 +7784,10 @@
       <c r="F223" s="19"/>
       <c r="G223" s="19"/>
       <c r="H223" s="19"/>
-      <c r="I223" s="124"/>
-      <c r="J223" s="125"/>
-      <c r="K223" s="125"/>
-      <c r="L223" s="126"/>
+      <c r="I223" s="118"/>
+      <c r="J223" s="119"/>
+      <c r="K223" s="119"/>
+      <c r="L223" s="120"/>
       <c r="M223" s="13"/>
       <c r="N223" s="13"/>
       <c r="O223" s="13"/>
@@ -7795,10 +7812,10 @@
       <c r="F224" s="19"/>
       <c r="G224" s="19"/>
       <c r="H224" s="19"/>
-      <c r="I224" s="124"/>
-      <c r="J224" s="125"/>
-      <c r="K224" s="125"/>
-      <c r="L224" s="126"/>
+      <c r="I224" s="118"/>
+      <c r="J224" s="119"/>
+      <c r="K224" s="119"/>
+      <c r="L224" s="120"/>
       <c r="M224" s="13"/>
       <c r="N224" s="13"/>
       <c r="O224" s="13"/>
@@ -7823,10 +7840,10 @@
       <c r="F225" s="19"/>
       <c r="G225" s="19"/>
       <c r="H225" s="19"/>
-      <c r="I225" s="124"/>
-      <c r="J225" s="125"/>
-      <c r="K225" s="125"/>
-      <c r="L225" s="126"/>
+      <c r="I225" s="118"/>
+      <c r="J225" s="119"/>
+      <c r="K225" s="119"/>
+      <c r="L225" s="120"/>
       <c r="M225" s="13"/>
       <c r="N225" s="13"/>
       <c r="O225" s="13"/>
@@ -7851,10 +7868,10 @@
       <c r="F226" s="19"/>
       <c r="G226" s="19"/>
       <c r="H226" s="19"/>
-      <c r="I226" s="124"/>
-      <c r="J226" s="125"/>
-      <c r="K226" s="125"/>
-      <c r="L226" s="126"/>
+      <c r="I226" s="118"/>
+      <c r="J226" s="119"/>
+      <c r="K226" s="119"/>
+      <c r="L226" s="120"/>
       <c r="M226" s="13"/>
       <c r="N226" s="13"/>
       <c r="O226" s="13"/>
@@ -7879,10 +7896,10 @@
       <c r="F227" s="19"/>
       <c r="G227" s="19"/>
       <c r="H227" s="19"/>
-      <c r="I227" s="124"/>
-      <c r="J227" s="125"/>
-      <c r="K227" s="125"/>
-      <c r="L227" s="126"/>
+      <c r="I227" s="118"/>
+      <c r="J227" s="119"/>
+      <c r="K227" s="119"/>
+      <c r="L227" s="120"/>
       <c r="M227" s="13"/>
       <c r="N227" s="13"/>
       <c r="O227" s="13"/>
@@ -7907,10 +7924,10 @@
       <c r="F228" s="19"/>
       <c r="G228" s="19"/>
       <c r="H228" s="19"/>
-      <c r="I228" s="127"/>
-      <c r="J228" s="128"/>
-      <c r="K228" s="128"/>
-      <c r="L228" s="129"/>
+      <c r="I228" s="124"/>
+      <c r="J228" s="125"/>
+      <c r="K228" s="125"/>
+      <c r="L228" s="126"/>
       <c r="M228" s="13"/>
       <c r="N228" s="13"/>
       <c r="O228" s="13"/>
@@ -7935,10 +7952,10 @@
       <c r="F229" s="19"/>
       <c r="G229" s="19"/>
       <c r="H229" s="19"/>
-      <c r="I229" s="127"/>
-      <c r="J229" s="128"/>
-      <c r="K229" s="128"/>
-      <c r="L229" s="129"/>
+      <c r="I229" s="124"/>
+      <c r="J229" s="125"/>
+      <c r="K229" s="125"/>
+      <c r="L229" s="126"/>
       <c r="M229" s="13"/>
       <c r="N229" s="13"/>
       <c r="O229" s="13"/>
@@ -7963,10 +7980,10 @@
       <c r="F230" s="19"/>
       <c r="G230" s="19"/>
       <c r="H230" s="19"/>
-      <c r="I230" s="112"/>
-      <c r="J230" s="113"/>
-      <c r="K230" s="113"/>
-      <c r="L230" s="114"/>
+      <c r="I230" s="131"/>
+      <c r="J230" s="132"/>
+      <c r="K230" s="132"/>
+      <c r="L230" s="133"/>
       <c r="M230" s="13"/>
       <c r="N230" s="13"/>
       <c r="O230" s="13"/>
@@ -7994,7 +8011,7 @@
       <c r="I231" s="96"/>
       <c r="J231" s="97"/>
       <c r="K231" s="97"/>
-      <c r="L231" s="98"/>
+      <c r="L231" s="99"/>
       <c r="M231" s="13"/>
       <c r="N231" s="13"/>
       <c r="O231" s="13"/>
@@ -8022,7 +8039,7 @@
       <c r="I232" s="96"/>
       <c r="J232" s="97"/>
       <c r="K232" s="97"/>
-      <c r="L232" s="98"/>
+      <c r="L232" s="99"/>
       <c r="M232" s="13"/>
       <c r="N232" s="13"/>
       <c r="O232" s="13"/>
@@ -8047,10 +8064,10 @@
       <c r="F233" s="19"/>
       <c r="G233" s="19"/>
       <c r="H233" s="31"/>
-      <c r="I233" s="115"/>
-      <c r="J233" s="116"/>
-      <c r="K233" s="116"/>
-      <c r="L233" s="117"/>
+      <c r="I233" s="134"/>
+      <c r="J233" s="135"/>
+      <c r="K233" s="135"/>
+      <c r="L233" s="136"/>
       <c r="M233" s="13"/>
       <c r="N233" s="13"/>
       <c r="O233" s="13"/>
@@ -8078,7 +8095,7 @@
       <c r="I234" s="96"/>
       <c r="J234" s="97"/>
       <c r="K234" s="97"/>
-      <c r="L234" s="98"/>
+      <c r="L234" s="99"/>
       <c r="M234" s="13"/>
       <c r="N234" s="13"/>
       <c r="O234" s="13"/>
@@ -8106,7 +8123,7 @@
       <c r="I235" s="96"/>
       <c r="J235" s="97"/>
       <c r="K235" s="97"/>
-      <c r="L235" s="98"/>
+      <c r="L235" s="99"/>
       <c r="M235" s="13"/>
       <c r="N235" s="13"/>
       <c r="O235" s="13"/>
@@ -8134,7 +8151,7 @@
       <c r="I236" s="96"/>
       <c r="J236" s="97"/>
       <c r="K236" s="97"/>
-      <c r="L236" s="98"/>
+      <c r="L236" s="99"/>
       <c r="M236" s="13"/>
       <c r="N236" s="13"/>
       <c r="O236" s="13"/>
@@ -8158,10 +8175,10 @@
       <c r="F237" s="19"/>
       <c r="G237" s="19"/>
       <c r="H237" s="42"/>
-      <c r="I237" s="118"/>
-      <c r="J237" s="119"/>
-      <c r="K237" s="119"/>
-      <c r="L237" s="120"/>
+      <c r="I237" s="137"/>
+      <c r="J237" s="138"/>
+      <c r="K237" s="138"/>
+      <c r="L237" s="139"/>
       <c r="M237" s="13"/>
       <c r="N237" s="13"/>
       <c r="O237" s="13"/>
@@ -8186,10 +8203,10 @@
       <c r="F238" s="19"/>
       <c r="G238" s="19"/>
       <c r="H238" s="31"/>
-      <c r="I238" s="99"/>
-      <c r="J238" s="100"/>
-      <c r="K238" s="100"/>
-      <c r="L238" s="101"/>
+      <c r="I238" s="100"/>
+      <c r="J238" s="101"/>
+      <c r="K238" s="101"/>
+      <c r="L238" s="102"/>
       <c r="M238" s="13"/>
       <c r="N238" s="13"/>
       <c r="O238" s="13"/>
@@ -8217,7 +8234,7 @@
       <c r="I239" s="96"/>
       <c r="J239" s="97"/>
       <c r="K239" s="97"/>
-      <c r="L239" s="98"/>
+      <c r="L239" s="99"/>
       <c r="M239" s="13"/>
       <c r="N239" s="13"/>
       <c r="O239" s="13"/>
@@ -8245,7 +8262,7 @@
       <c r="I240" s="96"/>
       <c r="J240" s="97"/>
       <c r="K240" s="97"/>
-      <c r="L240" s="98"/>
+      <c r="L240" s="99"/>
       <c r="M240" s="13"/>
       <c r="N240" s="13"/>
       <c r="O240" s="13"/>
@@ -8273,7 +8290,7 @@
       <c r="I241" s="96"/>
       <c r="J241" s="97"/>
       <c r="K241" s="97"/>
-      <c r="L241" s="98"/>
+      <c r="L241" s="99"/>
       <c r="M241" s="13"/>
       <c r="N241" s="13"/>
       <c r="O241" s="13"/>
@@ -8301,7 +8318,7 @@
       <c r="I242" s="96"/>
       <c r="J242" s="97"/>
       <c r="K242" s="97"/>
-      <c r="L242" s="98"/>
+      <c r="L242" s="99"/>
       <c r="M242" s="13"/>
       <c r="N242" s="13"/>
       <c r="O242" s="13"/>
@@ -8329,7 +8346,7 @@
       <c r="I243" s="96"/>
       <c r="J243" s="97"/>
       <c r="K243" s="97"/>
-      <c r="L243" s="105"/>
+      <c r="L243" s="98"/>
       <c r="M243" s="13"/>
       <c r="N243" s="13"/>
       <c r="O243" s="13"/>
@@ -8357,7 +8374,7 @@
       <c r="I244" s="96"/>
       <c r="J244" s="97"/>
       <c r="K244" s="97"/>
-      <c r="L244" s="105"/>
+      <c r="L244" s="98"/>
       <c r="N244" s="13"/>
       <c r="O244" s="13"/>
       <c r="P244" s="13"/>
@@ -8384,7 +8401,7 @@
       <c r="I245" s="96"/>
       <c r="J245" s="97"/>
       <c r="K245" s="97"/>
-      <c r="L245" s="105"/>
+      <c r="L245" s="98"/>
       <c r="M245" s="25"/>
     </row>
     <row r="246" spans="1:26" ht="13.8" x14ac:dyDescent="0.25">
@@ -8399,7 +8416,7 @@
       <c r="I246" s="96"/>
       <c r="J246" s="97"/>
       <c r="K246" s="97"/>
-      <c r="L246" s="105"/>
+      <c r="L246" s="98"/>
       <c r="M246" s="25"/>
       <c r="N246" s="13"/>
       <c r="O246" s="13"/>
@@ -8427,7 +8444,7 @@
       <c r="I247" s="96"/>
       <c r="J247" s="97"/>
       <c r="K247" s="97"/>
-      <c r="L247" s="105"/>
+      <c r="L247" s="98"/>
       <c r="M247" s="25"/>
       <c r="N247" s="13"/>
       <c r="O247" s="13"/>
@@ -8452,10 +8469,10 @@
       <c r="F248" s="19"/>
       <c r="G248" s="19"/>
       <c r="H248" s="31"/>
-      <c r="I248" s="99"/>
-      <c r="J248" s="100"/>
-      <c r="K248" s="100"/>
-      <c r="L248" s="110"/>
+      <c r="I248" s="100"/>
+      <c r="J248" s="101"/>
+      <c r="K248" s="101"/>
+      <c r="L248" s="111"/>
       <c r="M248" s="25"/>
       <c r="N248" s="13"/>
       <c r="O248" s="13"/>
@@ -8483,7 +8500,7 @@
       <c r="I249" s="96"/>
       <c r="J249" s="97"/>
       <c r="K249" s="97"/>
-      <c r="L249" s="105"/>
+      <c r="L249" s="98"/>
       <c r="M249" s="25"/>
       <c r="N249" s="13"/>
       <c r="O249" s="13"/>
@@ -8508,10 +8525,10 @@
       <c r="F250" s="19"/>
       <c r="G250" s="19"/>
       <c r="H250" s="31"/>
-      <c r="I250" s="99"/>
-      <c r="J250" s="100"/>
-      <c r="K250" s="100"/>
-      <c r="L250" s="110"/>
+      <c r="I250" s="100"/>
+      <c r="J250" s="101"/>
+      <c r="K250" s="101"/>
+      <c r="L250" s="111"/>
       <c r="M250" s="25"/>
       <c r="N250" s="13"/>
       <c r="O250" s="13"/>
@@ -8539,7 +8556,7 @@
       <c r="I251" s="96"/>
       <c r="J251" s="97"/>
       <c r="K251" s="97"/>
-      <c r="L251" s="105"/>
+      <c r="L251" s="98"/>
       <c r="M251" s="25"/>
       <c r="N251" s="13"/>
       <c r="O251" s="13"/>
@@ -8567,7 +8584,7 @@
       <c r="I252" s="96"/>
       <c r="J252" s="97"/>
       <c r="K252" s="97"/>
-      <c r="L252" s="105"/>
+      <c r="L252" s="98"/>
       <c r="M252" s="25"/>
       <c r="N252" s="13"/>
       <c r="O252" s="13"/>
@@ -8595,7 +8612,7 @@
       <c r="I253" s="96"/>
       <c r="J253" s="97"/>
       <c r="K253" s="97"/>
-      <c r="L253" s="105"/>
+      <c r="L253" s="98"/>
       <c r="M253" s="25"/>
       <c r="N253" s="13"/>
       <c r="O253" s="13"/>
@@ -8620,10 +8637,10 @@
       <c r="F254" s="19"/>
       <c r="G254" s="19"/>
       <c r="H254" s="31"/>
-      <c r="I254" s="99"/>
-      <c r="J254" s="100"/>
-      <c r="K254" s="100"/>
-      <c r="L254" s="110"/>
+      <c r="I254" s="100"/>
+      <c r="J254" s="101"/>
+      <c r="K254" s="101"/>
+      <c r="L254" s="111"/>
       <c r="M254" s="25"/>
       <c r="N254" s="13"/>
       <c r="O254" s="13"/>
@@ -8651,7 +8668,7 @@
       <c r="I255" s="96"/>
       <c r="J255" s="97"/>
       <c r="K255" s="97"/>
-      <c r="L255" s="105"/>
+      <c r="L255" s="98"/>
       <c r="M255" s="25"/>
       <c r="N255" s="13"/>
       <c r="O255" s="13"/>
@@ -8676,10 +8693,10 @@
       <c r="F256" s="19"/>
       <c r="G256" s="19"/>
       <c r="H256" s="31"/>
-      <c r="I256" s="99"/>
-      <c r="J256" s="100"/>
-      <c r="K256" s="100"/>
-      <c r="L256" s="110"/>
+      <c r="I256" s="100"/>
+      <c r="J256" s="101"/>
+      <c r="K256" s="101"/>
+      <c r="L256" s="111"/>
       <c r="M256" s="25"/>
       <c r="N256" s="13"/>
       <c r="O256" s="13"/>
@@ -8704,10 +8721,10 @@
       <c r="F257" s="19"/>
       <c r="G257" s="19"/>
       <c r="H257" s="31"/>
-      <c r="I257" s="99"/>
-      <c r="J257" s="100"/>
-      <c r="K257" s="100"/>
-      <c r="L257" s="110"/>
+      <c r="I257" s="100"/>
+      <c r="J257" s="101"/>
+      <c r="K257" s="101"/>
+      <c r="L257" s="111"/>
       <c r="M257" s="25"/>
       <c r="N257" s="13"/>
       <c r="O257" s="13"/>
@@ -8735,7 +8752,7 @@
       <c r="I258" s="96"/>
       <c r="J258" s="97"/>
       <c r="K258" s="97"/>
-      <c r="L258" s="105"/>
+      <c r="L258" s="98"/>
       <c r="M258" s="25"/>
       <c r="N258" s="13"/>
       <c r="O258" s="13"/>
@@ -8760,10 +8777,10 @@
       <c r="F259" s="19"/>
       <c r="G259" s="19"/>
       <c r="H259" s="31"/>
-      <c r="I259" s="111"/>
-      <c r="J259" s="100"/>
-      <c r="K259" s="100"/>
-      <c r="L259" s="100"/>
+      <c r="I259" s="103"/>
+      <c r="J259" s="101"/>
+      <c r="K259" s="101"/>
+      <c r="L259" s="101"/>
       <c r="M259" s="25"/>
       <c r="N259" s="13"/>
       <c r="O259" s="13"/>
@@ -8787,10 +8804,10 @@
       <c r="F260" s="19"/>
       <c r="G260" s="19"/>
       <c r="H260" s="19"/>
-      <c r="I260" s="99"/>
-      <c r="J260" s="100"/>
-      <c r="K260" s="100"/>
-      <c r="L260" s="110"/>
+      <c r="I260" s="100"/>
+      <c r="J260" s="101"/>
+      <c r="K260" s="101"/>
+      <c r="L260" s="111"/>
       <c r="M260" s="25"/>
       <c r="N260" s="13"/>
       <c r="O260" s="13"/>
@@ -8815,10 +8832,10 @@
       <c r="F261" s="19"/>
       <c r="G261" s="19"/>
       <c r="H261" s="31"/>
-      <c r="I261" s="99"/>
-      <c r="J261" s="100"/>
-      <c r="K261" s="100"/>
-      <c r="L261" s="110"/>
+      <c r="I261" s="100"/>
+      <c r="J261" s="101"/>
+      <c r="K261" s="101"/>
+      <c r="L261" s="111"/>
       <c r="M261" s="25"/>
       <c r="N261" s="13"/>
       <c r="O261" s="13"/>
@@ -8846,7 +8863,7 @@
       <c r="I262" s="96"/>
       <c r="J262" s="97"/>
       <c r="K262" s="97"/>
-      <c r="L262" s="105"/>
+      <c r="L262" s="98"/>
       <c r="M262" s="25"/>
       <c r="N262" s="13"/>
       <c r="O262" s="13"/>
@@ -8874,7 +8891,7 @@
       <c r="I263" s="96"/>
       <c r="J263" s="97"/>
       <c r="K263" s="97"/>
-      <c r="L263" s="105"/>
+      <c r="L263" s="98"/>
       <c r="N263" s="13"/>
       <c r="O263" s="13"/>
       <c r="P263" s="13"/>
@@ -8898,10 +8915,10 @@
       <c r="F264" s="19"/>
       <c r="G264" s="19"/>
       <c r="H264" s="31"/>
-      <c r="I264" s="99"/>
-      <c r="J264" s="100"/>
-      <c r="K264" s="100"/>
-      <c r="L264" s="110"/>
+      <c r="I264" s="100"/>
+      <c r="J264" s="101"/>
+      <c r="K264" s="101"/>
+      <c r="L264" s="111"/>
       <c r="M264" s="25"/>
     </row>
     <row r="265" spans="1:26" ht="13.2" customHeight="1" x14ac:dyDescent="0.25">
@@ -8913,10 +8930,10 @@
       <c r="F265" s="19"/>
       <c r="G265" s="19"/>
       <c r="H265" s="31"/>
-      <c r="I265" s="99"/>
-      <c r="J265" s="100"/>
-      <c r="K265" s="100"/>
-      <c r="L265" s="110"/>
+      <c r="I265" s="100"/>
+      <c r="J265" s="101"/>
+      <c r="K265" s="101"/>
+      <c r="L265" s="111"/>
       <c r="M265" s="25"/>
       <c r="N265" s="13"/>
       <c r="O265" s="13"/>
@@ -8941,10 +8958,10 @@
       <c r="F266" s="19"/>
       <c r="G266" s="19"/>
       <c r="H266" s="31"/>
-      <c r="I266" s="99"/>
-      <c r="J266" s="100"/>
-      <c r="K266" s="100"/>
-      <c r="L266" s="110"/>
+      <c r="I266" s="100"/>
+      <c r="J266" s="101"/>
+      <c r="K266" s="101"/>
+      <c r="L266" s="111"/>
       <c r="M266" s="25"/>
       <c r="N266" s="13"/>
       <c r="O266" s="13"/>
@@ -8972,7 +8989,7 @@
       <c r="I267" s="96"/>
       <c r="J267" s="97"/>
       <c r="K267" s="97"/>
-      <c r="L267" s="105"/>
+      <c r="L267" s="98"/>
       <c r="M267" s="25"/>
       <c r="N267" s="13"/>
       <c r="O267" s="13"/>
@@ -9000,7 +9017,7 @@
       <c r="I268" s="96"/>
       <c r="J268" s="97"/>
       <c r="K268" s="97"/>
-      <c r="L268" s="105"/>
+      <c r="L268" s="98"/>
       <c r="M268" s="25"/>
       <c r="N268" s="13"/>
       <c r="O268" s="13"/>
@@ -9028,7 +9045,7 @@
       <c r="I269" s="96"/>
       <c r="J269" s="97"/>
       <c r="K269" s="97"/>
-      <c r="L269" s="105"/>
+      <c r="L269" s="98"/>
       <c r="M269" s="25"/>
       <c r="N269" s="13"/>
       <c r="O269" s="13"/>
@@ -9056,7 +9073,7 @@
       <c r="I270" s="96"/>
       <c r="J270" s="97"/>
       <c r="K270" s="97"/>
-      <c r="L270" s="105"/>
+      <c r="L270" s="98"/>
       <c r="M270" s="25"/>
       <c r="N270" s="13"/>
       <c r="O270" s="13"/>
@@ -9081,10 +9098,10 @@
       <c r="F271" s="19"/>
       <c r="G271" s="19"/>
       <c r="H271" s="32"/>
-      <c r="I271" s="99"/>
-      <c r="J271" s="100"/>
-      <c r="K271" s="100"/>
-      <c r="L271" s="110"/>
+      <c r="I271" s="100"/>
+      <c r="J271" s="101"/>
+      <c r="K271" s="101"/>
+      <c r="L271" s="111"/>
       <c r="M271" s="25"/>
       <c r="N271" s="13"/>
       <c r="O271" s="13"/>
@@ -9109,10 +9126,10 @@
       <c r="F272" s="19"/>
       <c r="G272" s="19"/>
       <c r="H272" s="32"/>
-      <c r="I272" s="99"/>
-      <c r="J272" s="100"/>
-      <c r="K272" s="100"/>
-      <c r="L272" s="110"/>
+      <c r="I272" s="100"/>
+      <c r="J272" s="101"/>
+      <c r="K272" s="101"/>
+      <c r="L272" s="111"/>
       <c r="M272" s="25"/>
       <c r="N272" s="13"/>
       <c r="O272" s="13"/>
@@ -9137,10 +9154,10 @@
       <c r="F273" s="19"/>
       <c r="G273" s="19"/>
       <c r="H273" s="43"/>
-      <c r="I273" s="99"/>
-      <c r="J273" s="100"/>
-      <c r="K273" s="100"/>
-      <c r="L273" s="110"/>
+      <c r="I273" s="100"/>
+      <c r="J273" s="101"/>
+      <c r="K273" s="101"/>
+      <c r="L273" s="111"/>
       <c r="M273" s="25"/>
       <c r="N273" s="13"/>
       <c r="O273" s="13"/>
@@ -9168,7 +9185,7 @@
       <c r="I274" s="96"/>
       <c r="J274" s="97"/>
       <c r="K274" s="97"/>
-      <c r="L274" s="105"/>
+      <c r="L274" s="98"/>
       <c r="M274" s="25"/>
       <c r="N274" s="13"/>
       <c r="O274" s="13"/>
@@ -9196,7 +9213,7 @@
       <c r="I275" s="96"/>
       <c r="J275" s="97"/>
       <c r="K275" s="97"/>
-      <c r="L275" s="105"/>
+      <c r="L275" s="98"/>
       <c r="M275" s="25"/>
       <c r="N275" s="13"/>
       <c r="O275" s="13"/>
@@ -9224,7 +9241,7 @@
       <c r="I276" s="96"/>
       <c r="J276" s="97"/>
       <c r="K276" s="97"/>
-      <c r="L276" s="105"/>
+      <c r="L276" s="98"/>
       <c r="M276" s="25"/>
       <c r="N276" s="13"/>
       <c r="O276" s="13"/>
@@ -9252,7 +9269,7 @@
       <c r="I277" s="96"/>
       <c r="J277" s="97"/>
       <c r="K277" s="97"/>
-      <c r="L277" s="105"/>
+      <c r="L277" s="98"/>
       <c r="M277" s="25"/>
       <c r="N277" s="13"/>
       <c r="O277" s="13"/>
@@ -9280,7 +9297,7 @@
       <c r="I278" s="96"/>
       <c r="J278" s="97"/>
       <c r="K278" s="97"/>
-      <c r="L278" s="105"/>
+      <c r="L278" s="98"/>
       <c r="M278" s="25"/>
       <c r="N278" s="13"/>
       <c r="O278" s="13"/>
@@ -9308,7 +9325,7 @@
       <c r="I279" s="96"/>
       <c r="J279" s="97"/>
       <c r="K279" s="97"/>
-      <c r="L279" s="105"/>
+      <c r="L279" s="98"/>
       <c r="M279" s="25"/>
       <c r="N279" s="13"/>
       <c r="O279" s="13"/>
@@ -9336,7 +9353,7 @@
       <c r="I280" s="96"/>
       <c r="J280" s="97"/>
       <c r="K280" s="97"/>
-      <c r="L280" s="105"/>
+      <c r="L280" s="98"/>
       <c r="M280" s="25"/>
       <c r="N280" s="13"/>
       <c r="O280" s="13"/>
@@ -9361,10 +9378,10 @@
       <c r="F281" s="19"/>
       <c r="G281" s="19"/>
       <c r="H281" s="47"/>
-      <c r="I281" s="102"/>
-      <c r="J281" s="103"/>
-      <c r="K281" s="103"/>
-      <c r="L281" s="137"/>
+      <c r="I281" s="112"/>
+      <c r="J281" s="113"/>
+      <c r="K281" s="113"/>
+      <c r="L281" s="114"/>
       <c r="M281" s="25"/>
       <c r="N281" s="13"/>
       <c r="O281" s="13"/>
@@ -9389,10 +9406,10 @@
       <c r="F282" s="81"/>
       <c r="G282" s="81"/>
       <c r="H282" s="82"/>
-      <c r="I282" s="109"/>
-      <c r="J282" s="107"/>
-      <c r="K282" s="107"/>
-      <c r="L282" s="108"/>
+      <c r="I282" s="107"/>
+      <c r="J282" s="108"/>
+      <c r="K282" s="108"/>
+      <c r="L282" s="109"/>
       <c r="M282" s="25"/>
       <c r="N282" s="13"/>
       <c r="O282" s="13"/>
@@ -9417,10 +9434,10 @@
       <c r="F283" s="81"/>
       <c r="G283" s="81"/>
       <c r="H283" s="82"/>
-      <c r="I283" s="109"/>
-      <c r="J283" s="107"/>
-      <c r="K283" s="107"/>
-      <c r="L283" s="108"/>
+      <c r="I283" s="107"/>
+      <c r="J283" s="108"/>
+      <c r="K283" s="108"/>
+      <c r="L283" s="109"/>
       <c r="M283" s="25"/>
       <c r="N283" s="13"/>
       <c r="O283" s="13"/>
@@ -9445,10 +9462,10 @@
       <c r="F284" s="81"/>
       <c r="G284" s="81"/>
       <c r="H284" s="82"/>
-      <c r="I284" s="106"/>
-      <c r="J284" s="107"/>
-      <c r="K284" s="107"/>
-      <c r="L284" s="108"/>
+      <c r="I284" s="140"/>
+      <c r="J284" s="108"/>
+      <c r="K284" s="108"/>
+      <c r="L284" s="109"/>
       <c r="M284" s="25"/>
       <c r="N284" s="13"/>
       <c r="O284" s="13"/>
@@ -9473,10 +9490,10 @@
       <c r="F285" s="81"/>
       <c r="G285" s="81"/>
       <c r="H285" s="81"/>
-      <c r="I285" s="109"/>
-      <c r="J285" s="107"/>
-      <c r="K285" s="107"/>
-      <c r="L285" s="108"/>
+      <c r="I285" s="107"/>
+      <c r="J285" s="108"/>
+      <c r="K285" s="108"/>
+      <c r="L285" s="109"/>
       <c r="M285" s="25"/>
       <c r="N285" s="13"/>
       <c r="O285" s="13"/>
@@ -9501,10 +9518,10 @@
       <c r="F286" s="81"/>
       <c r="G286" s="81"/>
       <c r="H286" s="82"/>
-      <c r="I286" s="109"/>
-      <c r="J286" s="107"/>
-      <c r="K286" s="107"/>
-      <c r="L286" s="108"/>
+      <c r="I286" s="107"/>
+      <c r="J286" s="108"/>
+      <c r="K286" s="108"/>
+      <c r="L286" s="109"/>
       <c r="M286" s="25"/>
       <c r="N286" s="13"/>
       <c r="O286" s="13"/>
@@ -9532,7 +9549,7 @@
       <c r="I287" s="96"/>
       <c r="J287" s="97"/>
       <c r="K287" s="97"/>
-      <c r="L287" s="105"/>
+      <c r="L287" s="98"/>
       <c r="M287" s="25"/>
       <c r="N287" s="13"/>
       <c r="O287" s="13"/>
@@ -9560,7 +9577,7 @@
       <c r="I288" s="96"/>
       <c r="J288" s="97"/>
       <c r="K288" s="97"/>
-      <c r="L288" s="105"/>
+      <c r="L288" s="98"/>
       <c r="M288" s="25"/>
       <c r="N288" s="13"/>
       <c r="O288" s="13"/>
@@ -9585,10 +9602,10 @@
       <c r="F289" s="19"/>
       <c r="G289" s="19"/>
       <c r="H289" s="48"/>
-      <c r="I289" s="99"/>
-      <c r="J289" s="100"/>
-      <c r="K289" s="100"/>
-      <c r="L289" s="110"/>
+      <c r="I289" s="100"/>
+      <c r="J289" s="101"/>
+      <c r="K289" s="101"/>
+      <c r="L289" s="111"/>
       <c r="M289" s="25"/>
       <c r="N289" s="13"/>
       <c r="O289" s="13"/>
@@ -9616,7 +9633,7 @@
       <c r="I290" s="96"/>
       <c r="J290" s="97"/>
       <c r="K290" s="97"/>
-      <c r="L290" s="105"/>
+      <c r="L290" s="98"/>
       <c r="M290" s="25"/>
       <c r="N290" s="13"/>
       <c r="O290" s="13"/>
@@ -9641,10 +9658,10 @@
       <c r="F291" s="19"/>
       <c r="G291" s="19"/>
       <c r="H291" s="48"/>
-      <c r="I291" s="99"/>
-      <c r="J291" s="100"/>
-      <c r="K291" s="100"/>
-      <c r="L291" s="110"/>
+      <c r="I291" s="100"/>
+      <c r="J291" s="101"/>
+      <c r="K291" s="101"/>
+      <c r="L291" s="111"/>
       <c r="M291" s="25"/>
       <c r="N291" s="13"/>
       <c r="O291" s="13"/>
@@ -9672,7 +9689,7 @@
       <c r="I292" s="96"/>
       <c r="J292" s="97"/>
       <c r="K292" s="97"/>
-      <c r="L292" s="105"/>
+      <c r="L292" s="98"/>
       <c r="M292" s="25"/>
       <c r="N292" s="13"/>
       <c r="O292" s="13"/>
@@ -9700,7 +9717,7 @@
       <c r="I293" s="96"/>
       <c r="J293" s="97"/>
       <c r="K293" s="97"/>
-      <c r="L293" s="105"/>
+      <c r="L293" s="98"/>
       <c r="M293" s="25"/>
       <c r="N293" s="13"/>
       <c r="O293" s="13"/>
@@ -9725,10 +9742,10 @@
       <c r="F294" s="19"/>
       <c r="G294" s="19"/>
       <c r="H294" s="48"/>
-      <c r="I294" s="99"/>
-      <c r="J294" s="100"/>
-      <c r="K294" s="100"/>
-      <c r="L294" s="110"/>
+      <c r="I294" s="100"/>
+      <c r="J294" s="101"/>
+      <c r="K294" s="101"/>
+      <c r="L294" s="111"/>
       <c r="M294" s="83"/>
       <c r="N294" s="13"/>
       <c r="O294" s="13"/>
@@ -9753,10 +9770,10 @@
       <c r="F295" s="19"/>
       <c r="G295" s="19"/>
       <c r="H295" s="48"/>
-      <c r="I295" s="99"/>
-      <c r="J295" s="100"/>
-      <c r="K295" s="100"/>
-      <c r="L295" s="110"/>
+      <c r="I295" s="100"/>
+      <c r="J295" s="101"/>
+      <c r="K295" s="101"/>
+      <c r="L295" s="111"/>
       <c r="M295" s="83"/>
       <c r="N295" s="15"/>
       <c r="O295" s="15"/>
@@ -9784,7 +9801,7 @@
       <c r="I296" s="96"/>
       <c r="J296" s="97"/>
       <c r="K296" s="97"/>
-      <c r="L296" s="105"/>
+      <c r="L296" s="98"/>
       <c r="M296" s="83"/>
       <c r="N296" s="15"/>
       <c r="O296" s="15"/>
@@ -9812,7 +9829,7 @@
       <c r="I297" s="96"/>
       <c r="J297" s="97"/>
       <c r="K297" s="97"/>
-      <c r="L297" s="105"/>
+      <c r="L297" s="98"/>
       <c r="M297" s="83"/>
       <c r="N297" s="15"/>
       <c r="O297" s="15"/>
@@ -9840,7 +9857,7 @@
       <c r="I298" s="96"/>
       <c r="J298" s="97"/>
       <c r="K298" s="97"/>
-      <c r="L298" s="105"/>
+      <c r="L298" s="98"/>
       <c r="M298" s="83"/>
       <c r="N298" s="15"/>
       <c r="O298" s="15"/>
@@ -9868,7 +9885,7 @@
       <c r="I299" s="96"/>
       <c r="J299" s="97"/>
       <c r="K299" s="97"/>
-      <c r="L299" s="105"/>
+      <c r="L299" s="98"/>
       <c r="M299" s="83"/>
       <c r="N299" s="15"/>
       <c r="O299" s="15"/>
@@ -9896,7 +9913,7 @@
       <c r="I300" s="96"/>
       <c r="J300" s="97"/>
       <c r="K300" s="97"/>
-      <c r="L300" s="105"/>
+      <c r="L300" s="98"/>
       <c r="M300" s="25"/>
       <c r="N300" s="15"/>
       <c r="O300" s="15"/>
@@ -9924,7 +9941,7 @@
       <c r="I301" s="96"/>
       <c r="J301" s="97"/>
       <c r="K301" s="97"/>
-      <c r="L301" s="105"/>
+      <c r="L301" s="98"/>
       <c r="M301" s="25"/>
       <c r="N301" s="13"/>
       <c r="O301" s="13"/>
@@ -9952,7 +9969,7 @@
       <c r="I302" s="96"/>
       <c r="J302" s="97"/>
       <c r="K302" s="97"/>
-      <c r="L302" s="105"/>
+      <c r="L302" s="98"/>
       <c r="M302" s="25"/>
       <c r="N302" s="13"/>
       <c r="O302" s="13"/>
@@ -9980,7 +9997,7 @@
       <c r="I303" s="96"/>
       <c r="J303" s="97"/>
       <c r="K303" s="97"/>
-      <c r="L303" s="98"/>
+      <c r="L303" s="99"/>
       <c r="M303" s="25"/>
       <c r="N303" s="13"/>
       <c r="O303" s="13"/>
@@ -10008,7 +10025,7 @@
       <c r="I304" s="96"/>
       <c r="J304" s="97"/>
       <c r="K304" s="97"/>
-      <c r="L304" s="98"/>
+      <c r="L304" s="99"/>
       <c r="M304" s="13"/>
       <c r="N304" s="13"/>
       <c r="O304" s="13"/>
@@ -10036,7 +10053,7 @@
       <c r="I305" s="96"/>
       <c r="J305" s="97"/>
       <c r="K305" s="97"/>
-      <c r="L305" s="98"/>
+      <c r="L305" s="99"/>
       <c r="M305" s="13"/>
       <c r="N305" s="13"/>
       <c r="O305" s="13"/>
@@ -10064,7 +10081,7 @@
       <c r="I306" s="96"/>
       <c r="J306" s="97"/>
       <c r="K306" s="97"/>
-      <c r="L306" s="98"/>
+      <c r="L306" s="99"/>
       <c r="M306" s="13"/>
       <c r="N306" s="13"/>
       <c r="O306" s="13"/>
@@ -10092,7 +10109,7 @@
       <c r="I307" s="96"/>
       <c r="J307" s="97"/>
       <c r="K307" s="97"/>
-      <c r="L307" s="98"/>
+      <c r="L307" s="99"/>
       <c r="M307" s="13"/>
       <c r="N307" s="13"/>
       <c r="O307" s="13"/>
@@ -10120,7 +10137,7 @@
       <c r="I308" s="96"/>
       <c r="J308" s="97"/>
       <c r="K308" s="97"/>
-      <c r="L308" s="98"/>
+      <c r="L308" s="99"/>
       <c r="M308" s="13"/>
       <c r="N308" s="13"/>
       <c r="O308" s="13"/>
@@ -10148,7 +10165,7 @@
       <c r="I309" s="96"/>
       <c r="J309" s="97"/>
       <c r="K309" s="97"/>
-      <c r="L309" s="98"/>
+      <c r="L309" s="99"/>
       <c r="M309" s="13"/>
       <c r="N309" s="13"/>
       <c r="O309" s="13"/>
@@ -10176,7 +10193,7 @@
       <c r="I310" s="96"/>
       <c r="J310" s="97"/>
       <c r="K310" s="97"/>
-      <c r="L310" s="98"/>
+      <c r="L310" s="99"/>
       <c r="M310" s="13"/>
       <c r="N310" s="13"/>
       <c r="O310" s="13"/>
@@ -10204,7 +10221,7 @@
       <c r="I311" s="96"/>
       <c r="J311" s="97"/>
       <c r="K311" s="97"/>
-      <c r="L311" s="98"/>
+      <c r="L311" s="99"/>
       <c r="M311" s="13"/>
       <c r="N311" s="13"/>
       <c r="O311" s="13"/>
@@ -10232,7 +10249,7 @@
       <c r="I312" s="96"/>
       <c r="J312" s="97"/>
       <c r="K312" s="97"/>
-      <c r="L312" s="98"/>
+      <c r="L312" s="99"/>
       <c r="M312" s="13"/>
       <c r="N312" s="13"/>
       <c r="O312" s="13"/>
@@ -10260,7 +10277,7 @@
       <c r="I313" s="96"/>
       <c r="J313" s="97"/>
       <c r="K313" s="97"/>
-      <c r="L313" s="98"/>
+      <c r="L313" s="99"/>
       <c r="M313" s="13"/>
       <c r="N313" s="13"/>
       <c r="O313" s="13"/>
@@ -10285,10 +10302,10 @@
       <c r="F314" s="19"/>
       <c r="G314" s="19"/>
       <c r="H314" s="51"/>
-      <c r="I314" s="99"/>
-      <c r="J314" s="100"/>
-      <c r="K314" s="100"/>
-      <c r="L314" s="101"/>
+      <c r="I314" s="100"/>
+      <c r="J314" s="101"/>
+      <c r="K314" s="101"/>
+      <c r="L314" s="102"/>
       <c r="M314" s="13"/>
       <c r="N314" s="13"/>
       <c r="O314" s="13"/>
@@ -10313,10 +10330,10 @@
       <c r="F315" s="19"/>
       <c r="G315" s="19"/>
       <c r="H315" s="51"/>
-      <c r="I315" s="99"/>
-      <c r="J315" s="100"/>
-      <c r="K315" s="100"/>
-      <c r="L315" s="101"/>
+      <c r="I315" s="100"/>
+      <c r="J315" s="101"/>
+      <c r="K315" s="101"/>
+      <c r="L315" s="102"/>
       <c r="M315" s="13"/>
       <c r="N315" s="13"/>
       <c r="O315" s="13"/>
@@ -10344,7 +10361,7 @@
       <c r="I316" s="96"/>
       <c r="J316" s="97"/>
       <c r="K316" s="97"/>
-      <c r="L316" s="98"/>
+      <c r="L316" s="99"/>
       <c r="M316" s="13"/>
       <c r="N316" s="13"/>
       <c r="O316" s="13"/>
@@ -10372,7 +10389,7 @@
       <c r="I317" s="96"/>
       <c r="J317" s="97"/>
       <c r="K317" s="97"/>
-      <c r="L317" s="98"/>
+      <c r="L317" s="99"/>
       <c r="M317" s="13"/>
       <c r="N317" s="13"/>
       <c r="O317" s="13"/>
@@ -10397,10 +10414,10 @@
       <c r="F318" s="19"/>
       <c r="G318" s="19"/>
       <c r="H318" s="52"/>
-      <c r="I318" s="99"/>
-      <c r="J318" s="100"/>
-      <c r="K318" s="100"/>
-      <c r="L318" s="101"/>
+      <c r="I318" s="100"/>
+      <c r="J318" s="101"/>
+      <c r="K318" s="101"/>
+      <c r="L318" s="102"/>
       <c r="M318" s="13"/>
       <c r="N318" s="13"/>
       <c r="O318" s="13"/>
@@ -10428,7 +10445,7 @@
       <c r="I319" s="96"/>
       <c r="J319" s="97"/>
       <c r="K319" s="97"/>
-      <c r="L319" s="98"/>
+      <c r="L319" s="99"/>
       <c r="M319" s="13"/>
       <c r="N319" s="13"/>
       <c r="O319" s="13"/>
@@ -10456,7 +10473,7 @@
       <c r="I320" s="96"/>
       <c r="J320" s="97"/>
       <c r="K320" s="97"/>
-      <c r="L320" s="98"/>
+      <c r="L320" s="99"/>
       <c r="M320" s="13"/>
       <c r="N320" s="13"/>
       <c r="O320" s="13"/>
@@ -10484,7 +10501,7 @@
       <c r="I321" s="96"/>
       <c r="J321" s="97"/>
       <c r="K321" s="97"/>
-      <c r="L321" s="98"/>
+      <c r="L321" s="99"/>
       <c r="M321" s="13"/>
       <c r="N321" s="13"/>
       <c r="O321" s="13"/>
@@ -10512,7 +10529,7 @@
       <c r="I322" s="96"/>
       <c r="J322" s="97"/>
       <c r="K322" s="97"/>
-      <c r="L322" s="98"/>
+      <c r="L322" s="99"/>
       <c r="M322" s="13"/>
       <c r="N322" s="13"/>
       <c r="O322" s="13"/>
@@ -10540,7 +10557,7 @@
       <c r="I323" s="96"/>
       <c r="J323" s="97"/>
       <c r="K323" s="97"/>
-      <c r="L323" s="98"/>
+      <c r="L323" s="99"/>
       <c r="M323" s="13"/>
       <c r="N323" s="13"/>
       <c r="O323" s="13"/>
@@ -10565,10 +10582,10 @@
       <c r="F324" s="69"/>
       <c r="G324" s="19"/>
       <c r="H324" s="67"/>
-      <c r="I324" s="102"/>
-      <c r="J324" s="103"/>
-      <c r="K324" s="103"/>
-      <c r="L324" s="104"/>
+      <c r="I324" s="112"/>
+      <c r="J324" s="113"/>
+      <c r="K324" s="113"/>
+      <c r="L324" s="141"/>
       <c r="M324" s="13"/>
       <c r="N324" s="13"/>
       <c r="O324" s="13"/>
@@ -10677,10 +10694,10 @@
       <c r="F328" s="87"/>
       <c r="G328" s="81"/>
       <c r="H328" s="82"/>
-      <c r="I328" s="102"/>
-      <c r="J328" s="103"/>
-      <c r="K328" s="103"/>
-      <c r="L328" s="104"/>
+      <c r="I328" s="112"/>
+      <c r="J328" s="113"/>
+      <c r="K328" s="113"/>
+      <c r="L328" s="141"/>
       <c r="M328" s="13"/>
       <c r="N328" s="13"/>
       <c r="O328" s="13"/>
@@ -10733,10 +10750,10 @@
       <c r="F330" s="81"/>
       <c r="G330" s="81"/>
       <c r="H330" s="82"/>
-      <c r="I330" s="102"/>
-      <c r="J330" s="103"/>
-      <c r="K330" s="103"/>
-      <c r="L330" s="104"/>
+      <c r="I330" s="112"/>
+      <c r="J330" s="113"/>
+      <c r="K330" s="113"/>
+      <c r="L330" s="141"/>
       <c r="M330" s="13"/>
       <c r="N330" s="13"/>
       <c r="O330" s="13"/>
@@ -10761,10 +10778,10 @@
       <c r="F331" s="81"/>
       <c r="G331" s="81"/>
       <c r="H331" s="82"/>
-      <c r="I331" s="102"/>
-      <c r="J331" s="103"/>
-      <c r="K331" s="103"/>
-      <c r="L331" s="104"/>
+      <c r="I331" s="112"/>
+      <c r="J331" s="113"/>
+      <c r="K331" s="113"/>
+      <c r="L331" s="141"/>
       <c r="M331" s="13"/>
       <c r="N331" s="13"/>
       <c r="O331" s="13"/>
@@ -10789,10 +10806,10 @@
       <c r="F332" s="81"/>
       <c r="G332" s="81"/>
       <c r="H332" s="82"/>
-      <c r="I332" s="102"/>
-      <c r="J332" s="103"/>
-      <c r="K332" s="103"/>
-      <c r="L332" s="104"/>
+      <c r="I332" s="112"/>
+      <c r="J332" s="113"/>
+      <c r="K332" s="113"/>
+      <c r="L332" s="141"/>
       <c r="M332" s="13"/>
       <c r="N332" s="13"/>
       <c r="O332" s="13"/>
@@ -10845,10 +10862,10 @@
       <c r="F334" s="19"/>
       <c r="G334" s="19"/>
       <c r="H334" s="61"/>
-      <c r="I334" s="99"/>
-      <c r="J334" s="100"/>
-      <c r="K334" s="100"/>
-      <c r="L334" s="101"/>
+      <c r="I334" s="100"/>
+      <c r="J334" s="101"/>
+      <c r="K334" s="101"/>
+      <c r="L334" s="102"/>
       <c r="M334" s="13"/>
       <c r="N334" s="13"/>
       <c r="O334" s="13"/>
@@ -10932,7 +10949,7 @@
       <c r="I337" s="96"/>
       <c r="J337" s="97"/>
       <c r="K337" s="97"/>
-      <c r="L337" s="98"/>
+      <c r="L337" s="99"/>
       <c r="M337" s="15"/>
       <c r="N337" s="13"/>
       <c r="O337" s="13"/>
@@ -11013,10 +11030,10 @@
       <c r="F340" s="19"/>
       <c r="G340" s="19"/>
       <c r="H340" s="61"/>
-      <c r="I340" s="99"/>
-      <c r="J340" s="100"/>
-      <c r="K340" s="100"/>
-      <c r="L340" s="101"/>
+      <c r="I340" s="100"/>
+      <c r="J340" s="101"/>
+      <c r="K340" s="101"/>
+      <c r="L340" s="102"/>
       <c r="M340" s="15"/>
       <c r="N340" s="15"/>
       <c r="O340" s="15"/>
@@ -11044,7 +11061,7 @@
       <c r="I341" s="96"/>
       <c r="J341" s="97"/>
       <c r="K341" s="97"/>
-      <c r="L341" s="98"/>
+      <c r="L341" s="99"/>
       <c r="M341" s="15"/>
       <c r="N341" s="15"/>
       <c r="O341" s="15"/>
@@ -11072,7 +11089,7 @@
       <c r="I342" s="96"/>
       <c r="J342" s="97"/>
       <c r="K342" s="97"/>
-      <c r="L342" s="98"/>
+      <c r="L342" s="99"/>
       <c r="M342" s="15"/>
       <c r="N342" s="15"/>
       <c r="O342" s="15"/>
@@ -11097,10 +11114,10 @@
       <c r="F343" s="19"/>
       <c r="G343" s="19"/>
       <c r="H343" s="48"/>
-      <c r="I343" s="109"/>
-      <c r="J343" s="107"/>
-      <c r="K343" s="107"/>
-      <c r="L343" s="138"/>
+      <c r="I343" s="107"/>
+      <c r="J343" s="108"/>
+      <c r="K343" s="108"/>
+      <c r="L343" s="110"/>
       <c r="M343" s="15"/>
       <c r="N343" s="15"/>
       <c r="O343" s="15"/>
@@ -11128,7 +11145,7 @@
       <c r="I344" s="96"/>
       <c r="J344" s="97"/>
       <c r="K344" s="97"/>
-      <c r="L344" s="98"/>
+      <c r="L344" s="99"/>
       <c r="M344" s="15"/>
       <c r="N344" s="15"/>
       <c r="O344" s="15"/>
@@ -11153,10 +11170,10 @@
       <c r="F345" s="68"/>
       <c r="G345" s="68"/>
       <c r="H345" s="66"/>
-      <c r="I345" s="99"/>
-      <c r="J345" s="100"/>
-      <c r="K345" s="100"/>
-      <c r="L345" s="101"/>
+      <c r="I345" s="100"/>
+      <c r="J345" s="101"/>
+      <c r="K345" s="101"/>
+      <c r="L345" s="102"/>
       <c r="M345" s="15"/>
       <c r="N345" s="15"/>
       <c r="O345" s="15"/>
@@ -11181,10 +11198,10 @@
       <c r="F346" s="68"/>
       <c r="G346" s="68"/>
       <c r="H346" s="66"/>
-      <c r="I346" s="99"/>
-      <c r="J346" s="100"/>
-      <c r="K346" s="100"/>
-      <c r="L346" s="101"/>
+      <c r="I346" s="100"/>
+      <c r="J346" s="101"/>
+      <c r="K346" s="101"/>
+      <c r="L346" s="102"/>
       <c r="M346" s="13"/>
       <c r="N346" s="15"/>
       <c r="O346" s="15"/>
@@ -11212,7 +11229,7 @@
       <c r="I347" s="96"/>
       <c r="J347" s="97"/>
       <c r="K347" s="97"/>
-      <c r="L347" s="98"/>
+      <c r="L347" s="99"/>
       <c r="M347" s="13"/>
       <c r="N347" s="13"/>
       <c r="O347" s="13"/>
@@ -11237,10 +11254,10 @@
       <c r="F348" s="68"/>
       <c r="G348" s="68"/>
       <c r="H348" s="66"/>
-      <c r="I348" s="99"/>
-      <c r="J348" s="100"/>
-      <c r="K348" s="100"/>
-      <c r="L348" s="101"/>
+      <c r="I348" s="100"/>
+      <c r="J348" s="101"/>
+      <c r="K348" s="101"/>
+      <c r="L348" s="102"/>
       <c r="M348" s="13"/>
       <c r="N348" s="13"/>
       <c r="O348" s="13"/>
@@ -11265,10 +11282,10 @@
       <c r="F349" s="68"/>
       <c r="G349" s="68"/>
       <c r="H349" s="66"/>
-      <c r="I349" s="99"/>
-      <c r="J349" s="100"/>
-      <c r="K349" s="100"/>
-      <c r="L349" s="101"/>
+      <c r="I349" s="100"/>
+      <c r="J349" s="101"/>
+      <c r="K349" s="101"/>
+      <c r="L349" s="102"/>
       <c r="M349" s="13"/>
       <c r="N349" s="13"/>
       <c r="O349" s="13"/>
@@ -11293,10 +11310,10 @@
       <c r="F350" s="68"/>
       <c r="G350" s="68"/>
       <c r="H350" s="66"/>
-      <c r="I350" s="139"/>
-      <c r="J350" s="140"/>
-      <c r="K350" s="140"/>
-      <c r="L350" s="141"/>
+      <c r="I350" s="104"/>
+      <c r="J350" s="105"/>
+      <c r="K350" s="105"/>
+      <c r="L350" s="106"/>
       <c r="M350" s="13"/>
       <c r="N350" s="13"/>
       <c r="O350" s="13"/>
@@ -11321,10 +11338,10 @@
       <c r="F351" s="75"/>
       <c r="G351" s="75"/>
       <c r="H351" s="77"/>
-      <c r="I351" s="139"/>
-      <c r="J351" s="140"/>
-      <c r="K351" s="140"/>
-      <c r="L351" s="141"/>
+      <c r="I351" s="104"/>
+      <c r="J351" s="105"/>
+      <c r="K351" s="105"/>
+      <c r="L351" s="106"/>
       <c r="M351" s="13"/>
       <c r="N351" s="13"/>
       <c r="O351" s="13"/>
@@ -11349,10 +11366,10 @@
       <c r="F352" s="75"/>
       <c r="G352" s="75"/>
       <c r="H352" s="77"/>
-      <c r="I352" s="139"/>
-      <c r="J352" s="140"/>
-      <c r="K352" s="140"/>
-      <c r="L352" s="141"/>
+      <c r="I352" s="104"/>
+      <c r="J352" s="105"/>
+      <c r="K352" s="105"/>
+      <c r="L352" s="106"/>
       <c r="M352" s="13"/>
       <c r="N352" s="13"/>
       <c r="O352" s="13"/>
@@ -11377,10 +11394,10 @@
       <c r="F353" s="75"/>
       <c r="G353" s="75"/>
       <c r="H353" s="77"/>
-      <c r="I353" s="139"/>
-      <c r="J353" s="140"/>
-      <c r="K353" s="140"/>
-      <c r="L353" s="141"/>
+      <c r="I353" s="104"/>
+      <c r="J353" s="105"/>
+      <c r="K353" s="105"/>
+      <c r="L353" s="106"/>
       <c r="M353" s="13"/>
       <c r="N353" s="13"/>
       <c r="O353" s="13"/>
@@ -11408,7 +11425,7 @@
       <c r="I354" s="96"/>
       <c r="J354" s="97"/>
       <c r="K354" s="97"/>
-      <c r="L354" s="98"/>
+      <c r="L354" s="99"/>
       <c r="M354" s="13"/>
       <c r="N354" s="13"/>
       <c r="O354" s="13"/>
@@ -11436,7 +11453,7 @@
       <c r="I355" s="96"/>
       <c r="J355" s="97"/>
       <c r="K355" s="97"/>
-      <c r="L355" s="98"/>
+      <c r="L355" s="99"/>
       <c r="M355" s="13"/>
       <c r="N355" s="13"/>
       <c r="O355" s="13"/>
@@ -11464,7 +11481,7 @@
       <c r="I356" s="96"/>
       <c r="J356" s="97"/>
       <c r="K356" s="97"/>
-      <c r="L356" s="98"/>
+      <c r="L356" s="99"/>
       <c r="M356" s="15"/>
       <c r="N356" s="13"/>
       <c r="O356" s="13"/>
@@ -11492,7 +11509,7 @@
       <c r="I357" s="96"/>
       <c r="J357" s="97"/>
       <c r="K357" s="97"/>
-      <c r="L357" s="98"/>
+      <c r="L357" s="99"/>
       <c r="M357" s="13"/>
       <c r="N357" s="15"/>
       <c r="O357" s="15"/>
@@ -11520,7 +11537,7 @@
       <c r="I358" s="96"/>
       <c r="J358" s="97"/>
       <c r="K358" s="97"/>
-      <c r="L358" s="98"/>
+      <c r="L358" s="99"/>
       <c r="M358" s="13"/>
       <c r="N358" s="13"/>
       <c r="O358" s="13"/>
@@ -11548,7 +11565,7 @@
       <c r="I359" s="96"/>
       <c r="J359" s="97"/>
       <c r="K359" s="97"/>
-      <c r="L359" s="98"/>
+      <c r="L359" s="99"/>
       <c r="M359" s="13"/>
       <c r="N359" s="13"/>
       <c r="O359" s="13"/>
@@ -11576,7 +11593,7 @@
       <c r="I360" s="96"/>
       <c r="J360" s="97"/>
       <c r="K360" s="97"/>
-      <c r="L360" s="98"/>
+      <c r="L360" s="99"/>
       <c r="M360" s="13"/>
       <c r="N360" s="13"/>
       <c r="O360" s="13"/>
@@ -11604,7 +11621,7 @@
       <c r="I361" s="96"/>
       <c r="J361" s="97"/>
       <c r="K361" s="97"/>
-      <c r="L361" s="98"/>
+      <c r="L361" s="99"/>
       <c r="M361" s="13"/>
       <c r="N361" s="13"/>
       <c r="O361" s="13"/>
@@ -11632,7 +11649,7 @@
       <c r="I362" s="96"/>
       <c r="J362" s="97"/>
       <c r="K362" s="97"/>
-      <c r="L362" s="98"/>
+      <c r="L362" s="99"/>
       <c r="M362" s="13"/>
       <c r="N362" s="13"/>
       <c r="O362" s="13"/>
@@ -11660,7 +11677,7 @@
       <c r="I363" s="96"/>
       <c r="J363" s="97"/>
       <c r="K363" s="97"/>
-      <c r="L363" s="98"/>
+      <c r="L363" s="99"/>
       <c r="M363" s="78"/>
       <c r="N363" s="13"/>
       <c r="O363" s="13"/>
@@ -11688,7 +11705,7 @@
       <c r="I364" s="96"/>
       <c r="J364" s="97"/>
       <c r="K364" s="97"/>
-      <c r="L364" s="98"/>
+      <c r="L364" s="99"/>
       <c r="M364" s="78"/>
       <c r="N364" s="78"/>
       <c r="O364" s="78"/>
@@ -11716,7 +11733,7 @@
       <c r="I365" s="96"/>
       <c r="J365" s="97"/>
       <c r="K365" s="97"/>
-      <c r="L365" s="98"/>
+      <c r="L365" s="99"/>
       <c r="M365" s="78"/>
       <c r="N365" s="78"/>
       <c r="O365" s="78"/>
@@ -11741,10 +11758,10 @@
       <c r="F366" s="19"/>
       <c r="G366" s="19"/>
       <c r="H366" s="48"/>
-      <c r="I366" s="99"/>
-      <c r="J366" s="100"/>
-      <c r="K366" s="100"/>
-      <c r="L366" s="101"/>
+      <c r="I366" s="100"/>
+      <c r="J366" s="101"/>
+      <c r="K366" s="101"/>
+      <c r="L366" s="102"/>
       <c r="M366" s="78"/>
       <c r="N366" s="78"/>
       <c r="O366" s="78"/>
@@ -11769,10 +11786,10 @@
       <c r="F367" s="19"/>
       <c r="G367" s="19"/>
       <c r="H367" s="93"/>
-      <c r="I367" s="99"/>
-      <c r="J367" s="100"/>
-      <c r="K367" s="100"/>
-      <c r="L367" s="101"/>
+      <c r="I367" s="100"/>
+      <c r="J367" s="101"/>
+      <c r="K367" s="101"/>
+      <c r="L367" s="102"/>
       <c r="M367" s="13"/>
       <c r="N367" s="78"/>
       <c r="O367" s="78"/>
@@ -11797,10 +11814,10 @@
       <c r="F368" s="19"/>
       <c r="G368" s="19"/>
       <c r="H368" s="93"/>
-      <c r="I368" s="99"/>
-      <c r="J368" s="100"/>
-      <c r="K368" s="100"/>
-      <c r="L368" s="101"/>
+      <c r="I368" s="100"/>
+      <c r="J368" s="101"/>
+      <c r="K368" s="101"/>
+      <c r="L368" s="102"/>
       <c r="M368" s="13"/>
       <c r="N368" s="13"/>
       <c r="O368" s="13"/>
@@ -11825,10 +11842,10 @@
       <c r="F369" s="19"/>
       <c r="G369" s="19"/>
       <c r="H369" s="93"/>
-      <c r="I369" s="99"/>
-      <c r="J369" s="100"/>
-      <c r="K369" s="100"/>
-      <c r="L369" s="101"/>
+      <c r="I369" s="100"/>
+      <c r="J369" s="101"/>
+      <c r="K369" s="101"/>
+      <c r="L369" s="102"/>
       <c r="M369" s="13"/>
       <c r="N369" s="13"/>
       <c r="O369" s="13"/>
@@ -11853,10 +11870,10 @@
       <c r="F370" s="19"/>
       <c r="G370" s="19"/>
       <c r="H370" s="94"/>
-      <c r="I370" s="111"/>
-      <c r="J370" s="100"/>
-      <c r="K370" s="100"/>
-      <c r="L370" s="101"/>
+      <c r="I370" s="103"/>
+      <c r="J370" s="101"/>
+      <c r="K370" s="101"/>
+      <c r="L370" s="102"/>
       <c r="M370" s="13"/>
       <c r="N370" s="13"/>
       <c r="O370" s="13"/>
@@ -11884,7 +11901,7 @@
       <c r="I371" s="96"/>
       <c r="J371" s="97"/>
       <c r="K371" s="97"/>
-      <c r="L371" s="98"/>
+      <c r="L371" s="99"/>
       <c r="M371" s="13"/>
       <c r="N371" s="13"/>
       <c r="O371" s="13"/>
@@ -11909,10 +11926,10 @@
       <c r="F372" s="19"/>
       <c r="G372" s="19"/>
       <c r="H372" s="48"/>
-      <c r="I372" s="99"/>
-      <c r="J372" s="100"/>
-      <c r="K372" s="100"/>
-      <c r="L372" s="101"/>
+      <c r="I372" s="100"/>
+      <c r="J372" s="101"/>
+      <c r="K372" s="101"/>
+      <c r="L372" s="102"/>
       <c r="M372" s="13"/>
       <c r="N372" s="13"/>
       <c r="O372" s="13"/>
@@ -11940,7 +11957,7 @@
       <c r="I373" s="96"/>
       <c r="J373" s="97"/>
       <c r="K373" s="97"/>
-      <c r="L373" s="98"/>
+      <c r="L373" s="99"/>
       <c r="M373" s="13"/>
       <c r="N373" s="13"/>
       <c r="O373" s="13"/>
@@ -11968,7 +11985,7 @@
       <c r="I374" s="96"/>
       <c r="J374" s="97"/>
       <c r="K374" s="97"/>
-      <c r="L374" s="98"/>
+      <c r="L374" s="99"/>
       <c r="M374" s="13"/>
       <c r="N374" s="13"/>
       <c r="O374" s="13"/>
@@ -11993,10 +12010,10 @@
       <c r="F375" s="19"/>
       <c r="G375" s="19"/>
       <c r="H375" s="48"/>
-      <c r="I375" s="99"/>
-      <c r="J375" s="100"/>
-      <c r="K375" s="100"/>
-      <c r="L375" s="101"/>
+      <c r="I375" s="100"/>
+      <c r="J375" s="101"/>
+      <c r="K375" s="101"/>
+      <c r="L375" s="102"/>
       <c r="M375" s="13"/>
       <c r="N375" s="13"/>
       <c r="O375" s="13"/>
@@ -12024,7 +12041,7 @@
       <c r="I376" s="96"/>
       <c r="J376" s="97"/>
       <c r="K376" s="97"/>
-      <c r="L376" s="98"/>
+      <c r="L376" s="99"/>
       <c r="M376" s="13"/>
       <c r="N376" s="13"/>
       <c r="O376" s="13"/>
@@ -12068,7 +12085,7 @@
       <c r="I378" s="96"/>
       <c r="J378" s="97"/>
       <c r="K378" s="97"/>
-      <c r="L378" s="105"/>
+      <c r="L378" s="98"/>
       <c r="M378" s="13"/>
       <c r="N378" s="13"/>
       <c r="O378" s="13"/>
@@ -12096,7 +12113,7 @@
       <c r="I379" s="96"/>
       <c r="J379" s="97"/>
       <c r="K379" s="97"/>
-      <c r="L379" s="105"/>
+      <c r="L379" s="98"/>
       <c r="M379" s="13"/>
       <c r="N379" s="13"/>
       <c r="O379" s="13"/>
@@ -12124,7 +12141,7 @@
       <c r="I380" s="96"/>
       <c r="J380" s="97"/>
       <c r="K380" s="97"/>
-      <c r="L380" s="105"/>
+      <c r="L380" s="98"/>
       <c r="M380" s="13"/>
       <c r="N380" s="13"/>
       <c r="O380" s="13"/>
@@ -12152,7 +12169,7 @@
       <c r="I381" s="96"/>
       <c r="J381" s="97"/>
       <c r="K381" s="97"/>
-      <c r="L381" s="105"/>
+      <c r="L381" s="98"/>
       <c r="M381" s="13"/>
       <c r="N381" s="13"/>
       <c r="O381" s="13"/>
@@ -12180,7 +12197,7 @@
       <c r="I382" s="96"/>
       <c r="J382" s="97"/>
       <c r="K382" s="97"/>
-      <c r="L382" s="105"/>
+      <c r="L382" s="98"/>
       <c r="M382" s="13"/>
       <c r="N382" s="13"/>
       <c r="O382" s="13"/>
@@ -12208,7 +12225,7 @@
       <c r="I383" s="96"/>
       <c r="J383" s="97"/>
       <c r="K383" s="97"/>
-      <c r="L383" s="105"/>
+      <c r="L383" s="98"/>
       <c r="M383" s="13"/>
       <c r="N383" s="13"/>
       <c r="O383" s="13"/>
@@ -12236,7 +12253,7 @@
       <c r="I384" s="96"/>
       <c r="J384" s="97"/>
       <c r="K384" s="97"/>
-      <c r="L384" s="105"/>
+      <c r="L384" s="98"/>
       <c r="M384" s="13"/>
       <c r="N384" s="13"/>
       <c r="O384" s="13"/>
@@ -12264,7 +12281,7 @@
       <c r="I385" s="96"/>
       <c r="J385" s="97"/>
       <c r="K385" s="97"/>
-      <c r="L385" s="105"/>
+      <c r="L385" s="98"/>
       <c r="M385" s="13"/>
       <c r="N385" s="13"/>
       <c r="O385" s="13"/>
@@ -12292,7 +12309,7 @@
       <c r="I386" s="96"/>
       <c r="J386" s="97"/>
       <c r="K386" s="97"/>
-      <c r="L386" s="105"/>
+      <c r="L386" s="98"/>
       <c r="M386" s="13"/>
       <c r="N386" s="13"/>
       <c r="O386" s="13"/>
@@ -12320,7 +12337,7 @@
       <c r="I387" s="96"/>
       <c r="J387" s="97"/>
       <c r="K387" s="97"/>
-      <c r="L387" s="105"/>
+      <c r="L387" s="98"/>
       <c r="M387" s="13"/>
       <c r="N387" s="13"/>
       <c r="O387" s="13"/>
@@ -12348,7 +12365,7 @@
       <c r="I388" s="96"/>
       <c r="J388" s="97"/>
       <c r="K388" s="97"/>
-      <c r="L388" s="105"/>
+      <c r="L388" s="98"/>
       <c r="M388" s="13"/>
       <c r="N388" s="13"/>
       <c r="O388" s="13"/>
@@ -12376,7 +12393,7 @@
       <c r="I389" s="96"/>
       <c r="J389" s="97"/>
       <c r="K389" s="97"/>
-      <c r="L389" s="105"/>
+      <c r="L389" s="98"/>
       <c r="M389" s="13"/>
       <c r="N389" s="13"/>
       <c r="O389" s="13"/>
@@ -12404,7 +12421,7 @@
       <c r="I390" s="96"/>
       <c r="J390" s="97"/>
       <c r="K390" s="97"/>
-      <c r="L390" s="105"/>
+      <c r="L390" s="98"/>
       <c r="M390" s="13"/>
       <c r="N390" s="13"/>
       <c r="O390" s="13"/>
@@ -12432,7 +12449,7 @@
       <c r="I391" s="96"/>
       <c r="J391" s="97"/>
       <c r="K391" s="97"/>
-      <c r="L391" s="105"/>
+      <c r="L391" s="98"/>
       <c r="M391" s="13"/>
       <c r="N391" s="13"/>
       <c r="O391" s="13"/>
@@ -12460,7 +12477,7 @@
       <c r="I392" s="96"/>
       <c r="J392" s="97"/>
       <c r="K392" s="97"/>
-      <c r="L392" s="105"/>
+      <c r="L392" s="98"/>
       <c r="M392" s="13"/>
       <c r="N392" s="13"/>
       <c r="O392" s="13"/>
@@ -12488,7 +12505,7 @@
       <c r="I393" s="96"/>
       <c r="J393" s="97"/>
       <c r="K393" s="97"/>
-      <c r="L393" s="105"/>
+      <c r="L393" s="98"/>
       <c r="M393" s="13"/>
       <c r="N393" s="13"/>
       <c r="O393" s="13"/>
@@ -12516,7 +12533,7 @@
       <c r="I394" s="96"/>
       <c r="J394" s="97"/>
       <c r="K394" s="97"/>
-      <c r="L394" s="105"/>
+      <c r="L394" s="98"/>
       <c r="M394" s="13"/>
       <c r="N394" s="13"/>
       <c r="O394" s="13"/>
@@ -12544,7 +12561,7 @@
       <c r="I395" s="96"/>
       <c r="J395" s="97"/>
       <c r="K395" s="97"/>
-      <c r="L395" s="105"/>
+      <c r="L395" s="98"/>
       <c r="M395" s="13"/>
       <c r="N395" s="13"/>
       <c r="O395" s="13"/>
@@ -12572,7 +12589,7 @@
       <c r="I396" s="96"/>
       <c r="J396" s="97"/>
       <c r="K396" s="97"/>
-      <c r="L396" s="105"/>
+      <c r="L396" s="98"/>
       <c r="M396" s="13"/>
       <c r="N396" s="13"/>
       <c r="O396" s="13"/>
@@ -12600,7 +12617,7 @@
       <c r="I397" s="96"/>
       <c r="J397" s="97"/>
       <c r="K397" s="97"/>
-      <c r="L397" s="105"/>
+      <c r="L397" s="98"/>
       <c r="M397" s="13"/>
       <c r="N397" s="13"/>
       <c r="O397" s="13"/>
@@ -12628,7 +12645,7 @@
       <c r="I398" s="96"/>
       <c r="J398" s="97"/>
       <c r="K398" s="97"/>
-      <c r="L398" s="105"/>
+      <c r="L398" s="98"/>
       <c r="M398" s="13"/>
       <c r="N398" s="13"/>
       <c r="O398" s="13"/>
@@ -12656,7 +12673,7 @@
       <c r="I399" s="96"/>
       <c r="J399" s="97"/>
       <c r="K399" s="97"/>
-      <c r="L399" s="105"/>
+      <c r="L399" s="98"/>
       <c r="M399" s="13"/>
       <c r="N399" s="13"/>
       <c r="O399" s="13"/>
@@ -12684,7 +12701,7 @@
       <c r="I400" s="96"/>
       <c r="J400" s="97"/>
       <c r="K400" s="97"/>
-      <c r="L400" s="105"/>
+      <c r="L400" s="98"/>
       <c r="M400" s="13"/>
       <c r="N400" s="13"/>
       <c r="O400" s="13"/>
@@ -12712,7 +12729,7 @@
       <c r="I401" s="96"/>
       <c r="J401" s="97"/>
       <c r="K401" s="97"/>
-      <c r="L401" s="105"/>
+      <c r="L401" s="98"/>
       <c r="M401" s="13"/>
       <c r="N401" s="13"/>
       <c r="O401" s="13"/>
@@ -12740,7 +12757,7 @@
       <c r="I402" s="96"/>
       <c r="J402" s="97"/>
       <c r="K402" s="97"/>
-      <c r="L402" s="105"/>
+      <c r="L402" s="98"/>
       <c r="M402" s="13"/>
       <c r="N402" s="13"/>
       <c r="O402" s="13"/>
@@ -12768,7 +12785,7 @@
       <c r="I403" s="96"/>
       <c r="J403" s="97"/>
       <c r="K403" s="97"/>
-      <c r="L403" s="105"/>
+      <c r="L403" s="98"/>
       <c r="M403" s="13"/>
       <c r="N403" s="13"/>
       <c r="O403" s="13"/>
@@ -12796,7 +12813,7 @@
       <c r="I404" s="96"/>
       <c r="J404" s="97"/>
       <c r="K404" s="97"/>
-      <c r="L404" s="105"/>
+      <c r="L404" s="98"/>
       <c r="M404" s="13"/>
       <c r="N404" s="13"/>
       <c r="O404" s="13"/>
@@ -12824,7 +12841,7 @@
       <c r="I405" s="96"/>
       <c r="J405" s="97"/>
       <c r="K405" s="97"/>
-      <c r="L405" s="105"/>
+      <c r="L405" s="98"/>
       <c r="M405" s="13"/>
       <c r="N405" s="13"/>
       <c r="O405" s="13"/>
@@ -12852,7 +12869,7 @@
       <c r="I406" s="96"/>
       <c r="J406" s="97"/>
       <c r="K406" s="97"/>
-      <c r="L406" s="105"/>
+      <c r="L406" s="98"/>
       <c r="M406" s="13"/>
       <c r="N406" s="13"/>
       <c r="O406" s="13"/>
@@ -12880,7 +12897,7 @@
       <c r="I407" s="96"/>
       <c r="J407" s="97"/>
       <c r="K407" s="97"/>
-      <c r="L407" s="105"/>
+      <c r="L407" s="98"/>
       <c r="M407" s="13"/>
       <c r="N407" s="13"/>
       <c r="O407" s="13"/>
@@ -12908,7 +12925,7 @@
       <c r="I408" s="96"/>
       <c r="J408" s="97"/>
       <c r="K408" s="97"/>
-      <c r="L408" s="105"/>
+      <c r="L408" s="98"/>
       <c r="M408" s="13"/>
       <c r="N408" s="13"/>
       <c r="O408" s="13"/>
@@ -12936,7 +12953,7 @@
       <c r="I409" s="96"/>
       <c r="J409" s="97"/>
       <c r="K409" s="97"/>
-      <c r="L409" s="105"/>
+      <c r="L409" s="98"/>
       <c r="M409" s="13"/>
       <c r="N409" s="13"/>
       <c r="O409" s="13"/>
@@ -12964,7 +12981,7 @@
       <c r="I410" s="96"/>
       <c r="J410" s="97"/>
       <c r="K410" s="97"/>
-      <c r="L410" s="105"/>
+      <c r="L410" s="98"/>
       <c r="M410" s="13"/>
       <c r="N410" s="13"/>
       <c r="O410" s="13"/>
@@ -12992,7 +13009,7 @@
       <c r="I411" s="96"/>
       <c r="J411" s="97"/>
       <c r="K411" s="97"/>
-      <c r="L411" s="105"/>
+      <c r="L411" s="98"/>
       <c r="M411" s="13"/>
       <c r="N411" s="13"/>
       <c r="O411" s="13"/>
@@ -13020,7 +13037,7 @@
       <c r="I412" s="96"/>
       <c r="J412" s="97"/>
       <c r="K412" s="97"/>
-      <c r="L412" s="105"/>
+      <c r="L412" s="98"/>
       <c r="M412" s="13"/>
       <c r="N412" s="13"/>
       <c r="O412" s="13"/>
@@ -13048,7 +13065,7 @@
       <c r="I413" s="96"/>
       <c r="J413" s="97"/>
       <c r="K413" s="97"/>
-      <c r="L413" s="105"/>
+      <c r="L413" s="98"/>
       <c r="M413" s="13"/>
       <c r="N413" s="13"/>
       <c r="O413" s="13"/>
@@ -13076,7 +13093,7 @@
       <c r="I414" s="96"/>
       <c r="J414" s="97"/>
       <c r="K414" s="97"/>
-      <c r="L414" s="105"/>
+      <c r="L414" s="98"/>
       <c r="M414" s="13"/>
       <c r="N414" s="13"/>
       <c r="O414" s="13"/>
@@ -13104,7 +13121,7 @@
       <c r="I415" s="96"/>
       <c r="J415" s="97"/>
       <c r="K415" s="97"/>
-      <c r="L415" s="105"/>
+      <c r="L415" s="98"/>
       <c r="M415" s="13"/>
       <c r="N415" s="13"/>
       <c r="O415" s="13"/>
@@ -13132,7 +13149,7 @@
       <c r="I416" s="96"/>
       <c r="J416" s="97"/>
       <c r="K416" s="97"/>
-      <c r="L416" s="105"/>
+      <c r="L416" s="98"/>
       <c r="M416" s="13"/>
       <c r="N416" s="13"/>
       <c r="O416" s="13"/>
@@ -13160,7 +13177,7 @@
       <c r="I417" s="96"/>
       <c r="J417" s="97"/>
       <c r="K417" s="97"/>
-      <c r="L417" s="105"/>
+      <c r="L417" s="98"/>
       <c r="M417" s="13"/>
       <c r="N417" s="13"/>
       <c r="O417" s="13"/>
@@ -13188,7 +13205,7 @@
       <c r="I418" s="96"/>
       <c r="J418" s="97"/>
       <c r="K418" s="97"/>
-      <c r="L418" s="105"/>
+      <c r="L418" s="98"/>
       <c r="M418" s="13"/>
       <c r="N418" s="13"/>
       <c r="O418" s="13"/>
@@ -13216,7 +13233,7 @@
       <c r="I419" s="96"/>
       <c r="J419" s="97"/>
       <c r="K419" s="97"/>
-      <c r="L419" s="105"/>
+      <c r="L419" s="98"/>
       <c r="M419" s="13"/>
       <c r="N419" s="13"/>
       <c r="O419" s="13"/>
@@ -13244,7 +13261,7 @@
       <c r="I420" s="96"/>
       <c r="J420" s="97"/>
       <c r="K420" s="97"/>
-      <c r="L420" s="105"/>
+      <c r="L420" s="98"/>
       <c r="M420" s="13"/>
       <c r="N420" s="13"/>
       <c r="O420" s="13"/>
@@ -13272,7 +13289,7 @@
       <c r="I421" s="96"/>
       <c r="J421" s="97"/>
       <c r="K421" s="97"/>
-      <c r="L421" s="105"/>
+      <c r="L421" s="98"/>
       <c r="M421" s="13"/>
       <c r="N421" s="13"/>
       <c r="O421" s="13"/>
@@ -13300,7 +13317,7 @@
       <c r="I422" s="96"/>
       <c r="J422" s="97"/>
       <c r="K422" s="97"/>
-      <c r="L422" s="105"/>
+      <c r="L422" s="98"/>
       <c r="M422" s="13"/>
       <c r="N422" s="13"/>
       <c r="O422" s="13"/>
@@ -13328,7 +13345,7 @@
       <c r="I423" s="96"/>
       <c r="J423" s="97"/>
       <c r="K423" s="97"/>
-      <c r="L423" s="105"/>
+      <c r="L423" s="98"/>
       <c r="M423" s="13"/>
       <c r="N423" s="13"/>
       <c r="O423" s="13"/>
@@ -13356,7 +13373,7 @@
       <c r="I424" s="96"/>
       <c r="J424" s="97"/>
       <c r="K424" s="97"/>
-      <c r="L424" s="105"/>
+      <c r="L424" s="98"/>
       <c r="M424" s="13"/>
       <c r="N424" s="13"/>
       <c r="O424" s="13"/>
@@ -13384,7 +13401,7 @@
       <c r="I425" s="96"/>
       <c r="J425" s="97"/>
       <c r="K425" s="97"/>
-      <c r="L425" s="105"/>
+      <c r="L425" s="98"/>
       <c r="M425" s="13"/>
       <c r="N425" s="13"/>
       <c r="O425" s="13"/>
@@ -13412,7 +13429,7 @@
       <c r="I426" s="96"/>
       <c r="J426" s="97"/>
       <c r="K426" s="97"/>
-      <c r="L426" s="105"/>
+      <c r="L426" s="98"/>
       <c r="M426" s="13"/>
       <c r="N426" s="13"/>
       <c r="O426" s="13"/>
@@ -13440,7 +13457,7 @@
       <c r="I427" s="96"/>
       <c r="J427" s="97"/>
       <c r="K427" s="97"/>
-      <c r="L427" s="105"/>
+      <c r="L427" s="98"/>
       <c r="M427" s="13"/>
       <c r="N427" s="13"/>
       <c r="O427" s="13"/>
@@ -13468,7 +13485,7 @@
       <c r="I428" s="96"/>
       <c r="J428" s="97"/>
       <c r="K428" s="97"/>
-      <c r="L428" s="105"/>
+      <c r="L428" s="98"/>
       <c r="M428" s="13"/>
       <c r="N428" s="13"/>
       <c r="O428" s="13"/>
@@ -13496,7 +13513,7 @@
       <c r="I429" s="96"/>
       <c r="J429" s="97"/>
       <c r="K429" s="97"/>
-      <c r="L429" s="105"/>
+      <c r="L429" s="98"/>
       <c r="M429" s="13"/>
       <c r="N429" s="13"/>
       <c r="O429" s="13"/>
@@ -13524,7 +13541,7 @@
       <c r="I430" s="96"/>
       <c r="J430" s="97"/>
       <c r="K430" s="97"/>
-      <c r="L430" s="105"/>
+      <c r="L430" s="98"/>
       <c r="M430" s="13"/>
       <c r="N430" s="13"/>
       <c r="O430" s="13"/>
@@ -13552,7 +13569,7 @@
       <c r="I431" s="96"/>
       <c r="J431" s="97"/>
       <c r="K431" s="97"/>
-      <c r="L431" s="105"/>
+      <c r="L431" s="98"/>
       <c r="M431" s="13"/>
       <c r="N431" s="13"/>
       <c r="O431" s="13"/>
@@ -13580,7 +13597,7 @@
       <c r="I432" s="96"/>
       <c r="J432" s="97"/>
       <c r="K432" s="97"/>
-      <c r="L432" s="105"/>
+      <c r="L432" s="98"/>
       <c r="M432" s="13"/>
       <c r="N432" s="13"/>
       <c r="O432" s="13"/>
@@ -13608,7 +13625,7 @@
       <c r="I433" s="96"/>
       <c r="J433" s="97"/>
       <c r="K433" s="97"/>
-      <c r="L433" s="105"/>
+      <c r="L433" s="98"/>
       <c r="M433" s="13"/>
       <c r="N433" s="13"/>
       <c r="O433" s="13"/>
@@ -13636,7 +13653,7 @@
       <c r="I434" s="96"/>
       <c r="J434" s="97"/>
       <c r="K434" s="97"/>
-      <c r="L434" s="105"/>
+      <c r="L434" s="98"/>
       <c r="M434" s="13"/>
       <c r="N434" s="13"/>
       <c r="O434" s="13"/>
@@ -13664,7 +13681,7 @@
       <c r="I435" s="96"/>
       <c r="J435" s="97"/>
       <c r="K435" s="97"/>
-      <c r="L435" s="105"/>
+      <c r="L435" s="98"/>
       <c r="M435" s="13"/>
       <c r="N435" s="13"/>
       <c r="O435" s="13"/>
@@ -13692,7 +13709,7 @@
       <c r="I436" s="96"/>
       <c r="J436" s="97"/>
       <c r="K436" s="97"/>
-      <c r="L436" s="105"/>
+      <c r="L436" s="98"/>
       <c r="M436" s="13"/>
       <c r="N436" s="13"/>
       <c r="O436" s="13"/>
@@ -13720,7 +13737,7 @@
       <c r="I437" s="96"/>
       <c r="J437" s="97"/>
       <c r="K437" s="97"/>
-      <c r="L437" s="105"/>
+      <c r="L437" s="98"/>
       <c r="M437" s="13"/>
       <c r="N437" s="13"/>
       <c r="O437" s="13"/>
@@ -13748,7 +13765,7 @@
       <c r="I438" s="96"/>
       <c r="J438" s="97"/>
       <c r="K438" s="97"/>
-      <c r="L438" s="105"/>
+      <c r="L438" s="98"/>
       <c r="M438" s="13"/>
       <c r="N438" s="13"/>
       <c r="O438" s="13"/>
@@ -13776,7 +13793,7 @@
       <c r="I439" s="96"/>
       <c r="J439" s="97"/>
       <c r="K439" s="97"/>
-      <c r="L439" s="105"/>
+      <c r="L439" s="98"/>
       <c r="M439" s="13"/>
       <c r="N439" s="13"/>
       <c r="O439" s="13"/>
@@ -13804,7 +13821,7 @@
       <c r="I440" s="96"/>
       <c r="J440" s="97"/>
       <c r="K440" s="97"/>
-      <c r="L440" s="105"/>
+      <c r="L440" s="98"/>
       <c r="M440" s="13"/>
       <c r="N440" s="13"/>
       <c r="O440" s="13"/>
@@ -13832,7 +13849,7 @@
       <c r="I441" s="96"/>
       <c r="J441" s="97"/>
       <c r="K441" s="97"/>
-      <c r="L441" s="105"/>
+      <c r="L441" s="98"/>
       <c r="M441" s="13"/>
       <c r="N441" s="13"/>
       <c r="O441" s="13"/>
@@ -13860,7 +13877,7 @@
       <c r="I442" s="96"/>
       <c r="J442" s="97"/>
       <c r="K442" s="97"/>
-      <c r="L442" s="105"/>
+      <c r="L442" s="98"/>
       <c r="M442" s="13"/>
       <c r="N442" s="13"/>
       <c r="O442" s="13"/>
@@ -13888,7 +13905,7 @@
       <c r="I443" s="96"/>
       <c r="J443" s="97"/>
       <c r="K443" s="97"/>
-      <c r="L443" s="105"/>
+      <c r="L443" s="98"/>
       <c r="M443" s="13"/>
       <c r="N443" s="13"/>
       <c r="O443" s="13"/>
@@ -13916,7 +13933,7 @@
       <c r="I444" s="96"/>
       <c r="J444" s="97"/>
       <c r="K444" s="97"/>
-      <c r="L444" s="105"/>
+      <c r="L444" s="98"/>
       <c r="M444" s="13"/>
       <c r="N444" s="13"/>
       <c r="O444" s="13"/>
@@ -13944,7 +13961,7 @@
       <c r="I445" s="96"/>
       <c r="J445" s="97"/>
       <c r="K445" s="97"/>
-      <c r="L445" s="105"/>
+      <c r="L445" s="98"/>
       <c r="M445" s="13"/>
       <c r="N445" s="13"/>
       <c r="O445" s="13"/>
@@ -13972,7 +13989,7 @@
       <c r="I446" s="96"/>
       <c r="J446" s="97"/>
       <c r="K446" s="97"/>
-      <c r="L446" s="105"/>
+      <c r="L446" s="98"/>
       <c r="M446" s="13"/>
       <c r="N446" s="13"/>
       <c r="O446" s="13"/>
@@ -14000,7 +14017,7 @@
       <c r="I447" s="96"/>
       <c r="J447" s="97"/>
       <c r="K447" s="97"/>
-      <c r="L447" s="105"/>
+      <c r="L447" s="98"/>
       <c r="M447" s="13"/>
       <c r="N447" s="13"/>
       <c r="O447" s="13"/>
@@ -14028,7 +14045,7 @@
       <c r="I448" s="96"/>
       <c r="J448" s="97"/>
       <c r="K448" s="97"/>
-      <c r="L448" s="105"/>
+      <c r="L448" s="98"/>
       <c r="M448" s="13"/>
       <c r="N448" s="13"/>
       <c r="O448" s="13"/>
@@ -14056,7 +14073,7 @@
       <c r="I449" s="96"/>
       <c r="J449" s="97"/>
       <c r="K449" s="97"/>
-      <c r="L449" s="105"/>
+      <c r="L449" s="98"/>
       <c r="M449" s="13"/>
       <c r="N449" s="13"/>
       <c r="O449" s="13"/>
@@ -14084,7 +14101,7 @@
       <c r="I450" s="96"/>
       <c r="J450" s="97"/>
       <c r="K450" s="97"/>
-      <c r="L450" s="105"/>
+      <c r="L450" s="98"/>
       <c r="M450" s="13"/>
       <c r="N450" s="13"/>
       <c r="O450" s="13"/>
@@ -14112,7 +14129,7 @@
       <c r="I451" s="96"/>
       <c r="J451" s="97"/>
       <c r="K451" s="97"/>
-      <c r="L451" s="105"/>
+      <c r="L451" s="98"/>
       <c r="M451" s="13"/>
       <c r="N451" s="13"/>
       <c r="O451" s="13"/>
@@ -14140,7 +14157,7 @@
       <c r="I452" s="96"/>
       <c r="J452" s="97"/>
       <c r="K452" s="97"/>
-      <c r="L452" s="105"/>
+      <c r="L452" s="98"/>
       <c r="M452" s="13"/>
       <c r="N452" s="13"/>
       <c r="O452" s="13"/>
@@ -14168,7 +14185,7 @@
       <c r="I453" s="96"/>
       <c r="J453" s="97"/>
       <c r="K453" s="97"/>
-      <c r="L453" s="105"/>
+      <c r="L453" s="98"/>
       <c r="M453" s="13"/>
       <c r="N453" s="13"/>
       <c r="O453" s="13"/>
@@ -14196,7 +14213,7 @@
       <c r="I454" s="96"/>
       <c r="J454" s="97"/>
       <c r="K454" s="97"/>
-      <c r="L454" s="105"/>
+      <c r="L454" s="98"/>
       <c r="M454" s="13"/>
       <c r="N454" s="13"/>
       <c r="O454" s="13"/>
@@ -14224,7 +14241,7 @@
       <c r="I455" s="96"/>
       <c r="J455" s="97"/>
       <c r="K455" s="97"/>
-      <c r="L455" s="105"/>
+      <c r="L455" s="98"/>
       <c r="M455" s="13"/>
       <c r="N455" s="13"/>
       <c r="O455" s="13"/>
@@ -14252,7 +14269,7 @@
       <c r="I456" s="96"/>
       <c r="J456" s="97"/>
       <c r="K456" s="97"/>
-      <c r="L456" s="105"/>
+      <c r="L456" s="98"/>
       <c r="M456" s="13"/>
       <c r="N456" s="13"/>
       <c r="O456" s="13"/>
@@ -14280,7 +14297,7 @@
       <c r="I457" s="96"/>
       <c r="J457" s="97"/>
       <c r="K457" s="97"/>
-      <c r="L457" s="105"/>
+      <c r="L457" s="98"/>
       <c r="M457" s="13"/>
       <c r="N457" s="13"/>
       <c r="O457" s="13"/>
@@ -14308,7 +14325,7 @@
       <c r="I458" s="96"/>
       <c r="J458" s="97"/>
       <c r="K458" s="97"/>
-      <c r="L458" s="105"/>
+      <c r="L458" s="98"/>
       <c r="M458" s="13"/>
       <c r="N458" s="13"/>
       <c r="O458" s="13"/>
@@ -14336,7 +14353,7 @@
       <c r="I459" s="96"/>
       <c r="J459" s="97"/>
       <c r="K459" s="97"/>
-      <c r="L459" s="105"/>
+      <c r="L459" s="98"/>
       <c r="M459" s="13"/>
       <c r="N459" s="13"/>
       <c r="O459" s="13"/>
@@ -14364,7 +14381,7 @@
       <c r="I460" s="96"/>
       <c r="J460" s="97"/>
       <c r="K460" s="97"/>
-      <c r="L460" s="105"/>
+      <c r="L460" s="98"/>
       <c r="M460" s="13"/>
       <c r="N460" s="13"/>
       <c r="O460" s="13"/>
@@ -14392,7 +14409,7 @@
       <c r="I461" s="96"/>
       <c r="J461" s="97"/>
       <c r="K461" s="97"/>
-      <c r="L461" s="105"/>
+      <c r="L461" s="98"/>
       <c r="M461" s="13"/>
       <c r="N461" s="13"/>
       <c r="O461" s="13"/>
@@ -14420,7 +14437,7 @@
       <c r="I462" s="96"/>
       <c r="J462" s="97"/>
       <c r="K462" s="97"/>
-      <c r="L462" s="105"/>
+      <c r="L462" s="98"/>
       <c r="M462" s="13"/>
       <c r="N462" s="13"/>
       <c r="O462" s="13"/>
@@ -14448,7 +14465,7 @@
       <c r="I463" s="96"/>
       <c r="J463" s="97"/>
       <c r="K463" s="97"/>
-      <c r="L463" s="105"/>
+      <c r="L463" s="98"/>
       <c r="M463" s="13"/>
       <c r="N463" s="13"/>
       <c r="O463" s="13"/>
@@ -14476,7 +14493,7 @@
       <c r="I464" s="96"/>
       <c r="J464" s="97"/>
       <c r="K464" s="97"/>
-      <c r="L464" s="105"/>
+      <c r="L464" s="98"/>
       <c r="M464" s="13"/>
       <c r="N464" s="13"/>
       <c r="O464" s="13"/>
@@ -14504,7 +14521,7 @@
       <c r="I465" s="96"/>
       <c r="J465" s="97"/>
       <c r="K465" s="97"/>
-      <c r="L465" s="105"/>
+      <c r="L465" s="98"/>
       <c r="M465" s="13"/>
       <c r="N465" s="13"/>
       <c r="O465" s="13"/>
@@ -14532,7 +14549,7 @@
       <c r="I466" s="96"/>
       <c r="J466" s="97"/>
       <c r="K466" s="97"/>
-      <c r="L466" s="105"/>
+      <c r="L466" s="98"/>
       <c r="M466" s="13"/>
       <c r="N466" s="13"/>
       <c r="O466" s="13"/>
@@ -14560,7 +14577,7 @@
       <c r="I467" s="96"/>
       <c r="J467" s="97"/>
       <c r="K467" s="97"/>
-      <c r="L467" s="105"/>
+      <c r="L467" s="98"/>
       <c r="M467" s="13"/>
       <c r="N467" s="13"/>
       <c r="O467" s="13"/>
@@ -14588,7 +14605,7 @@
       <c r="I468" s="96"/>
       <c r="J468" s="97"/>
       <c r="K468" s="97"/>
-      <c r="L468" s="105"/>
+      <c r="L468" s="98"/>
       <c r="M468" s="13"/>
       <c r="N468" s="13"/>
       <c r="O468" s="13"/>
@@ -14616,7 +14633,7 @@
       <c r="I469" s="96"/>
       <c r="J469" s="97"/>
       <c r="K469" s="97"/>
-      <c r="L469" s="105"/>
+      <c r="L469" s="98"/>
       <c r="M469" s="13"/>
       <c r="N469" s="13"/>
       <c r="O469" s="13"/>
@@ -14644,7 +14661,7 @@
       <c r="I470" s="96"/>
       <c r="J470" s="97"/>
       <c r="K470" s="97"/>
-      <c r="L470" s="105"/>
+      <c r="L470" s="98"/>
       <c r="M470" s="13"/>
       <c r="N470" s="13"/>
       <c r="O470" s="13"/>
@@ -14672,7 +14689,7 @@
       <c r="I471" s="96"/>
       <c r="J471" s="97"/>
       <c r="K471" s="97"/>
-      <c r="L471" s="105"/>
+      <c r="L471" s="98"/>
       <c r="M471" s="13"/>
       <c r="N471" s="13"/>
       <c r="O471" s="13"/>
@@ -14700,7 +14717,7 @@
       <c r="I472" s="96"/>
       <c r="J472" s="97"/>
       <c r="K472" s="97"/>
-      <c r="L472" s="105"/>
+      <c r="L472" s="98"/>
       <c r="M472" s="13"/>
       <c r="N472" s="13"/>
       <c r="O472" s="13"/>
@@ -14728,7 +14745,7 @@
       <c r="I473" s="96"/>
       <c r="J473" s="97"/>
       <c r="K473" s="97"/>
-      <c r="L473" s="105"/>
+      <c r="L473" s="98"/>
       <c r="M473" s="13"/>
       <c r="N473" s="13"/>
       <c r="O473" s="13"/>
@@ -14756,7 +14773,7 @@
       <c r="I474" s="96"/>
       <c r="J474" s="97"/>
       <c r="K474" s="97"/>
-      <c r="L474" s="105"/>
+      <c r="L474" s="98"/>
       <c r="M474" s="13"/>
       <c r="N474" s="13"/>
       <c r="O474" s="13"/>
@@ -14784,7 +14801,7 @@
       <c r="I475" s="96"/>
       <c r="J475" s="97"/>
       <c r="K475" s="97"/>
-      <c r="L475" s="105"/>
+      <c r="L475" s="98"/>
       <c r="M475" s="13"/>
       <c r="N475" s="13"/>
       <c r="O475" s="13"/>
@@ -14812,7 +14829,7 @@
       <c r="I476" s="96"/>
       <c r="J476" s="97"/>
       <c r="K476" s="97"/>
-      <c r="L476" s="105"/>
+      <c r="L476" s="98"/>
       <c r="M476" s="13"/>
       <c r="N476" s="13"/>
       <c r="O476" s="13"/>
@@ -14840,7 +14857,7 @@
       <c r="I477" s="96"/>
       <c r="J477" s="97"/>
       <c r="K477" s="97"/>
-      <c r="L477" s="105"/>
+      <c r="L477" s="98"/>
       <c r="M477" s="13"/>
       <c r="N477" s="13"/>
       <c r="O477" s="13"/>
@@ -14868,7 +14885,7 @@
       <c r="I478" s="96"/>
       <c r="J478" s="97"/>
       <c r="K478" s="97"/>
-      <c r="L478" s="105"/>
+      <c r="L478" s="98"/>
       <c r="M478" s="13"/>
       <c r="N478" s="13"/>
       <c r="O478" s="13"/>
@@ -14896,7 +14913,7 @@
       <c r="I479" s="96"/>
       <c r="J479" s="97"/>
       <c r="K479" s="97"/>
-      <c r="L479" s="105"/>
+      <c r="L479" s="98"/>
       <c r="M479" s="13"/>
       <c r="N479" s="13"/>
       <c r="O479" s="13"/>
@@ -14924,7 +14941,7 @@
       <c r="I480" s="96"/>
       <c r="J480" s="97"/>
       <c r="K480" s="97"/>
-      <c r="L480" s="105"/>
+      <c r="L480" s="98"/>
       <c r="M480" s="13"/>
       <c r="N480" s="13"/>
       <c r="O480" s="13"/>
@@ -14952,7 +14969,7 @@
       <c r="I481" s="96"/>
       <c r="J481" s="97"/>
       <c r="K481" s="97"/>
-      <c r="L481" s="105"/>
+      <c r="L481" s="98"/>
       <c r="M481" s="13"/>
       <c r="N481" s="13"/>
       <c r="O481" s="13"/>
@@ -14980,7 +14997,7 @@
       <c r="I482" s="96"/>
       <c r="J482" s="97"/>
       <c r="K482" s="97"/>
-      <c r="L482" s="105"/>
+      <c r="L482" s="98"/>
       <c r="M482" s="13"/>
       <c r="N482" s="13"/>
       <c r="O482" s="13"/>
@@ -15008,7 +15025,7 @@
       <c r="I483" s="96"/>
       <c r="J483" s="97"/>
       <c r="K483" s="97"/>
-      <c r="L483" s="105"/>
+      <c r="L483" s="98"/>
       <c r="M483" s="13"/>
       <c r="N483" s="13"/>
       <c r="O483" s="13"/>
@@ -15036,7 +15053,7 @@
       <c r="I484" s="96"/>
       <c r="J484" s="97"/>
       <c r="K484" s="97"/>
-      <c r="L484" s="105"/>
+      <c r="L484" s="98"/>
       <c r="M484" s="13"/>
       <c r="N484" s="13"/>
       <c r="O484" s="13"/>
@@ -15064,7 +15081,7 @@
       <c r="I485" s="96"/>
       <c r="J485" s="97"/>
       <c r="K485" s="97"/>
-      <c r="L485" s="105"/>
+      <c r="L485" s="98"/>
       <c r="M485" s="13"/>
       <c r="N485" s="13"/>
       <c r="O485" s="13"/>
@@ -15092,7 +15109,7 @@
       <c r="I486" s="96"/>
       <c r="J486" s="97"/>
       <c r="K486" s="97"/>
-      <c r="L486" s="105"/>
+      <c r="L486" s="98"/>
       <c r="M486" s="13"/>
       <c r="N486" s="13"/>
       <c r="O486" s="13"/>
@@ -15120,7 +15137,7 @@
       <c r="I487" s="96"/>
       <c r="J487" s="97"/>
       <c r="K487" s="97"/>
-      <c r="L487" s="105"/>
+      <c r="L487" s="98"/>
       <c r="M487" s="13"/>
       <c r="N487" s="13"/>
       <c r="O487" s="13"/>
@@ -15148,7 +15165,7 @@
       <c r="I488" s="96"/>
       <c r="J488" s="97"/>
       <c r="K488" s="97"/>
-      <c r="L488" s="105"/>
+      <c r="L488" s="98"/>
       <c r="M488" s="13"/>
       <c r="N488" s="13"/>
       <c r="O488" s="13"/>
@@ -15176,7 +15193,7 @@
       <c r="I489" s="96"/>
       <c r="J489" s="97"/>
       <c r="K489" s="97"/>
-      <c r="L489" s="105"/>
+      <c r="L489" s="98"/>
       <c r="M489" s="13"/>
       <c r="N489" s="13"/>
       <c r="O489" s="13"/>
@@ -15204,7 +15221,7 @@
       <c r="I490" s="96"/>
       <c r="J490" s="97"/>
       <c r="K490" s="97"/>
-      <c r="L490" s="105"/>
+      <c r="L490" s="98"/>
       <c r="M490" s="13"/>
       <c r="N490" s="13"/>
       <c r="O490" s="13"/>
@@ -15232,7 +15249,7 @@
       <c r="I491" s="96"/>
       <c r="J491" s="97"/>
       <c r="K491" s="97"/>
-      <c r="L491" s="105"/>
+      <c r="L491" s="98"/>
       <c r="M491" s="13"/>
       <c r="N491" s="13"/>
       <c r="O491" s="13"/>
@@ -15260,7 +15277,7 @@
       <c r="I492" s="96"/>
       <c r="J492" s="97"/>
       <c r="K492" s="97"/>
-      <c r="L492" s="105"/>
+      <c r="L492" s="98"/>
       <c r="M492" s="13"/>
       <c r="N492" s="13"/>
       <c r="O492" s="13"/>
@@ -15288,7 +15305,7 @@
       <c r="I493" s="96"/>
       <c r="J493" s="97"/>
       <c r="K493" s="97"/>
-      <c r="L493" s="105"/>
+      <c r="L493" s="98"/>
       <c r="M493" s="13"/>
       <c r="N493" s="13"/>
       <c r="O493" s="13"/>
@@ -15316,7 +15333,7 @@
       <c r="I494" s="96"/>
       <c r="J494" s="97"/>
       <c r="K494" s="97"/>
-      <c r="L494" s="105"/>
+      <c r="L494" s="98"/>
       <c r="M494" s="13"/>
       <c r="N494" s="13"/>
       <c r="O494" s="13"/>
@@ -15344,7 +15361,7 @@
       <c r="I495" s="96"/>
       <c r="J495" s="97"/>
       <c r="K495" s="97"/>
-      <c r="L495" s="105"/>
+      <c r="L495" s="98"/>
       <c r="M495" s="13"/>
       <c r="N495" s="13"/>
       <c r="O495" s="13"/>
@@ -15372,7 +15389,7 @@
       <c r="I496" s="96"/>
       <c r="J496" s="97"/>
       <c r="K496" s="97"/>
-      <c r="L496" s="105"/>
+      <c r="L496" s="98"/>
       <c r="M496" s="13"/>
       <c r="N496" s="13"/>
       <c r="O496" s="13"/>
@@ -15400,7 +15417,7 @@
       <c r="I497" s="96"/>
       <c r="J497" s="97"/>
       <c r="K497" s="97"/>
-      <c r="L497" s="105"/>
+      <c r="L497" s="98"/>
       <c r="M497" s="13"/>
       <c r="N497" s="13"/>
       <c r="O497" s="13"/>
@@ -15428,7 +15445,7 @@
       <c r="I498" s="96"/>
       <c r="J498" s="97"/>
       <c r="K498" s="97"/>
-      <c r="L498" s="105"/>
+      <c r="L498" s="98"/>
       <c r="M498" s="13"/>
       <c r="N498" s="13"/>
       <c r="O498" s="13"/>
@@ -15456,7 +15473,7 @@
       <c r="I499" s="96"/>
       <c r="J499" s="97"/>
       <c r="K499" s="97"/>
-      <c r="L499" s="105"/>
+      <c r="L499" s="98"/>
       <c r="M499" s="13"/>
       <c r="N499" s="13"/>
       <c r="O499" s="13"/>
@@ -15484,7 +15501,7 @@
       <c r="I500" s="96"/>
       <c r="J500" s="97"/>
       <c r="K500" s="97"/>
-      <c r="L500" s="105"/>
+      <c r="L500" s="98"/>
       <c r="M500" s="13"/>
       <c r="N500" s="13"/>
       <c r="O500" s="13"/>
@@ -15512,7 +15529,7 @@
       <c r="I501" s="96"/>
       <c r="J501" s="97"/>
       <c r="K501" s="97"/>
-      <c r="L501" s="105"/>
+      <c r="L501" s="98"/>
       <c r="M501" s="13"/>
       <c r="N501" s="13"/>
       <c r="O501" s="13"/>
@@ -15540,7 +15557,7 @@
       <c r="I502" s="96"/>
       <c r="J502" s="97"/>
       <c r="K502" s="97"/>
-      <c r="L502" s="105"/>
+      <c r="L502" s="98"/>
       <c r="M502" s="13"/>
       <c r="N502" s="13"/>
       <c r="O502" s="13"/>
@@ -15568,7 +15585,7 @@
       <c r="I503" s="96"/>
       <c r="J503" s="97"/>
       <c r="K503" s="97"/>
-      <c r="L503" s="105"/>
+      <c r="L503" s="98"/>
       <c r="M503" s="13"/>
       <c r="N503" s="13"/>
       <c r="O503" s="13"/>
@@ -15596,7 +15613,7 @@
       <c r="I504" s="96"/>
       <c r="J504" s="97"/>
       <c r="K504" s="97"/>
-      <c r="L504" s="105"/>
+      <c r="L504" s="98"/>
       <c r="M504" s="13"/>
       <c r="N504" s="13"/>
       <c r="O504" s="13"/>
@@ -15624,7 +15641,7 @@
       <c r="I505" s="96"/>
       <c r="J505" s="97"/>
       <c r="K505" s="97"/>
-      <c r="L505" s="105"/>
+      <c r="L505" s="98"/>
       <c r="M505" s="13"/>
       <c r="N505" s="13"/>
       <c r="O505" s="13"/>
@@ -15652,7 +15669,7 @@
       <c r="I506" s="96"/>
       <c r="J506" s="97"/>
       <c r="K506" s="97"/>
-      <c r="L506" s="105"/>
+      <c r="L506" s="98"/>
       <c r="M506" s="13"/>
       <c r="N506" s="13"/>
       <c r="O506" s="13"/>
@@ -15680,7 +15697,7 @@
       <c r="I507" s="96"/>
       <c r="J507" s="97"/>
       <c r="K507" s="97"/>
-      <c r="L507" s="105"/>
+      <c r="L507" s="98"/>
       <c r="M507" s="13"/>
       <c r="N507" s="13"/>
       <c r="O507" s="13"/>
@@ -15708,7 +15725,7 @@
       <c r="I508" s="96"/>
       <c r="J508" s="97"/>
       <c r="K508" s="97"/>
-      <c r="L508" s="105"/>
+      <c r="L508" s="98"/>
       <c r="M508" s="13"/>
       <c r="N508" s="13"/>
       <c r="O508" s="13"/>
@@ -15736,7 +15753,7 @@
       <c r="I509" s="96"/>
       <c r="J509" s="97"/>
       <c r="K509" s="97"/>
-      <c r="L509" s="105"/>
+      <c r="L509" s="98"/>
       <c r="M509" s="13"/>
       <c r="N509" s="13"/>
       <c r="O509" s="13"/>
@@ -15764,7 +15781,7 @@
       <c r="I510" s="96"/>
       <c r="J510" s="97"/>
       <c r="K510" s="97"/>
-      <c r="L510" s="105"/>
+      <c r="L510" s="98"/>
       <c r="M510" s="13"/>
       <c r="N510" s="13"/>
       <c r="O510" s="13"/>
@@ -15792,7 +15809,7 @@
       <c r="I511" s="96"/>
       <c r="J511" s="97"/>
       <c r="K511" s="97"/>
-      <c r="L511" s="105"/>
+      <c r="L511" s="98"/>
       <c r="M511" s="13"/>
       <c r="N511" s="13"/>
       <c r="O511" s="13"/>
@@ -15820,7 +15837,7 @@
       <c r="I512" s="96"/>
       <c r="J512" s="97"/>
       <c r="K512" s="97"/>
-      <c r="L512" s="105"/>
+      <c r="L512" s="98"/>
       <c r="M512" s="13"/>
       <c r="N512" s="13"/>
       <c r="O512" s="13"/>
@@ -15848,7 +15865,7 @@
       <c r="I513" s="96"/>
       <c r="J513" s="97"/>
       <c r="K513" s="97"/>
-      <c r="L513" s="105"/>
+      <c r="L513" s="98"/>
       <c r="M513" s="13"/>
       <c r="N513" s="13"/>
       <c r="O513" s="13"/>
@@ -15876,7 +15893,7 @@
       <c r="I514" s="96"/>
       <c r="J514" s="97"/>
       <c r="K514" s="97"/>
-      <c r="L514" s="105"/>
+      <c r="L514" s="98"/>
       <c r="M514" s="13"/>
       <c r="N514" s="13"/>
       <c r="O514" s="13"/>
@@ -15904,7 +15921,7 @@
       <c r="I515" s="96"/>
       <c r="J515" s="97"/>
       <c r="K515" s="97"/>
-      <c r="L515" s="105"/>
+      <c r="L515" s="98"/>
       <c r="M515" s="13"/>
       <c r="N515" s="13"/>
       <c r="O515" s="13"/>
@@ -15932,7 +15949,7 @@
       <c r="I516" s="96"/>
       <c r="J516" s="97"/>
       <c r="K516" s="97"/>
-      <c r="L516" s="105"/>
+      <c r="L516" s="98"/>
       <c r="M516" s="13"/>
       <c r="N516" s="13"/>
       <c r="O516" s="13"/>
@@ -15960,7 +15977,7 @@
       <c r="I517" s="96"/>
       <c r="J517" s="97"/>
       <c r="K517" s="97"/>
-      <c r="L517" s="105"/>
+      <c r="L517" s="98"/>
       <c r="M517" s="13"/>
       <c r="N517" s="13"/>
       <c r="O517" s="13"/>
@@ -15988,7 +16005,7 @@
       <c r="I518" s="96"/>
       <c r="J518" s="97"/>
       <c r="K518" s="97"/>
-      <c r="L518" s="105"/>
+      <c r="L518" s="98"/>
       <c r="M518" s="13"/>
       <c r="N518" s="13"/>
       <c r="O518" s="13"/>
@@ -16016,7 +16033,7 @@
       <c r="I519" s="96"/>
       <c r="J519" s="97"/>
       <c r="K519" s="97"/>
-      <c r="L519" s="105"/>
+      <c r="L519" s="98"/>
       <c r="M519" s="13"/>
       <c r="N519" s="13"/>
       <c r="O519" s="13"/>
@@ -16044,7 +16061,7 @@
       <c r="I520" s="96"/>
       <c r="J520" s="97"/>
       <c r="K520" s="97"/>
-      <c r="L520" s="105"/>
+      <c r="L520" s="98"/>
       <c r="M520" s="13"/>
       <c r="N520" s="13"/>
       <c r="O520" s="13"/>
@@ -16072,7 +16089,7 @@
       <c r="I521" s="96"/>
       <c r="J521" s="97"/>
       <c r="K521" s="97"/>
-      <c r="L521" s="105"/>
+      <c r="L521" s="98"/>
       <c r="M521" s="13"/>
       <c r="N521" s="13"/>
       <c r="O521" s="13"/>
@@ -16100,7 +16117,7 @@
       <c r="I522" s="96"/>
       <c r="J522" s="97"/>
       <c r="K522" s="97"/>
-      <c r="L522" s="105"/>
+      <c r="L522" s="98"/>
       <c r="M522" s="13"/>
       <c r="N522" s="13"/>
       <c r="O522" s="13"/>
@@ -16128,7 +16145,7 @@
       <c r="I523" s="96"/>
       <c r="J523" s="97"/>
       <c r="K523" s="97"/>
-      <c r="L523" s="105"/>
+      <c r="L523" s="98"/>
       <c r="M523" s="13"/>
       <c r="N523" s="13"/>
       <c r="O523" s="13"/>
@@ -16156,7 +16173,7 @@
       <c r="I524" s="96"/>
       <c r="J524" s="97"/>
       <c r="K524" s="97"/>
-      <c r="L524" s="105"/>
+      <c r="L524" s="98"/>
       <c r="M524" s="13"/>
       <c r="N524" s="13"/>
       <c r="O524" s="13"/>
@@ -16184,7 +16201,7 @@
       <c r="I525" s="96"/>
       <c r="J525" s="97"/>
       <c r="K525" s="97"/>
-      <c r="L525" s="105"/>
+      <c r="L525" s="98"/>
       <c r="M525" s="13"/>
       <c r="N525" s="13"/>
       <c r="O525" s="13"/>
@@ -16212,7 +16229,7 @@
       <c r="I526" s="96"/>
       <c r="J526" s="97"/>
       <c r="K526" s="97"/>
-      <c r="L526" s="105"/>
+      <c r="L526" s="98"/>
       <c r="M526" s="13"/>
       <c r="N526" s="13"/>
       <c r="O526" s="13"/>
@@ -16240,7 +16257,7 @@
       <c r="I527" s="96"/>
       <c r="J527" s="97"/>
       <c r="K527" s="97"/>
-      <c r="L527" s="105"/>
+      <c r="L527" s="98"/>
       <c r="M527" s="13"/>
       <c r="N527" s="13"/>
       <c r="O527" s="13"/>
@@ -16268,7 +16285,7 @@
       <c r="I528" s="96"/>
       <c r="J528" s="97"/>
       <c r="K528" s="97"/>
-      <c r="L528" s="105"/>
+      <c r="L528" s="98"/>
       <c r="M528" s="13"/>
       <c r="N528" s="13"/>
       <c r="O528" s="13"/>
@@ -16296,7 +16313,7 @@
       <c r="I529" s="96"/>
       <c r="J529" s="97"/>
       <c r="K529" s="97"/>
-      <c r="L529" s="105"/>
+      <c r="L529" s="98"/>
       <c r="M529" s="13"/>
       <c r="N529" s="13"/>
       <c r="O529" s="13"/>
@@ -16324,7 +16341,7 @@
       <c r="I530" s="96"/>
       <c r="J530" s="97"/>
       <c r="K530" s="97"/>
-      <c r="L530" s="105"/>
+      <c r="L530" s="98"/>
       <c r="M530" s="13"/>
       <c r="N530" s="13"/>
       <c r="O530" s="13"/>
@@ -16352,7 +16369,7 @@
       <c r="I531" s="96"/>
       <c r="J531" s="97"/>
       <c r="K531" s="97"/>
-      <c r="L531" s="105"/>
+      <c r="L531" s="98"/>
       <c r="M531" s="13"/>
       <c r="N531" s="13"/>
       <c r="O531" s="13"/>
@@ -16380,7 +16397,7 @@
       <c r="I532" s="96"/>
       <c r="J532" s="97"/>
       <c r="K532" s="97"/>
-      <c r="L532" s="105"/>
+      <c r="L532" s="98"/>
       <c r="M532" s="13"/>
       <c r="N532" s="13"/>
       <c r="O532" s="13"/>
@@ -16408,7 +16425,7 @@
       <c r="I533" s="96"/>
       <c r="J533" s="97"/>
       <c r="K533" s="97"/>
-      <c r="L533" s="105"/>
+      <c r="L533" s="98"/>
       <c r="M533" s="13"/>
       <c r="N533" s="13"/>
       <c r="O533" s="13"/>
@@ -16436,7 +16453,7 @@
       <c r="I534" s="96"/>
       <c r="J534" s="97"/>
       <c r="K534" s="97"/>
-      <c r="L534" s="105"/>
+      <c r="L534" s="98"/>
       <c r="M534" s="13"/>
       <c r="N534" s="13"/>
       <c r="O534" s="13"/>
@@ -16464,7 +16481,7 @@
       <c r="I535" s="96"/>
       <c r="J535" s="97"/>
       <c r="K535" s="97"/>
-      <c r="L535" s="105"/>
+      <c r="L535" s="98"/>
       <c r="M535" s="13"/>
       <c r="N535" s="13"/>
       <c r="O535" s="13"/>
@@ -16492,7 +16509,7 @@
       <c r="I536" s="96"/>
       <c r="J536" s="97"/>
       <c r="K536" s="97"/>
-      <c r="L536" s="105"/>
+      <c r="L536" s="98"/>
       <c r="M536" s="13"/>
       <c r="N536" s="13"/>
       <c r="O536" s="13"/>
@@ -16520,7 +16537,7 @@
       <c r="I537" s="96"/>
       <c r="J537" s="97"/>
       <c r="K537" s="97"/>
-      <c r="L537" s="105"/>
+      <c r="L537" s="98"/>
       <c r="M537" s="13"/>
       <c r="N537" s="13"/>
       <c r="O537" s="13"/>
@@ -16548,7 +16565,7 @@
       <c r="I538" s="96"/>
       <c r="J538" s="97"/>
       <c r="K538" s="97"/>
-      <c r="L538" s="105"/>
+      <c r="L538" s="98"/>
       <c r="M538" s="13"/>
       <c r="N538" s="13"/>
       <c r="O538" s="13"/>
@@ -16576,7 +16593,7 @@
       <c r="I539" s="96"/>
       <c r="J539" s="97"/>
       <c r="K539" s="97"/>
-      <c r="L539" s="105"/>
+      <c r="L539" s="98"/>
       <c r="M539" s="13"/>
       <c r="N539" s="13"/>
       <c r="O539" s="13"/>
@@ -16604,7 +16621,7 @@
       <c r="I540" s="96"/>
       <c r="J540" s="97"/>
       <c r="K540" s="97"/>
-      <c r="L540" s="105"/>
+      <c r="L540" s="98"/>
       <c r="M540" s="13"/>
       <c r="N540" s="13"/>
       <c r="O540" s="13"/>
@@ -16632,7 +16649,7 @@
       <c r="I541" s="96"/>
       <c r="J541" s="97"/>
       <c r="K541" s="97"/>
-      <c r="L541" s="105"/>
+      <c r="L541" s="98"/>
       <c r="M541" s="13"/>
       <c r="N541" s="13"/>
       <c r="O541" s="13"/>
@@ -16660,7 +16677,7 @@
       <c r="I542" s="96"/>
       <c r="J542" s="97"/>
       <c r="K542" s="97"/>
-      <c r="L542" s="105"/>
+      <c r="L542" s="98"/>
       <c r="M542" s="13"/>
       <c r="N542" s="13"/>
       <c r="O542" s="13"/>
@@ -16688,7 +16705,7 @@
       <c r="I543" s="96"/>
       <c r="J543" s="97"/>
       <c r="K543" s="97"/>
-      <c r="L543" s="105"/>
+      <c r="L543" s="98"/>
       <c r="M543" s="13"/>
       <c r="N543" s="13"/>
       <c r="O543" s="13"/>
@@ -16716,7 +16733,7 @@
       <c r="I544" s="96"/>
       <c r="J544" s="97"/>
       <c r="K544" s="97"/>
-      <c r="L544" s="105"/>
+      <c r="L544" s="98"/>
       <c r="M544" s="13"/>
       <c r="N544" s="13"/>
       <c r="O544" s="13"/>
@@ -16744,7 +16761,7 @@
       <c r="I545" s="96"/>
       <c r="J545" s="97"/>
       <c r="K545" s="97"/>
-      <c r="L545" s="105"/>
+      <c r="L545" s="98"/>
       <c r="M545" s="13"/>
       <c r="N545" s="13"/>
       <c r="O545" s="13"/>
@@ -16772,7 +16789,7 @@
       <c r="I546" s="96"/>
       <c r="J546" s="97"/>
       <c r="K546" s="97"/>
-      <c r="L546" s="105"/>
+      <c r="L546" s="98"/>
       <c r="M546" s="13"/>
       <c r="N546" s="13"/>
       <c r="O546" s="13"/>
@@ -16800,7 +16817,7 @@
       <c r="I547" s="96"/>
       <c r="J547" s="97"/>
       <c r="K547" s="97"/>
-      <c r="L547" s="105"/>
+      <c r="L547" s="98"/>
       <c r="M547" s="13"/>
       <c r="N547" s="13"/>
       <c r="O547" s="13"/>
@@ -16828,7 +16845,7 @@
       <c r="I548" s="96"/>
       <c r="J548" s="97"/>
       <c r="K548" s="97"/>
-      <c r="L548" s="105"/>
+      <c r="L548" s="98"/>
       <c r="M548" s="13"/>
       <c r="N548" s="13"/>
       <c r="O548" s="13"/>
@@ -16856,7 +16873,7 @@
       <c r="I549" s="96"/>
       <c r="J549" s="97"/>
       <c r="K549" s="97"/>
-      <c r="L549" s="105"/>
+      <c r="L549" s="98"/>
       <c r="M549" s="13"/>
       <c r="N549" s="13"/>
       <c r="O549" s="13"/>
@@ -16884,7 +16901,7 @@
       <c r="I550" s="96"/>
       <c r="J550" s="97"/>
       <c r="K550" s="97"/>
-      <c r="L550" s="105"/>
+      <c r="L550" s="98"/>
       <c r="M550" s="13"/>
       <c r="N550" s="13"/>
       <c r="O550" s="13"/>
@@ -16912,7 +16929,7 @@
       <c r="I551" s="96"/>
       <c r="J551" s="97"/>
       <c r="K551" s="97"/>
-      <c r="L551" s="105"/>
+      <c r="L551" s="98"/>
       <c r="M551" s="13"/>
       <c r="N551" s="13"/>
       <c r="O551" s="13"/>
@@ -16940,7 +16957,7 @@
       <c r="I552" s="96"/>
       <c r="J552" s="97"/>
       <c r="K552" s="97"/>
-      <c r="L552" s="105"/>
+      <c r="L552" s="98"/>
       <c r="M552" s="13"/>
       <c r="N552" s="13"/>
       <c r="O552" s="13"/>
@@ -16968,7 +16985,7 @@
       <c r="I553" s="96"/>
       <c r="J553" s="97"/>
       <c r="K553" s="97"/>
-      <c r="L553" s="105"/>
+      <c r="L553" s="98"/>
       <c r="M553" s="13"/>
       <c r="N553" s="13"/>
       <c r="O553" s="13"/>
@@ -16996,7 +17013,7 @@
       <c r="I554" s="96"/>
       <c r="J554" s="97"/>
       <c r="K554" s="97"/>
-      <c r="L554" s="105"/>
+      <c r="L554" s="98"/>
       <c r="M554" s="13"/>
       <c r="N554" s="13"/>
       <c r="O554" s="13"/>
@@ -17024,7 +17041,7 @@
       <c r="I555" s="96"/>
       <c r="J555" s="97"/>
       <c r="K555" s="97"/>
-      <c r="L555" s="105"/>
+      <c r="L555" s="98"/>
       <c r="M555" s="13"/>
       <c r="N555" s="13"/>
       <c r="O555" s="13"/>
@@ -17052,7 +17069,7 @@
       <c r="I556" s="96"/>
       <c r="J556" s="97"/>
       <c r="K556" s="97"/>
-      <c r="L556" s="105"/>
+      <c r="L556" s="98"/>
       <c r="M556" s="13"/>
       <c r="N556" s="13"/>
       <c r="O556" s="13"/>
@@ -17080,7 +17097,7 @@
       <c r="I557" s="96"/>
       <c r="J557" s="97"/>
       <c r="K557" s="97"/>
-      <c r="L557" s="105"/>
+      <c r="L557" s="98"/>
       <c r="M557" s="13"/>
       <c r="N557" s="13"/>
       <c r="O557" s="13"/>
@@ -17108,7 +17125,7 @@
       <c r="I558" s="96"/>
       <c r="J558" s="97"/>
       <c r="K558" s="97"/>
-      <c r="L558" s="105"/>
+      <c r="L558" s="98"/>
       <c r="M558" s="13"/>
       <c r="N558" s="13"/>
       <c r="O558" s="13"/>
@@ -17136,7 +17153,7 @@
       <c r="I559" s="96"/>
       <c r="J559" s="97"/>
       <c r="K559" s="97"/>
-      <c r="L559" s="105"/>
+      <c r="L559" s="98"/>
       <c r="M559" s="13"/>
       <c r="N559" s="13"/>
       <c r="O559" s="13"/>
@@ -17164,7 +17181,7 @@
       <c r="I560" s="96"/>
       <c r="J560" s="97"/>
       <c r="K560" s="97"/>
-      <c r="L560" s="105"/>
+      <c r="L560" s="98"/>
       <c r="M560" s="13"/>
       <c r="N560" s="13"/>
       <c r="O560" s="13"/>
@@ -17192,7 +17209,7 @@
       <c r="I561" s="96"/>
       <c r="J561" s="97"/>
       <c r="K561" s="97"/>
-      <c r="L561" s="105"/>
+      <c r="L561" s="98"/>
       <c r="M561" s="13"/>
       <c r="N561" s="13"/>
       <c r="O561" s="13"/>
@@ -17220,7 +17237,7 @@
       <c r="I562" s="96"/>
       <c r="J562" s="97"/>
       <c r="K562" s="97"/>
-      <c r="L562" s="105"/>
+      <c r="L562" s="98"/>
       <c r="M562" s="13"/>
       <c r="N562" s="13"/>
       <c r="O562" s="13"/>
@@ -17248,7 +17265,7 @@
       <c r="I563" s="96"/>
       <c r="J563" s="97"/>
       <c r="K563" s="97"/>
-      <c r="L563" s="105"/>
+      <c r="L563" s="98"/>
       <c r="M563" s="13"/>
       <c r="N563" s="13"/>
       <c r="O563" s="13"/>
@@ -17276,7 +17293,7 @@
       <c r="I564" s="96"/>
       <c r="J564" s="97"/>
       <c r="K564" s="97"/>
-      <c r="L564" s="105"/>
+      <c r="L564" s="98"/>
       <c r="M564" s="13"/>
       <c r="N564" s="13"/>
       <c r="O564" s="13"/>
@@ -17304,7 +17321,7 @@
       <c r="I565" s="96"/>
       <c r="J565" s="97"/>
       <c r="K565" s="97"/>
-      <c r="L565" s="105"/>
+      <c r="L565" s="98"/>
       <c r="M565" s="13"/>
       <c r="N565" s="13"/>
       <c r="O565" s="13"/>
@@ -17332,7 +17349,7 @@
       <c r="I566" s="96"/>
       <c r="J566" s="97"/>
       <c r="K566" s="97"/>
-      <c r="L566" s="105"/>
+      <c r="L566" s="98"/>
       <c r="M566" s="13"/>
       <c r="N566" s="13"/>
       <c r="O566" s="13"/>
@@ -17360,7 +17377,7 @@
       <c r="I567" s="96"/>
       <c r="J567" s="97"/>
       <c r="K567" s="97"/>
-      <c r="L567" s="105"/>
+      <c r="L567" s="98"/>
       <c r="M567" s="13"/>
       <c r="N567" s="13"/>
       <c r="O567" s="13"/>
@@ -17388,7 +17405,7 @@
       <c r="I568" s="96"/>
       <c r="J568" s="97"/>
       <c r="K568" s="97"/>
-      <c r="L568" s="105"/>
+      <c r="L568" s="98"/>
       <c r="M568" s="13"/>
       <c r="N568" s="13"/>
       <c r="O568" s="13"/>
@@ -17416,7 +17433,7 @@
       <c r="I569" s="96"/>
       <c r="J569" s="97"/>
       <c r="K569" s="97"/>
-      <c r="L569" s="105"/>
+      <c r="L569" s="98"/>
       <c r="M569" s="13"/>
       <c r="N569" s="13"/>
       <c r="O569" s="13"/>
@@ -17444,7 +17461,7 @@
       <c r="I570" s="96"/>
       <c r="J570" s="97"/>
       <c r="K570" s="97"/>
-      <c r="L570" s="105"/>
+      <c r="L570" s="98"/>
       <c r="M570" s="13"/>
       <c r="N570" s="13"/>
       <c r="O570" s="13"/>
@@ -17472,7 +17489,7 @@
       <c r="I571" s="96"/>
       <c r="J571" s="97"/>
       <c r="K571" s="97"/>
-      <c r="L571" s="105"/>
+      <c r="L571" s="98"/>
       <c r="M571" s="13"/>
       <c r="N571" s="13"/>
       <c r="O571" s="13"/>
@@ -17500,7 +17517,7 @@
       <c r="I572" s="96"/>
       <c r="J572" s="97"/>
       <c r="K572" s="97"/>
-      <c r="L572" s="105"/>
+      <c r="L572" s="98"/>
       <c r="M572" s="13"/>
       <c r="N572" s="13"/>
       <c r="O572" s="13"/>
@@ -17528,7 +17545,7 @@
       <c r="I573" s="96"/>
       <c r="J573" s="97"/>
       <c r="K573" s="97"/>
-      <c r="L573" s="105"/>
+      <c r="L573" s="98"/>
       <c r="M573" s="13"/>
       <c r="N573" s="13"/>
       <c r="O573" s="13"/>
@@ -17556,7 +17573,7 @@
       <c r="I574" s="96"/>
       <c r="J574" s="97"/>
       <c r="K574" s="97"/>
-      <c r="L574" s="105"/>
+      <c r="L574" s="98"/>
       <c r="M574" s="13"/>
       <c r="N574" s="13"/>
       <c r="O574" s="13"/>
@@ -17584,7 +17601,7 @@
       <c r="I575" s="96"/>
       <c r="J575" s="97"/>
       <c r="K575" s="97"/>
-      <c r="L575" s="105"/>
+      <c r="L575" s="98"/>
       <c r="M575" s="13"/>
       <c r="N575" s="13"/>
       <c r="O575" s="13"/>
@@ -17612,7 +17629,7 @@
       <c r="I576" s="96"/>
       <c r="J576" s="97"/>
       <c r="K576" s="97"/>
-      <c r="L576" s="105"/>
+      <c r="L576" s="98"/>
       <c r="M576" s="13"/>
       <c r="N576" s="13"/>
       <c r="O576" s="13"/>
@@ -17640,7 +17657,7 @@
       <c r="I577" s="96"/>
       <c r="J577" s="97"/>
       <c r="K577" s="97"/>
-      <c r="L577" s="105"/>
+      <c r="L577" s="98"/>
       <c r="M577" s="13"/>
       <c r="N577" s="13"/>
       <c r="O577" s="13"/>
@@ -17668,7 +17685,7 @@
       <c r="I578" s="96"/>
       <c r="J578" s="97"/>
       <c r="K578" s="97"/>
-      <c r="L578" s="105"/>
+      <c r="L578" s="98"/>
       <c r="M578" s="13"/>
       <c r="N578" s="13"/>
       <c r="O578" s="13"/>
@@ -17696,7 +17713,7 @@
       <c r="I579" s="96"/>
       <c r="J579" s="97"/>
       <c r="K579" s="97"/>
-      <c r="L579" s="105"/>
+      <c r="L579" s="98"/>
       <c r="M579" s="13"/>
       <c r="N579" s="13"/>
       <c r="O579" s="13"/>
@@ -17724,7 +17741,7 @@
       <c r="I580" s="96"/>
       <c r="J580" s="97"/>
       <c r="K580" s="97"/>
-      <c r="L580" s="105"/>
+      <c r="L580" s="98"/>
       <c r="M580" s="13"/>
       <c r="N580" s="13"/>
       <c r="O580" s="13"/>
@@ -17752,7 +17769,7 @@
       <c r="I581" s="96"/>
       <c r="J581" s="97"/>
       <c r="K581" s="97"/>
-      <c r="L581" s="105"/>
+      <c r="L581" s="98"/>
       <c r="M581" s="13"/>
       <c r="N581" s="13"/>
       <c r="O581" s="13"/>
@@ -17780,7 +17797,7 @@
       <c r="I582" s="96"/>
       <c r="J582" s="97"/>
       <c r="K582" s="97"/>
-      <c r="L582" s="105"/>
+      <c r="L582" s="98"/>
       <c r="M582" s="13"/>
       <c r="N582" s="13"/>
       <c r="O582" s="13"/>
@@ -17808,7 +17825,7 @@
       <c r="I583" s="96"/>
       <c r="J583" s="97"/>
       <c r="K583" s="97"/>
-      <c r="L583" s="105"/>
+      <c r="L583" s="98"/>
       <c r="M583" s="13"/>
       <c r="N583" s="13"/>
       <c r="O583" s="13"/>
@@ -17836,7 +17853,7 @@
       <c r="I584" s="96"/>
       <c r="J584" s="97"/>
       <c r="K584" s="97"/>
-      <c r="L584" s="105"/>
+      <c r="L584" s="98"/>
       <c r="M584" s="13"/>
       <c r="N584" s="13"/>
       <c r="O584" s="13"/>
@@ -17864,7 +17881,7 @@
       <c r="I585" s="96"/>
       <c r="J585" s="97"/>
       <c r="K585" s="97"/>
-      <c r="L585" s="105"/>
+      <c r="L585" s="98"/>
       <c r="M585" s="13"/>
       <c r="N585" s="13"/>
       <c r="O585" s="13"/>
@@ -17892,7 +17909,7 @@
       <c r="I586" s="96"/>
       <c r="J586" s="97"/>
       <c r="K586" s="97"/>
-      <c r="L586" s="105"/>
+      <c r="L586" s="98"/>
       <c r="M586" s="13"/>
       <c r="N586" s="13"/>
       <c r="O586" s="13"/>
@@ -17920,7 +17937,7 @@
       <c r="I587" s="96"/>
       <c r="J587" s="97"/>
       <c r="K587" s="97"/>
-      <c r="L587" s="105"/>
+      <c r="L587" s="98"/>
       <c r="M587" s="13"/>
       <c r="N587" s="13"/>
       <c r="O587" s="13"/>
@@ -17948,7 +17965,7 @@
       <c r="I588" s="96"/>
       <c r="J588" s="97"/>
       <c r="K588" s="97"/>
-      <c r="L588" s="105"/>
+      <c r="L588" s="98"/>
       <c r="M588" s="13"/>
       <c r="N588" s="13"/>
       <c r="O588" s="13"/>
@@ -17976,7 +17993,7 @@
       <c r="I589" s="96"/>
       <c r="J589" s="97"/>
       <c r="K589" s="97"/>
-      <c r="L589" s="105"/>
+      <c r="L589" s="98"/>
       <c r="M589" s="13"/>
       <c r="N589" s="13"/>
       <c r="O589" s="13"/>
@@ -18004,7 +18021,7 @@
       <c r="I590" s="96"/>
       <c r="J590" s="97"/>
       <c r="K590" s="97"/>
-      <c r="L590" s="105"/>
+      <c r="L590" s="98"/>
       <c r="M590" s="13"/>
       <c r="N590" s="13"/>
       <c r="O590" s="13"/>
@@ -18032,7 +18049,7 @@
       <c r="I591" s="96"/>
       <c r="J591" s="97"/>
       <c r="K591" s="97"/>
-      <c r="L591" s="105"/>
+      <c r="L591" s="98"/>
       <c r="M591" s="13"/>
       <c r="N591" s="13"/>
       <c r="O591" s="13"/>
@@ -18060,7 +18077,7 @@
       <c r="I592" s="96"/>
       <c r="J592" s="97"/>
       <c r="K592" s="97"/>
-      <c r="L592" s="105"/>
+      <c r="L592" s="98"/>
       <c r="M592" s="13"/>
       <c r="N592" s="13"/>
       <c r="O592" s="13"/>
@@ -18088,7 +18105,7 @@
       <c r="I593" s="96"/>
       <c r="J593" s="97"/>
       <c r="K593" s="97"/>
-      <c r="L593" s="105"/>
+      <c r="L593" s="98"/>
       <c r="M593" s="13"/>
       <c r="N593" s="13"/>
       <c r="O593" s="13"/>
@@ -18116,7 +18133,7 @@
       <c r="I594" s="96"/>
       <c r="J594" s="97"/>
       <c r="K594" s="97"/>
-      <c r="L594" s="105"/>
+      <c r="L594" s="98"/>
       <c r="M594" s="13"/>
       <c r="N594" s="13"/>
       <c r="O594" s="13"/>
@@ -18144,7 +18161,7 @@
       <c r="I595" s="96"/>
       <c r="J595" s="97"/>
       <c r="K595" s="97"/>
-      <c r="L595" s="105"/>
+      <c r="L595" s="98"/>
       <c r="M595" s="13"/>
       <c r="N595" s="13"/>
       <c r="O595" s="13"/>
@@ -18172,7 +18189,7 @@
       <c r="I596" s="96"/>
       <c r="J596" s="97"/>
       <c r="K596" s="97"/>
-      <c r="L596" s="105"/>
+      <c r="L596" s="98"/>
       <c r="M596" s="13"/>
       <c r="N596" s="13"/>
       <c r="O596" s="13"/>
@@ -18200,7 +18217,7 @@
       <c r="I597" s="96"/>
       <c r="J597" s="97"/>
       <c r="K597" s="97"/>
-      <c r="L597" s="105"/>
+      <c r="L597" s="98"/>
       <c r="M597" s="13"/>
       <c r="N597" s="13"/>
       <c r="O597" s="13"/>
@@ -18228,7 +18245,7 @@
       <c r="I598" s="96"/>
       <c r="J598" s="97"/>
       <c r="K598" s="97"/>
-      <c r="L598" s="105"/>
+      <c r="L598" s="98"/>
       <c r="M598" s="13"/>
       <c r="N598" s="13"/>
       <c r="O598" s="13"/>
@@ -18256,7 +18273,7 @@
       <c r="I599" s="96"/>
       <c r="J599" s="97"/>
       <c r="K599" s="97"/>
-      <c r="L599" s="105"/>
+      <c r="L599" s="98"/>
       <c r="M599" s="13"/>
       <c r="N599" s="13"/>
       <c r="O599" s="13"/>
@@ -18284,7 +18301,7 @@
       <c r="I600" s="96"/>
       <c r="J600" s="97"/>
       <c r="K600" s="97"/>
-      <c r="L600" s="105"/>
+      <c r="L600" s="98"/>
       <c r="M600" s="13"/>
       <c r="N600" s="13"/>
       <c r="O600" s="13"/>
@@ -18312,7 +18329,7 @@
       <c r="I601" s="96"/>
       <c r="J601" s="97"/>
       <c r="K601" s="97"/>
-      <c r="L601" s="105"/>
+      <c r="L601" s="98"/>
       <c r="M601" s="13"/>
       <c r="N601" s="13"/>
       <c r="O601" s="13"/>
@@ -18340,7 +18357,7 @@
       <c r="I602" s="96"/>
       <c r="J602" s="97"/>
       <c r="K602" s="97"/>
-      <c r="L602" s="105"/>
+      <c r="L602" s="98"/>
       <c r="M602" s="13"/>
       <c r="N602" s="13"/>
       <c r="O602" s="13"/>
@@ -18368,7 +18385,7 @@
       <c r="I603" s="96"/>
       <c r="J603" s="97"/>
       <c r="K603" s="97"/>
-      <c r="L603" s="105"/>
+      <c r="L603" s="98"/>
       <c r="M603" s="13"/>
       <c r="N603" s="13"/>
       <c r="O603" s="13"/>
@@ -18396,7 +18413,7 @@
       <c r="I604" s="96"/>
       <c r="J604" s="97"/>
       <c r="K604" s="97"/>
-      <c r="L604" s="105"/>
+      <c r="L604" s="98"/>
       <c r="M604" s="13"/>
       <c r="N604" s="13"/>
       <c r="O604" s="13"/>
@@ -18424,7 +18441,7 @@
       <c r="I605" s="96"/>
       <c r="J605" s="97"/>
       <c r="K605" s="97"/>
-      <c r="L605" s="105"/>
+      <c r="L605" s="98"/>
       <c r="M605" s="13"/>
       <c r="N605" s="13"/>
       <c r="O605" s="13"/>
@@ -18452,7 +18469,7 @@
       <c r="I606" s="96"/>
       <c r="J606" s="97"/>
       <c r="K606" s="97"/>
-      <c r="L606" s="105"/>
+      <c r="L606" s="98"/>
       <c r="M606" s="13"/>
       <c r="N606" s="13"/>
       <c r="O606" s="13"/>
@@ -18480,7 +18497,7 @@
       <c r="I607" s="96"/>
       <c r="J607" s="97"/>
       <c r="K607" s="97"/>
-      <c r="L607" s="105"/>
+      <c r="L607" s="98"/>
       <c r="M607" s="13"/>
       <c r="N607" s="13"/>
       <c r="O607" s="13"/>
@@ -18508,7 +18525,7 @@
       <c r="I608" s="96"/>
       <c r="J608" s="97"/>
       <c r="K608" s="97"/>
-      <c r="L608" s="105"/>
+      <c r="L608" s="98"/>
       <c r="M608" s="13"/>
       <c r="N608" s="13"/>
       <c r="O608" s="13"/>
@@ -18536,7 +18553,7 @@
       <c r="I609" s="96"/>
       <c r="J609" s="97"/>
       <c r="K609" s="97"/>
-      <c r="L609" s="105"/>
+      <c r="L609" s="98"/>
       <c r="M609" s="13"/>
       <c r="N609" s="13"/>
       <c r="O609" s="13"/>
@@ -18564,7 +18581,7 @@
       <c r="I610" s="96"/>
       <c r="J610" s="97"/>
       <c r="K610" s="97"/>
-      <c r="L610" s="105"/>
+      <c r="L610" s="98"/>
       <c r="M610" s="13"/>
       <c r="N610" s="13"/>
       <c r="O610" s="13"/>
@@ -18592,7 +18609,7 @@
       <c r="I611" s="96"/>
       <c r="J611" s="97"/>
       <c r="K611" s="97"/>
-      <c r="L611" s="105"/>
+      <c r="L611" s="98"/>
       <c r="M611" s="13"/>
       <c r="N611" s="13"/>
       <c r="O611" s="13"/>
@@ -18620,7 +18637,7 @@
       <c r="I612" s="96"/>
       <c r="J612" s="97"/>
       <c r="K612" s="97"/>
-      <c r="L612" s="105"/>
+      <c r="L612" s="98"/>
       <c r="M612" s="13"/>
       <c r="N612" s="13"/>
       <c r="O612" s="13"/>
@@ -18648,7 +18665,7 @@
       <c r="I613" s="96"/>
       <c r="J613" s="97"/>
       <c r="K613" s="97"/>
-      <c r="L613" s="105"/>
+      <c r="L613" s="98"/>
       <c r="M613" s="13"/>
       <c r="N613" s="13"/>
       <c r="O613" s="13"/>
@@ -18676,7 +18693,7 @@
       <c r="I614" s="96"/>
       <c r="J614" s="97"/>
       <c r="K614" s="97"/>
-      <c r="L614" s="105"/>
+      <c r="L614" s="98"/>
       <c r="M614" s="13"/>
       <c r="N614" s="13"/>
       <c r="O614" s="13"/>
@@ -18704,7 +18721,7 @@
       <c r="I615" s="96"/>
       <c r="J615" s="97"/>
       <c r="K615" s="97"/>
-      <c r="L615" s="105"/>
+      <c r="L615" s="98"/>
       <c r="M615" s="13"/>
       <c r="N615" s="13"/>
       <c r="O615" s="13"/>
@@ -18732,7 +18749,7 @@
       <c r="I616" s="96"/>
       <c r="J616" s="97"/>
       <c r="K616" s="97"/>
-      <c r="L616" s="105"/>
+      <c r="L616" s="98"/>
       <c r="M616" s="13"/>
       <c r="N616" s="13"/>
       <c r="O616" s="13"/>
@@ -18760,7 +18777,7 @@
       <c r="I617" s="96"/>
       <c r="J617" s="97"/>
       <c r="K617" s="97"/>
-      <c r="L617" s="105"/>
+      <c r="L617" s="98"/>
       <c r="M617" s="13"/>
       <c r="N617" s="13"/>
       <c r="O617" s="13"/>
@@ -18788,7 +18805,7 @@
       <c r="I618" s="96"/>
       <c r="J618" s="97"/>
       <c r="K618" s="97"/>
-      <c r="L618" s="105"/>
+      <c r="L618" s="98"/>
       <c r="M618" s="13"/>
       <c r="N618" s="13"/>
       <c r="O618" s="13"/>
@@ -18816,7 +18833,7 @@
       <c r="I619" s="96"/>
       <c r="J619" s="97"/>
       <c r="K619" s="97"/>
-      <c r="L619" s="105"/>
+      <c r="L619" s="98"/>
       <c r="M619" s="13"/>
       <c r="N619" s="13"/>
       <c r="O619" s="13"/>
@@ -18844,7 +18861,7 @@
       <c r="I620" s="96"/>
       <c r="J620" s="97"/>
       <c r="K620" s="97"/>
-      <c r="L620" s="105"/>
+      <c r="L620" s="98"/>
       <c r="M620" s="13"/>
       <c r="N620" s="13"/>
       <c r="O620" s="13"/>
@@ -18872,7 +18889,7 @@
       <c r="I621" s="96"/>
       <c r="J621" s="97"/>
       <c r="K621" s="97"/>
-      <c r="L621" s="105"/>
+      <c r="L621" s="98"/>
       <c r="M621" s="13"/>
       <c r="N621" s="13"/>
       <c r="O621" s="13"/>
@@ -30601,245 +30618,353 @@
     </row>
   </sheetData>
   <mergeCells count="610">
-    <mergeCell ref="I617:L617"/>
-    <mergeCell ref="I618:L618"/>
-    <mergeCell ref="I619:L619"/>
-    <mergeCell ref="I620:L620"/>
-    <mergeCell ref="I621:L621"/>
-    <mergeCell ref="I608:L608"/>
-    <mergeCell ref="I609:L609"/>
-    <mergeCell ref="I610:L610"/>
-    <mergeCell ref="I611:L611"/>
-    <mergeCell ref="I612:L612"/>
-    <mergeCell ref="I613:L613"/>
-    <mergeCell ref="I614:L614"/>
-    <mergeCell ref="I615:L615"/>
-    <mergeCell ref="I616:L616"/>
-    <mergeCell ref="I599:L599"/>
-    <mergeCell ref="I600:L600"/>
-    <mergeCell ref="I601:L601"/>
-    <mergeCell ref="I602:L602"/>
-    <mergeCell ref="I603:L603"/>
-    <mergeCell ref="I604:L604"/>
-    <mergeCell ref="I605:L605"/>
-    <mergeCell ref="I606:L606"/>
-    <mergeCell ref="I607:L607"/>
-    <mergeCell ref="I590:L590"/>
-    <mergeCell ref="I591:L591"/>
-    <mergeCell ref="I592:L592"/>
-    <mergeCell ref="I593:L593"/>
-    <mergeCell ref="I594:L594"/>
-    <mergeCell ref="I595:L595"/>
-    <mergeCell ref="I596:L596"/>
-    <mergeCell ref="I597:L597"/>
-    <mergeCell ref="I598:L598"/>
-    <mergeCell ref="I581:L581"/>
-    <mergeCell ref="I582:L582"/>
-    <mergeCell ref="I583:L583"/>
-    <mergeCell ref="I584:L584"/>
-    <mergeCell ref="I585:L585"/>
-    <mergeCell ref="I586:L586"/>
-    <mergeCell ref="I587:L587"/>
-    <mergeCell ref="I588:L588"/>
-    <mergeCell ref="I589:L589"/>
-    <mergeCell ref="I572:L572"/>
-    <mergeCell ref="I573:L573"/>
-    <mergeCell ref="I574:L574"/>
-    <mergeCell ref="I575:L575"/>
-    <mergeCell ref="I576:L576"/>
-    <mergeCell ref="I577:L577"/>
-    <mergeCell ref="I578:L578"/>
-    <mergeCell ref="I579:L579"/>
-    <mergeCell ref="I580:L580"/>
-    <mergeCell ref="I563:L563"/>
-    <mergeCell ref="I564:L564"/>
-    <mergeCell ref="I565:L565"/>
-    <mergeCell ref="I566:L566"/>
-    <mergeCell ref="I567:L567"/>
-    <mergeCell ref="I568:L568"/>
-    <mergeCell ref="I569:L569"/>
-    <mergeCell ref="I570:L570"/>
-    <mergeCell ref="I571:L571"/>
-    <mergeCell ref="I554:L554"/>
-    <mergeCell ref="I555:L555"/>
-    <mergeCell ref="I556:L556"/>
-    <mergeCell ref="I557:L557"/>
-    <mergeCell ref="I558:L558"/>
-    <mergeCell ref="I559:L559"/>
-    <mergeCell ref="I560:L560"/>
-    <mergeCell ref="I561:L561"/>
-    <mergeCell ref="I562:L562"/>
-    <mergeCell ref="I545:L545"/>
-    <mergeCell ref="I546:L546"/>
-    <mergeCell ref="I547:L547"/>
-    <mergeCell ref="I548:L548"/>
-    <mergeCell ref="I549:L549"/>
-    <mergeCell ref="I550:L550"/>
-    <mergeCell ref="I551:L551"/>
-    <mergeCell ref="I552:L552"/>
-    <mergeCell ref="I553:L553"/>
-    <mergeCell ref="I536:L536"/>
-    <mergeCell ref="I537:L537"/>
-    <mergeCell ref="I538:L538"/>
-    <mergeCell ref="I539:L539"/>
-    <mergeCell ref="I540:L540"/>
-    <mergeCell ref="I541:L541"/>
-    <mergeCell ref="I542:L542"/>
-    <mergeCell ref="I543:L543"/>
-    <mergeCell ref="I544:L544"/>
-    <mergeCell ref="I527:L527"/>
-    <mergeCell ref="I528:L528"/>
-    <mergeCell ref="I529:L529"/>
-    <mergeCell ref="I530:L530"/>
-    <mergeCell ref="I531:L531"/>
-    <mergeCell ref="I532:L532"/>
-    <mergeCell ref="I533:L533"/>
-    <mergeCell ref="I534:L534"/>
-    <mergeCell ref="I535:L535"/>
-    <mergeCell ref="I518:L518"/>
-    <mergeCell ref="I519:L519"/>
-    <mergeCell ref="I520:L520"/>
-    <mergeCell ref="I521:L521"/>
-    <mergeCell ref="I522:L522"/>
-    <mergeCell ref="I523:L523"/>
-    <mergeCell ref="I524:L524"/>
-    <mergeCell ref="I525:L525"/>
-    <mergeCell ref="I526:L526"/>
-    <mergeCell ref="I509:L509"/>
-    <mergeCell ref="I510:L510"/>
-    <mergeCell ref="I511:L511"/>
-    <mergeCell ref="I512:L512"/>
-    <mergeCell ref="I513:L513"/>
-    <mergeCell ref="I514:L514"/>
-    <mergeCell ref="I515:L515"/>
-    <mergeCell ref="I516:L516"/>
-    <mergeCell ref="I517:L517"/>
-    <mergeCell ref="I500:L500"/>
-    <mergeCell ref="I501:L501"/>
-    <mergeCell ref="I502:L502"/>
-    <mergeCell ref="I503:L503"/>
-    <mergeCell ref="I504:L504"/>
-    <mergeCell ref="I505:L505"/>
-    <mergeCell ref="I506:L506"/>
-    <mergeCell ref="I507:L507"/>
-    <mergeCell ref="I508:L508"/>
-    <mergeCell ref="I491:L491"/>
-    <mergeCell ref="I492:L492"/>
-    <mergeCell ref="I493:L493"/>
-    <mergeCell ref="I494:L494"/>
-    <mergeCell ref="I495:L495"/>
-    <mergeCell ref="I496:L496"/>
-    <mergeCell ref="I497:L497"/>
-    <mergeCell ref="I498:L498"/>
-    <mergeCell ref="I499:L499"/>
-    <mergeCell ref="I482:L482"/>
-    <mergeCell ref="I483:L483"/>
-    <mergeCell ref="I484:L484"/>
-    <mergeCell ref="I485:L485"/>
-    <mergeCell ref="I486:L486"/>
-    <mergeCell ref="I487:L487"/>
-    <mergeCell ref="I488:L488"/>
-    <mergeCell ref="I489:L489"/>
-    <mergeCell ref="I490:L490"/>
-    <mergeCell ref="I473:L473"/>
-    <mergeCell ref="I474:L474"/>
-    <mergeCell ref="I475:L475"/>
-    <mergeCell ref="I476:L476"/>
-    <mergeCell ref="I477:L477"/>
-    <mergeCell ref="I478:L478"/>
-    <mergeCell ref="I479:L479"/>
-    <mergeCell ref="I480:L480"/>
-    <mergeCell ref="I481:L481"/>
-    <mergeCell ref="I464:L464"/>
-    <mergeCell ref="I465:L465"/>
-    <mergeCell ref="I466:L466"/>
-    <mergeCell ref="I467:L467"/>
-    <mergeCell ref="I468:L468"/>
-    <mergeCell ref="I469:L469"/>
-    <mergeCell ref="I470:L470"/>
-    <mergeCell ref="I471:L471"/>
-    <mergeCell ref="I472:L472"/>
-    <mergeCell ref="I455:L455"/>
-    <mergeCell ref="I456:L456"/>
-    <mergeCell ref="I457:L457"/>
-    <mergeCell ref="I458:L458"/>
-    <mergeCell ref="I459:L459"/>
-    <mergeCell ref="I460:L460"/>
-    <mergeCell ref="I461:L461"/>
-    <mergeCell ref="I462:L462"/>
-    <mergeCell ref="I463:L463"/>
-    <mergeCell ref="I446:L446"/>
-    <mergeCell ref="I447:L447"/>
-    <mergeCell ref="I448:L448"/>
-    <mergeCell ref="I449:L449"/>
-    <mergeCell ref="I450:L450"/>
-    <mergeCell ref="I451:L451"/>
-    <mergeCell ref="I452:L452"/>
-    <mergeCell ref="I453:L453"/>
-    <mergeCell ref="I454:L454"/>
-    <mergeCell ref="I437:L437"/>
-    <mergeCell ref="I438:L438"/>
-    <mergeCell ref="I439:L439"/>
-    <mergeCell ref="I440:L440"/>
-    <mergeCell ref="I441:L441"/>
-    <mergeCell ref="I442:L442"/>
-    <mergeCell ref="I443:L443"/>
-    <mergeCell ref="I444:L444"/>
-    <mergeCell ref="I445:L445"/>
-    <mergeCell ref="I428:L428"/>
-    <mergeCell ref="I429:L429"/>
-    <mergeCell ref="I430:L430"/>
-    <mergeCell ref="I431:L431"/>
-    <mergeCell ref="I432:L432"/>
-    <mergeCell ref="I433:L433"/>
-    <mergeCell ref="I434:L434"/>
-    <mergeCell ref="I435:L435"/>
-    <mergeCell ref="I436:L436"/>
-    <mergeCell ref="I419:L419"/>
-    <mergeCell ref="I420:L420"/>
-    <mergeCell ref="I421:L421"/>
-    <mergeCell ref="I422:L422"/>
-    <mergeCell ref="I423:L423"/>
-    <mergeCell ref="I424:L424"/>
-    <mergeCell ref="I425:L425"/>
-    <mergeCell ref="I426:L426"/>
-    <mergeCell ref="I427:L427"/>
-    <mergeCell ref="I410:L410"/>
-    <mergeCell ref="I411:L411"/>
-    <mergeCell ref="I412:L412"/>
-    <mergeCell ref="I413:L413"/>
-    <mergeCell ref="I414:L414"/>
-    <mergeCell ref="I415:L415"/>
-    <mergeCell ref="I416:L416"/>
-    <mergeCell ref="I417:L417"/>
-    <mergeCell ref="I418:L418"/>
-    <mergeCell ref="I401:L401"/>
-    <mergeCell ref="I402:L402"/>
-    <mergeCell ref="I403:L403"/>
-    <mergeCell ref="I404:L404"/>
-    <mergeCell ref="I405:L405"/>
-    <mergeCell ref="I406:L406"/>
-    <mergeCell ref="I407:L407"/>
-    <mergeCell ref="I408:L408"/>
-    <mergeCell ref="I409:L409"/>
-    <mergeCell ref="I392:L392"/>
-    <mergeCell ref="I393:L393"/>
-    <mergeCell ref="I394:L394"/>
-    <mergeCell ref="I395:L395"/>
-    <mergeCell ref="I396:L396"/>
-    <mergeCell ref="I397:L397"/>
-    <mergeCell ref="I398:L398"/>
-    <mergeCell ref="I399:L399"/>
-    <mergeCell ref="I400:L400"/>
-    <mergeCell ref="I383:L383"/>
-    <mergeCell ref="I384:L384"/>
-    <mergeCell ref="I385:L385"/>
-    <mergeCell ref="I386:L386"/>
-    <mergeCell ref="I387:L387"/>
-    <mergeCell ref="I388:L388"/>
-    <mergeCell ref="I389:L389"/>
-    <mergeCell ref="I390:L390"/>
-    <mergeCell ref="I391:L391"/>
+    <mergeCell ref="I317:L317"/>
+    <mergeCell ref="I318:L318"/>
+    <mergeCell ref="I319:L319"/>
+    <mergeCell ref="I320:L320"/>
+    <mergeCell ref="I321:L321"/>
+    <mergeCell ref="I323:L323"/>
+    <mergeCell ref="I306:L306"/>
+    <mergeCell ref="I307:L307"/>
+    <mergeCell ref="I308:L308"/>
+    <mergeCell ref="I309:L309"/>
+    <mergeCell ref="I310:L310"/>
+    <mergeCell ref="I311:L311"/>
+    <mergeCell ref="I312:L312"/>
+    <mergeCell ref="I313:L313"/>
+    <mergeCell ref="I316:L316"/>
+    <mergeCell ref="I314:L314"/>
+    <mergeCell ref="I315:L315"/>
+    <mergeCell ref="I324:L324"/>
+    <mergeCell ref="I322:L322"/>
+    <mergeCell ref="I328:L328"/>
+    <mergeCell ref="I340:L340"/>
+    <mergeCell ref="I330:L330"/>
+    <mergeCell ref="I331:L331"/>
+    <mergeCell ref="I332:L332"/>
+    <mergeCell ref="I334:L334"/>
+    <mergeCell ref="I337:L337"/>
+    <mergeCell ref="I252:L252"/>
+    <mergeCell ref="I253:L253"/>
+    <mergeCell ref="I284:L284"/>
+    <mergeCell ref="I285:L285"/>
+    <mergeCell ref="I286:L286"/>
+    <mergeCell ref="I287:L287"/>
+    <mergeCell ref="I289:L289"/>
+    <mergeCell ref="I290:L290"/>
+    <mergeCell ref="I291:L291"/>
+    <mergeCell ref="I254:L254"/>
+    <mergeCell ref="I255:L255"/>
+    <mergeCell ref="I256:L256"/>
+    <mergeCell ref="I257:L257"/>
+    <mergeCell ref="I258:L258"/>
+    <mergeCell ref="I260:L260"/>
+    <mergeCell ref="I259:L259"/>
+    <mergeCell ref="I271:L271"/>
+    <mergeCell ref="I272:L272"/>
+    <mergeCell ref="I270:L270"/>
+    <mergeCell ref="I261:L261"/>
+    <mergeCell ref="I262:L262"/>
+    <mergeCell ref="I263:L263"/>
+    <mergeCell ref="I264:L264"/>
+    <mergeCell ref="I265:L265"/>
+    <mergeCell ref="I251:L251"/>
+    <mergeCell ref="I230:L230"/>
+    <mergeCell ref="I231:L231"/>
+    <mergeCell ref="I232:L232"/>
+    <mergeCell ref="I233:L233"/>
+    <mergeCell ref="I234:L234"/>
+    <mergeCell ref="I235:L235"/>
+    <mergeCell ref="I236:L236"/>
+    <mergeCell ref="I238:L238"/>
+    <mergeCell ref="I239:L239"/>
+    <mergeCell ref="I240:L240"/>
+    <mergeCell ref="I241:L241"/>
+    <mergeCell ref="I242:L242"/>
+    <mergeCell ref="I243:L243"/>
+    <mergeCell ref="I244:L244"/>
+    <mergeCell ref="I245:L245"/>
+    <mergeCell ref="I246:L246"/>
+    <mergeCell ref="I247:L247"/>
+    <mergeCell ref="I249:L249"/>
+    <mergeCell ref="I250:L250"/>
+    <mergeCell ref="I237:L237"/>
+    <mergeCell ref="I248:L248"/>
+    <mergeCell ref="I65:L65"/>
+    <mergeCell ref="I68:L68"/>
+    <mergeCell ref="I67:L67"/>
+    <mergeCell ref="I69:L69"/>
+    <mergeCell ref="I73:L73"/>
+    <mergeCell ref="I80:L80"/>
+    <mergeCell ref="I124:L124"/>
+    <mergeCell ref="I129:L129"/>
+    <mergeCell ref="I100:L100"/>
+    <mergeCell ref="I127:L127"/>
+    <mergeCell ref="I125:L125"/>
+    <mergeCell ref="I105:L105"/>
+    <mergeCell ref="I128:L128"/>
+    <mergeCell ref="I126:L126"/>
+    <mergeCell ref="I107:L107"/>
+    <mergeCell ref="I111:L111"/>
+    <mergeCell ref="I110:L110"/>
+    <mergeCell ref="I122:L122"/>
+    <mergeCell ref="I114:L114"/>
+    <mergeCell ref="I119:L119"/>
+    <mergeCell ref="I66:L66"/>
+    <mergeCell ref="I109:L109"/>
+    <mergeCell ref="I108:L108"/>
+    <mergeCell ref="I90:L90"/>
+    <mergeCell ref="I93:L93"/>
+    <mergeCell ref="I95:L95"/>
+    <mergeCell ref="I102:L102"/>
+    <mergeCell ref="I103:L103"/>
+    <mergeCell ref="I99:L99"/>
+    <mergeCell ref="I72:L72"/>
+    <mergeCell ref="I97:L97"/>
+    <mergeCell ref="I104:L104"/>
+    <mergeCell ref="I98:L98"/>
+    <mergeCell ref="I70:L70"/>
+    <mergeCell ref="I120:L120"/>
+    <mergeCell ref="I121:L121"/>
+    <mergeCell ref="I78:L78"/>
+    <mergeCell ref="I94:L94"/>
+    <mergeCell ref="I96:L96"/>
+    <mergeCell ref="I116:L116"/>
+    <mergeCell ref="I117:L117"/>
+    <mergeCell ref="I118:L118"/>
+    <mergeCell ref="I106:L106"/>
+    <mergeCell ref="I83:L83"/>
+    <mergeCell ref="I92:L92"/>
+    <mergeCell ref="I101:L101"/>
+    <mergeCell ref="I85:L85"/>
+    <mergeCell ref="I84:L84"/>
+    <mergeCell ref="I89:L89"/>
+    <mergeCell ref="I87:L87"/>
+    <mergeCell ref="I88:L88"/>
+    <mergeCell ref="I81:L81"/>
+    <mergeCell ref="I86:L86"/>
+    <mergeCell ref="I82:L82"/>
+    <mergeCell ref="I115:L115"/>
+    <mergeCell ref="I113:L113"/>
+    <mergeCell ref="I91:L91"/>
+    <mergeCell ref="I221:L221"/>
+    <mergeCell ref="I197:L197"/>
+    <mergeCell ref="I166:L166"/>
+    <mergeCell ref="I167:L167"/>
+    <mergeCell ref="I185:L185"/>
+    <mergeCell ref="I186:L186"/>
+    <mergeCell ref="I191:L191"/>
+    <mergeCell ref="I192:L192"/>
+    <mergeCell ref="I154:L154"/>
+    <mergeCell ref="I174:L174"/>
+    <mergeCell ref="I177:L177"/>
+    <mergeCell ref="I196:L196"/>
+    <mergeCell ref="I199:L199"/>
+    <mergeCell ref="I220:L220"/>
+    <mergeCell ref="I203:L203"/>
+    <mergeCell ref="I208:L208"/>
+    <mergeCell ref="I209:L209"/>
+    <mergeCell ref="I210:L210"/>
+    <mergeCell ref="I212:L212"/>
+    <mergeCell ref="I213:L213"/>
+    <mergeCell ref="I211:L211"/>
+    <mergeCell ref="I206:L206"/>
+    <mergeCell ref="I204:L204"/>
+    <mergeCell ref="I207:L207"/>
+    <mergeCell ref="I214:L214"/>
+    <mergeCell ref="I217:L217"/>
+    <mergeCell ref="I219:L219"/>
+    <mergeCell ref="I205:L205"/>
+    <mergeCell ref="I201:L201"/>
+    <mergeCell ref="I218:L218"/>
+    <mergeCell ref="I200:L200"/>
+    <mergeCell ref="I202:L202"/>
+    <mergeCell ref="I195:L195"/>
+    <mergeCell ref="I215:L215"/>
+    <mergeCell ref="I181:L181"/>
+    <mergeCell ref="I133:L133"/>
+    <mergeCell ref="I158:L158"/>
+    <mergeCell ref="I112:L112"/>
+    <mergeCell ref="I194:L194"/>
+    <mergeCell ref="I193:L193"/>
+    <mergeCell ref="I187:L187"/>
+    <mergeCell ref="I190:L190"/>
+    <mergeCell ref="I173:L173"/>
+    <mergeCell ref="I148:L148"/>
+    <mergeCell ref="I135:L135"/>
+    <mergeCell ref="I160:L160"/>
+    <mergeCell ref="I150:L150"/>
+    <mergeCell ref="I143:L143"/>
+    <mergeCell ref="I140:L140"/>
+    <mergeCell ref="I146:L146"/>
+    <mergeCell ref="I169:L169"/>
+    <mergeCell ref="I180:L180"/>
+    <mergeCell ref="I149:L149"/>
+    <mergeCell ref="I141:L141"/>
+    <mergeCell ref="I142:L142"/>
+    <mergeCell ref="I138:L138"/>
+    <mergeCell ref="I139:L139"/>
+    <mergeCell ref="I147:L147"/>
+    <mergeCell ref="I144:L144"/>
+    <mergeCell ref="I151:L151"/>
+    <mergeCell ref="I153:L153"/>
+    <mergeCell ref="I165:L165"/>
+    <mergeCell ref="I152:L152"/>
+    <mergeCell ref="I178:L178"/>
+    <mergeCell ref="I175:L175"/>
+    <mergeCell ref="I74:L74"/>
+    <mergeCell ref="I75:L75"/>
+    <mergeCell ref="I71:L71"/>
+    <mergeCell ref="I77:L77"/>
+    <mergeCell ref="I137:L137"/>
+    <mergeCell ref="I123:L123"/>
+    <mergeCell ref="I134:L134"/>
+    <mergeCell ref="I130:L130"/>
+    <mergeCell ref="I79:L79"/>
+    <mergeCell ref="I76:L76"/>
+    <mergeCell ref="I131:L131"/>
+    <mergeCell ref="I157:L157"/>
+    <mergeCell ref="I132:L132"/>
+    <mergeCell ref="I161:L161"/>
+    <mergeCell ref="I136:L136"/>
+    <mergeCell ref="I155:L155"/>
+    <mergeCell ref="I159:L159"/>
+    <mergeCell ref="I156:L156"/>
+    <mergeCell ref="I145:L145"/>
+    <mergeCell ref="I229:L229"/>
+    <mergeCell ref="I223:L223"/>
+    <mergeCell ref="I226:L226"/>
+    <mergeCell ref="I228:L228"/>
+    <mergeCell ref="I225:L225"/>
+    <mergeCell ref="I224:L224"/>
+    <mergeCell ref="I227:L227"/>
+    <mergeCell ref="I176:L176"/>
+    <mergeCell ref="I162:L162"/>
+    <mergeCell ref="I171:L171"/>
+    <mergeCell ref="I172:L172"/>
+    <mergeCell ref="I182:L182"/>
+    <mergeCell ref="I183:L183"/>
+    <mergeCell ref="I179:L179"/>
+    <mergeCell ref="I163:L163"/>
+    <mergeCell ref="I164:L164"/>
+    <mergeCell ref="I170:L170"/>
+    <mergeCell ref="I188:L188"/>
+    <mergeCell ref="I189:L189"/>
+    <mergeCell ref="I168:L168"/>
+    <mergeCell ref="I198:L198"/>
+    <mergeCell ref="I216:L216"/>
+    <mergeCell ref="I222:L222"/>
+    <mergeCell ref="I184:L184"/>
+    <mergeCell ref="I64:L64"/>
+    <mergeCell ref="I37:L37"/>
+    <mergeCell ref="I24:L24"/>
+    <mergeCell ref="I35:L35"/>
+    <mergeCell ref="I46:L46"/>
+    <mergeCell ref="I52:L52"/>
+    <mergeCell ref="I53:L53"/>
+    <mergeCell ref="I54:L54"/>
+    <mergeCell ref="I50:L50"/>
+    <mergeCell ref="I55:L55"/>
+    <mergeCell ref="I61:L61"/>
+    <mergeCell ref="I56:L56"/>
+    <mergeCell ref="I51:L51"/>
+    <mergeCell ref="I62:L62"/>
+    <mergeCell ref="I57:L57"/>
+    <mergeCell ref="I60:L60"/>
+    <mergeCell ref="I59:L59"/>
+    <mergeCell ref="I48:L48"/>
+    <mergeCell ref="I49:L49"/>
+    <mergeCell ref="I40:L40"/>
+    <mergeCell ref="I32:L32"/>
+    <mergeCell ref="I25:L25"/>
+    <mergeCell ref="I58:L58"/>
+    <mergeCell ref="I63:L63"/>
+    <mergeCell ref="I42:L42"/>
+    <mergeCell ref="I44:L44"/>
+    <mergeCell ref="I43:L43"/>
+    <mergeCell ref="I45:L45"/>
+    <mergeCell ref="I29:L29"/>
+    <mergeCell ref="I1:L1"/>
+    <mergeCell ref="I6:L6"/>
+    <mergeCell ref="I41:L41"/>
+    <mergeCell ref="I27:L27"/>
+    <mergeCell ref="I28:L28"/>
+    <mergeCell ref="I31:L31"/>
+    <mergeCell ref="I36:L36"/>
+    <mergeCell ref="I3:L3"/>
+    <mergeCell ref="I21:L21"/>
+    <mergeCell ref="I22:L22"/>
+    <mergeCell ref="I23:L23"/>
+    <mergeCell ref="I16:L16"/>
+    <mergeCell ref="I39:L39"/>
+    <mergeCell ref="I14:L14"/>
+    <mergeCell ref="I19:L19"/>
+    <mergeCell ref="I38:L38"/>
+    <mergeCell ref="I7:L7"/>
+    <mergeCell ref="I4:L4"/>
+    <mergeCell ref="I13:L13"/>
+    <mergeCell ref="I10:L10"/>
+    <mergeCell ref="I11:L11"/>
+    <mergeCell ref="I12:L12"/>
+    <mergeCell ref="I18:L18"/>
+    <mergeCell ref="I17:L17"/>
+    <mergeCell ref="I20:L20"/>
+    <mergeCell ref="I9:L9"/>
+    <mergeCell ref="I8:L8"/>
+    <mergeCell ref="I15:L15"/>
+    <mergeCell ref="I5:L5"/>
+    <mergeCell ref="I34:L34"/>
+    <mergeCell ref="I33:L33"/>
+    <mergeCell ref="I30:L30"/>
+    <mergeCell ref="I26:L26"/>
+    <mergeCell ref="I266:L266"/>
+    <mergeCell ref="I267:L267"/>
+    <mergeCell ref="I268:L268"/>
+    <mergeCell ref="I269:L269"/>
+    <mergeCell ref="I281:L281"/>
+    <mergeCell ref="I274:L274"/>
+    <mergeCell ref="I273:L273"/>
+    <mergeCell ref="I276:L276"/>
+    <mergeCell ref="I277:L277"/>
+    <mergeCell ref="I278:L278"/>
+    <mergeCell ref="I279:L279"/>
+    <mergeCell ref="I280:L280"/>
+    <mergeCell ref="I275:L275"/>
+    <mergeCell ref="I282:L282"/>
+    <mergeCell ref="I288:L288"/>
+    <mergeCell ref="I341:L341"/>
+    <mergeCell ref="I342:L342"/>
+    <mergeCell ref="I343:L343"/>
+    <mergeCell ref="I344:L344"/>
+    <mergeCell ref="I345:L345"/>
+    <mergeCell ref="I346:L346"/>
+    <mergeCell ref="I347:L347"/>
+    <mergeCell ref="I283:L283"/>
+    <mergeCell ref="I292:L292"/>
+    <mergeCell ref="I293:L293"/>
+    <mergeCell ref="I294:L294"/>
+    <mergeCell ref="I295:L295"/>
+    <mergeCell ref="I296:L296"/>
+    <mergeCell ref="I297:L297"/>
+    <mergeCell ref="I298:L298"/>
+    <mergeCell ref="I299:L299"/>
+    <mergeCell ref="I300:L300"/>
+    <mergeCell ref="I301:L301"/>
+    <mergeCell ref="I302:L302"/>
+    <mergeCell ref="I303:L303"/>
+    <mergeCell ref="I304:L304"/>
+    <mergeCell ref="I305:L305"/>
+    <mergeCell ref="I363:L363"/>
+    <mergeCell ref="I364:L364"/>
+    <mergeCell ref="I348:L348"/>
+    <mergeCell ref="I349:L349"/>
+    <mergeCell ref="I350:L350"/>
+    <mergeCell ref="I351:L351"/>
+    <mergeCell ref="I352:L352"/>
+    <mergeCell ref="I353:L353"/>
+    <mergeCell ref="I354:L354"/>
+    <mergeCell ref="I355:L355"/>
+    <mergeCell ref="I356:L356"/>
     <mergeCell ref="I374:L374"/>
     <mergeCell ref="I375:L375"/>
     <mergeCell ref="I376:L376"/>
@@ -30864,353 +30989,245 @@
     <mergeCell ref="I360:L360"/>
     <mergeCell ref="I361:L361"/>
     <mergeCell ref="I362:L362"/>
-    <mergeCell ref="I363:L363"/>
-    <mergeCell ref="I364:L364"/>
-    <mergeCell ref="I348:L348"/>
-    <mergeCell ref="I349:L349"/>
-    <mergeCell ref="I350:L350"/>
-    <mergeCell ref="I351:L351"/>
-    <mergeCell ref="I352:L352"/>
-    <mergeCell ref="I353:L353"/>
-    <mergeCell ref="I354:L354"/>
-    <mergeCell ref="I355:L355"/>
-    <mergeCell ref="I356:L356"/>
-    <mergeCell ref="I282:L282"/>
-    <mergeCell ref="I288:L288"/>
-    <mergeCell ref="I341:L341"/>
-    <mergeCell ref="I342:L342"/>
-    <mergeCell ref="I343:L343"/>
-    <mergeCell ref="I344:L344"/>
-    <mergeCell ref="I345:L345"/>
-    <mergeCell ref="I346:L346"/>
-    <mergeCell ref="I347:L347"/>
-    <mergeCell ref="I283:L283"/>
-    <mergeCell ref="I292:L292"/>
-    <mergeCell ref="I293:L293"/>
-    <mergeCell ref="I294:L294"/>
-    <mergeCell ref="I295:L295"/>
-    <mergeCell ref="I296:L296"/>
-    <mergeCell ref="I297:L297"/>
-    <mergeCell ref="I298:L298"/>
-    <mergeCell ref="I299:L299"/>
-    <mergeCell ref="I300:L300"/>
-    <mergeCell ref="I301:L301"/>
-    <mergeCell ref="I302:L302"/>
-    <mergeCell ref="I303:L303"/>
-    <mergeCell ref="I304:L304"/>
-    <mergeCell ref="I305:L305"/>
-    <mergeCell ref="I266:L266"/>
-    <mergeCell ref="I267:L267"/>
-    <mergeCell ref="I268:L268"/>
-    <mergeCell ref="I269:L269"/>
-    <mergeCell ref="I281:L281"/>
-    <mergeCell ref="I274:L274"/>
-    <mergeCell ref="I273:L273"/>
-    <mergeCell ref="I276:L276"/>
-    <mergeCell ref="I277:L277"/>
-    <mergeCell ref="I278:L278"/>
-    <mergeCell ref="I279:L279"/>
-    <mergeCell ref="I280:L280"/>
-    <mergeCell ref="I275:L275"/>
-    <mergeCell ref="I22:L22"/>
-    <mergeCell ref="I23:L23"/>
-    <mergeCell ref="I16:L16"/>
-    <mergeCell ref="I39:L39"/>
-    <mergeCell ref="I14:L14"/>
-    <mergeCell ref="I19:L19"/>
-    <mergeCell ref="I38:L38"/>
-    <mergeCell ref="I7:L7"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="I13:L13"/>
-    <mergeCell ref="I10:L10"/>
-    <mergeCell ref="I11:L11"/>
-    <mergeCell ref="I12:L12"/>
-    <mergeCell ref="I18:L18"/>
-    <mergeCell ref="I17:L17"/>
-    <mergeCell ref="I20:L20"/>
-    <mergeCell ref="I9:L9"/>
-    <mergeCell ref="I8:L8"/>
-    <mergeCell ref="I15:L15"/>
-    <mergeCell ref="I5:L5"/>
-    <mergeCell ref="I34:L34"/>
-    <mergeCell ref="I33:L33"/>
-    <mergeCell ref="I30:L30"/>
-    <mergeCell ref="I26:L26"/>
-    <mergeCell ref="I42:L42"/>
-    <mergeCell ref="I44:L44"/>
-    <mergeCell ref="I43:L43"/>
-    <mergeCell ref="I45:L45"/>
-    <mergeCell ref="I29:L29"/>
-    <mergeCell ref="I1:L1"/>
-    <mergeCell ref="I6:L6"/>
-    <mergeCell ref="I41:L41"/>
-    <mergeCell ref="I27:L27"/>
-    <mergeCell ref="I28:L28"/>
-    <mergeCell ref="I31:L31"/>
-    <mergeCell ref="I36:L36"/>
-    <mergeCell ref="I64:L64"/>
-    <mergeCell ref="I37:L37"/>
-    <mergeCell ref="I24:L24"/>
-    <mergeCell ref="I35:L35"/>
-    <mergeCell ref="I46:L46"/>
-    <mergeCell ref="I52:L52"/>
-    <mergeCell ref="I53:L53"/>
-    <mergeCell ref="I54:L54"/>
-    <mergeCell ref="I50:L50"/>
-    <mergeCell ref="I55:L55"/>
-    <mergeCell ref="I61:L61"/>
-    <mergeCell ref="I56:L56"/>
-    <mergeCell ref="I51:L51"/>
-    <mergeCell ref="I62:L62"/>
-    <mergeCell ref="I57:L57"/>
-    <mergeCell ref="I60:L60"/>
-    <mergeCell ref="I59:L59"/>
-    <mergeCell ref="I48:L48"/>
-    <mergeCell ref="I229:L229"/>
-    <mergeCell ref="I223:L223"/>
-    <mergeCell ref="I226:L226"/>
-    <mergeCell ref="I228:L228"/>
-    <mergeCell ref="I225:L225"/>
-    <mergeCell ref="I224:L224"/>
-    <mergeCell ref="I227:L227"/>
-    <mergeCell ref="I176:L176"/>
-    <mergeCell ref="I162:L162"/>
-    <mergeCell ref="I171:L171"/>
-    <mergeCell ref="I172:L172"/>
-    <mergeCell ref="I182:L182"/>
-    <mergeCell ref="I183:L183"/>
-    <mergeCell ref="I179:L179"/>
-    <mergeCell ref="I163:L163"/>
-    <mergeCell ref="I164:L164"/>
-    <mergeCell ref="I170:L170"/>
-    <mergeCell ref="I188:L188"/>
-    <mergeCell ref="I189:L189"/>
-    <mergeCell ref="I168:L168"/>
-    <mergeCell ref="I198:L198"/>
-    <mergeCell ref="I216:L216"/>
-    <mergeCell ref="I49:L49"/>
-    <mergeCell ref="I222:L222"/>
-    <mergeCell ref="I3:L3"/>
-    <mergeCell ref="I153:L153"/>
-    <mergeCell ref="I165:L165"/>
-    <mergeCell ref="I152:L152"/>
-    <mergeCell ref="I178:L178"/>
-    <mergeCell ref="I175:L175"/>
-    <mergeCell ref="I74:L74"/>
-    <mergeCell ref="I75:L75"/>
-    <mergeCell ref="I71:L71"/>
-    <mergeCell ref="I77:L77"/>
-    <mergeCell ref="I40:L40"/>
-    <mergeCell ref="I137:L137"/>
-    <mergeCell ref="I123:L123"/>
-    <mergeCell ref="I134:L134"/>
-    <mergeCell ref="I130:L130"/>
-    <mergeCell ref="I79:L79"/>
-    <mergeCell ref="I76:L76"/>
-    <mergeCell ref="I131:L131"/>
-    <mergeCell ref="I157:L157"/>
-    <mergeCell ref="I21:L21"/>
-    <mergeCell ref="I32:L32"/>
-    <mergeCell ref="I25:L25"/>
-    <mergeCell ref="I58:L58"/>
-    <mergeCell ref="I63:L63"/>
-    <mergeCell ref="I132:L132"/>
-    <mergeCell ref="I161:L161"/>
-    <mergeCell ref="I136:L136"/>
-    <mergeCell ref="I184:L184"/>
-    <mergeCell ref="I155:L155"/>
-    <mergeCell ref="I159:L159"/>
-    <mergeCell ref="I156:L156"/>
-    <mergeCell ref="I145:L145"/>
-    <mergeCell ref="I146:L146"/>
-    <mergeCell ref="I169:L169"/>
-    <mergeCell ref="I180:L180"/>
-    <mergeCell ref="I149:L149"/>
-    <mergeCell ref="I141:L141"/>
-    <mergeCell ref="I142:L142"/>
-    <mergeCell ref="I138:L138"/>
-    <mergeCell ref="I139:L139"/>
-    <mergeCell ref="I147:L147"/>
-    <mergeCell ref="I144:L144"/>
-    <mergeCell ref="I151:L151"/>
-    <mergeCell ref="I181:L181"/>
-    <mergeCell ref="I133:L133"/>
-    <mergeCell ref="I158:L158"/>
-    <mergeCell ref="I112:L112"/>
-    <mergeCell ref="I194:L194"/>
-    <mergeCell ref="I193:L193"/>
-    <mergeCell ref="I187:L187"/>
-    <mergeCell ref="I190:L190"/>
-    <mergeCell ref="I173:L173"/>
-    <mergeCell ref="I148:L148"/>
-    <mergeCell ref="I135:L135"/>
-    <mergeCell ref="I160:L160"/>
-    <mergeCell ref="I150:L150"/>
-    <mergeCell ref="I143:L143"/>
-    <mergeCell ref="I140:L140"/>
-    <mergeCell ref="I214:L214"/>
-    <mergeCell ref="I217:L217"/>
-    <mergeCell ref="I219:L219"/>
-    <mergeCell ref="I205:L205"/>
-    <mergeCell ref="I201:L201"/>
-    <mergeCell ref="I218:L218"/>
-    <mergeCell ref="I200:L200"/>
-    <mergeCell ref="I202:L202"/>
-    <mergeCell ref="I195:L195"/>
-    <mergeCell ref="I215:L215"/>
-    <mergeCell ref="I221:L221"/>
-    <mergeCell ref="I197:L197"/>
-    <mergeCell ref="I166:L166"/>
-    <mergeCell ref="I167:L167"/>
-    <mergeCell ref="I185:L185"/>
-    <mergeCell ref="I186:L186"/>
-    <mergeCell ref="I191:L191"/>
-    <mergeCell ref="I192:L192"/>
-    <mergeCell ref="I154:L154"/>
-    <mergeCell ref="I174:L174"/>
-    <mergeCell ref="I177:L177"/>
-    <mergeCell ref="I196:L196"/>
-    <mergeCell ref="I199:L199"/>
-    <mergeCell ref="I220:L220"/>
-    <mergeCell ref="I203:L203"/>
-    <mergeCell ref="I208:L208"/>
-    <mergeCell ref="I209:L209"/>
-    <mergeCell ref="I210:L210"/>
-    <mergeCell ref="I212:L212"/>
-    <mergeCell ref="I213:L213"/>
-    <mergeCell ref="I211:L211"/>
-    <mergeCell ref="I206:L206"/>
-    <mergeCell ref="I204:L204"/>
-    <mergeCell ref="I207:L207"/>
-    <mergeCell ref="I70:L70"/>
-    <mergeCell ref="I120:L120"/>
-    <mergeCell ref="I121:L121"/>
-    <mergeCell ref="I78:L78"/>
-    <mergeCell ref="I94:L94"/>
-    <mergeCell ref="I96:L96"/>
-    <mergeCell ref="I116:L116"/>
-    <mergeCell ref="I117:L117"/>
-    <mergeCell ref="I118:L118"/>
-    <mergeCell ref="I106:L106"/>
-    <mergeCell ref="I83:L83"/>
-    <mergeCell ref="I92:L92"/>
-    <mergeCell ref="I101:L101"/>
-    <mergeCell ref="I85:L85"/>
-    <mergeCell ref="I84:L84"/>
-    <mergeCell ref="I89:L89"/>
-    <mergeCell ref="I87:L87"/>
-    <mergeCell ref="I88:L88"/>
-    <mergeCell ref="I81:L81"/>
-    <mergeCell ref="I86:L86"/>
-    <mergeCell ref="I82:L82"/>
-    <mergeCell ref="I115:L115"/>
-    <mergeCell ref="I113:L113"/>
-    <mergeCell ref="I91:L91"/>
-    <mergeCell ref="I93:L93"/>
-    <mergeCell ref="I95:L95"/>
-    <mergeCell ref="I102:L102"/>
-    <mergeCell ref="I103:L103"/>
-    <mergeCell ref="I99:L99"/>
-    <mergeCell ref="I72:L72"/>
-    <mergeCell ref="I97:L97"/>
-    <mergeCell ref="I104:L104"/>
-    <mergeCell ref="I98:L98"/>
-    <mergeCell ref="I65:L65"/>
-    <mergeCell ref="I68:L68"/>
-    <mergeCell ref="I67:L67"/>
-    <mergeCell ref="I69:L69"/>
-    <mergeCell ref="I73:L73"/>
-    <mergeCell ref="I80:L80"/>
-    <mergeCell ref="I124:L124"/>
-    <mergeCell ref="I129:L129"/>
-    <mergeCell ref="I100:L100"/>
-    <mergeCell ref="I127:L127"/>
-    <mergeCell ref="I125:L125"/>
-    <mergeCell ref="I105:L105"/>
-    <mergeCell ref="I128:L128"/>
-    <mergeCell ref="I126:L126"/>
-    <mergeCell ref="I107:L107"/>
-    <mergeCell ref="I111:L111"/>
-    <mergeCell ref="I110:L110"/>
-    <mergeCell ref="I122:L122"/>
-    <mergeCell ref="I114:L114"/>
-    <mergeCell ref="I119:L119"/>
-    <mergeCell ref="I66:L66"/>
-    <mergeCell ref="I109:L109"/>
-    <mergeCell ref="I108:L108"/>
-    <mergeCell ref="I90:L90"/>
-    <mergeCell ref="I251:L251"/>
-    <mergeCell ref="I230:L230"/>
-    <mergeCell ref="I231:L231"/>
-    <mergeCell ref="I232:L232"/>
-    <mergeCell ref="I233:L233"/>
-    <mergeCell ref="I234:L234"/>
-    <mergeCell ref="I235:L235"/>
-    <mergeCell ref="I236:L236"/>
-    <mergeCell ref="I238:L238"/>
-    <mergeCell ref="I239:L239"/>
-    <mergeCell ref="I240:L240"/>
-    <mergeCell ref="I241:L241"/>
-    <mergeCell ref="I242:L242"/>
-    <mergeCell ref="I243:L243"/>
-    <mergeCell ref="I244:L244"/>
-    <mergeCell ref="I245:L245"/>
-    <mergeCell ref="I246:L246"/>
-    <mergeCell ref="I247:L247"/>
-    <mergeCell ref="I249:L249"/>
-    <mergeCell ref="I250:L250"/>
-    <mergeCell ref="I237:L237"/>
-    <mergeCell ref="I248:L248"/>
-    <mergeCell ref="I252:L252"/>
-    <mergeCell ref="I253:L253"/>
-    <mergeCell ref="I284:L284"/>
-    <mergeCell ref="I285:L285"/>
-    <mergeCell ref="I286:L286"/>
-    <mergeCell ref="I287:L287"/>
-    <mergeCell ref="I289:L289"/>
-    <mergeCell ref="I290:L290"/>
-    <mergeCell ref="I291:L291"/>
-    <mergeCell ref="I254:L254"/>
-    <mergeCell ref="I255:L255"/>
-    <mergeCell ref="I256:L256"/>
-    <mergeCell ref="I257:L257"/>
-    <mergeCell ref="I258:L258"/>
-    <mergeCell ref="I260:L260"/>
-    <mergeCell ref="I259:L259"/>
-    <mergeCell ref="I271:L271"/>
-    <mergeCell ref="I272:L272"/>
-    <mergeCell ref="I270:L270"/>
-    <mergeCell ref="I261:L261"/>
-    <mergeCell ref="I262:L262"/>
-    <mergeCell ref="I263:L263"/>
-    <mergeCell ref="I264:L264"/>
-    <mergeCell ref="I265:L265"/>
-    <mergeCell ref="I324:L324"/>
-    <mergeCell ref="I322:L322"/>
-    <mergeCell ref="I328:L328"/>
-    <mergeCell ref="I340:L340"/>
-    <mergeCell ref="I330:L330"/>
-    <mergeCell ref="I331:L331"/>
-    <mergeCell ref="I332:L332"/>
-    <mergeCell ref="I334:L334"/>
-    <mergeCell ref="I337:L337"/>
-    <mergeCell ref="I317:L317"/>
-    <mergeCell ref="I318:L318"/>
-    <mergeCell ref="I319:L319"/>
-    <mergeCell ref="I320:L320"/>
-    <mergeCell ref="I321:L321"/>
-    <mergeCell ref="I323:L323"/>
-    <mergeCell ref="I306:L306"/>
-    <mergeCell ref="I307:L307"/>
-    <mergeCell ref="I308:L308"/>
-    <mergeCell ref="I309:L309"/>
-    <mergeCell ref="I310:L310"/>
-    <mergeCell ref="I311:L311"/>
-    <mergeCell ref="I312:L312"/>
-    <mergeCell ref="I313:L313"/>
-    <mergeCell ref="I316:L316"/>
-    <mergeCell ref="I314:L314"/>
-    <mergeCell ref="I315:L315"/>
+    <mergeCell ref="I383:L383"/>
+    <mergeCell ref="I384:L384"/>
+    <mergeCell ref="I385:L385"/>
+    <mergeCell ref="I386:L386"/>
+    <mergeCell ref="I387:L387"/>
+    <mergeCell ref="I388:L388"/>
+    <mergeCell ref="I389:L389"/>
+    <mergeCell ref="I390:L390"/>
+    <mergeCell ref="I391:L391"/>
+    <mergeCell ref="I392:L392"/>
+    <mergeCell ref="I393:L393"/>
+    <mergeCell ref="I394:L394"/>
+    <mergeCell ref="I395:L395"/>
+    <mergeCell ref="I396:L396"/>
+    <mergeCell ref="I397:L397"/>
+    <mergeCell ref="I398:L398"/>
+    <mergeCell ref="I399:L399"/>
+    <mergeCell ref="I400:L400"/>
+    <mergeCell ref="I401:L401"/>
+    <mergeCell ref="I402:L402"/>
+    <mergeCell ref="I403:L403"/>
+    <mergeCell ref="I404:L404"/>
+    <mergeCell ref="I405:L405"/>
+    <mergeCell ref="I406:L406"/>
+    <mergeCell ref="I407:L407"/>
+    <mergeCell ref="I408:L408"/>
+    <mergeCell ref="I409:L409"/>
+    <mergeCell ref="I410:L410"/>
+    <mergeCell ref="I411:L411"/>
+    <mergeCell ref="I412:L412"/>
+    <mergeCell ref="I413:L413"/>
+    <mergeCell ref="I414:L414"/>
+    <mergeCell ref="I415:L415"/>
+    <mergeCell ref="I416:L416"/>
+    <mergeCell ref="I417:L417"/>
+    <mergeCell ref="I418:L418"/>
+    <mergeCell ref="I419:L419"/>
+    <mergeCell ref="I420:L420"/>
+    <mergeCell ref="I421:L421"/>
+    <mergeCell ref="I422:L422"/>
+    <mergeCell ref="I423:L423"/>
+    <mergeCell ref="I424:L424"/>
+    <mergeCell ref="I425:L425"/>
+    <mergeCell ref="I426:L426"/>
+    <mergeCell ref="I427:L427"/>
+    <mergeCell ref="I428:L428"/>
+    <mergeCell ref="I429:L429"/>
+    <mergeCell ref="I430:L430"/>
+    <mergeCell ref="I431:L431"/>
+    <mergeCell ref="I432:L432"/>
+    <mergeCell ref="I433:L433"/>
+    <mergeCell ref="I434:L434"/>
+    <mergeCell ref="I435:L435"/>
+    <mergeCell ref="I436:L436"/>
+    <mergeCell ref="I437:L437"/>
+    <mergeCell ref="I438:L438"/>
+    <mergeCell ref="I439:L439"/>
+    <mergeCell ref="I440:L440"/>
+    <mergeCell ref="I441:L441"/>
+    <mergeCell ref="I442:L442"/>
+    <mergeCell ref="I443:L443"/>
+    <mergeCell ref="I444:L444"/>
+    <mergeCell ref="I445:L445"/>
+    <mergeCell ref="I446:L446"/>
+    <mergeCell ref="I447:L447"/>
+    <mergeCell ref="I448:L448"/>
+    <mergeCell ref="I449:L449"/>
+    <mergeCell ref="I450:L450"/>
+    <mergeCell ref="I451:L451"/>
+    <mergeCell ref="I452:L452"/>
+    <mergeCell ref="I453:L453"/>
+    <mergeCell ref="I454:L454"/>
+    <mergeCell ref="I455:L455"/>
+    <mergeCell ref="I456:L456"/>
+    <mergeCell ref="I457:L457"/>
+    <mergeCell ref="I458:L458"/>
+    <mergeCell ref="I459:L459"/>
+    <mergeCell ref="I460:L460"/>
+    <mergeCell ref="I461:L461"/>
+    <mergeCell ref="I462:L462"/>
+    <mergeCell ref="I463:L463"/>
+    <mergeCell ref="I464:L464"/>
+    <mergeCell ref="I465:L465"/>
+    <mergeCell ref="I466:L466"/>
+    <mergeCell ref="I467:L467"/>
+    <mergeCell ref="I468:L468"/>
+    <mergeCell ref="I469:L469"/>
+    <mergeCell ref="I470:L470"/>
+    <mergeCell ref="I471:L471"/>
+    <mergeCell ref="I472:L472"/>
+    <mergeCell ref="I473:L473"/>
+    <mergeCell ref="I474:L474"/>
+    <mergeCell ref="I475:L475"/>
+    <mergeCell ref="I476:L476"/>
+    <mergeCell ref="I477:L477"/>
+    <mergeCell ref="I478:L478"/>
+    <mergeCell ref="I479:L479"/>
+    <mergeCell ref="I480:L480"/>
+    <mergeCell ref="I481:L481"/>
+    <mergeCell ref="I482:L482"/>
+    <mergeCell ref="I483:L483"/>
+    <mergeCell ref="I484:L484"/>
+    <mergeCell ref="I485:L485"/>
+    <mergeCell ref="I486:L486"/>
+    <mergeCell ref="I487:L487"/>
+    <mergeCell ref="I488:L488"/>
+    <mergeCell ref="I489:L489"/>
+    <mergeCell ref="I490:L490"/>
+    <mergeCell ref="I491:L491"/>
+    <mergeCell ref="I492:L492"/>
+    <mergeCell ref="I493:L493"/>
+    <mergeCell ref="I494:L494"/>
+    <mergeCell ref="I495:L495"/>
+    <mergeCell ref="I496:L496"/>
+    <mergeCell ref="I497:L497"/>
+    <mergeCell ref="I498:L498"/>
+    <mergeCell ref="I499:L499"/>
+    <mergeCell ref="I500:L500"/>
+    <mergeCell ref="I501:L501"/>
+    <mergeCell ref="I502:L502"/>
+    <mergeCell ref="I503:L503"/>
+    <mergeCell ref="I504:L504"/>
+    <mergeCell ref="I505:L505"/>
+    <mergeCell ref="I506:L506"/>
+    <mergeCell ref="I507:L507"/>
+    <mergeCell ref="I508:L508"/>
+    <mergeCell ref="I509:L509"/>
+    <mergeCell ref="I510:L510"/>
+    <mergeCell ref="I511:L511"/>
+    <mergeCell ref="I512:L512"/>
+    <mergeCell ref="I513:L513"/>
+    <mergeCell ref="I514:L514"/>
+    <mergeCell ref="I515:L515"/>
+    <mergeCell ref="I516:L516"/>
+    <mergeCell ref="I517:L517"/>
+    <mergeCell ref="I518:L518"/>
+    <mergeCell ref="I519:L519"/>
+    <mergeCell ref="I520:L520"/>
+    <mergeCell ref="I521:L521"/>
+    <mergeCell ref="I522:L522"/>
+    <mergeCell ref="I523:L523"/>
+    <mergeCell ref="I524:L524"/>
+    <mergeCell ref="I525:L525"/>
+    <mergeCell ref="I526:L526"/>
+    <mergeCell ref="I527:L527"/>
+    <mergeCell ref="I528:L528"/>
+    <mergeCell ref="I529:L529"/>
+    <mergeCell ref="I530:L530"/>
+    <mergeCell ref="I531:L531"/>
+    <mergeCell ref="I532:L532"/>
+    <mergeCell ref="I533:L533"/>
+    <mergeCell ref="I534:L534"/>
+    <mergeCell ref="I535:L535"/>
+    <mergeCell ref="I536:L536"/>
+    <mergeCell ref="I537:L537"/>
+    <mergeCell ref="I538:L538"/>
+    <mergeCell ref="I539:L539"/>
+    <mergeCell ref="I540:L540"/>
+    <mergeCell ref="I541:L541"/>
+    <mergeCell ref="I542:L542"/>
+    <mergeCell ref="I543:L543"/>
+    <mergeCell ref="I544:L544"/>
+    <mergeCell ref="I545:L545"/>
+    <mergeCell ref="I546:L546"/>
+    <mergeCell ref="I547:L547"/>
+    <mergeCell ref="I548:L548"/>
+    <mergeCell ref="I549:L549"/>
+    <mergeCell ref="I550:L550"/>
+    <mergeCell ref="I551:L551"/>
+    <mergeCell ref="I552:L552"/>
+    <mergeCell ref="I553:L553"/>
+    <mergeCell ref="I554:L554"/>
+    <mergeCell ref="I555:L555"/>
+    <mergeCell ref="I556:L556"/>
+    <mergeCell ref="I557:L557"/>
+    <mergeCell ref="I558:L558"/>
+    <mergeCell ref="I559:L559"/>
+    <mergeCell ref="I560:L560"/>
+    <mergeCell ref="I561:L561"/>
+    <mergeCell ref="I562:L562"/>
+    <mergeCell ref="I563:L563"/>
+    <mergeCell ref="I564:L564"/>
+    <mergeCell ref="I565:L565"/>
+    <mergeCell ref="I566:L566"/>
+    <mergeCell ref="I567:L567"/>
+    <mergeCell ref="I568:L568"/>
+    <mergeCell ref="I569:L569"/>
+    <mergeCell ref="I570:L570"/>
+    <mergeCell ref="I571:L571"/>
+    <mergeCell ref="I572:L572"/>
+    <mergeCell ref="I573:L573"/>
+    <mergeCell ref="I574:L574"/>
+    <mergeCell ref="I575:L575"/>
+    <mergeCell ref="I576:L576"/>
+    <mergeCell ref="I577:L577"/>
+    <mergeCell ref="I578:L578"/>
+    <mergeCell ref="I579:L579"/>
+    <mergeCell ref="I580:L580"/>
+    <mergeCell ref="I581:L581"/>
+    <mergeCell ref="I582:L582"/>
+    <mergeCell ref="I583:L583"/>
+    <mergeCell ref="I584:L584"/>
+    <mergeCell ref="I585:L585"/>
+    <mergeCell ref="I586:L586"/>
+    <mergeCell ref="I587:L587"/>
+    <mergeCell ref="I588:L588"/>
+    <mergeCell ref="I589:L589"/>
+    <mergeCell ref="I590:L590"/>
+    <mergeCell ref="I591:L591"/>
+    <mergeCell ref="I592:L592"/>
+    <mergeCell ref="I593:L593"/>
+    <mergeCell ref="I594:L594"/>
+    <mergeCell ref="I595:L595"/>
+    <mergeCell ref="I596:L596"/>
+    <mergeCell ref="I597:L597"/>
+    <mergeCell ref="I598:L598"/>
+    <mergeCell ref="I599:L599"/>
+    <mergeCell ref="I600:L600"/>
+    <mergeCell ref="I601:L601"/>
+    <mergeCell ref="I602:L602"/>
+    <mergeCell ref="I603:L603"/>
+    <mergeCell ref="I604:L604"/>
+    <mergeCell ref="I605:L605"/>
+    <mergeCell ref="I606:L606"/>
+    <mergeCell ref="I607:L607"/>
+    <mergeCell ref="I617:L617"/>
+    <mergeCell ref="I618:L618"/>
+    <mergeCell ref="I619:L619"/>
+    <mergeCell ref="I620:L620"/>
+    <mergeCell ref="I621:L621"/>
+    <mergeCell ref="I608:L608"/>
+    <mergeCell ref="I609:L609"/>
+    <mergeCell ref="I610:L610"/>
+    <mergeCell ref="I611:L611"/>
+    <mergeCell ref="I612:L612"/>
+    <mergeCell ref="I613:L613"/>
+    <mergeCell ref="I614:L614"/>
+    <mergeCell ref="I615:L615"/>
+    <mergeCell ref="I616:L616"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -31233,7 +31250,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="144" t="s">
+      <c r="A1" s="142" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="143"/>
@@ -31241,7 +31258,7 @@
       <c r="D1" s="143"/>
       <c r="E1" s="143"/>
       <c r="F1" s="143"/>
-      <c r="G1" s="145"/>
+      <c r="G1" s="144"/>
       <c r="H1" s="1"/>
       <c r="I1" s="1"/>
       <c r="J1" s="1"/>
@@ -31267,12 +31284,12 @@
       <c r="C2" s="3">
         <v>603</v>
       </c>
-      <c r="D2" s="144" t="s">
+      <c r="D2" s="142" t="s">
         <v>2</v>
       </c>
       <c r="E2" s="143"/>
       <c r="F2" s="143"/>
-      <c r="G2" s="145"/>
+      <c r="G2" s="144"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
       <c r="J2" s="1"/>
@@ -31298,12 +31315,12 @@
       <c r="C3" s="3">
         <v>1020</v>
       </c>
-      <c r="D3" s="144" t="s">
+      <c r="D3" s="142" t="s">
         <v>4</v>
       </c>
       <c r="E3" s="143"/>
       <c r="F3" s="143"/>
-      <c r="G3" s="145"/>
+      <c r="G3" s="144"/>
       <c r="H3" s="1"/>
       <c r="I3" s="1"/>
       <c r="J3" s="1"/>
@@ -31329,12 +31346,12 @@
       <c r="C4" s="3">
         <v>540</v>
       </c>
-      <c r="D4" s="144" t="s">
+      <c r="D4" s="142" t="s">
         <v>5</v>
       </c>
       <c r="E4" s="143"/>
       <c r="F4" s="143"/>
-      <c r="G4" s="145"/>
+      <c r="G4" s="144"/>
       <c r="H4" s="1"/>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
@@ -31360,12 +31377,12 @@
       <c r="C5" s="3">
         <v>1020</v>
       </c>
-      <c r="D5" s="144" t="s">
+      <c r="D5" s="142" t="s">
         <v>7</v>
       </c>
       <c r="E5" s="143"/>
       <c r="F5" s="143"/>
-      <c r="G5" s="145"/>
+      <c r="G5" s="144"/>
       <c r="H5" s="1"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -31391,12 +31408,12 @@
       <c r="C6" s="3">
         <v>1600</v>
       </c>
-      <c r="D6" s="144" t="s">
+      <c r="D6" s="142" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="143"/>
       <c r="F6" s="143"/>
-      <c r="G6" s="145"/>
+      <c r="G6" s="144"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -31422,12 +31439,12 @@
       <c r="C7" s="3">
         <v>500</v>
       </c>
-      <c r="D7" s="144" t="s">
+      <c r="D7" s="142" t="s">
         <v>19</v>
       </c>
       <c r="E7" s="143"/>
       <c r="F7" s="143"/>
-      <c r="G7" s="145"/>
+      <c r="G7" s="144"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
       <c r="J7" s="1"/>
@@ -31453,12 +31470,12 @@
       <c r="C8" s="3">
         <v>360</v>
       </c>
-      <c r="D8" s="144" t="s">
+      <c r="D8" s="142" t="s">
         <v>21</v>
       </c>
       <c r="E8" s="143"/>
       <c r="F8" s="143"/>
-      <c r="G8" s="145"/>
+      <c r="G8" s="144"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
@@ -31484,12 +31501,12 @@
       <c r="C9" s="3">
         <v>320</v>
       </c>
-      <c r="D9" s="144" t="s">
+      <c r="D9" s="142" t="s">
         <v>23</v>
       </c>
       <c r="E9" s="143"/>
       <c r="F9" s="143"/>
-      <c r="G9" s="145"/>
+      <c r="G9" s="144"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
       <c r="J9" s="1"/>
@@ -31515,12 +31532,12 @@
       <c r="C10" s="7">
         <v>2739</v>
       </c>
-      <c r="D10" s="147" t="s">
+      <c r="D10" s="145" t="s">
         <v>25</v>
       </c>
       <c r="E10" s="143"/>
       <c r="F10" s="143"/>
-      <c r="G10" s="145"/>
+      <c r="G10" s="144"/>
       <c r="H10" s="8"/>
       <c r="I10" s="8"/>
       <c r="J10" s="8"/>
@@ -31540,14 +31557,14 @@
       <c r="A11" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="145"/>
+      <c r="B11" s="144"/>
       <c r="C11">
         <f>SUM(C2:C10)</f>
         <v>8702</v>
       </c>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="142" t="s">
+      <c r="A13" s="147" t="s">
         <v>27</v>
       </c>
       <c r="B13" s="143"/>
@@ -31555,7 +31572,7 @@
       <c r="D13" s="143"/>
       <c r="E13" s="143"/>
       <c r="F13" s="143"/>
-      <c r="G13" s="145"/>
+      <c r="G13" s="144"/>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
@@ -31567,12 +31584,12 @@
       <c r="C14" s="4">
         <v>4000</v>
       </c>
-      <c r="D14" s="144" t="s">
+      <c r="D14" s="142" t="s">
         <v>29</v>
       </c>
       <c r="E14" s="143"/>
       <c r="F14" s="143"/>
-      <c r="G14" s="145"/>
+      <c r="G14" s="144"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
@@ -31598,12 +31615,12 @@
       <c r="C15" s="4">
         <v>4000</v>
       </c>
-      <c r="D15" s="144" t="s">
+      <c r="D15" s="142" t="s">
         <v>29</v>
       </c>
       <c r="E15" s="143"/>
       <c r="F15" s="143"/>
-      <c r="G15" s="145"/>
+      <c r="G15" s="144"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -31629,12 +31646,12 @@
       <c r="C16" s="4">
         <v>9000</v>
       </c>
-      <c r="D16" s="144" t="s">
+      <c r="D16" s="142" t="s">
         <v>29</v>
       </c>
       <c r="E16" s="143"/>
       <c r="F16" s="143"/>
-      <c r="G16" s="145"/>
+      <c r="G16" s="144"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
       <c r="J16" s="1"/>
@@ -31660,12 +31677,12 @@
       <c r="C17" s="4">
         <v>4000</v>
       </c>
-      <c r="D17" s="144" t="s">
+      <c r="D17" s="142" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="143"/>
       <c r="F17" s="143"/>
-      <c r="G17" s="145"/>
+      <c r="G17" s="144"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
       <c r="J17" s="1"/>
@@ -31691,12 +31708,12 @@
       <c r="C18" s="4">
         <v>3000</v>
       </c>
-      <c r="D18" s="144" t="s">
+      <c r="D18" s="142" t="s">
         <v>29</v>
       </c>
       <c r="E18" s="143"/>
       <c r="F18" s="143"/>
-      <c r="G18" s="145"/>
+      <c r="G18" s="144"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
       <c r="J18" s="1"/>
@@ -31722,12 +31739,12 @@
       <c r="C19" s="4">
         <v>10000</v>
       </c>
-      <c r="D19" s="144" t="s">
+      <c r="D19" s="142" t="s">
         <v>29</v>
       </c>
       <c r="E19" s="143"/>
       <c r="F19" s="143"/>
-      <c r="G19" s="145"/>
+      <c r="G19" s="144"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
       <c r="J19" s="1"/>
@@ -31747,25 +31764,25 @@
       <c r="A20" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B20" s="145"/>
+      <c r="B20" s="144"/>
       <c r="C20">
         <f>SUM(C14:C19)</f>
         <v>34000</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A22" s="142" t="s">
+      <c r="A22" s="147" t="s">
         <v>30</v>
       </c>
       <c r="B22" s="143"/>
-      <c r="C22" s="145"/>
+      <c r="C22" s="144"/>
       <c r="D22" s="10"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="11"/>
     </row>
     <row r="23" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A23" s="142" t="s">
+      <c r="A23" s="147" t="s">
         <v>31</v>
       </c>
       <c r="B23" s="143"/>
@@ -31777,7 +31794,7 @@
       <c r="F23" s="11"/>
     </row>
     <row r="24" spans="1:21" ht="13.2" x14ac:dyDescent="0.25">
-      <c r="A24" s="142" t="s">
+      <c r="A24" s="147" t="s">
         <v>32</v>
       </c>
       <c r="B24" s="143"/>
@@ -31793,7 +31810,7 @@
       <c r="A25" s="146" t="s">
         <v>26</v>
       </c>
-      <c r="B25" s="145"/>
+      <c r="B25" s="144"/>
       <c r="C25" s="12">
         <f>C24-C23</f>
         <v>25298</v>
@@ -31801,6 +31818,13 @@
     </row>
   </sheetData>
   <mergeCells count="23">
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="D19:G19"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="D5:G5"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="A22:C22"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="D17:G17"/>
     <mergeCell ref="D18:G18"/>
@@ -31817,13 +31841,6 @@
     <mergeCell ref="D6:G6"/>
     <mergeCell ref="D3:G3"/>
     <mergeCell ref="D2:G2"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="D19:G19"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="D5:G5"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <phoneticPr fontId="6" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
